--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1491"/>
+  <dimension ref="A1:K1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1461" workbookViewId="0">
-      <selection activeCell="A1492" sqref="A1492"/>
+    <sheetView tabSelected="1" topLeftCell="A1497" workbookViewId="0">
+      <selection activeCell="A1512" sqref="A1512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49383,7 +49383,7 @@
         <v>960.28</v>
       </c>
       <c r="F1283">
-        <f t="shared" ref="F1283:F1491" si="65">E1283/1000</f>
+        <f t="shared" ref="F1283:F1511" si="65">E1283/1000</f>
         <v>0.96028000000000002</v>
       </c>
       <c r="G1283">
@@ -49471,7 +49471,7 @@
         <v>62516244480</v>
       </c>
       <c r="I1285">
-        <f t="shared" ref="I1285:I1491" si="66">I1284+1</f>
+        <f t="shared" ref="I1285:I1511" si="66">I1284+1</f>
         <v>1283</v>
       </c>
       <c r="J1285">
@@ -50181,7 +50181,7 @@
         <v>1.0280042659492676</v>
       </c>
       <c r="K1303">
-        <f t="shared" ref="K1303:K1491" si="67">SUM(F1054:F1303)/250</f>
+        <f t="shared" ref="K1303:K1511" si="67">SUM(F1054:F1303)/250</f>
         <v>1.1279391999999999</v>
       </c>
     </row>
@@ -57515,6 +57515,786 @@
       <c r="K1491">
         <f t="shared" si="67"/>
         <v>1.0281103199999995</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1492" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B1492">
+        <v>1225.8599999999999</v>
+      </c>
+      <c r="C1492">
+        <v>1238.73</v>
+      </c>
+      <c r="D1492">
+        <v>1217.3499999999999</v>
+      </c>
+      <c r="E1492">
+        <v>1235.96</v>
+      </c>
+      <c r="F1492">
+        <f t="shared" si="65"/>
+        <v>1.2359599999999999</v>
+      </c>
+      <c r="G1492">
+        <v>130578725</v>
+      </c>
+      <c r="H1492">
+        <v>200703606784</v>
+      </c>
+      <c r="I1492">
+        <f t="shared" si="66"/>
+        <v>1490</v>
+      </c>
+      <c r="J1492">
+        <f>SUM($F$3:F1492)/I1492</f>
+        <v>1.0327406174496634</v>
+      </c>
+      <c r="K1492">
+        <f t="shared" si="67"/>
+        <v>1.0294186799999996</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1493" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B1493">
+        <v>1233.45</v>
+      </c>
+      <c r="C1493">
+        <v>1245.6500000000001</v>
+      </c>
+      <c r="D1493">
+        <v>1226.76</v>
+      </c>
+      <c r="E1493">
+        <v>1241.6300000000001</v>
+      </c>
+      <c r="F1493">
+        <f t="shared" si="65"/>
+        <v>1.24163</v>
+      </c>
+      <c r="G1493">
+        <v>125654441</v>
+      </c>
+      <c r="H1493">
+        <v>202815307776</v>
+      </c>
+      <c r="I1493">
+        <f t="shared" si="66"/>
+        <v>1491</v>
+      </c>
+      <c r="J1493">
+        <f>SUM($F$3:F1493)/I1493</f>
+        <v>1.0328807176391672</v>
+      </c>
+      <c r="K1493">
+        <f t="shared" si="67"/>
+        <v>1.0308199199999994</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1494" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B1494">
+        <v>1243.52</v>
+      </c>
+      <c r="C1494">
+        <v>1262.3900000000001</v>
+      </c>
+      <c r="D1494">
+        <v>1235.27</v>
+      </c>
+      <c r="E1494">
+        <v>1261.92</v>
+      </c>
+      <c r="F1494">
+        <f t="shared" si="65"/>
+        <v>1.2619200000000002</v>
+      </c>
+      <c r="G1494">
+        <v>120357235</v>
+      </c>
+      <c r="H1494">
+        <v>200171896832</v>
+      </c>
+      <c r="I1494">
+        <f t="shared" si="66"/>
+        <v>1492</v>
+      </c>
+      <c r="J1494">
+        <f>SUM($F$3:F1494)/I1494</f>
+        <v>1.033034229222519</v>
+      </c>
+      <c r="K1494">
+        <f t="shared" si="67"/>
+        <v>1.0325997999999994</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1495" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B1495">
+        <v>1256.51</v>
+      </c>
+      <c r="C1495">
+        <v>1265.3399999999999</v>
+      </c>
+      <c r="D1495">
+        <v>1238.9100000000001</v>
+      </c>
+      <c r="E1495">
+        <v>1239.9100000000001</v>
+      </c>
+      <c r="F1495">
+        <f t="shared" si="65"/>
+        <v>1.2399100000000001</v>
+      </c>
+      <c r="G1495">
+        <v>133905852</v>
+      </c>
+      <c r="H1495">
+        <v>220973744128</v>
+      </c>
+      <c r="I1495">
+        <f t="shared" si="66"/>
+        <v>1493</v>
+      </c>
+      <c r="J1495">
+        <f>SUM($F$3:F1495)/I1495</f>
+        <v>1.0331727930341583</v>
+      </c>
+      <c r="K1495">
+        <f t="shared" si="67"/>
+        <v>1.0344260399999996</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1496" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B1496">
+        <v>1234.78</v>
+      </c>
+      <c r="C1496">
+        <v>1255.8599999999999</v>
+      </c>
+      <c r="D1496">
+        <v>1230.3900000000001</v>
+      </c>
+      <c r="E1496">
+        <v>1241.8699999999999</v>
+      </c>
+      <c r="F1496">
+        <f t="shared" si="65"/>
+        <v>1.2418699999999998</v>
+      </c>
+      <c r="G1496">
+        <v>115888758</v>
+      </c>
+      <c r="H1496">
+        <v>194601123840</v>
+      </c>
+      <c r="I1496">
+        <f t="shared" si="66"/>
+        <v>1494</v>
+      </c>
+      <c r="J1496">
+        <f>SUM($F$3:F1496)/I1496</f>
+        <v>1.0333124832663978</v>
+      </c>
+      <c r="K1496">
+        <f t="shared" si="67"/>
+        <v>1.0361513199999997</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1497" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B1497">
+        <v>1245.1199999999999</v>
+      </c>
+      <c r="C1497">
+        <v>1253.33</v>
+      </c>
+      <c r="D1497">
+        <v>1238.3699999999999</v>
+      </c>
+      <c r="E1497">
+        <v>1246.9100000000001</v>
+      </c>
+      <c r="F1497">
+        <f t="shared" si="65"/>
+        <v>1.2469100000000002</v>
+      </c>
+      <c r="G1497">
+        <v>108807402</v>
+      </c>
+      <c r="H1497">
+        <v>175654240256</v>
+      </c>
+      <c r="I1497">
+        <f t="shared" si="66"/>
+        <v>1495</v>
+      </c>
+      <c r="J1497">
+        <f>SUM($F$3:F1497)/I1497</f>
+        <v>1.0334553578595307</v>
+      </c>
+      <c r="K1497">
+        <f t="shared" si="67"/>
+        <v>1.0379682399999997</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1498" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B1498">
+        <v>1240.72</v>
+      </c>
+      <c r="C1498">
+        <v>1252.81</v>
+      </c>
+      <c r="D1498">
+        <v>1230.72</v>
+      </c>
+      <c r="E1498">
+        <v>1230.76</v>
+      </c>
+      <c r="F1498">
+        <f t="shared" si="65"/>
+        <v>1.2307600000000001</v>
+      </c>
+      <c r="G1498">
+        <v>97930678</v>
+      </c>
+      <c r="H1498">
+        <v>153268781056</v>
+      </c>
+      <c r="I1498">
+        <f t="shared" si="66"/>
+        <v>1496</v>
+      </c>
+      <c r="J1498">
+        <f>SUM($F$3:F1498)/I1498</f>
+        <v>1.0335872459893036</v>
+      </c>
+      <c r="K1498">
+        <f t="shared" si="67"/>
+        <v>1.0395644799999995</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1499" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B1499">
+        <v>1230.44</v>
+      </c>
+      <c r="C1499">
+        <v>1232.57</v>
+      </c>
+      <c r="D1499">
+        <v>1203.52</v>
+      </c>
+      <c r="E1499">
+        <v>1229.6400000000001</v>
+      </c>
+      <c r="F1499">
+        <f t="shared" si="65"/>
+        <v>1.2296400000000001</v>
+      </c>
+      <c r="G1499">
+        <v>99402631</v>
+      </c>
+      <c r="H1499">
+        <v>156694560768</v>
+      </c>
+      <c r="I1499">
+        <f t="shared" si="66"/>
+        <v>1497</v>
+      </c>
+      <c r="J1499">
+        <f>SUM($F$3:F1499)/I1499</f>
+        <v>1.0337182097528379</v>
+      </c>
+      <c r="K1499">
+        <f t="shared" si="67"/>
+        <v>1.0411353999999997</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1500" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B1500">
+        <v>1227.48</v>
+      </c>
+      <c r="C1500">
+        <v>1227.8399999999999</v>
+      </c>
+      <c r="D1500">
+        <v>1198.23</v>
+      </c>
+      <c r="E1500">
+        <v>1201.76</v>
+      </c>
+      <c r="F1500">
+        <f t="shared" si="65"/>
+        <v>1.2017599999999999</v>
+      </c>
+      <c r="G1500">
+        <v>92792575</v>
+      </c>
+      <c r="H1500">
+        <v>150317105152</v>
+      </c>
+      <c r="I1500">
+        <f t="shared" si="66"/>
+        <v>1498</v>
+      </c>
+      <c r="J1500">
+        <f>SUM($F$3:F1500)/I1500</f>
+        <v>1.0338303871829093</v>
+      </c>
+      <c r="K1500">
+        <f t="shared" si="67"/>
+        <v>1.0426040799999996</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1501" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B1501">
+        <v>1195.68</v>
+      </c>
+      <c r="C1501">
+        <v>1222.97</v>
+      </c>
+      <c r="D1501">
+        <v>1193.2</v>
+      </c>
+      <c r="E1501">
+        <v>1222.97</v>
+      </c>
+      <c r="F1501">
+        <f t="shared" si="65"/>
+        <v>1.2229700000000001</v>
+      </c>
+      <c r="G1501">
+        <v>84231759</v>
+      </c>
+      <c r="H1501">
+        <v>136079982592</v>
+      </c>
+      <c r="I1501">
+        <f t="shared" si="66"/>
+        <v>1499</v>
+      </c>
+      <c r="J1501">
+        <f>SUM($F$3:F1501)/I1501</f>
+        <v>1.0339565643762496</v>
+      </c>
+      <c r="K1501">
+        <f t="shared" si="67"/>
+        <v>1.0441285599999994</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1502" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B1502">
+        <v>1223.9000000000001</v>
+      </c>
+      <c r="C1502">
+        <v>1258.08</v>
+      </c>
+      <c r="D1502">
+        <v>1223.75</v>
+      </c>
+      <c r="E1502">
+        <v>1257.94</v>
+      </c>
+      <c r="F1502">
+        <f t="shared" si="65"/>
+        <v>1.2579400000000001</v>
+      </c>
+      <c r="G1502">
+        <v>116054025</v>
+      </c>
+      <c r="H1502">
+        <v>190781341696</v>
+      </c>
+      <c r="I1502">
+        <f t="shared" si="66"/>
+        <v>1500</v>
+      </c>
+      <c r="J1502">
+        <f>SUM($F$3:F1502)/I1502</f>
+        <v>1.0341058866666655</v>
+      </c>
+      <c r="K1502">
+        <f t="shared" si="67"/>
+        <v>1.0457285999999997</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1503" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B1503">
+        <v>1255.8800000000001</v>
+      </c>
+      <c r="C1503">
+        <v>1263.3599999999999</v>
+      </c>
+      <c r="D1503">
+        <v>1250.1099999999999</v>
+      </c>
+      <c r="E1503">
+        <v>1255.4100000000001</v>
+      </c>
+      <c r="F1503">
+        <f t="shared" si="65"/>
+        <v>1.2554100000000001</v>
+      </c>
+      <c r="G1503">
+        <v>100313714</v>
+      </c>
+      <c r="H1503">
+        <v>169514041344</v>
+      </c>
+      <c r="I1503">
+        <f t="shared" si="66"/>
+        <v>1501</v>
+      </c>
+      <c r="J1503">
+        <f>SUM($F$3:F1503)/I1503</f>
+        <v>1.0342533244503653</v>
+      </c>
+      <c r="K1503">
+        <f t="shared" si="67"/>
+        <v>1.0472969599999997</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1504" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B1504">
+        <v>1253.68</v>
+      </c>
+      <c r="C1504">
+        <v>1255.55</v>
+      </c>
+      <c r="D1504">
+        <v>1239.71</v>
+      </c>
+      <c r="E1504">
+        <v>1248.1600000000001</v>
+      </c>
+      <c r="F1504">
+        <f t="shared" si="65"/>
+        <v>1.2481600000000002</v>
+      </c>
+      <c r="G1504">
+        <v>90024363</v>
+      </c>
+      <c r="H1504">
+        <v>141361217536</v>
+      </c>
+      <c r="I1504">
+        <f t="shared" si="66"/>
+        <v>1502</v>
+      </c>
+      <c r="J1504">
+        <f>SUM($F$3:F1504)/I1504</f>
+        <v>1.0343957390146461</v>
+      </c>
+      <c r="K1504">
+        <f t="shared" si="67"/>
+        <v>1.0488067199999995</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1505" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B1505">
+        <v>1246.5</v>
+      </c>
+      <c r="C1505">
+        <v>1246.82</v>
+      </c>
+      <c r="D1505">
+        <v>1227.74</v>
+      </c>
+      <c r="E1505">
+        <v>1227.74</v>
+      </c>
+      <c r="F1505">
+        <f t="shared" si="65"/>
+        <v>1.2277400000000001</v>
+      </c>
+      <c r="G1505">
+        <v>82791867</v>
+      </c>
+      <c r="H1505">
+        <v>127034613760</v>
+      </c>
+      <c r="I1505">
+        <f t="shared" si="66"/>
+        <v>1503</v>
+      </c>
+      <c r="J1505">
+        <f>SUM($F$3:F1505)/I1505</f>
+        <v>1.034524377910844</v>
+      </c>
+      <c r="K1505">
+        <f t="shared" si="67"/>
+        <v>1.0502201599999996</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1506" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B1506">
+        <v>1221.97</v>
+      </c>
+      <c r="C1506">
+        <v>1244.0999999999999</v>
+      </c>
+      <c r="D1506">
+        <v>1220.58</v>
+      </c>
+      <c r="E1506">
+        <v>1234.08</v>
+      </c>
+      <c r="F1506">
+        <f t="shared" si="65"/>
+        <v>1.2340799999999998</v>
+      </c>
+      <c r="G1506">
+        <v>90272458</v>
+      </c>
+      <c r="H1506">
+        <v>138715561984</v>
+      </c>
+      <c r="I1506">
+        <f t="shared" si="66"/>
+        <v>1504</v>
+      </c>
+      <c r="J1506">
+        <f>SUM($F$3:F1506)/I1506</f>
+        <v>1.0346570611702117</v>
+      </c>
+      <c r="K1506">
+        <f t="shared" si="67"/>
+        <v>1.0516585999999997</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1507" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B1507">
+        <v>1232.6600000000001</v>
+      </c>
+      <c r="C1507">
+        <v>1245.3900000000001</v>
+      </c>
+      <c r="D1507">
+        <v>1208.49</v>
+      </c>
+      <c r="E1507">
+        <v>1229.51</v>
+      </c>
+      <c r="F1507">
+        <f t="shared" si="65"/>
+        <v>1.2295099999999999</v>
+      </c>
+      <c r="G1507">
+        <v>100526342</v>
+      </c>
+      <c r="H1507">
+        <v>159136022528</v>
+      </c>
+      <c r="I1507">
+        <f t="shared" si="66"/>
+        <v>1505</v>
+      </c>
+      <c r="J1507">
+        <f>SUM($F$3:F1507)/I1507</f>
+        <v>1.0347865315614606</v>
+      </c>
+      <c r="K1507">
+        <f t="shared" si="67"/>
+        <v>1.0530692799999997</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1508" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B1508">
+        <v>1227.95</v>
+      </c>
+      <c r="C1508">
+        <v>1257.24</v>
+      </c>
+      <c r="D1508">
+        <v>1221.94</v>
+      </c>
+      <c r="E1508">
+        <v>1253.97</v>
+      </c>
+      <c r="F1508">
+        <f t="shared" si="65"/>
+        <v>1.25397</v>
+      </c>
+      <c r="G1508">
+        <v>94477343</v>
+      </c>
+      <c r="H1508">
+        <v>162567979008</v>
+      </c>
+      <c r="I1508">
+        <f t="shared" si="66"/>
+        <v>1506</v>
+      </c>
+      <c r="J1508">
+        <f>SUM($F$3:F1508)/I1508</f>
+        <v>1.0349320717131463</v>
+      </c>
+      <c r="K1508">
+        <f t="shared" si="67"/>
+        <v>1.0545384399999997</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1509" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B1509">
+        <v>1258.3</v>
+      </c>
+      <c r="C1509">
+        <v>1266.3599999999999</v>
+      </c>
+      <c r="D1509">
+        <v>1252.3499999999999</v>
+      </c>
+      <c r="E1509">
+        <v>1256.47</v>
+      </c>
+      <c r="F1509">
+        <f t="shared" si="65"/>
+        <v>1.25647</v>
+      </c>
+      <c r="G1509">
+        <v>109661965</v>
+      </c>
+      <c r="H1509">
+        <v>184073027584</v>
+      </c>
+      <c r="I1509">
+        <f t="shared" si="66"/>
+        <v>1507</v>
+      </c>
+      <c r="J1509">
+        <f>SUM($F$3:F1509)/I1509</f>
+        <v>1.0350790776376897</v>
+      </c>
+      <c r="K1509">
+        <f t="shared" si="67"/>
+        <v>1.0560115599999997</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1510" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B1510">
+        <v>1252.31</v>
+      </c>
+      <c r="C1510">
+        <v>1279.95</v>
+      </c>
+      <c r="D1510">
+        <v>1240.54</v>
+      </c>
+      <c r="E1510">
+        <v>1279.95</v>
+      </c>
+      <c r="F1510">
+        <f t="shared" si="65"/>
+        <v>1.2799500000000001</v>
+      </c>
+      <c r="G1510">
+        <v>116981917</v>
+      </c>
+      <c r="H1510">
+        <v>200691580928</v>
+      </c>
+      <c r="I1510">
+        <f t="shared" si="66"/>
+        <v>1508</v>
+      </c>
+      <c r="J1510">
+        <f>SUM($F$3:F1510)/I1510</f>
+        <v>1.0352414588859404</v>
+      </c>
+      <c r="K1510">
+        <f t="shared" si="67"/>
+        <v>1.0575397199999998</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1511" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B1511">
+        <v>1280.29</v>
+      </c>
+      <c r="C1511">
+        <v>1299.67</v>
+      </c>
+      <c r="D1511">
+        <v>1280.24</v>
+      </c>
+      <c r="E1511">
+        <v>1298.72</v>
+      </c>
+      <c r="F1511">
+        <f t="shared" si="65"/>
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="G1511">
+        <v>123039086</v>
+      </c>
+      <c r="H1511">
+        <v>208912891904</v>
+      </c>
+      <c r="I1511">
+        <f t="shared" si="66"/>
+        <v>1509</v>
+      </c>
+      <c r="J1511">
+        <f>SUM($F$3:F1511)/I1511</f>
+        <v>1.0354160636182892</v>
+      </c>
+      <c r="K1511">
+        <f t="shared" si="67"/>
+        <v>1.0590856</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1511"/>
+  <dimension ref="A1:K1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1497" workbookViewId="0">
-      <selection activeCell="A1512" sqref="A1512"/>
+    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
+      <selection activeCell="A1532" sqref="A1532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49383,7 +49383,7 @@
         <v>960.28</v>
       </c>
       <c r="F1283">
-        <f t="shared" ref="F1283:F1511" si="65">E1283/1000</f>
+        <f t="shared" ref="F1283:F1531" si="65">E1283/1000</f>
         <v>0.96028000000000002</v>
       </c>
       <c r="G1283">
@@ -49471,7 +49471,7 @@
         <v>62516244480</v>
       </c>
       <c r="I1285">
-        <f t="shared" ref="I1285:I1511" si="66">I1284+1</f>
+        <f t="shared" ref="I1285:I1531" si="66">I1284+1</f>
         <v>1283</v>
       </c>
       <c r="J1285">
@@ -50181,7 +50181,7 @@
         <v>1.0280042659492676</v>
       </c>
       <c r="K1303">
-        <f t="shared" ref="K1303:K1511" si="67">SUM(F1054:F1303)/250</f>
+        <f t="shared" ref="K1303:K1531" si="67">SUM(F1054:F1303)/250</f>
         <v>1.1279391999999999</v>
       </c>
     </row>
@@ -58295,6 +58295,786 @@
       <c r="K1511">
         <f t="shared" si="67"/>
         <v>1.0590856</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1512" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B1512">
+        <v>1290.47</v>
+      </c>
+      <c r="C1512">
+        <v>1328.79</v>
+      </c>
+      <c r="D1512">
+        <v>1288.68</v>
+      </c>
+      <c r="E1512">
+        <v>1318.87</v>
+      </c>
+      <c r="F1512">
+        <f t="shared" si="65"/>
+        <v>1.31887</v>
+      </c>
+      <c r="G1512">
+        <v>135713375</v>
+      </c>
+      <c r="H1512">
+        <v>235595808768</v>
+      </c>
+      <c r="I1512">
+        <f t="shared" si="66"/>
+        <v>1510</v>
+      </c>
+      <c r="J1512">
+        <f>SUM($F$3:F1512)/I1512</f>
+        <v>1.0356037814569525</v>
+      </c>
+      <c r="K1512">
+        <f t="shared" si="67"/>
+        <v>1.0608951199999999</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1513" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B1513">
+        <v>1320.21</v>
+      </c>
+      <c r="C1513">
+        <v>1327.88</v>
+      </c>
+      <c r="D1513">
+        <v>1317.93</v>
+      </c>
+      <c r="E1513">
+        <v>1320.69</v>
+      </c>
+      <c r="F1513">
+        <f t="shared" si="65"/>
+        <v>1.3206900000000001</v>
+      </c>
+      <c r="G1513">
+        <v>113925836</v>
+      </c>
+      <c r="H1513">
+        <v>200956362752</v>
+      </c>
+      <c r="I1513">
+        <f t="shared" si="66"/>
+        <v>1511</v>
+      </c>
+      <c r="J1513">
+        <f>SUM($F$3:F1513)/I1513</f>
+        <v>1.0357924553275966</v>
+      </c>
+      <c r="K1513">
+        <f t="shared" si="67"/>
+        <v>1.0626464800000002</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1514" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B1514">
+        <v>1318.29</v>
+      </c>
+      <c r="C1514">
+        <v>1333.52</v>
+      </c>
+      <c r="D1514">
+        <v>1318.29</v>
+      </c>
+      <c r="E1514">
+        <v>1331.93</v>
+      </c>
+      <c r="F1514">
+        <f t="shared" si="65"/>
+        <v>1.3319300000000001</v>
+      </c>
+      <c r="G1514">
+        <v>111591408</v>
+      </c>
+      <c r="H1514">
+        <v>181397946368</v>
+      </c>
+      <c r="I1514">
+        <f t="shared" si="66"/>
+        <v>1512</v>
+      </c>
+      <c r="J1514">
+        <f>SUM($F$3:F1514)/I1514</f>
+        <v>1.0359883134920624</v>
+      </c>
+      <c r="K1514">
+        <f t="shared" si="67"/>
+        <v>1.0644252400000001</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1515" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B1515">
+        <v>1328.16</v>
+      </c>
+      <c r="C1515">
+        <v>1329.59</v>
+      </c>
+      <c r="D1515">
+        <v>1295.22</v>
+      </c>
+      <c r="E1515">
+        <v>1300.04</v>
+      </c>
+      <c r="F1515">
+        <f t="shared" si="65"/>
+        <v>1.3000399999999999</v>
+      </c>
+      <c r="G1515">
+        <v>118978817</v>
+      </c>
+      <c r="H1515">
+        <v>195224322048</v>
+      </c>
+      <c r="I1515">
+        <f t="shared" si="66"/>
+        <v>1513</v>
+      </c>
+      <c r="J1515">
+        <f>SUM($F$3:F1515)/I1515</f>
+        <v>1.0361628354263044</v>
+      </c>
+      <c r="K1515">
+        <f t="shared" si="67"/>
+        <v>1.06608988</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1516" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B1516">
+        <v>1299.49</v>
+      </c>
+      <c r="C1516">
+        <v>1324.2</v>
+      </c>
+      <c r="D1516">
+        <v>1291.8499999999999</v>
+      </c>
+      <c r="E1516">
+        <v>1322.49</v>
+      </c>
+      <c r="F1516">
+        <f t="shared" si="65"/>
+        <v>1.3224899999999999</v>
+      </c>
+      <c r="G1516">
+        <v>100097422</v>
+      </c>
+      <c r="H1516">
+        <v>166815006720</v>
+      </c>
+      <c r="I1516">
+        <f t="shared" si="66"/>
+        <v>1514</v>
+      </c>
+      <c r="J1516">
+        <f>SUM($F$3:F1516)/I1516</f>
+        <v>1.0363519550858644</v>
+      </c>
+      <c r="K1516">
+        <f t="shared" si="67"/>
+        <v>1.0678149200000002</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1517" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B1517">
+        <v>1320.3</v>
+      </c>
+      <c r="C1517">
+        <v>1320.56</v>
+      </c>
+      <c r="D1517">
+        <v>1296.72</v>
+      </c>
+      <c r="E1517">
+        <v>1311.64</v>
+      </c>
+      <c r="F1517">
+        <f t="shared" si="65"/>
+        <v>1.3116400000000001</v>
+      </c>
+      <c r="G1517">
+        <v>107441758</v>
+      </c>
+      <c r="H1517">
+        <v>175744663552</v>
+      </c>
+      <c r="I1517">
+        <f t="shared" si="66"/>
+        <v>1515</v>
+      </c>
+      <c r="J1517">
+        <f>SUM($F$3:F1517)/I1517</f>
+        <v>1.0365336633663356</v>
+      </c>
+      <c r="K1517">
+        <f t="shared" si="67"/>
+        <v>1.0694357200000004</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1518" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B1518">
+        <v>1312.25</v>
+      </c>
+      <c r="C1518">
+        <v>1328.88</v>
+      </c>
+      <c r="D1518">
+        <v>1305.71</v>
+      </c>
+      <c r="E1518">
+        <v>1328.61</v>
+      </c>
+      <c r="F1518">
+        <f t="shared" si="65"/>
+        <v>1.3286099999999998</v>
+      </c>
+      <c r="G1518">
+        <v>124983664</v>
+      </c>
+      <c r="H1518">
+        <v>208772759552</v>
+      </c>
+      <c r="I1518">
+        <f t="shared" si="66"/>
+        <v>1516</v>
+      </c>
+      <c r="J1518">
+        <f>SUM($F$3:F1518)/I1518</f>
+        <v>1.0367263258575188</v>
+      </c>
+      <c r="K1518">
+        <f t="shared" si="67"/>
+        <v>1.0710832400000005</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1519" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B1519">
+        <v>1329.38</v>
+      </c>
+      <c r="C1519">
+        <v>1342.57</v>
+      </c>
+      <c r="D1519">
+        <v>1329.32</v>
+      </c>
+      <c r="E1519">
+        <v>1338.45</v>
+      </c>
+      <c r="F1519">
+        <f t="shared" si="65"/>
+        <v>1.3384500000000001</v>
+      </c>
+      <c r="G1519">
+        <v>114248016</v>
+      </c>
+      <c r="H1519">
+        <v>192527335424</v>
+      </c>
+      <c r="I1519">
+        <f t="shared" si="66"/>
+        <v>1517</v>
+      </c>
+      <c r="J1519">
+        <f>SUM($F$3:F1519)/I1519</f>
+        <v>1.0369252208305857</v>
+      </c>
+      <c r="K1519">
+        <f t="shared" si="67"/>
+        <v>1.0726970400000009</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1520" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B1520">
+        <v>1336.44</v>
+      </c>
+      <c r="C1520">
+        <v>1360.71</v>
+      </c>
+      <c r="D1520">
+        <v>1329.68</v>
+      </c>
+      <c r="E1520">
+        <v>1359.36</v>
+      </c>
+      <c r="F1520">
+        <f t="shared" si="65"/>
+        <v>1.3593599999999999</v>
+      </c>
+      <c r="G1520">
+        <v>142659098</v>
+      </c>
+      <c r="H1520">
+        <v>246834085888</v>
+      </c>
+      <c r="I1520">
+        <f t="shared" si="66"/>
+        <v>1518</v>
+      </c>
+      <c r="J1520">
+        <f>SUM($F$3:F1520)/I1520</f>
+        <v>1.037137628458497</v>
+      </c>
+      <c r="K1520">
+        <f t="shared" si="67"/>
+        <v>1.0743416800000007</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1521" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B1521">
+        <v>1357.52</v>
+      </c>
+      <c r="C1521">
+        <v>1365.31</v>
+      </c>
+      <c r="D1521">
+        <v>1351.38</v>
+      </c>
+      <c r="E1521">
+        <v>1362.77</v>
+      </c>
+      <c r="F1521">
+        <f t="shared" si="65"/>
+        <v>1.36277</v>
+      </c>
+      <c r="G1521">
+        <v>135126059</v>
+      </c>
+      <c r="H1521">
+        <v>233766518784</v>
+      </c>
+      <c r="I1521">
+        <f t="shared" si="66"/>
+        <v>1519</v>
+      </c>
+      <c r="J1521">
+        <f>SUM($F$3:F1521)/I1521</f>
+        <v>1.0373520013166546</v>
+      </c>
+      <c r="K1521">
+        <f t="shared" si="67"/>
+        <v>1.0760427600000007</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1522" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B1522">
+        <v>1362.9</v>
+      </c>
+      <c r="C1522">
+        <v>1368.23</v>
+      </c>
+      <c r="D1522">
+        <v>1351.57</v>
+      </c>
+      <c r="E1522">
+        <v>1352.53</v>
+      </c>
+      <c r="F1522">
+        <f t="shared" si="65"/>
+        <v>1.35253</v>
+      </c>
+      <c r="G1522">
+        <v>129516426</v>
+      </c>
+      <c r="H1522">
+        <v>218376257536</v>
+      </c>
+      <c r="I1522">
+        <f t="shared" si="66"/>
+        <v>1520</v>
+      </c>
+      <c r="J1522">
+        <f>SUM($F$3:F1522)/I1522</f>
+        <v>1.0375593552631568</v>
+      </c>
+      <c r="K1522">
+        <f t="shared" si="67"/>
+        <v>1.0776977600000004</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1523" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B1523">
+        <v>1350.36</v>
+      </c>
+      <c r="C1523">
+        <v>1378.83</v>
+      </c>
+      <c r="D1523">
+        <v>1342.97</v>
+      </c>
+      <c r="E1523">
+        <v>1377.92</v>
+      </c>
+      <c r="F1523">
+        <f t="shared" si="65"/>
+        <v>1.37792</v>
+      </c>
+      <c r="G1523">
+        <v>128454689</v>
+      </c>
+      <c r="H1523">
+        <v>233262039040</v>
+      </c>
+      <c r="I1523">
+        <f t="shared" si="66"/>
+        <v>1521</v>
+      </c>
+      <c r="J1523">
+        <f>SUM($F$3:F1523)/I1523</f>
+        <v>1.0377831295200515</v>
+      </c>
+      <c r="K1523">
+        <f t="shared" si="67"/>
+        <v>1.0795720800000006</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1524" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B1524">
+        <v>1380.22</v>
+      </c>
+      <c r="C1524">
+        <v>1404.66</v>
+      </c>
+      <c r="D1524">
+        <v>1379.77</v>
+      </c>
+      <c r="E1524">
+        <v>1403.55</v>
+      </c>
+      <c r="F1524">
+        <f t="shared" si="65"/>
+        <v>1.4035499999999999</v>
+      </c>
+      <c r="G1524">
+        <v>137006193</v>
+      </c>
+      <c r="H1524">
+        <v>260359897088</v>
+      </c>
+      <c r="I1524">
+        <f t="shared" si="66"/>
+        <v>1522</v>
+      </c>
+      <c r="J1524">
+        <f>SUM($F$3:F1524)/I1524</f>
+        <v>1.0380234494086715</v>
+      </c>
+      <c r="K1524">
+        <f t="shared" si="67"/>
+        <v>1.0815003200000008</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1525" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B1525">
+        <v>1399.71</v>
+      </c>
+      <c r="C1525">
+        <v>1412.25</v>
+      </c>
+      <c r="D1525">
+        <v>1393.78</v>
+      </c>
+      <c r="E1525">
+        <v>1407.14</v>
+      </c>
+      <c r="F1525">
+        <f t="shared" si="65"/>
+        <v>1.4071400000000001</v>
+      </c>
+      <c r="G1525">
+        <v>143612861</v>
+      </c>
+      <c r="H1525">
+        <v>274782830592</v>
+      </c>
+      <c r="I1525">
+        <f t="shared" si="66"/>
+        <v>1523</v>
+      </c>
+      <c r="J1525">
+        <f>SUM($F$3:F1525)/I1525</f>
+        <v>1.0382658108995391</v>
+      </c>
+      <c r="K1525">
+        <f t="shared" si="67"/>
+        <v>1.0834129600000009</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1526" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B1526">
+        <v>1403.04</v>
+      </c>
+      <c r="C1526">
+        <v>1403.12</v>
+      </c>
+      <c r="D1526">
+        <v>1358.64</v>
+      </c>
+      <c r="E1526">
+        <v>1358.64</v>
+      </c>
+      <c r="F1526">
+        <f t="shared" si="65"/>
+        <v>1.3586400000000001</v>
+      </c>
+      <c r="G1526">
+        <v>132935694</v>
+      </c>
+      <c r="H1526">
+        <v>245167489024</v>
+      </c>
+      <c r="I1526">
+        <f t="shared" si="66"/>
+        <v>1524</v>
+      </c>
+      <c r="J1526">
+        <f>SUM($F$3:F1526)/I1526</f>
+        <v>1.0384760301837257</v>
+      </c>
+      <c r="K1526">
+        <f t="shared" si="67"/>
+        <v>1.0851488800000006</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1527" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B1527">
+        <v>1343.17</v>
+      </c>
+      <c r="C1527">
+        <v>1355.02</v>
+      </c>
+      <c r="D1527">
+        <v>1294.1400000000001</v>
+      </c>
+      <c r="E1527">
+        <v>1296.67</v>
+      </c>
+      <c r="F1527">
+        <f t="shared" si="65"/>
+        <v>1.29667</v>
+      </c>
+      <c r="G1527">
+        <v>117686530</v>
+      </c>
+      <c r="H1527">
+        <v>204025200640</v>
+      </c>
+      <c r="I1527">
+        <f t="shared" si="66"/>
+        <v>1525</v>
+      </c>
+      <c r="J1527">
+        <f>SUM($F$3:F1527)/I1527</f>
+        <v>1.0386453377049167</v>
+      </c>
+      <c r="K1527">
+        <f t="shared" si="67"/>
+        <v>1.0866161200000006</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1528" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B1528">
+        <v>1298.46</v>
+      </c>
+      <c r="C1528">
+        <v>1319.43</v>
+      </c>
+      <c r="D1528">
+        <v>1298.46</v>
+      </c>
+      <c r="E1528">
+        <v>1316.07</v>
+      </c>
+      <c r="F1528">
+        <f t="shared" si="65"/>
+        <v>1.3160699999999999</v>
+      </c>
+      <c r="G1528">
+        <v>89565079</v>
+      </c>
+      <c r="H1528">
+        <v>149589475328</v>
+      </c>
+      <c r="I1528">
+        <f t="shared" si="66"/>
+        <v>1526</v>
+      </c>
+      <c r="J1528">
+        <f>SUM($F$3:F1528)/I1528</f>
+        <v>1.0388271363040618</v>
+      </c>
+      <c r="K1528">
+        <f t="shared" si="67"/>
+        <v>1.0881152400000005</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1529" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B1529">
+        <v>1313.94</v>
+      </c>
+      <c r="C1529">
+        <v>1313.94</v>
+      </c>
+      <c r="D1529">
+        <v>1255.04</v>
+      </c>
+      <c r="E1529">
+        <v>1290.5899999999999</v>
+      </c>
+      <c r="F1529">
+        <f t="shared" si="65"/>
+        <v>1.2905899999999999</v>
+      </c>
+      <c r="G1529">
+        <v>109079932</v>
+      </c>
+      <c r="H1529">
+        <v>178521997312</v>
+      </c>
+      <c r="I1529">
+        <f t="shared" si="66"/>
+        <v>1527</v>
+      </c>
+      <c r="J1529">
+        <f>SUM($F$3:F1529)/I1529</f>
+        <v>1.0389920104780603</v>
+      </c>
+      <c r="K1529">
+        <f t="shared" si="67"/>
+        <v>1.0895182000000008</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1530" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B1530">
+        <v>1288.5999999999999</v>
+      </c>
+      <c r="C1530">
+        <v>1317.13</v>
+      </c>
+      <c r="D1530">
+        <v>1288.58</v>
+      </c>
+      <c r="E1530">
+        <v>1311.12</v>
+      </c>
+      <c r="F1530">
+        <f t="shared" si="65"/>
+        <v>1.3111199999999998</v>
+      </c>
+      <c r="G1530">
+        <v>90034234</v>
+      </c>
+      <c r="H1530">
+        <v>159573819392</v>
+      </c>
+      <c r="I1530">
+        <f t="shared" si="66"/>
+        <v>1528</v>
+      </c>
+      <c r="J1530">
+        <f>SUM($F$3:F1530)/I1530</f>
+        <v>1.0391701047120407</v>
+      </c>
+      <c r="K1530">
+        <f t="shared" si="67"/>
+        <v>1.0909668800000005</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1531" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B1531">
+        <v>1308.47</v>
+      </c>
+      <c r="C1531">
+        <v>1324.24</v>
+      </c>
+      <c r="D1531">
+        <v>1302.76</v>
+      </c>
+      <c r="E1531">
+        <v>1320.33</v>
+      </c>
+      <c r="F1531">
+        <f t="shared" si="65"/>
+        <v>1.32033</v>
+      </c>
+      <c r="G1531">
+        <v>98447512</v>
+      </c>
+      <c r="H1531">
+        <v>158465654784</v>
+      </c>
+      <c r="I1531">
+        <f t="shared" si="66"/>
+        <v>1529</v>
+      </c>
+      <c r="J1531">
+        <f>SUM($F$3:F1531)/I1531</f>
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="K1531">
+        <f t="shared" si="67"/>
+        <v>1.0924141600000008</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1531"/>
+  <dimension ref="A1:K1552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
-      <selection activeCell="A1532" sqref="A1532"/>
+    <sheetView tabSelected="1" topLeftCell="A1531" workbookViewId="0">
+      <selection activeCell="A1553" sqref="A1553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49383,7 +49383,7 @@
         <v>960.28</v>
       </c>
       <c r="F1283">
-        <f t="shared" ref="F1283:F1531" si="65">E1283/1000</f>
+        <f t="shared" ref="F1283:F1537" si="65">E1283/1000</f>
         <v>0.96028000000000002</v>
       </c>
       <c r="G1283">
@@ -49471,7 +49471,7 @@
         <v>62516244480</v>
       </c>
       <c r="I1285">
-        <f t="shared" ref="I1285:I1531" si="66">I1284+1</f>
+        <f t="shared" ref="I1285:I1539" si="66">I1284+1</f>
         <v>1283</v>
       </c>
       <c r="J1285">
@@ -50181,7 +50181,7 @@
         <v>1.0280042659492676</v>
       </c>
       <c r="K1303">
-        <f t="shared" ref="K1303:K1531" si="67">SUM(F1054:F1303)/250</f>
+        <f t="shared" ref="K1303:K1552" si="67">SUM(F1054:F1303)/250</f>
         <v>1.1279391999999999</v>
       </c>
     </row>
@@ -59075,6 +59075,825 @@
       <c r="K1531">
         <f t="shared" si="67"/>
         <v>1.0924141600000008</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1532" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B1532">
+        <v>1322.32</v>
+      </c>
+      <c r="C1532">
+        <v>1324.2</v>
+      </c>
+      <c r="D1532">
+        <v>1295.5</v>
+      </c>
+      <c r="E1532">
+        <v>1314.27</v>
+      </c>
+      <c r="F1532">
+        <f t="shared" si="65"/>
+        <v>1.31427</v>
+      </c>
+      <c r="G1532">
+        <v>106828552</v>
+      </c>
+      <c r="H1532">
+        <v>167515013120</v>
+      </c>
+      <c r="I1532">
+        <f t="shared" si="66"/>
+        <v>1530</v>
+      </c>
+      <c r="J1532">
+        <f>SUM($F$3:F1532)/I1532</f>
+        <v>1.0395336732026133</v>
+      </c>
+      <c r="K1532">
+        <f t="shared" si="67"/>
+        <v>1.0939256000000006</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1533" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B1533">
+        <v>1311.03</v>
+      </c>
+      <c r="C1533">
+        <v>1328.12</v>
+      </c>
+      <c r="D1533">
+        <v>1309.53</v>
+      </c>
+      <c r="E1533">
+        <v>1327.55</v>
+      </c>
+      <c r="F1533">
+        <f t="shared" si="65"/>
+        <v>1.32755</v>
+      </c>
+      <c r="G1533">
+        <v>95700187</v>
+      </c>
+      <c r="H1533">
+        <v>153832833024</v>
+      </c>
+      <c r="I1533">
+        <f t="shared" si="66"/>
+        <v>1531</v>
+      </c>
+      <c r="J1533">
+        <f>SUM($F$3:F1533)/I1533</f>
+        <v>1.0397217962116252</v>
+      </c>
+      <c r="K1533">
+        <f t="shared" si="67"/>
+        <v>1.0953946800000007</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1534" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B1534">
+        <v>1326.72</v>
+      </c>
+      <c r="C1534">
+        <v>1339.01</v>
+      </c>
+      <c r="D1534">
+        <v>1311.11</v>
+      </c>
+      <c r="E1534">
+        <v>1311.79</v>
+      </c>
+      <c r="F1534">
+        <f t="shared" si="65"/>
+        <v>1.31179</v>
+      </c>
+      <c r="G1534">
+        <v>91529614</v>
+      </c>
+      <c r="H1534">
+        <v>142582710272</v>
+      </c>
+      <c r="I1534">
+        <f t="shared" si="66"/>
+        <v>1532</v>
+      </c>
+      <c r="J1534">
+        <f>SUM($F$3:F1534)/I1534</f>
+        <v>1.0398993864229753</v>
+      </c>
+      <c r="K1534">
+        <f t="shared" si="67"/>
+        <v>1.0967686000000005</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1535" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B1535">
+        <v>1307.97</v>
+      </c>
+      <c r="C1535">
+        <v>1329.17</v>
+      </c>
+      <c r="D1535">
+        <v>1303.48</v>
+      </c>
+      <c r="E1535">
+        <v>1314.52</v>
+      </c>
+      <c r="F1535">
+        <f t="shared" si="65"/>
+        <v>1.3145199999999999</v>
+      </c>
+      <c r="G1535">
+        <v>89650766</v>
+      </c>
+      <c r="H1535">
+        <v>143171125248</v>
+      </c>
+      <c r="I1535">
+        <f t="shared" si="66"/>
+        <v>1533</v>
+      </c>
+      <c r="J1535">
+        <f>SUM($F$3:F1535)/I1535</f>
+        <v>1.0400785257664698</v>
+      </c>
+      <c r="K1535">
+        <f t="shared" si="67"/>
+        <v>1.0981210400000008</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1536" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B1536">
+        <v>1310.5999999999999</v>
+      </c>
+      <c r="C1536">
+        <v>1310.6500000000001</v>
+      </c>
+      <c r="D1536">
+        <v>1282.6199999999999</v>
+      </c>
+      <c r="E1536">
+        <v>1294</v>
+      </c>
+      <c r="F1536">
+        <f t="shared" si="65"/>
+        <v>1.294</v>
+      </c>
+      <c r="G1536">
+        <v>90293250</v>
+      </c>
+      <c r="H1536">
+        <v>143858155520</v>
+      </c>
+      <c r="I1536">
+        <f t="shared" si="66"/>
+        <v>1534</v>
+      </c>
+      <c r="J1536">
+        <f>SUM($F$3:F1536)/I1536</f>
+        <v>1.0402440547587994</v>
+      </c>
+      <c r="K1536">
+        <f t="shared" si="67"/>
+        <v>1.0992888800000005</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1537" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B1537">
+        <v>1297.76</v>
+      </c>
+      <c r="C1537">
+        <v>1300.69</v>
+      </c>
+      <c r="D1537">
+        <v>1287.0899999999999</v>
+      </c>
+      <c r="E1537">
+        <v>1290.1300000000001</v>
+      </c>
+      <c r="F1537">
+        <f t="shared" si="65"/>
+        <v>1.29013</v>
+      </c>
+      <c r="G1537">
+        <v>73634037</v>
+      </c>
+      <c r="H1537">
+        <v>113743495168</v>
+      </c>
+      <c r="I1537">
+        <f t="shared" si="66"/>
+        <v>1535</v>
+      </c>
+      <c r="J1537">
+        <f>SUM($F$3:F1537)/I1537</f>
+        <v>1.0404068469055363</v>
+      </c>
+      <c r="K1537">
+        <f t="shared" si="67"/>
+        <v>1.1005088000000005</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1538" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B1538">
+        <v>1290.82</v>
+      </c>
+      <c r="C1538">
+        <v>1302.9000000000001</v>
+      </c>
+      <c r="D1538">
+        <v>1287.1099999999999</v>
+      </c>
+      <c r="E1538">
+        <v>1300.73</v>
+      </c>
+      <c r="F1538">
+        <f t="shared" ref="F1538:F1552" si="68">E1538/1000</f>
+        <v>1.3007299999999999</v>
+      </c>
+      <c r="G1538">
+        <v>76492143</v>
+      </c>
+      <c r="H1538">
+        <v>136204255232</v>
+      </c>
+      <c r="I1538">
+        <f t="shared" si="66"/>
+        <v>1536</v>
+      </c>
+      <c r="J1538">
+        <f>SUM($F$3:F1538)/I1538</f>
+        <v>1.0405763281249989</v>
+      </c>
+      <c r="K1538">
+        <f t="shared" si="67"/>
+        <v>1.1017490400000003</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1539" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B1539">
+        <v>1299.82</v>
+      </c>
+      <c r="C1539">
+        <v>1303.98</v>
+      </c>
+      <c r="D1539">
+        <v>1268.69</v>
+      </c>
+      <c r="E1539">
+        <v>1269.45</v>
+      </c>
+      <c r="F1539">
+        <f t="shared" si="68"/>
+        <v>1.26945</v>
+      </c>
+      <c r="G1539">
+        <v>98213463</v>
+      </c>
+      <c r="H1539">
+        <v>159527206912</v>
+      </c>
+      <c r="I1539">
+        <f t="shared" si="66"/>
+        <v>1537</v>
+      </c>
+      <c r="J1539">
+        <f>SUM($F$3:F1539)/I1539</f>
+        <v>1.0407252374756006</v>
+      </c>
+      <c r="K1539">
+        <f t="shared" si="67"/>
+        <v>1.1028847600000005</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1540" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B1540">
+        <v>1272.4100000000001</v>
+      </c>
+      <c r="C1540">
+        <v>1291.18</v>
+      </c>
+      <c r="D1540">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="E1540">
+        <v>1289.76</v>
+      </c>
+      <c r="F1540">
+        <f t="shared" si="68"/>
+        <v>1.28976</v>
+      </c>
+      <c r="G1540">
+        <v>88561449</v>
+      </c>
+      <c r="H1540">
+        <v>150962274304</v>
+      </c>
+      <c r="I1540">
+        <f t="shared" ref="I1540:I1552" si="69">I1539+1</f>
+        <v>1538</v>
+      </c>
+      <c r="J1540">
+        <f>SUM($F$3:F1540)/I1540</f>
+        <v>1.0408871586475932</v>
+      </c>
+      <c r="K1540">
+        <f t="shared" si="67"/>
+        <v>1.1041038800000003</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1541" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B1541">
+        <v>1291.67</v>
+      </c>
+      <c r="C1541">
+        <v>1321.41</v>
+      </c>
+      <c r="D1541">
+        <v>1291.67</v>
+      </c>
+      <c r="E1541">
+        <v>1311.78</v>
+      </c>
+      <c r="F1541">
+        <f t="shared" si="68"/>
+        <v>1.3117799999999999</v>
+      </c>
+      <c r="G1541">
+        <v>102712868</v>
+      </c>
+      <c r="H1541">
+        <v>175135064064</v>
+      </c>
+      <c r="I1541">
+        <f t="shared" si="69"/>
+        <v>1539</v>
+      </c>
+      <c r="J1541">
+        <f>SUM($F$3:F1541)/I1541</f>
+        <v>1.0410631773879131</v>
+      </c>
+      <c r="K1541">
+        <f t="shared" si="67"/>
+        <v>1.1054776000000004</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1542" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B1542">
+        <v>1309.1300000000001</v>
+      </c>
+      <c r="C1542">
+        <v>1315.33</v>
+      </c>
+      <c r="D1542">
+        <v>1299.8399999999999</v>
+      </c>
+      <c r="E1542">
+        <v>1306.6600000000001</v>
+      </c>
+      <c r="F1542">
+        <f t="shared" si="68"/>
+        <v>1.3066600000000002</v>
+      </c>
+      <c r="G1542">
+        <v>82780513</v>
+      </c>
+      <c r="H1542">
+        <v>140237094912</v>
+      </c>
+      <c r="I1542">
+        <f t="shared" si="69"/>
+        <v>1540</v>
+      </c>
+      <c r="J1542">
+        <f>SUM($F$3:F1542)/I1542</f>
+        <v>1.0412356428571417</v>
+      </c>
+      <c r="K1542">
+        <f t="shared" si="67"/>
+        <v>1.1068326000000006</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1543" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B1543">
+        <v>1307.4100000000001</v>
+      </c>
+      <c r="C1543">
+        <v>1307.53</v>
+      </c>
+      <c r="D1543">
+        <v>1289.52</v>
+      </c>
+      <c r="E1543">
+        <v>1291.0999999999999</v>
+      </c>
+      <c r="F1543">
+        <f t="shared" si="68"/>
+        <v>1.2910999999999999</v>
+      </c>
+      <c r="G1543">
+        <v>78264746</v>
+      </c>
+      <c r="H1543">
+        <v>127836274688</v>
+      </c>
+      <c r="I1543">
+        <f t="shared" si="69"/>
+        <v>1541</v>
+      </c>
+      <c r="J1543">
+        <f>SUM($F$3:F1543)/I1543</f>
+        <v>1.0413977871511992</v>
+      </c>
+      <c r="K1543">
+        <f t="shared" si="67"/>
+        <v>1.1081165200000005</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1544" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B1544">
+        <v>1293.3</v>
+      </c>
+      <c r="C1544">
+        <v>1301.49</v>
+      </c>
+      <c r="D1544">
+        <v>1288.26</v>
+      </c>
+      <c r="E1544">
+        <v>1294.74</v>
+      </c>
+      <c r="F1544">
+        <f t="shared" si="68"/>
+        <v>1.29474</v>
+      </c>
+      <c r="G1544">
+        <v>71011526</v>
+      </c>
+      <c r="H1544">
+        <v>114600501248</v>
+      </c>
+      <c r="I1544">
+        <f t="shared" si="69"/>
+        <v>1542</v>
+      </c>
+      <c r="J1544">
+        <f>SUM($F$3:F1544)/I1544</f>
+        <v>1.041562081712061</v>
+      </c>
+      <c r="K1544">
+        <f t="shared" si="67"/>
+        <v>1.1093770000000005</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1545" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B1545">
+        <v>1294.24</v>
+      </c>
+      <c r="C1545">
+        <v>1294.74</v>
+      </c>
+      <c r="D1545">
+        <v>1265.8800000000001</v>
+      </c>
+      <c r="E1545">
+        <v>1267.1400000000001</v>
+      </c>
+      <c r="F1545">
+        <f t="shared" si="68"/>
+        <v>1.2671400000000002</v>
+      </c>
+      <c r="G1545">
+        <v>83525787</v>
+      </c>
+      <c r="H1545">
+        <v>130283503616</v>
+      </c>
+      <c r="I1545">
+        <f t="shared" si="69"/>
+        <v>1543</v>
+      </c>
+      <c r="J1545">
+        <f>SUM($F$3:F1545)/I1545</f>
+        <v>1.0417082760855463</v>
+      </c>
+      <c r="K1545">
+        <f t="shared" si="67"/>
+        <v>1.1105878800000002</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1546" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B1546">
+        <v>1262.4100000000001</v>
+      </c>
+      <c r="C1546">
+        <v>1270.1300000000001</v>
+      </c>
+      <c r="D1546">
+        <v>1248.99</v>
+      </c>
+      <c r="E1546">
+        <v>1253.18</v>
+      </c>
+      <c r="F1546">
+        <f t="shared" si="68"/>
+        <v>1.25318</v>
+      </c>
+      <c r="G1546">
+        <v>68620391</v>
+      </c>
+      <c r="H1546">
+        <v>103038304256</v>
+      </c>
+      <c r="I1546">
+        <f t="shared" si="69"/>
+        <v>1544</v>
+      </c>
+      <c r="J1546">
+        <f>SUM($F$3:F1546)/I1546</f>
+        <v>1.0418452396373044</v>
+      </c>
+      <c r="K1546">
+        <f t="shared" si="67"/>
+        <v>1.1118303600000004</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1547" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B1547">
+        <v>1250.33</v>
+      </c>
+      <c r="C1547">
+        <v>1272.18</v>
+      </c>
+      <c r="D1547">
+        <v>1245.0999999999999</v>
+      </c>
+      <c r="E1547">
+        <v>1258.68</v>
+      </c>
+      <c r="F1547">
+        <f t="shared" si="68"/>
+        <v>1.25868</v>
+      </c>
+      <c r="G1547">
+        <v>62246769</v>
+      </c>
+      <c r="H1547">
+        <v>103319527424</v>
+      </c>
+      <c r="I1547">
+        <f t="shared" si="69"/>
+        <v>1545</v>
+      </c>
+      <c r="J1547">
+        <f>SUM($F$3:F1547)/I1547</f>
+        <v>1.0419855857605165</v>
+      </c>
+      <c r="K1547">
+        <f t="shared" si="67"/>
+        <v>1.1130664400000005</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1548" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B1548">
+        <v>1270.22</v>
+      </c>
+      <c r="C1548">
+        <v>1283.74</v>
+      </c>
+      <c r="D1548">
+        <v>1264.51</v>
+      </c>
+      <c r="E1548">
+        <v>1282.05</v>
+      </c>
+      <c r="F1548">
+        <f t="shared" si="68"/>
+        <v>1.2820499999999999</v>
+      </c>
+      <c r="G1548">
+        <v>83358982</v>
+      </c>
+      <c r="H1548">
+        <v>137001828352</v>
+      </c>
+      <c r="I1548">
+        <f t="shared" si="69"/>
+        <v>1546</v>
+      </c>
+      <c r="J1548">
+        <f>SUM($F$3:F1548)/I1548</f>
+        <v>1.0421408667529093</v>
+      </c>
+      <c r="K1548">
+        <f t="shared" si="67"/>
+        <v>1.1143821200000004</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1549" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B1549">
+        <v>1279.68</v>
+      </c>
+      <c r="C1549">
+        <v>1279.68</v>
+      </c>
+      <c r="D1549">
+        <v>1255.1300000000001</v>
+      </c>
+      <c r="E1549">
+        <v>1258.01</v>
+      </c>
+      <c r="F1549">
+        <f t="shared" si="68"/>
+        <v>1.2580100000000001</v>
+      </c>
+      <c r="G1549">
+        <v>76517980</v>
+      </c>
+      <c r="H1549">
+        <v>114352144384</v>
+      </c>
+      <c r="I1549">
+        <f t="shared" si="69"/>
+        <v>1547</v>
+      </c>
+      <c r="J1549">
+        <f>SUM($F$3:F1549)/I1549</f>
+        <v>1.0422804072398177</v>
+      </c>
+      <c r="K1549">
+        <f t="shared" si="67"/>
+        <v>1.1156761600000005</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1550" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B1550">
+        <v>1256.04</v>
+      </c>
+      <c r="C1550">
+        <v>1263.1500000000001</v>
+      </c>
+      <c r="D1550">
+        <v>1241.22</v>
+      </c>
+      <c r="E1550">
+        <v>1242.32</v>
+      </c>
+      <c r="F1550">
+        <f t="shared" si="68"/>
+        <v>1.2423199999999999</v>
+      </c>
+      <c r="G1550">
+        <v>69041050</v>
+      </c>
+      <c r="H1550">
+        <v>97489256448</v>
+      </c>
+      <c r="I1550">
+        <f t="shared" si="69"/>
+        <v>1548</v>
+      </c>
+      <c r="J1550">
+        <f>SUM($F$3:F1550)/I1550</f>
+        <v>1.0424096317829445</v>
+      </c>
+      <c r="K1550">
+        <f t="shared" si="67"/>
+        <v>1.1167993600000004</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1551" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B1551">
+        <v>1240.08</v>
+      </c>
+      <c r="C1551">
+        <v>1252.19</v>
+      </c>
+      <c r="D1551">
+        <v>1229.54</v>
+      </c>
+      <c r="E1551">
+        <v>1248.95</v>
+      </c>
+      <c r="F1551">
+        <f t="shared" si="68"/>
+        <v>1.24895</v>
+      </c>
+      <c r="G1551">
+        <v>79578004</v>
+      </c>
+      <c r="H1551">
+        <v>122837483520</v>
+      </c>
+      <c r="I1551">
+        <f t="shared" si="69"/>
+        <v>1549</v>
+      </c>
+      <c r="J1551">
+        <f>SUM($F$3:F1551)/I1551</f>
+        <v>1.0425429696578423</v>
+      </c>
+      <c r="K1551">
+        <f t="shared" si="67"/>
+        <v>1.1178426800000005</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1552" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B1552">
+        <v>1248.3599999999999</v>
+      </c>
+      <c r="C1552">
+        <v>1264.8699999999999</v>
+      </c>
+      <c r="D1552">
+        <v>1242.81</v>
+      </c>
+      <c r="E1552">
+        <v>1258.8800000000001</v>
+      </c>
+      <c r="F1552">
+        <f t="shared" si="68"/>
+        <v>1.25888</v>
+      </c>
+      <c r="G1552">
+        <v>87397398</v>
+      </c>
+      <c r="H1552">
+        <v>132048388096</v>
+      </c>
+      <c r="I1552">
+        <f t="shared" si="69"/>
+        <v>1550</v>
+      </c>
+      <c r="J1552">
+        <f>SUM($F$3:F1552)/I1552</f>
+        <v>1.0426825419354826</v>
+      </c>
+      <c r="K1552">
+        <f t="shared" si="67"/>
+        <v>1.1188947600000003</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1552"/>
+  <dimension ref="A1:K1575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1531" workbookViewId="0">
-      <selection activeCell="A1553" sqref="A1553"/>
+    <sheetView tabSelected="1" topLeftCell="A1549" workbookViewId="0">
+      <selection activeCell="A1576" sqref="A1576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50181,7 +50181,7 @@
         <v>1.0280042659492676</v>
       </c>
       <c r="K1303">
-        <f t="shared" ref="K1303:K1552" si="67">SUM(F1054:F1303)/250</f>
+        <f t="shared" ref="K1303:K1557" si="67">SUM(F1054:F1303)/250</f>
         <v>1.1279391999999999</v>
       </c>
     </row>
@@ -59328,7 +59328,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1538">
-        <f t="shared" ref="F1538:F1552" si="68">E1538/1000</f>
+        <f t="shared" ref="F1538:F1575" si="68">E1538/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1538">
@@ -59416,7 +59416,7 @@
         <v>150962274304</v>
       </c>
       <c r="I1540">
-        <f t="shared" ref="I1540:I1552" si="69">I1539+1</f>
+        <f t="shared" ref="I1540:I1575" si="69">I1539+1</f>
         <v>1538</v>
       </c>
       <c r="J1540">
@@ -59894,6 +59894,903 @@
       <c r="K1552">
         <f t="shared" si="67"/>
         <v>1.1188947600000003</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1553" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B1553">
+        <v>1257.17</v>
+      </c>
+      <c r="C1553">
+        <v>1261.18</v>
+      </c>
+      <c r="D1553">
+        <v>1244.79</v>
+      </c>
+      <c r="E1553">
+        <v>1256.75</v>
+      </c>
+      <c r="F1553">
+        <f t="shared" si="68"/>
+        <v>1.25675</v>
+      </c>
+      <c r="G1553">
+        <v>74065863</v>
+      </c>
+      <c r="H1553">
+        <v>115999236096</v>
+      </c>
+      <c r="I1553">
+        <f t="shared" si="69"/>
+        <v>1551</v>
+      </c>
+      <c r="J1553">
+        <f>SUM($F$3:F1553)/I1553</f>
+        <v>1.042820560928432</v>
+      </c>
+      <c r="K1553">
+        <f t="shared" si="67"/>
+        <v>1.1199245600000003</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1554" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B1554">
+        <v>1252.1600000000001</v>
+      </c>
+      <c r="C1554">
+        <v>1260.4100000000001</v>
+      </c>
+      <c r="D1554">
+        <v>1249.3599999999999</v>
+      </c>
+      <c r="E1554">
+        <v>1260.4100000000001</v>
+      </c>
+      <c r="F1554">
+        <f t="shared" si="68"/>
+        <v>1.26041</v>
+      </c>
+      <c r="G1554">
+        <v>69753082</v>
+      </c>
+      <c r="H1554">
+        <v>102622576640</v>
+      </c>
+      <c r="I1554">
+        <f t="shared" si="69"/>
+        <v>1552</v>
+      </c>
+      <c r="J1554">
+        <f>SUM($F$3:F1554)/I1554</f>
+        <v>1.0429607603092772</v>
+      </c>
+      <c r="K1554">
+        <f t="shared" si="67"/>
+        <v>1.1210087600000005</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1555" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B1555">
+        <v>1254.5999999999999</v>
+      </c>
+      <c r="C1555">
+        <v>1261.94</v>
+      </c>
+      <c r="D1555">
+        <v>1248.5999999999999</v>
+      </c>
+      <c r="E1555">
+        <v>1255.22</v>
+      </c>
+      <c r="F1555">
+        <f t="shared" si="68"/>
+        <v>1.25522</v>
+      </c>
+      <c r="G1555">
+        <v>65277879</v>
+      </c>
+      <c r="H1555">
+        <v>104816852992</v>
+      </c>
+      <c r="I1555">
+        <f t="shared" si="69"/>
+        <v>1553</v>
+      </c>
+      <c r="J1555">
+        <f>SUM($F$3:F1555)/I1555</f>
+        <v>1.043097437218286</v>
+      </c>
+      <c r="K1555">
+        <f t="shared" si="67"/>
+        <v>1.1221092000000004</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1556" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B1556">
+        <v>1257.46</v>
+      </c>
+      <c r="C1556">
+        <v>1283.24</v>
+      </c>
+      <c r="D1556">
+        <v>1257.46</v>
+      </c>
+      <c r="E1556">
+        <v>1277.9000000000001</v>
+      </c>
+      <c r="F1556">
+        <f t="shared" si="68"/>
+        <v>1.2779</v>
+      </c>
+      <c r="G1556">
+        <v>103023868</v>
+      </c>
+      <c r="H1556">
+        <v>165119574016</v>
+      </c>
+      <c r="I1556">
+        <f t="shared" si="69"/>
+        <v>1554</v>
+      </c>
+      <c r="J1556">
+        <f>SUM($F$3:F1556)/I1556</f>
+        <v>1.0432485328185317</v>
+      </c>
+      <c r="K1556">
+        <f t="shared" si="67"/>
+        <v>1.1232558800000003</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1557" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B1557">
+        <v>1276.83</v>
+      </c>
+      <c r="C1557">
+        <v>1285.0999999999999</v>
+      </c>
+      <c r="D1557">
+        <v>1275.6099999999999</v>
+      </c>
+      <c r="E1557">
+        <v>1281.02</v>
+      </c>
+      <c r="F1557">
+        <f t="shared" si="68"/>
+        <v>1.28102</v>
+      </c>
+      <c r="G1557">
+        <v>84882871</v>
+      </c>
+      <c r="H1557">
+        <v>140413222912</v>
+      </c>
+      <c r="I1557">
+        <f t="shared" si="69"/>
+        <v>1555</v>
+      </c>
+      <c r="J1557">
+        <f>SUM($F$3:F1557)/I1557</f>
+        <v>1.0434014405144683</v>
+      </c>
+      <c r="K1557">
+        <f t="shared" si="67"/>
+        <v>1.1243855200000006</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1558" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B1558">
+        <v>1279.99</v>
+      </c>
+      <c r="C1558">
+        <v>1283.93</v>
+      </c>
+      <c r="D1558">
+        <v>1272.2</v>
+      </c>
+      <c r="E1558">
+        <v>1273.58</v>
+      </c>
+      <c r="F1558">
+        <f t="shared" si="68"/>
+        <v>1.2735799999999999</v>
+      </c>
+      <c r="G1558">
+        <v>72531155</v>
+      </c>
+      <c r="H1558">
+        <v>113399152640</v>
+      </c>
+      <c r="I1558">
+        <f t="shared" si="69"/>
+        <v>1556</v>
+      </c>
+      <c r="J1558">
+        <f>SUM($F$3:F1558)/I1558</f>
+        <v>1.0435493701799474</v>
+      </c>
+      <c r="K1558">
+        <f t="shared" ref="K1558:K1575" si="70">SUM(F1309:F1558)/250</f>
+        <v>1.1254303200000004</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1559" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B1559">
+        <v>1267.96</v>
+      </c>
+      <c r="C1559">
+        <v>1279.75</v>
+      </c>
+      <c r="D1559">
+        <v>1258.98</v>
+      </c>
+      <c r="E1559">
+        <v>1260.4100000000001</v>
+      </c>
+      <c r="F1559">
+        <f t="shared" si="68"/>
+        <v>1.26041</v>
+      </c>
+      <c r="G1559">
+        <v>69642665</v>
+      </c>
+      <c r="H1559">
+        <v>108512960512</v>
+      </c>
+      <c r="I1559">
+        <f t="shared" si="69"/>
+        <v>1557</v>
+      </c>
+      <c r="J1559">
+        <f>SUM($F$3:F1559)/I1559</f>
+        <v>1.0436886512524073</v>
+      </c>
+      <c r="K1559">
+        <f t="shared" si="70"/>
+        <v>1.1264212800000004</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1560" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B1560">
+        <v>1256.55</v>
+      </c>
+      <c r="C1560">
+        <v>1266.3499999999999</v>
+      </c>
+      <c r="D1560">
+        <v>1253.4100000000001</v>
+      </c>
+      <c r="E1560">
+        <v>1262.32</v>
+      </c>
+      <c r="F1560">
+        <f t="shared" si="68"/>
+        <v>1.2623199999999999</v>
+      </c>
+      <c r="G1560">
+        <v>61354063</v>
+      </c>
+      <c r="H1560">
+        <v>96861650944</v>
+      </c>
+      <c r="I1560">
+        <f t="shared" si="69"/>
+        <v>1558</v>
+      </c>
+      <c r="J1560">
+        <f>SUM($F$3:F1560)/I1560</f>
+        <v>1.0438289794608462</v>
+      </c>
+      <c r="K1560">
+        <f t="shared" si="70"/>
+        <v>1.1273706800000003</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1561" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B1561">
+        <v>1262.5999999999999</v>
+      </c>
+      <c r="C1561">
+        <v>1262.6199999999999</v>
+      </c>
+      <c r="D1561">
+        <v>1234.76</v>
+      </c>
+      <c r="E1561">
+        <v>1234.77</v>
+      </c>
+      <c r="F1561">
+        <f t="shared" si="68"/>
+        <v>1.2347699999999999</v>
+      </c>
+      <c r="G1561">
+        <v>67499396</v>
+      </c>
+      <c r="H1561">
+        <v>101575696384</v>
+      </c>
+      <c r="I1561">
+        <f t="shared" si="69"/>
+        <v>1559</v>
+      </c>
+      <c r="J1561">
+        <f>SUM($F$3:F1561)/I1561</f>
+        <v>1.0439514560615768</v>
+      </c>
+      <c r="K1561">
+        <f t="shared" si="70"/>
+        <v>1.1283798400000005</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1562" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B1562">
+        <v>1222.82</v>
+      </c>
+      <c r="C1562">
+        <v>1255.6600000000001</v>
+      </c>
+      <c r="D1562">
+        <v>1220.8699999999999</v>
+      </c>
+      <c r="E1562">
+        <v>1255.6600000000001</v>
+      </c>
+      <c r="F1562">
+        <f t="shared" si="68"/>
+        <v>1.25566</v>
+      </c>
+      <c r="G1562">
+        <v>66891906</v>
+      </c>
+      <c r="H1562">
+        <v>105942892544</v>
+      </c>
+      <c r="I1562">
+        <f t="shared" si="69"/>
+        <v>1560</v>
+      </c>
+      <c r="J1562">
+        <f>SUM($F$3:F1562)/I1562</f>
+        <v>1.0440871666666656</v>
+      </c>
+      <c r="K1562">
+        <f t="shared" si="70"/>
+        <v>1.1294541200000003</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1563" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B1563">
+        <v>1255.95</v>
+      </c>
+      <c r="C1563">
+        <v>1257.76</v>
+      </c>
+      <c r="D1563">
+        <v>1229.3900000000001</v>
+      </c>
+      <c r="E1563">
+        <v>1240.1400000000001</v>
+      </c>
+      <c r="F1563">
+        <f t="shared" si="68"/>
+        <v>1.24014</v>
+      </c>
+      <c r="G1563">
+        <v>63876873</v>
+      </c>
+      <c r="H1563">
+        <v>106997481472</v>
+      </c>
+      <c r="I1563">
+        <f t="shared" si="69"/>
+        <v>1561</v>
+      </c>
+      <c r="J1563">
+        <f>SUM($F$3:F1563)/I1563</f>
+        <v>1.0442127610506076</v>
+      </c>
+      <c r="K1563">
+        <f t="shared" si="70"/>
+        <v>1.1303818000000003</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1564" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B1564">
+        <v>1235.79</v>
+      </c>
+      <c r="C1564">
+        <v>1235.79</v>
+      </c>
+      <c r="D1564">
+        <v>1215.2</v>
+      </c>
+      <c r="E1564">
+        <v>1216.96</v>
+      </c>
+      <c r="F1564">
+        <f t="shared" si="68"/>
+        <v>1.21696</v>
+      </c>
+      <c r="G1564">
+        <v>66191918</v>
+      </c>
+      <c r="H1564">
+        <v>107776319488</v>
+      </c>
+      <c r="I1564">
+        <f t="shared" si="69"/>
+        <v>1562</v>
+      </c>
+      <c r="J1564">
+        <f>SUM($F$3:F1564)/I1564</f>
+        <v>1.0443233546734945</v>
+      </c>
+      <c r="K1564">
+        <f t="shared" si="70"/>
+        <v>1.1311064400000002</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1565" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B1565">
+        <v>1211.68</v>
+      </c>
+      <c r="C1565">
+        <v>1239.48</v>
+      </c>
+      <c r="D1565">
+        <v>1202.77</v>
+      </c>
+      <c r="E1565">
+        <v>1237.24</v>
+      </c>
+      <c r="F1565">
+        <f t="shared" si="68"/>
+        <v>1.2372400000000001</v>
+      </c>
+      <c r="G1565">
+        <v>65229755</v>
+      </c>
+      <c r="H1565">
+        <v>104493408256</v>
+      </c>
+      <c r="I1565">
+        <f t="shared" si="69"/>
+        <v>1563</v>
+      </c>
+      <c r="J1565">
+        <f>SUM($F$3:F1565)/I1565</f>
+        <v>1.0444467818298133</v>
+      </c>
+      <c r="K1565">
+        <f t="shared" si="70"/>
+        <v>1.1318680800000003</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1566" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B1566">
+        <v>1236.98</v>
+      </c>
+      <c r="C1566">
+        <v>1245.8800000000001</v>
+      </c>
+      <c r="D1566">
+        <v>1207.94</v>
+      </c>
+      <c r="E1566">
+        <v>1207.94</v>
+      </c>
+      <c r="F1566">
+        <f t="shared" si="68"/>
+        <v>1.20794</v>
+      </c>
+      <c r="G1566">
+        <v>66878281</v>
+      </c>
+      <c r="H1566">
+        <v>102908821504</v>
+      </c>
+      <c r="I1566">
+        <f t="shared" si="69"/>
+        <v>1564</v>
+      </c>
+      <c r="J1566">
+        <f>SUM($F$3:F1566)/I1566</f>
+        <v>1.0445513171355487</v>
+      </c>
+      <c r="K1566">
+        <f t="shared" si="70"/>
+        <v>1.1325086400000002</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1567" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B1567">
+        <v>1205.28</v>
+      </c>
+      <c r="C1567">
+        <v>1230.4000000000001</v>
+      </c>
+      <c r="D1567">
+        <v>1205.28</v>
+      </c>
+      <c r="E1567">
+        <v>1207.92</v>
+      </c>
+      <c r="F1567">
+        <f t="shared" si="68"/>
+        <v>1.2079200000000001</v>
+      </c>
+      <c r="G1567">
+        <v>58991203</v>
+      </c>
+      <c r="H1567">
+        <v>91070398464</v>
+      </c>
+      <c r="I1567">
+        <f t="shared" si="69"/>
+        <v>1565</v>
+      </c>
+      <c r="J1567">
+        <f>SUM($F$3:F1567)/I1567</f>
+        <v>1.0446557060702866</v>
+      </c>
+      <c r="K1567">
+        <f t="shared" si="70"/>
+        <v>1.1331495200000004</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1568" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B1568">
+        <v>1217.74</v>
+      </c>
+      <c r="C1568">
+        <v>1240.22</v>
+      </c>
+      <c r="D1568">
+        <v>1206</v>
+      </c>
+      <c r="E1568">
+        <v>1240.0899999999999</v>
+      </c>
+      <c r="F1568">
+        <f t="shared" si="68"/>
+        <v>1.2400899999999999</v>
+      </c>
+      <c r="G1568">
+        <v>84617527</v>
+      </c>
+      <c r="H1568">
+        <v>131427581952</v>
+      </c>
+      <c r="I1568">
+        <f t="shared" si="69"/>
+        <v>1566</v>
+      </c>
+      <c r="J1568">
+        <f>SUM($F$3:F1568)/I1568</f>
+        <v>1.0447805044699863</v>
+      </c>
+      <c r="K1568">
+        <f t="shared" si="70"/>
+        <v>1.1338708400000004</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1569" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B1569">
+        <v>1234.49</v>
+      </c>
+      <c r="C1569">
+        <v>1235.5999999999999</v>
+      </c>
+      <c r="D1569">
+        <v>1217.4000000000001</v>
+      </c>
+      <c r="E1569">
+        <v>1217.4100000000001</v>
+      </c>
+      <c r="F1569">
+        <f t="shared" si="68"/>
+        <v>1.2174100000000001</v>
+      </c>
+      <c r="G1569">
+        <v>79102856</v>
+      </c>
+      <c r="H1569">
+        <v>121705414656</v>
+      </c>
+      <c r="I1569">
+        <f t="shared" si="69"/>
+        <v>1567</v>
+      </c>
+      <c r="J1569">
+        <f>SUM($F$3:F1569)/I1569</f>
+        <v>1.0448906700701968</v>
+      </c>
+      <c r="K1569">
+        <f t="shared" si="70"/>
+        <v>1.1345238000000002</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1570" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B1570">
+        <v>1222.42</v>
+      </c>
+      <c r="C1570">
+        <v>1235.1400000000001</v>
+      </c>
+      <c r="D1570">
+        <v>1212.6600000000001</v>
+      </c>
+      <c r="E1570">
+        <v>1216.3399999999999</v>
+      </c>
+      <c r="F1570">
+        <f t="shared" si="68"/>
+        <v>1.21634</v>
+      </c>
+      <c r="G1570">
+        <v>85208280</v>
+      </c>
+      <c r="H1570">
+        <v>132027146240</v>
+      </c>
+      <c r="I1570">
+        <f t="shared" si="69"/>
+        <v>1568</v>
+      </c>
+      <c r="J1570">
+        <f>SUM($F$3:F1570)/I1570</f>
+        <v>1.0450000127551009</v>
+      </c>
+      <c r="K1570">
+        <f t="shared" si="70"/>
+        <v>1.13518648</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1571" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B1571">
+        <v>1204.57</v>
+      </c>
+      <c r="C1571">
+        <v>1204.6300000000001</v>
+      </c>
+      <c r="D1571">
+        <v>1162.1400000000001</v>
+      </c>
+      <c r="E1571">
+        <v>1167.49</v>
+      </c>
+      <c r="F1571">
+        <f t="shared" si="68"/>
+        <v>1.1674899999999999</v>
+      </c>
+      <c r="G1571">
+        <v>87709425</v>
+      </c>
+      <c r="H1571">
+        <v>126002782208</v>
+      </c>
+      <c r="I1571">
+        <f t="shared" si="69"/>
+        <v>1569</v>
+      </c>
+      <c r="J1571">
+        <f>SUM($F$3:F1571)/I1571</f>
+        <v>1.0450780815806235</v>
+      </c>
+      <c r="K1571">
+        <f t="shared" si="70"/>
+        <v>1.1356573999999999</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1572" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B1572">
+        <v>1238.69</v>
+      </c>
+      <c r="C1572">
+        <v>1238.7</v>
+      </c>
+      <c r="D1572">
+        <v>1172.57</v>
+      </c>
+      <c r="E1572">
+        <v>1174.19</v>
+      </c>
+      <c r="F1572">
+        <f t="shared" si="68"/>
+        <v>1.1741900000000001</v>
+      </c>
+      <c r="G1572">
+        <v>105707304</v>
+      </c>
+      <c r="H1572">
+        <v>159878774784</v>
+      </c>
+      <c r="I1572">
+        <f t="shared" si="69"/>
+        <v>1570</v>
+      </c>
+      <c r="J1572">
+        <f>SUM($F$3:F1572)/I1572</f>
+        <v>1.0451603184713365</v>
+      </c>
+      <c r="K1572">
+        <f t="shared" si="70"/>
+        <v>1.13614792</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1573" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B1573">
+        <v>1169.6199999999999</v>
+      </c>
+      <c r="C1573">
+        <v>1234.56</v>
+      </c>
+      <c r="D1573">
+        <v>1169.6199999999999</v>
+      </c>
+      <c r="E1573">
+        <v>1232.01</v>
+      </c>
+      <c r="F1573">
+        <f t="shared" si="68"/>
+        <v>1.23201</v>
+      </c>
+      <c r="G1573">
+        <v>106006023</v>
+      </c>
+      <c r="H1573">
+        <v>157316710400</v>
+      </c>
+      <c r="I1573">
+        <f t="shared" si="69"/>
+        <v>1571</v>
+      </c>
+      <c r="J1573">
+        <f>SUM($F$3:F1573)/I1573</f>
+        <v>1.0452792552514312</v>
+      </c>
+      <c r="K1573">
+        <f t="shared" si="70"/>
+        <v>1.136862</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1574" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B1574">
+        <v>1234.52</v>
+      </c>
+      <c r="C1574">
+        <v>1264.3800000000001</v>
+      </c>
+      <c r="D1574">
+        <v>1234.52</v>
+      </c>
+      <c r="E1574">
+        <v>1260.6600000000001</v>
+      </c>
+      <c r="F1574">
+        <f t="shared" si="68"/>
+        <v>1.2606600000000001</v>
+      </c>
+      <c r="G1574">
+        <v>111851354</v>
+      </c>
+      <c r="H1574">
+        <v>167040122880</v>
+      </c>
+      <c r="I1574">
+        <f t="shared" si="69"/>
+        <v>1572</v>
+      </c>
+      <c r="J1574">
+        <f>SUM($F$3:F1574)/I1574</f>
+        <v>1.0454162659033068</v>
+      </c>
+      <c r="K1574">
+        <f t="shared" si="70"/>
+        <v>1.1377649200000002</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1575" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B1575">
+        <v>1257.04</v>
+      </c>
+      <c r="C1575">
+        <v>1261.25</v>
+      </c>
+      <c r="D1575">
+        <v>1249.2</v>
+      </c>
+      <c r="E1575">
+        <v>1253.05</v>
+      </c>
+      <c r="F1575">
+        <f t="shared" si="68"/>
+        <v>1.25305</v>
+      </c>
+      <c r="G1575">
+        <v>86805026</v>
+      </c>
+      <c r="H1575">
+        <v>130526658560</v>
+      </c>
+      <c r="I1575">
+        <f t="shared" si="69"/>
+        <v>1573</v>
+      </c>
+      <c r="J1575">
+        <f>SUM($F$3:F1575)/I1575</f>
+        <v>1.0455482644628087</v>
+      </c>
+      <c r="K1575">
+        <f t="shared" si="70"/>
+        <v>1.1386268800000001</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1598"/>
+  <dimension ref="A1:K1615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1578" workbookViewId="0">
-      <selection activeCell="A1599" sqref="A1599"/>
+    <sheetView tabSelected="1" topLeftCell="A1599" workbookViewId="0">
+      <selection activeCell="A1616" sqref="A1616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1598" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1615" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1598" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1615" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1598" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1615" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -61703,6 +61703,669 @@
       <c r="K1598">
         <f t="shared" si="68"/>
         <v>1.1595792</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1599" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B1599">
+        <v>1229.24</v>
+      </c>
+      <c r="C1599">
+        <v>1236.22</v>
+      </c>
+      <c r="D1599">
+        <v>1223.3</v>
+      </c>
+      <c r="E1599">
+        <v>1232.56</v>
+      </c>
+      <c r="F1599">
+        <f t="shared" si="66"/>
+        <v>1.2325599999999999</v>
+      </c>
+      <c r="G1599">
+        <v>75759687</v>
+      </c>
+      <c r="H1599" s="3">
+        <v>106000000000</v>
+      </c>
+      <c r="I1599">
+        <f t="shared" si="67"/>
+        <v>1597</v>
+      </c>
+      <c r="J1599">
+        <f>SUM($F$3:F1599)/I1599</f>
+        <v>1.0476568252974314</v>
+      </c>
+      <c r="K1599">
+        <f t="shared" si="68"/>
+        <v>1.1608284400000002</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1600" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B1600">
+        <v>1236.05</v>
+      </c>
+      <c r="C1600">
+        <v>1250.56</v>
+      </c>
+      <c r="D1600">
+        <v>1236.05</v>
+      </c>
+      <c r="E1600">
+        <v>1247.03</v>
+      </c>
+      <c r="F1600">
+        <f t="shared" si="66"/>
+        <v>1.2470300000000001</v>
+      </c>
+      <c r="G1600">
+        <v>93284816</v>
+      </c>
+      <c r="H1600" s="3">
+        <v>131000000000</v>
+      </c>
+      <c r="I1600">
+        <f t="shared" si="67"/>
+        <v>1598</v>
+      </c>
+      <c r="J1600">
+        <f>SUM($F$3:F1600)/I1600</f>
+        <v>1.0477815894868574</v>
+      </c>
+      <c r="K1600">
+        <f t="shared" si="68"/>
+        <v>1.1621342800000003</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1601" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B1601">
+        <v>1248.26</v>
+      </c>
+      <c r="C1601">
+        <v>1266.6199999999999</v>
+      </c>
+      <c r="D1601">
+        <v>1238.7</v>
+      </c>
+      <c r="E1601">
+        <v>1257.83</v>
+      </c>
+      <c r="F1601">
+        <f t="shared" si="66"/>
+        <v>1.25783</v>
+      </c>
+      <c r="G1601">
+        <v>99692752</v>
+      </c>
+      <c r="H1601" s="3">
+        <v>148000000000</v>
+      </c>
+      <c r="I1601">
+        <f t="shared" si="67"/>
+        <v>1599</v>
+      </c>
+      <c r="J1601">
+        <f>SUM($F$3:F1601)/I1601</f>
+        <v>1.0479129518449017</v>
+      </c>
+      <c r="K1601">
+        <f t="shared" si="68"/>
+        <v>1.1635784400000002</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1602" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B1602">
+        <v>1261.3800000000001</v>
+      </c>
+      <c r="C1602">
+        <v>1262.6099999999999</v>
+      </c>
+      <c r="D1602">
+        <v>1247.53</v>
+      </c>
+      <c r="E1602">
+        <v>1252.19</v>
+      </c>
+      <c r="F1602">
+        <f t="shared" si="66"/>
+        <v>1.2521900000000001</v>
+      </c>
+      <c r="G1602">
+        <v>91621801</v>
+      </c>
+      <c r="H1602" s="3">
+        <v>128000000000</v>
+      </c>
+      <c r="I1602">
+        <f t="shared" si="67"/>
+        <v>1600</v>
+      </c>
+      <c r="J1602">
+        <f>SUM($F$3:F1602)/I1602</f>
+        <v>1.0480406249999987</v>
+      </c>
+      <c r="K1602">
+        <f t="shared" si="68"/>
+        <v>1.1650824800000004</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1603" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B1603">
+        <v>1246.6099999999999</v>
+      </c>
+      <c r="C1603">
+        <v>1249.22</v>
+      </c>
+      <c r="D1603">
+        <v>1239.73</v>
+      </c>
+      <c r="E1603">
+        <v>1241.77</v>
+      </c>
+      <c r="F1603">
+        <f t="shared" si="66"/>
+        <v>1.24177</v>
+      </c>
+      <c r="G1603">
+        <v>91572764</v>
+      </c>
+      <c r="H1603" s="3">
+        <v>126000000000</v>
+      </c>
+      <c r="I1603">
+        <f t="shared" si="67"/>
+        <v>1601</v>
+      </c>
+      <c r="J1603">
+        <f>SUM($F$3:F1603)/I1603</f>
+        <v>1.0481616302311043</v>
+      </c>
+      <c r="K1603">
+        <f t="shared" si="68"/>
+        <v>1.1664568400000002</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1604" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B1604">
+        <v>1241.1199999999999</v>
+      </c>
+      <c r="C1604">
+        <v>1241.53</v>
+      </c>
+      <c r="D1604">
+        <v>1223.78</v>
+      </c>
+      <c r="E1604">
+        <v>1231.71</v>
+      </c>
+      <c r="F1604">
+        <f t="shared" si="66"/>
+        <v>1.2317100000000001</v>
+      </c>
+      <c r="G1604">
+        <v>92798038</v>
+      </c>
+      <c r="H1604" s="3">
+        <v>125000000000</v>
+      </c>
+      <c r="I1604">
+        <f t="shared" si="67"/>
+        <v>1602</v>
+      </c>
+      <c r="J1604">
+        <f>SUM($F$3:F1604)/I1604</f>
+        <v>1.0482762047440688</v>
+      </c>
+      <c r="K1604">
+        <f t="shared" si="68"/>
+        <v>1.16789444</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1605" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B1605">
+        <v>1233.4000000000001</v>
+      </c>
+      <c r="C1605">
+        <v>1234.9100000000001</v>
+      </c>
+      <c r="D1605">
+        <v>1219.8800000000001</v>
+      </c>
+      <c r="E1605">
+        <v>1232.8900000000001</v>
+      </c>
+      <c r="F1605">
+        <f t="shared" si="66"/>
+        <v>1.23289</v>
+      </c>
+      <c r="G1605">
+        <v>90870068</v>
+      </c>
+      <c r="H1605" s="3">
+        <v>116000000000</v>
+      </c>
+      <c r="I1605">
+        <f t="shared" si="67"/>
+        <v>1603</v>
+      </c>
+      <c r="J1605">
+        <f>SUM($F$3:F1605)/I1605</f>
+        <v>1.0483913724266987</v>
+      </c>
+      <c r="K1605">
+        <f t="shared" si="68"/>
+        <v>1.16935996</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1606" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B1606">
+        <v>1227.1400000000001</v>
+      </c>
+      <c r="C1606">
+        <v>1227.1400000000001</v>
+      </c>
+      <c r="D1606">
+        <v>1201.8499999999999</v>
+      </c>
+      <c r="E1606">
+        <v>1209.9100000000001</v>
+      </c>
+      <c r="F1606">
+        <f t="shared" si="66"/>
+        <v>1.20991</v>
+      </c>
+      <c r="G1606">
+        <v>99381994</v>
+      </c>
+      <c r="H1606" s="3">
+        <v>134000000000</v>
+      </c>
+      <c r="I1606">
+        <f t="shared" si="67"/>
+        <v>1604</v>
+      </c>
+      <c r="J1606">
+        <f>SUM($F$3:F1606)/I1606</f>
+        <v>1.0484920698254352</v>
+      </c>
+      <c r="K1606">
+        <f t="shared" si="68"/>
+        <v>1.1707640799999999</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1607" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B1607">
+        <v>1203.8800000000001</v>
+      </c>
+      <c r="C1607">
+        <v>1229.9000000000001</v>
+      </c>
+      <c r="D1607">
+        <v>1201.71</v>
+      </c>
+      <c r="E1607">
+        <v>1201.8900000000001</v>
+      </c>
+      <c r="F1607">
+        <f t="shared" si="66"/>
+        <v>1.2018900000000001</v>
+      </c>
+      <c r="G1607">
+        <v>101887198</v>
+      </c>
+      <c r="H1607" s="3">
+        <v>137000000000</v>
+      </c>
+      <c r="I1607">
+        <f t="shared" si="67"/>
+        <v>1605</v>
+      </c>
+      <c r="J1607">
+        <f>SUM($F$3:F1607)/I1607</f>
+        <v>1.0485876448598119</v>
+      </c>
+      <c r="K1607">
+        <f t="shared" si="68"/>
+        <v>1.17221752</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1608" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B1608">
+        <v>1194.52</v>
+      </c>
+      <c r="C1608">
+        <v>1204.94</v>
+      </c>
+      <c r="D1608">
+        <v>1171.3599999999999</v>
+      </c>
+      <c r="E1608">
+        <v>1173.19</v>
+      </c>
+      <c r="F1608">
+        <f t="shared" si="66"/>
+        <v>1.17319</v>
+      </c>
+      <c r="G1608">
+        <v>90248139</v>
+      </c>
+      <c r="H1608" s="3">
+        <v>118000000000</v>
+      </c>
+      <c r="I1608">
+        <f t="shared" si="67"/>
+        <v>1606</v>
+      </c>
+      <c r="J1608">
+        <f>SUM($F$3:F1608)/I1608</f>
+        <v>1.0486652303860511</v>
+      </c>
+      <c r="K1608">
+        <f t="shared" si="68"/>
+        <v>1.1735364799999999</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1609" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B1609">
+        <v>1167.6500000000001</v>
+      </c>
+      <c r="C1609">
+        <v>1168.4100000000001</v>
+      </c>
+      <c r="D1609">
+        <v>1135.3499999999999</v>
+      </c>
+      <c r="E1609">
+        <v>1141.51</v>
+      </c>
+      <c r="F1609">
+        <f t="shared" si="66"/>
+        <v>1.14151</v>
+      </c>
+      <c r="G1609">
+        <v>86835825</v>
+      </c>
+      <c r="H1609" s="3">
+        <v>108000000000</v>
+      </c>
+      <c r="I1609">
+        <f t="shared" si="67"/>
+        <v>1607</v>
+      </c>
+      <c r="J1609">
+        <f>SUM($F$3:F1609)/I1609</f>
+        <v>1.0487230056004966</v>
+      </c>
+      <c r="K1609">
+        <f t="shared" si="68"/>
+        <v>1.17458756</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1610" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B1610">
+        <v>1146.1099999999999</v>
+      </c>
+      <c r="C1610">
+        <v>1173.22</v>
+      </c>
+      <c r="D1610">
+        <v>1136.44</v>
+      </c>
+      <c r="E1610">
+        <v>1167.07</v>
+      </c>
+      <c r="F1610">
+        <f t="shared" si="66"/>
+        <v>1.1670699999999998</v>
+      </c>
+      <c r="G1610">
+        <v>94102371</v>
+      </c>
+      <c r="H1610" s="3">
+        <v>124000000000</v>
+      </c>
+      <c r="I1610">
+        <f t="shared" si="67"/>
+        <v>1608</v>
+      </c>
+      <c r="J1610">
+        <f>SUM($F$3:F1610)/I1610</f>
+        <v>1.0487966044776107</v>
+      </c>
+      <c r="K1610">
+        <f t="shared" si="68"/>
+        <v>1.1756715600000001</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1611" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B1611">
+        <v>1173.43</v>
+      </c>
+      <c r="C1611">
+        <v>1200.27</v>
+      </c>
+      <c r="D1611">
+        <v>1170.8399999999999</v>
+      </c>
+      <c r="E1611">
+        <v>1193.05</v>
+      </c>
+      <c r="F1611">
+        <f t="shared" si="66"/>
+        <v>1.1930499999999999</v>
+      </c>
+      <c r="G1611">
+        <v>100981656</v>
+      </c>
+      <c r="H1611" s="3">
+        <v>133000000000</v>
+      </c>
+      <c r="I1611">
+        <f t="shared" si="67"/>
+        <v>1609</v>
+      </c>
+      <c r="J1611">
+        <f>SUM($F$3:F1611)/I1611</f>
+        <v>1.0488862585456793</v>
+      </c>
+      <c r="K1611">
+        <f t="shared" si="68"/>
+        <v>1.1767700400000001</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1612" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B1612">
+        <v>1184.75</v>
+      </c>
+      <c r="C1612">
+        <v>1202.05</v>
+      </c>
+      <c r="D1612">
+        <v>1182.32</v>
+      </c>
+      <c r="E1612">
+        <v>1201.57</v>
+      </c>
+      <c r="F1612">
+        <f t="shared" si="66"/>
+        <v>1.20157</v>
+      </c>
+      <c r="G1612">
+        <v>104226045</v>
+      </c>
+      <c r="H1612" s="3">
+        <v>139000000000</v>
+      </c>
+      <c r="I1612">
+        <f t="shared" si="67"/>
+        <v>1610</v>
+      </c>
+      <c r="J1612">
+        <f>SUM($F$3:F1612)/I1612</f>
+        <v>1.0489810931677006</v>
+      </c>
+      <c r="K1612">
+        <f t="shared" si="68"/>
+        <v>1.1778012000000002</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1613" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B1613">
+        <v>1196.9100000000001</v>
+      </c>
+      <c r="C1613">
+        <v>1203.82</v>
+      </c>
+      <c r="D1613">
+        <v>1179.1199999999999</v>
+      </c>
+      <c r="E1613">
+        <v>1198.8900000000001</v>
+      </c>
+      <c r="F1613">
+        <f t="shared" si="66"/>
+        <v>1.19889</v>
+      </c>
+      <c r="G1613">
+        <v>99104123</v>
+      </c>
+      <c r="H1613" s="3">
+        <v>134000000000</v>
+      </c>
+      <c r="I1613">
+        <f t="shared" si="67"/>
+        <v>1611</v>
+      </c>
+      <c r="J1613">
+        <f>SUM($F$3:F1613)/I1613</f>
+        <v>1.0490741464928603</v>
+      </c>
+      <c r="K1613">
+        <f t="shared" si="68"/>
+        <v>1.1788351600000002</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1614" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B1614">
+        <v>1194.3499999999999</v>
+      </c>
+      <c r="C1614">
+        <v>1227.45</v>
+      </c>
+      <c r="D1614">
+        <v>1194.07</v>
+      </c>
+      <c r="E1614">
+        <v>1224.81</v>
+      </c>
+      <c r="F1614">
+        <f t="shared" si="66"/>
+        <v>1.22481</v>
+      </c>
+      <c r="G1614">
+        <v>100409803</v>
+      </c>
+      <c r="H1614" s="3">
+        <v>140000000000</v>
+      </c>
+      <c r="I1614">
+        <f t="shared" si="67"/>
+        <v>1612</v>
+      </c>
+      <c r="J1614">
+        <f>SUM($F$3:F1614)/I1614</f>
+        <v>1.0491831637717108</v>
+      </c>
+      <c r="K1614">
+        <f t="shared" si="68"/>
+        <v>1.1799811600000003</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1615" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B1615">
+        <v>1224.6600000000001</v>
+      </c>
+      <c r="C1615">
+        <v>1228.93</v>
+      </c>
+      <c r="D1615">
+        <v>1205.3</v>
+      </c>
+      <c r="E1615">
+        <v>1213.95</v>
+      </c>
+      <c r="F1615">
+        <f t="shared" si="66"/>
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="G1615">
+        <v>96984955</v>
+      </c>
+      <c r="H1615" s="3">
+        <v>130000000000</v>
+      </c>
+      <c r="I1615">
+        <f t="shared" si="67"/>
+        <v>1613</v>
+      </c>
+      <c r="J1615">
+        <f>SUM($F$3:F1615)/I1615</f>
+        <v>1.0492853130812139</v>
+      </c>
+      <c r="K1615">
+        <f t="shared" si="68"/>
+        <v>1.18105912</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1615"/>
+  <dimension ref="A1:K1637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1599" workbookViewId="0">
-      <selection activeCell="A1616" sqref="A1616"/>
+    <sheetView tabSelected="1" topLeftCell="A1616" workbookViewId="0">
+      <selection activeCell="A1638" sqref="A1638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1615" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1637" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1615" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1637" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1615" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1637" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -62366,6 +62366,864 @@
       <c r="K1615">
         <f t="shared" si="68"/>
         <v>1.18105912</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1616" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B1616">
+        <v>1212.29</v>
+      </c>
+      <c r="C1616">
+        <v>1221.3800000000001</v>
+      </c>
+      <c r="D1616">
+        <v>1208.48</v>
+      </c>
+      <c r="E1616">
+        <v>1209.6300000000001</v>
+      </c>
+      <c r="F1616">
+        <f t="shared" si="66"/>
+        <v>1.2096300000000002</v>
+      </c>
+      <c r="G1616">
+        <v>81359684</v>
+      </c>
+      <c r="H1616" s="3">
+        <v>107400000000</v>
+      </c>
+      <c r="I1616">
+        <f t="shared" si="67"/>
+        <v>1614</v>
+      </c>
+      <c r="J1616">
+        <f>SUM($F$3:F1616)/I1616</f>
+        <v>1.0493846592317213</v>
+      </c>
+      <c r="K1616">
+        <f t="shared" si="68"/>
+        <v>1.1821102800000003</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1617" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B1617">
+        <v>1209.97</v>
+      </c>
+      <c r="C1617">
+        <v>1219.31</v>
+      </c>
+      <c r="D1617">
+        <v>1198</v>
+      </c>
+      <c r="E1617">
+        <v>1198.05</v>
+      </c>
+      <c r="F1617">
+        <f t="shared" si="66"/>
+        <v>1.1980500000000001</v>
+      </c>
+      <c r="G1617">
+        <v>87218950</v>
+      </c>
+      <c r="H1617" s="3">
+        <v>111982000000</v>
+      </c>
+      <c r="I1617">
+        <f t="shared" si="67"/>
+        <v>1615</v>
+      </c>
+      <c r="J1617">
+        <f>SUM($F$3:F1617)/I1617</f>
+        <v>1.049476712074302</v>
+      </c>
+      <c r="K1617">
+        <f t="shared" si="68"/>
+        <v>1.1831506000000007</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1618" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B1618">
+        <v>1202.68</v>
+      </c>
+      <c r="C1618">
+        <v>1228.03</v>
+      </c>
+      <c r="D1618">
+        <v>1202.5899999999999</v>
+      </c>
+      <c r="E1618">
+        <v>1224.47</v>
+      </c>
+      <c r="F1618">
+        <f t="shared" si="66"/>
+        <v>1.2244699999999999</v>
+      </c>
+      <c r="G1618">
+        <v>92345958</v>
+      </c>
+      <c r="H1618" s="3">
+        <v>123244000000</v>
+      </c>
+      <c r="I1618">
+        <f t="shared" si="67"/>
+        <v>1616</v>
+      </c>
+      <c r="J1618">
+        <f>SUM($F$3:F1618)/I1618</f>
+        <v>1.0495849999999989</v>
+      </c>
+      <c r="K1618">
+        <f t="shared" si="68"/>
+        <v>1.1843325200000006</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1619" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B1619">
+        <v>1232.45</v>
+      </c>
+      <c r="C1619">
+        <v>1263.9000000000001</v>
+      </c>
+      <c r="D1619">
+        <v>1232.45</v>
+      </c>
+      <c r="E1619">
+        <v>1263.9000000000001</v>
+      </c>
+      <c r="F1619">
+        <f t="shared" si="66"/>
+        <v>1.2639</v>
+      </c>
+      <c r="G1619">
+        <v>115767667</v>
+      </c>
+      <c r="H1619" s="3">
+        <v>155061000000</v>
+      </c>
+      <c r="I1619">
+        <f t="shared" si="67"/>
+        <v>1617</v>
+      </c>
+      <c r="J1619">
+        <f>SUM($F$3:F1619)/I1619</f>
+        <v>1.0497175386518232</v>
+      </c>
+      <c r="K1619">
+        <f t="shared" si="68"/>
+        <v>1.1855327200000003</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1620" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B1620">
+        <v>1263.03</v>
+      </c>
+      <c r="C1620">
+        <v>1282.45</v>
+      </c>
+      <c r="D1620">
+        <v>1259.76</v>
+      </c>
+      <c r="E1620">
+        <v>1279.3800000000001</v>
+      </c>
+      <c r="F1620">
+        <f t="shared" si="66"/>
+        <v>1.2793800000000002</v>
+      </c>
+      <c r="G1620">
+        <v>119485521</v>
+      </c>
+      <c r="H1620" s="3">
+        <v>160250000000</v>
+      </c>
+      <c r="I1620">
+        <f t="shared" si="67"/>
+        <v>1618</v>
+      </c>
+      <c r="J1620">
+        <f>SUM($F$3:F1620)/I1620</f>
+        <v>1.0498594808405426</v>
+      </c>
+      <c r="K1620">
+        <f t="shared" si="68"/>
+        <v>1.1867810400000005</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1621" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B1621">
+        <v>1280.3900000000001</v>
+      </c>
+      <c r="C1621">
+        <v>1300.6300000000001</v>
+      </c>
+      <c r="D1621">
+        <v>1279.2</v>
+      </c>
+      <c r="E1621">
+        <v>1292.71</v>
+      </c>
+      <c r="F1621">
+        <f t="shared" si="66"/>
+        <v>1.29271</v>
+      </c>
+      <c r="G1621">
+        <v>137352452</v>
+      </c>
+      <c r="H1621" s="3">
+        <v>182978000000</v>
+      </c>
+      <c r="I1621">
+        <f t="shared" si="67"/>
+        <v>1619</v>
+      </c>
+      <c r="J1621">
+        <f>SUM($F$3:F1621)/I1621</f>
+        <v>1.0500094811612093</v>
+      </c>
+      <c r="K1621">
+        <f t="shared" si="68"/>
+        <v>1.1882017200000008</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1622" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B1622">
+        <v>1291.1300000000001</v>
+      </c>
+      <c r="C1622">
+        <v>1299.8399999999999</v>
+      </c>
+      <c r="D1622">
+        <v>1278.03</v>
+      </c>
+      <c r="E1622">
+        <v>1282.44</v>
+      </c>
+      <c r="F1622">
+        <f t="shared" si="66"/>
+        <v>1.28244</v>
+      </c>
+      <c r="G1622">
+        <v>121163357</v>
+      </c>
+      <c r="H1622" s="3">
+        <v>166242000000</v>
+      </c>
+      <c r="I1622">
+        <f t="shared" si="67"/>
+        <v>1620</v>
+      </c>
+      <c r="J1622">
+        <f>SUM($F$3:F1622)/I1622</f>
+        <v>1.0501529567901222</v>
+      </c>
+      <c r="K1622">
+        <f t="shared" si="68"/>
+        <v>1.1894532000000004</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1623" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B1623">
+        <v>1274.1199999999999</v>
+      </c>
+      <c r="C1623">
+        <v>1279.8</v>
+      </c>
+      <c r="D1623">
+        <v>1265.8399999999999</v>
+      </c>
+      <c r="E1623">
+        <v>1270.1600000000001</v>
+      </c>
+      <c r="F1623">
+        <f t="shared" si="66"/>
+        <v>1.2701600000000002</v>
+      </c>
+      <c r="G1623">
+        <v>91307275</v>
+      </c>
+      <c r="H1623" s="3">
+        <v>131483000000</v>
+      </c>
+      <c r="I1623">
+        <f t="shared" si="67"/>
+        <v>1621</v>
+      </c>
+      <c r="J1623">
+        <f>SUM($F$3:F1623)/I1623</f>
+        <v>1.0502886798272657</v>
+      </c>
+      <c r="K1623">
+        <f t="shared" si="68"/>
+        <v>1.1906040000000004</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1624" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B1624">
+        <v>1277.3800000000001</v>
+      </c>
+      <c r="C1624">
+        <v>1301.8</v>
+      </c>
+      <c r="D1624">
+        <v>1277.3800000000001</v>
+      </c>
+      <c r="E1624">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="F1624">
+        <f t="shared" si="66"/>
+        <v>1.2995999999999999</v>
+      </c>
+      <c r="G1624">
+        <v>106000550</v>
+      </c>
+      <c r="H1624" s="3">
+        <v>160124000000</v>
+      </c>
+      <c r="I1624">
+        <f t="shared" si="67"/>
+        <v>1622</v>
+      </c>
+      <c r="J1624">
+        <f>SUM($F$3:F1624)/I1624</f>
+        <v>1.0504423859432785</v>
+      </c>
+      <c r="K1624">
+        <f t="shared" si="68"/>
+        <v>1.1918231600000004</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1625" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B1625">
+        <v>1301.49</v>
+      </c>
+      <c r="C1625">
+        <v>1324.73</v>
+      </c>
+      <c r="D1625">
+        <v>1299.43</v>
+      </c>
+      <c r="E1625">
+        <v>1324.73</v>
+      </c>
+      <c r="F1625">
+        <f t="shared" si="66"/>
+        <v>1.32473</v>
+      </c>
+      <c r="G1625">
+        <v>116318265</v>
+      </c>
+      <c r="H1625" s="3">
+        <v>174902000000</v>
+      </c>
+      <c r="I1625">
+        <f t="shared" si="67"/>
+        <v>1623</v>
+      </c>
+      <c r="J1625">
+        <f>SUM($F$3:F1625)/I1625</f>
+        <v>1.0506113863216253</v>
+      </c>
+      <c r="K1625">
+        <f t="shared" si="68"/>
+        <v>1.1931637200000003</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1626" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B1626">
+        <v>1336.36</v>
+      </c>
+      <c r="C1626">
+        <v>1338.01</v>
+      </c>
+      <c r="D1626">
+        <v>1321.87</v>
+      </c>
+      <c r="E1626">
+        <v>1326.95</v>
+      </c>
+      <c r="F1626">
+        <f t="shared" si="66"/>
+        <v>1.3269500000000001</v>
+      </c>
+      <c r="G1626">
+        <v>121539322</v>
+      </c>
+      <c r="H1626" s="3">
+        <v>181647000000</v>
+      </c>
+      <c r="I1626">
+        <f t="shared" si="67"/>
+        <v>1624</v>
+      </c>
+      <c r="J1626">
+        <f>SUM($F$3:F1626)/I1626</f>
+        <v>1.0507815455665011</v>
+      </c>
+      <c r="K1626">
+        <f t="shared" si="68"/>
+        <v>1.1944730400000003</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1627" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B1627">
+        <v>1320.95</v>
+      </c>
+      <c r="C1627">
+        <v>1332.6</v>
+      </c>
+      <c r="D1627">
+        <v>1315.87</v>
+      </c>
+      <c r="E1627">
+        <v>1322.45</v>
+      </c>
+      <c r="F1627">
+        <f t="shared" si="66"/>
+        <v>1.3224500000000001</v>
+      </c>
+      <c r="G1627">
+        <v>108197091</v>
+      </c>
+      <c r="H1627" s="3">
+        <v>154446000000</v>
+      </c>
+      <c r="I1627">
+        <f t="shared" si="67"/>
+        <v>1625</v>
+      </c>
+      <c r="J1627">
+        <f>SUM($F$3:F1627)/I1627</f>
+        <v>1.0509487261538448</v>
+      </c>
+      <c r="K1627">
+        <f t="shared" si="68"/>
+        <v>1.1957446800000004</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1628" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B1628">
+        <v>1318.85</v>
+      </c>
+      <c r="C1628">
+        <v>1327.65</v>
+      </c>
+      <c r="D1628">
+        <v>1317.17</v>
+      </c>
+      <c r="E1628">
+        <v>1327.65</v>
+      </c>
+      <c r="F1628">
+        <f t="shared" si="66"/>
+        <v>1.32765</v>
+      </c>
+      <c r="G1628">
+        <v>102510174</v>
+      </c>
+      <c r="H1628" s="3">
+        <v>146085000000</v>
+      </c>
+      <c r="I1628">
+        <f t="shared" si="67"/>
+        <v>1626</v>
+      </c>
+      <c r="J1628">
+        <f>SUM($F$3:F1628)/I1628</f>
+        <v>1.0511188991389899</v>
+      </c>
+      <c r="K1628">
+        <f t="shared" si="68"/>
+        <v>1.1970096400000005</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1629" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B1629">
+        <v>1329.09</v>
+      </c>
+      <c r="C1629">
+        <v>1346.04</v>
+      </c>
+      <c r="D1629">
+        <v>1326.61</v>
+      </c>
+      <c r="E1629">
+        <v>1344.06</v>
+      </c>
+      <c r="F1629">
+        <f t="shared" si="66"/>
+        <v>1.34406</v>
+      </c>
+      <c r="G1629">
+        <v>114275235</v>
+      </c>
+      <c r="H1629" s="3">
+        <v>164088000000</v>
+      </c>
+      <c r="I1629">
+        <f t="shared" si="67"/>
+        <v>1627</v>
+      </c>
+      <c r="J1629">
+        <f>SUM($F$3:F1629)/I1629</f>
+        <v>1.0512989489858622</v>
+      </c>
+      <c r="K1629">
+        <f t="shared" si="68"/>
+        <v>1.1983673200000007</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1630" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B1630">
+        <v>1346.71</v>
+      </c>
+      <c r="C1630">
+        <v>1348.85</v>
+      </c>
+      <c r="D1630">
+        <v>1327.75</v>
+      </c>
+      <c r="E1630">
+        <v>1331.33</v>
+      </c>
+      <c r="F1630">
+        <f t="shared" si="66"/>
+        <v>1.3313299999999999</v>
+      </c>
+      <c r="G1630">
+        <v>123998887</v>
+      </c>
+      <c r="H1630" s="3">
+        <v>169496000000</v>
+      </c>
+      <c r="I1630">
+        <f t="shared" si="67"/>
+        <v>1628</v>
+      </c>
+      <c r="J1630">
+        <f>SUM($F$3:F1630)/I1630</f>
+        <v>1.0514709582309567</v>
+      </c>
+      <c r="K1630">
+        <f t="shared" si="68"/>
+        <v>1.1996632400000005</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1631" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B1631">
+        <v>1326.48</v>
+      </c>
+      <c r="C1631">
+        <v>1338.47</v>
+      </c>
+      <c r="D1631">
+        <v>1317.26</v>
+      </c>
+      <c r="E1631">
+        <v>1317.26</v>
+      </c>
+      <c r="F1631">
+        <f t="shared" si="66"/>
+        <v>1.3172600000000001</v>
+      </c>
+      <c r="G1631">
+        <v>121909320</v>
+      </c>
+      <c r="H1631" s="3">
+        <v>157518000000</v>
+      </c>
+      <c r="I1631">
+        <f t="shared" si="67"/>
+        <v>1629</v>
+      </c>
+      <c r="J1631">
+        <f>SUM($F$3:F1631)/I1631</f>
+        <v>1.0516341190914658</v>
+      </c>
+      <c r="K1631">
+        <f t="shared" si="68"/>
+        <v>1.2009087200000006</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1632" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B1632">
+        <v>1312.83</v>
+      </c>
+      <c r="C1632">
+        <v>1323.95</v>
+      </c>
+      <c r="D1632">
+        <v>1298.97</v>
+      </c>
+      <c r="E1632">
+        <v>1322.29</v>
+      </c>
+      <c r="F1632">
+        <f t="shared" si="66"/>
+        <v>1.32229</v>
+      </c>
+      <c r="G1632">
+        <v>102562150</v>
+      </c>
+      <c r="H1632" s="3">
+        <v>135483000000</v>
+      </c>
+      <c r="I1632">
+        <f t="shared" si="67"/>
+        <v>1630</v>
+      </c>
+      <c r="J1632">
+        <f>SUM($F$3:F1632)/I1632</f>
+        <v>1.0518001656441704</v>
+      </c>
+      <c r="K1632">
+        <f t="shared" si="68"/>
+        <v>1.2021562000000006</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1633" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B1633">
+        <v>1321.48</v>
+      </c>
+      <c r="C1633">
+        <v>1321.69</v>
+      </c>
+      <c r="D1633">
+        <v>1285.97</v>
+      </c>
+      <c r="E1633">
+        <v>1289.1199999999999</v>
+      </c>
+      <c r="F1633">
+        <f t="shared" si="66"/>
+        <v>1.2891199999999998</v>
+      </c>
+      <c r="G1633">
+        <v>91829448</v>
+      </c>
+      <c r="H1633" s="3">
+        <v>125788000000</v>
+      </c>
+      <c r="I1633">
+        <f t="shared" si="67"/>
+        <v>1631</v>
+      </c>
+      <c r="J1633">
+        <f>SUM($F$3:F1633)/I1633</f>
+        <v>1.0519456713672579</v>
+      </c>
+      <c r="K1633">
+        <f t="shared" si="68"/>
+        <v>1.2031856400000005</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1634" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B1634">
+        <v>1284.26</v>
+      </c>
+      <c r="C1634">
+        <v>1298.6600000000001</v>
+      </c>
+      <c r="D1634">
+        <v>1284.1400000000001</v>
+      </c>
+      <c r="E1634">
+        <v>1292.33</v>
+      </c>
+      <c r="F1634">
+        <f t="shared" si="66"/>
+        <v>1.29233</v>
+      </c>
+      <c r="G1634">
+        <v>81631161</v>
+      </c>
+      <c r="H1634" s="3">
+        <v>114079000000</v>
+      </c>
+      <c r="I1634">
+        <f t="shared" si="67"/>
+        <v>1632</v>
+      </c>
+      <c r="J1634">
+        <f>SUM($F$3:F1634)/I1634</f>
+        <v>1.052092965686273</v>
+      </c>
+      <c r="K1634">
+        <f t="shared" si="68"/>
+        <v>1.2042332400000004</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1635" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B1635">
+        <v>1291.04</v>
+      </c>
+      <c r="C1635">
+        <v>1304.47</v>
+      </c>
+      <c r="D1635">
+        <v>1284.57</v>
+      </c>
+      <c r="E1635">
+        <v>1299.0999999999999</v>
+      </c>
+      <c r="F1635">
+        <f t="shared" si="66"/>
+        <v>1.2990999999999999</v>
+      </c>
+      <c r="G1635">
+        <v>73769602</v>
+      </c>
+      <c r="H1635" s="3">
+        <v>104406000000</v>
+      </c>
+      <c r="I1635">
+        <f t="shared" si="67"/>
+        <v>1633</v>
+      </c>
+      <c r="J1635">
+        <f>SUM($F$3:F1635)/I1635</f>
+        <v>1.0522442253521112</v>
+      </c>
+      <c r="K1635">
+        <f t="shared" si="68"/>
+        <v>1.2052296800000006</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1636" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B1636">
+        <v>1296.6099999999999</v>
+      </c>
+      <c r="C1636">
+        <v>1302.02</v>
+      </c>
+      <c r="D1636">
+        <v>1285.73</v>
+      </c>
+      <c r="E1636">
+        <v>1287.25</v>
+      </c>
+      <c r="F1636">
+        <f t="shared" si="66"/>
+        <v>1.28725</v>
+      </c>
+      <c r="G1636">
+        <v>71407023</v>
+      </c>
+      <c r="H1636" s="3">
+        <v>100412000000</v>
+      </c>
+      <c r="I1636">
+        <f t="shared" si="67"/>
+        <v>1634</v>
+      </c>
+      <c r="J1636">
+        <f>SUM($F$3:F1636)/I1636</f>
+        <v>1.0523880477356167</v>
+      </c>
+      <c r="K1636">
+        <f t="shared" si="68"/>
+        <v>1.2062346000000006</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1637" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B1637">
+        <v>1285.73</v>
+      </c>
+      <c r="C1637">
+        <v>1289.95</v>
+      </c>
+      <c r="D1637">
+        <v>1262.75</v>
+      </c>
+      <c r="E1637">
+        <v>1276.53</v>
+      </c>
+      <c r="F1637">
+        <f t="shared" si="66"/>
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="G1637">
+        <v>74574906</v>
+      </c>
+      <c r="H1637" s="3">
+        <v>100319000000</v>
+      </c>
+      <c r="I1637">
+        <f t="shared" si="67"/>
+        <v>1635</v>
+      </c>
+      <c r="J1637">
+        <f>SUM($F$3:F1637)/I1637</f>
+        <v>1.0525251376146776</v>
+      </c>
+      <c r="K1637">
+        <f t="shared" si="68"/>
+        <v>1.2071982400000003</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1637"/>
+  <dimension ref="A1:K1658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1616" workbookViewId="0">
-      <selection activeCell="A1638" sqref="A1638"/>
+    <sheetView tabSelected="1" topLeftCell="A1637" workbookViewId="0">
+      <selection activeCell="A1659" sqref="A1659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1637" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1658" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1637" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1658" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1637" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1658" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -63224,6 +63224,825 @@
       <c r="K1637">
         <f t="shared" si="68"/>
         <v>1.2071982400000003</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1638" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B1638">
+        <v>1276.56</v>
+      </c>
+      <c r="C1638">
+        <v>1312.32</v>
+      </c>
+      <c r="D1638">
+        <v>1273.08</v>
+      </c>
+      <c r="E1638">
+        <v>1310.29</v>
+      </c>
+      <c r="F1638">
+        <f t="shared" si="66"/>
+        <v>1.31029</v>
+      </c>
+      <c r="G1638">
+        <v>101376861</v>
+      </c>
+      <c r="H1638" s="3">
+        <v>139010000000</v>
+      </c>
+      <c r="I1638">
+        <f t="shared" si="67"/>
+        <v>1636</v>
+      </c>
+      <c r="J1638">
+        <f>SUM($F$3:F1638)/I1638</f>
+        <v>1.0526826955990205</v>
+      </c>
+      <c r="K1638">
+        <f t="shared" si="68"/>
+        <v>1.2083555600000004</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1639" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B1639">
+        <v>1312.54</v>
+      </c>
+      <c r="C1639">
+        <v>1327.63</v>
+      </c>
+      <c r="D1639">
+        <v>1312.54</v>
+      </c>
+      <c r="E1639">
+        <v>1317.39</v>
+      </c>
+      <c r="F1639">
+        <f t="shared" si="66"/>
+        <v>1.3173900000000001</v>
+      </c>
+      <c r="G1639">
+        <v>98828983</v>
+      </c>
+      <c r="H1639" s="3">
+        <v>144711000000</v>
+      </c>
+      <c r="I1639">
+        <f t="shared" si="67"/>
+        <v>1637</v>
+      </c>
+      <c r="J1639">
+        <f>SUM($F$3:F1639)/I1639</f>
+        <v>1.0528443982895526</v>
+      </c>
+      <c r="K1639">
+        <f t="shared" si="68"/>
+        <v>1.2096059200000007</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1640" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B1640">
+        <v>1313.87</v>
+      </c>
+      <c r="C1640">
+        <v>1313.87</v>
+      </c>
+      <c r="D1640">
+        <v>1276.71</v>
+      </c>
+      <c r="E1640">
+        <v>1276.71</v>
+      </c>
+      <c r="F1640">
+        <f t="shared" si="66"/>
+        <v>1.27671</v>
+      </c>
+      <c r="G1640">
+        <v>89892376</v>
+      </c>
+      <c r="H1640" s="3">
+        <v>127336000000</v>
+      </c>
+      <c r="I1640">
+        <f t="shared" si="67"/>
+        <v>1638</v>
+      </c>
+      <c r="J1640">
+        <f>SUM($F$3:F1640)/I1640</f>
+        <v>1.052981068376067</v>
+      </c>
+      <c r="K1640">
+        <f t="shared" si="68"/>
+        <v>1.2107036000000004</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1641" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B1641">
+        <v>1272.48</v>
+      </c>
+      <c r="C1641">
+        <v>1295.06</v>
+      </c>
+      <c r="D1641">
+        <v>1266.07</v>
+      </c>
+      <c r="E1641">
+        <v>1282.8699999999999</v>
+      </c>
+      <c r="F1641">
+        <f t="shared" si="66"/>
+        <v>1.28287</v>
+      </c>
+      <c r="G1641">
+        <v>87451162</v>
+      </c>
+      <c r="H1641" s="3">
+        <v>117068000000</v>
+      </c>
+      <c r="I1641">
+        <f t="shared" si="67"/>
+        <v>1639</v>
+      </c>
+      <c r="J1641">
+        <f>SUM($F$3:F1641)/I1641</f>
+        <v>1.0531213300793152</v>
+      </c>
+      <c r="K1641">
+        <f t="shared" si="68"/>
+        <v>1.2118764000000006</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1642" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B1642">
+        <v>1282.49</v>
+      </c>
+      <c r="C1642">
+        <v>1305.82</v>
+      </c>
+      <c r="D1642">
+        <v>1282.49</v>
+      </c>
+      <c r="E1642">
+        <v>1300.6199999999999</v>
+      </c>
+      <c r="F1642">
+        <f t="shared" si="66"/>
+        <v>1.3006199999999999</v>
+      </c>
+      <c r="G1642">
+        <v>95044918</v>
+      </c>
+      <c r="H1642" s="3">
+        <v>136288000000</v>
+      </c>
+      <c r="I1642">
+        <f t="shared" si="67"/>
+        <v>1640</v>
+      </c>
+      <c r="J1642">
+        <f>SUM($F$3:F1642)/I1642</f>
+        <v>1.0532722439024376</v>
+      </c>
+      <c r="K1642">
+        <f t="shared" si="68"/>
+        <v>1.2131631600000004</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1643" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B1643">
+        <v>1302.1099999999999</v>
+      </c>
+      <c r="C1643">
+        <v>1314.65</v>
+      </c>
+      <c r="D1643">
+        <v>1295.08</v>
+      </c>
+      <c r="E1643">
+        <v>1301.0999999999999</v>
+      </c>
+      <c r="F1643">
+        <f t="shared" si="66"/>
+        <v>1.3010999999999999</v>
+      </c>
+      <c r="G1643">
+        <v>109226410</v>
+      </c>
+      <c r="H1643" s="3">
+        <v>173642000000</v>
+      </c>
+      <c r="I1643">
+        <f t="shared" si="67"/>
+        <v>1641</v>
+      </c>
+      <c r="J1643">
+        <f>SUM($F$3:F1643)/I1643</f>
+        <v>1.0534232663010346</v>
+      </c>
+      <c r="K1643">
+        <f t="shared" si="68"/>
+        <v>1.2143714000000008</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1644" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B1644">
+        <v>1296.76</v>
+      </c>
+      <c r="C1644">
+        <v>1324.32</v>
+      </c>
+      <c r="D1644">
+        <v>1288.52</v>
+      </c>
+      <c r="E1644">
+        <v>1324.32</v>
+      </c>
+      <c r="F1644">
+        <f t="shared" si="66"/>
+        <v>1.3243199999999999</v>
+      </c>
+      <c r="G1644">
+        <v>106915901</v>
+      </c>
+      <c r="H1644" s="3">
+        <v>156193000000</v>
+      </c>
+      <c r="I1644">
+        <f t="shared" si="67"/>
+        <v>1642</v>
+      </c>
+      <c r="J1644">
+        <f>SUM($F$3:F1644)/I1644</f>
+        <v>1.0535882460414114</v>
+      </c>
+      <c r="K1644">
+        <f t="shared" si="68"/>
+        <v>1.2156924400000007</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1645" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B1645">
+        <v>1325.22</v>
+      </c>
+      <c r="C1645">
+        <v>1335.94</v>
+      </c>
+      <c r="D1645">
+        <v>1324.85</v>
+      </c>
+      <c r="E1645">
+        <v>1333.57</v>
+      </c>
+      <c r="F1645">
+        <f t="shared" si="66"/>
+        <v>1.3335699999999999</v>
+      </c>
+      <c r="G1645">
+        <v>95567302</v>
+      </c>
+      <c r="H1645" s="3">
+        <v>149175000000</v>
+      </c>
+      <c r="I1645">
+        <f t="shared" si="67"/>
+        <v>1643</v>
+      </c>
+      <c r="J1645">
+        <f>SUM($F$3:F1645)/I1645</f>
+        <v>1.0537586548995723</v>
+      </c>
+      <c r="K1645">
+        <f t="shared" si="68"/>
+        <v>1.2169726800000007</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1646" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B1646">
+        <v>1332.22</v>
+      </c>
+      <c r="C1646">
+        <v>1334.53</v>
+      </c>
+      <c r="D1646">
+        <v>1319.39</v>
+      </c>
+      <c r="E1646">
+        <v>1319.61</v>
+      </c>
+      <c r="F1646">
+        <f t="shared" si="66"/>
+        <v>1.3196099999999999</v>
+      </c>
+      <c r="G1646">
+        <v>89701877</v>
+      </c>
+      <c r="H1646" s="3">
+        <v>131020000000</v>
+      </c>
+      <c r="I1646">
+        <f t="shared" si="67"/>
+        <v>1644</v>
+      </c>
+      <c r="J1646">
+        <f>SUM($F$3:F1646)/I1646</f>
+        <v>1.0539203649635021</v>
+      </c>
+      <c r="K1646">
+        <f t="shared" si="68"/>
+        <v>1.2181330400000006</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1647" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B1647">
+        <v>1323.64</v>
+      </c>
+      <c r="C1647">
+        <v>1332.46</v>
+      </c>
+      <c r="D1647">
+        <v>1306.79</v>
+      </c>
+      <c r="E1647">
+        <v>1307.94</v>
+      </c>
+      <c r="F1647">
+        <f t="shared" si="66"/>
+        <v>1.3079400000000001</v>
+      </c>
+      <c r="G1647">
+        <v>91015190</v>
+      </c>
+      <c r="H1647" s="3">
+        <v>124475000000</v>
+      </c>
+      <c r="I1647">
+        <f t="shared" si="67"/>
+        <v>1645</v>
+      </c>
+      <c r="J1647">
+        <f>SUM($F$3:F1647)/I1647</f>
+        <v>1.0540747841945273</v>
+      </c>
+      <c r="K1647">
+        <f t="shared" si="68"/>
+        <v>1.2191919200000008</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1648" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B1648">
+        <v>1309.1600000000001</v>
+      </c>
+      <c r="C1648">
+        <v>1313.26</v>
+      </c>
+      <c r="D1648">
+        <v>1291.93</v>
+      </c>
+      <c r="E1648">
+        <v>1301.01</v>
+      </c>
+      <c r="F1648">
+        <f t="shared" si="66"/>
+        <v>1.30101</v>
+      </c>
+      <c r="G1648">
+        <v>87037483</v>
+      </c>
+      <c r="H1648" s="3">
+        <v>116410000000</v>
+      </c>
+      <c r="I1648">
+        <f t="shared" si="67"/>
+        <v>1646</v>
+      </c>
+      <c r="J1648">
+        <f>SUM($F$3:F1648)/I1648</f>
+        <v>1.0542248055893058</v>
+      </c>
+      <c r="K1648">
+        <f t="shared" si="68"/>
+        <v>1.2202477200000008</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1649" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B1649">
+        <v>1298.3</v>
+      </c>
+      <c r="C1649">
+        <v>1304.8699999999999</v>
+      </c>
+      <c r="D1649">
+        <v>1275.71</v>
+      </c>
+      <c r="E1649">
+        <v>1279.3599999999999</v>
+      </c>
+      <c r="F1649">
+        <f t="shared" si="66"/>
+        <v>1.2793599999999998</v>
+      </c>
+      <c r="G1649">
+        <v>79454350</v>
+      </c>
+      <c r="H1649" s="3">
+        <v>106310000000</v>
+      </c>
+      <c r="I1649">
+        <f t="shared" si="67"/>
+        <v>1647</v>
+      </c>
+      <c r="J1649">
+        <f>SUM($F$3:F1649)/I1649</f>
+        <v>1.0543614996964161</v>
+      </c>
+      <c r="K1649">
+        <f t="shared" si="68"/>
+        <v>1.2212323600000006</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1650" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B1650">
+        <v>1277.8900000000001</v>
+      </c>
+      <c r="C1650">
+        <v>1294.4100000000001</v>
+      </c>
+      <c r="D1650">
+        <v>1272.72</v>
+      </c>
+      <c r="E1650">
+        <v>1290.8399999999999</v>
+      </c>
+      <c r="F1650">
+        <f t="shared" si="66"/>
+        <v>1.29084</v>
+      </c>
+      <c r="G1650">
+        <v>77681614</v>
+      </c>
+      <c r="H1650" s="3">
+        <v>104106000000</v>
+      </c>
+      <c r="I1650">
+        <f t="shared" si="67"/>
+        <v>1648</v>
+      </c>
+      <c r="J1650">
+        <f>SUM($F$3:F1650)/I1650</f>
+        <v>1.0545049939320372</v>
+      </c>
+      <c r="K1650">
+        <f t="shared" si="68"/>
+        <v>1.2223224800000005</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1651" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B1651">
+        <v>1293.6500000000001</v>
+      </c>
+      <c r="C1651">
+        <v>1294.9100000000001</v>
+      </c>
+      <c r="D1651">
+        <v>1265.8499999999999</v>
+      </c>
+      <c r="E1651">
+        <v>1266.02</v>
+      </c>
+      <c r="F1651">
+        <f t="shared" si="66"/>
+        <v>1.2660199999999999</v>
+      </c>
+      <c r="G1651">
+        <v>82823181</v>
+      </c>
+      <c r="H1651" s="3">
+        <v>111233000000</v>
+      </c>
+      <c r="I1651">
+        <f t="shared" si="67"/>
+        <v>1649</v>
+      </c>
+      <c r="J1651">
+        <f>SUM($F$3:F1651)/I1651</f>
+        <v>1.0546332625833823</v>
+      </c>
+      <c r="K1651">
+        <f t="shared" si="68"/>
+        <v>1.2233354800000007</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1652" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B1652">
+        <v>1258.25</v>
+      </c>
+      <c r="C1652">
+        <v>1279.1199999999999</v>
+      </c>
+      <c r="D1652">
+        <v>1244.07</v>
+      </c>
+      <c r="E1652">
+        <v>1273.46</v>
+      </c>
+      <c r="F1652">
+        <f t="shared" si="66"/>
+        <v>1.27346</v>
+      </c>
+      <c r="G1652">
+        <v>83108940</v>
+      </c>
+      <c r="H1652" s="3">
+        <v>112676000000</v>
+      </c>
+      <c r="I1652">
+        <f t="shared" si="67"/>
+        <v>1650</v>
+      </c>
+      <c r="J1652">
+        <f>SUM($F$3:F1652)/I1652</f>
+        <v>1.0547658848484833</v>
+      </c>
+      <c r="K1652">
+        <f t="shared" si="68"/>
+        <v>1.2243488400000007</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1653" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B1653">
+        <v>1271.8900000000001</v>
+      </c>
+      <c r="C1653">
+        <v>1272.98</v>
+      </c>
+      <c r="D1653">
+        <v>1228.06</v>
+      </c>
+      <c r="E1653">
+        <v>1232.93</v>
+      </c>
+      <c r="F1653">
+        <f t="shared" si="66"/>
+        <v>1.2329300000000001</v>
+      </c>
+      <c r="G1653">
+        <v>96025381</v>
+      </c>
+      <c r="H1653" s="3">
+        <v>123805000000</v>
+      </c>
+      <c r="I1653">
+        <f t="shared" si="67"/>
+        <v>1651</v>
+      </c>
+      <c r="J1653">
+        <f>SUM($F$3:F1653)/I1653</f>
+        <v>1.0548737976983629</v>
+      </c>
+      <c r="K1653">
+        <f t="shared" si="68"/>
+        <v>1.2252720400000006</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1654" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B1654">
+        <v>1230.19</v>
+      </c>
+      <c r="C1654">
+        <v>1241.21</v>
+      </c>
+      <c r="D1654">
+        <v>1216.79</v>
+      </c>
+      <c r="E1654">
+        <v>1228.5899999999999</v>
+      </c>
+      <c r="F1654">
+        <f t="shared" si="66"/>
+        <v>1.2285899999999998</v>
+      </c>
+      <c r="G1654">
+        <v>69080704</v>
+      </c>
+      <c r="H1654">
+        <v>88391147520</v>
+      </c>
+      <c r="I1654">
+        <f t="shared" si="67"/>
+        <v>1652</v>
+      </c>
+      <c r="J1654">
+        <f>SUM($F$3:F1654)/I1654</f>
+        <v>1.0549789527845019</v>
+      </c>
+      <c r="K1654">
+        <f t="shared" si="68"/>
+        <v>1.2261680400000006</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1655" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B1655">
+        <v>1229.07</v>
+      </c>
+      <c r="C1655">
+        <v>1229.07</v>
+      </c>
+      <c r="D1655">
+        <v>1195.3399999999999</v>
+      </c>
+      <c r="E1655">
+        <v>1201.0899999999999</v>
+      </c>
+      <c r="F1655">
+        <f t="shared" si="66"/>
+        <v>1.20109</v>
+      </c>
+      <c r="G1655">
+        <v>65241393</v>
+      </c>
+      <c r="H1655">
+        <v>85250244608</v>
+      </c>
+      <c r="I1655">
+        <f t="shared" si="67"/>
+        <v>1653</v>
+      </c>
+      <c r="J1655">
+        <f>SUM($F$3:F1655)/I1655</f>
+        <v>1.0550673442226239</v>
+      </c>
+      <c r="K1655">
+        <f t="shared" si="68"/>
+        <v>1.2269160000000006</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1656" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B1656">
+        <v>1202.81</v>
+      </c>
+      <c r="C1656">
+        <v>1216.94</v>
+      </c>
+      <c r="D1656">
+        <v>1199.48</v>
+      </c>
+      <c r="E1656">
+        <v>1213.98</v>
+      </c>
+      <c r="F1656">
+        <f t="shared" si="66"/>
+        <v>1.2139800000000001</v>
+      </c>
+      <c r="G1656">
+        <v>68849693</v>
+      </c>
+      <c r="H1656">
+        <v>87865049088</v>
+      </c>
+      <c r="I1656">
+        <f t="shared" si="67"/>
+        <v>1654</v>
+      </c>
+      <c r="J1656">
+        <f>SUM($F$3:F1656)/I1656</f>
+        <v>1.0551634220072534</v>
+      </c>
+      <c r="K1656">
+        <f t="shared" si="68"/>
+        <v>1.2278065600000008</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1657" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B1657">
+        <v>1211.54</v>
+      </c>
+      <c r="C1657">
+        <v>1242.92</v>
+      </c>
+      <c r="D1657">
+        <v>1199.4000000000001</v>
+      </c>
+      <c r="E1657">
+        <v>1236.95</v>
+      </c>
+      <c r="F1657">
+        <f t="shared" si="66"/>
+        <v>1.23695</v>
+      </c>
+      <c r="G1657">
+        <v>80185024</v>
+      </c>
+      <c r="H1657" s="3">
+        <v>107818000000</v>
+      </c>
+      <c r="I1657">
+        <f t="shared" si="67"/>
+        <v>1655</v>
+      </c>
+      <c r="J1657">
+        <f>SUM($F$3:F1657)/I1657</f>
+        <v>1.0552732628398775</v>
+      </c>
+      <c r="K1657">
+        <f t="shared" si="68"/>
+        <v>1.2288842000000004</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1658" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B1658">
+        <v>1235.6500000000001</v>
+      </c>
+      <c r="C1658">
+        <v>1267.1099999999999</v>
+      </c>
+      <c r="D1658">
+        <v>1235.47</v>
+      </c>
+      <c r="E1658">
+        <v>1266.3900000000001</v>
+      </c>
+      <c r="F1658">
+        <f t="shared" si="66"/>
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="G1658">
+        <v>85659460</v>
+      </c>
+      <c r="H1658" s="3">
+        <v>115406000000</v>
+      </c>
+      <c r="I1658">
+        <f t="shared" si="67"/>
+        <v>1656</v>
+      </c>
+      <c r="J1658">
+        <f>SUM($F$3:F1658)/I1658</f>
+        <v>1.0554007487922688</v>
+      </c>
+      <c r="K1658">
+        <f t="shared" si="68"/>
+        <v>1.2301022400000003</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1658"/>
+  <dimension ref="A1:K1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1637" workbookViewId="0">
-      <selection activeCell="A1659" sqref="A1659"/>
+    <sheetView tabSelected="1" topLeftCell="A1670" workbookViewId="0">
+      <selection activeCell="A1681" sqref="A1681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1658" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1680" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1658" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1680" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1658" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1680" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -64043,6 +64043,864 @@
       <c r="K1658">
         <f t="shared" si="68"/>
         <v>1.2301022400000003</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1659" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B1659">
+        <v>1267.43</v>
+      </c>
+      <c r="C1659">
+        <v>1270.19</v>
+      </c>
+      <c r="D1659">
+        <v>1253.6500000000001</v>
+      </c>
+      <c r="E1659">
+        <v>1253.6500000000001</v>
+      </c>
+      <c r="F1659">
+        <f t="shared" si="66"/>
+        <v>1.2536500000000002</v>
+      </c>
+      <c r="G1659">
+        <v>74357487</v>
+      </c>
+      <c r="H1659">
+        <v>99902857216</v>
+      </c>
+      <c r="I1659">
+        <f t="shared" si="67"/>
+        <v>1657</v>
+      </c>
+      <c r="J1659">
+        <f>SUM($F$3:F1659)/I1659</f>
+        <v>1.0555203922751946</v>
+      </c>
+      <c r="K1659">
+        <f t="shared" si="68"/>
+        <v>1.2313050000000005</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1660" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B1660">
+        <v>1250.23</v>
+      </c>
+      <c r="C1660">
+        <v>1254.24</v>
+      </c>
+      <c r="D1660">
+        <v>1233.3499999999999</v>
+      </c>
+      <c r="E1660">
+        <v>1244.51</v>
+      </c>
+      <c r="F1660">
+        <f t="shared" si="66"/>
+        <v>1.24451</v>
+      </c>
+      <c r="G1660">
+        <v>70849755</v>
+      </c>
+      <c r="H1660">
+        <v>97520336896</v>
+      </c>
+      <c r="I1660">
+        <f t="shared" si="67"/>
+        <v>1658</v>
+      </c>
+      <c r="J1660">
+        <f>SUM($F$3:F1660)/I1660</f>
+        <v>1.0556343787696003</v>
+      </c>
+      <c r="K1660">
+        <f t="shared" si="68"/>
+        <v>1.2325117200000004</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1661" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B1661">
+        <v>1242.44</v>
+      </c>
+      <c r="C1661">
+        <v>1246.18</v>
+      </c>
+      <c r="D1661">
+        <v>1232.0999999999999</v>
+      </c>
+      <c r="E1661">
+        <v>1239.94</v>
+      </c>
+      <c r="F1661">
+        <f t="shared" si="66"/>
+        <v>1.23994</v>
+      </c>
+      <c r="G1661">
+        <v>67972006</v>
+      </c>
+      <c r="H1661">
+        <v>95387410432</v>
+      </c>
+      <c r="I1661">
+        <f t="shared" si="67"/>
+        <v>1659</v>
+      </c>
+      <c r="J1661">
+        <f>SUM($F$3:F1661)/I1661</f>
+        <v>1.0557454731766107</v>
+      </c>
+      <c r="K1661">
+        <f t="shared" si="68"/>
+        <v>1.2336667200000004</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1662" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B1662">
+        <v>1240.96</v>
+      </c>
+      <c r="C1662">
+        <v>1242.4100000000001</v>
+      </c>
+      <c r="D1662">
+        <v>1207.9000000000001</v>
+      </c>
+      <c r="E1662">
+        <v>1214.8599999999999</v>
+      </c>
+      <c r="F1662">
+        <f t="shared" si="66"/>
+        <v>1.2148599999999998</v>
+      </c>
+      <c r="G1662">
+        <v>73786505</v>
+      </c>
+      <c r="H1662">
+        <v>95126536192</v>
+      </c>
+      <c r="I1662">
+        <f t="shared" si="67"/>
+        <v>1660</v>
+      </c>
+      <c r="J1662">
+        <f>SUM($F$3:F1662)/I1662</f>
+        <v>1.0558413253012031</v>
+      </c>
+      <c r="K1662">
+        <f t="shared" si="68"/>
+        <v>1.2346645600000001</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1663" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B1663">
+        <v>1212.1099999999999</v>
+      </c>
+      <c r="C1663">
+        <v>1212.29</v>
+      </c>
+      <c r="D1663">
+        <v>1190.25</v>
+      </c>
+      <c r="E1663">
+        <v>1190.28</v>
+      </c>
+      <c r="F1663">
+        <f t="shared" si="66"/>
+        <v>1.19028</v>
+      </c>
+      <c r="G1663">
+        <v>68005472</v>
+      </c>
+      <c r="H1663">
+        <v>87453368320</v>
+      </c>
+      <c r="I1663">
+        <f t="shared" si="67"/>
+        <v>1661</v>
+      </c>
+      <c r="J1663">
+        <f>SUM($F$3:F1663)/I1663</f>
+        <v>1.0559222636965666</v>
+      </c>
+      <c r="K1663">
+        <f t="shared" si="68"/>
+        <v>1.2355666000000001</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1664" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B1664">
+        <v>1193.92</v>
+      </c>
+      <c r="C1664">
+        <v>1210.28</v>
+      </c>
+      <c r="D1664">
+        <v>1183.1400000000001</v>
+      </c>
+      <c r="E1664">
+        <v>1192.8699999999999</v>
+      </c>
+      <c r="F1664">
+        <f t="shared" si="66"/>
+        <v>1.1928699999999999</v>
+      </c>
+      <c r="G1664">
+        <v>69083358</v>
+      </c>
+      <c r="H1664">
+        <v>88098062336</v>
+      </c>
+      <c r="I1664">
+        <f t="shared" si="67"/>
+        <v>1662</v>
+      </c>
+      <c r="J1664">
+        <f>SUM($F$3:F1664)/I1664</f>
+        <v>1.0560046630565567</v>
+      </c>
+      <c r="K1664">
+        <f t="shared" si="68"/>
+        <v>1.2365391200000004</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1665" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B1665">
+        <v>1189.43</v>
+      </c>
+      <c r="C1665">
+        <v>1189.43</v>
+      </c>
+      <c r="D1665">
+        <v>1161.68</v>
+      </c>
+      <c r="E1665">
+        <v>1165.28</v>
+      </c>
+      <c r="F1665">
+        <f t="shared" si="66"/>
+        <v>1.1652799999999999</v>
+      </c>
+      <c r="G1665">
+        <v>66202505</v>
+      </c>
+      <c r="H1665">
+        <v>82381438976</v>
+      </c>
+      <c r="I1665">
+        <f t="shared" si="67"/>
+        <v>1663</v>
+      </c>
+      <c r="J1665">
+        <f>SUM($F$3:F1665)/I1665</f>
+        <v>1.0560703728202028</v>
+      </c>
+      <c r="K1665">
+        <f t="shared" si="68"/>
+        <v>1.2374050000000005</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1666" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B1666">
+        <v>1163.48</v>
+      </c>
+      <c r="C1666">
+        <v>1204.78</v>
+      </c>
+      <c r="D1666">
+        <v>1163.48</v>
+      </c>
+      <c r="E1666">
+        <v>1201.54</v>
+      </c>
+      <c r="F1666">
+        <f t="shared" si="66"/>
+        <v>1.2015400000000001</v>
+      </c>
+      <c r="G1666">
+        <v>73140522</v>
+      </c>
+      <c r="H1666">
+        <v>97031462912</v>
+      </c>
+      <c r="I1666">
+        <f t="shared" si="67"/>
+        <v>1664</v>
+      </c>
+      <c r="J1666">
+        <f>SUM($F$3:F1666)/I1666</f>
+        <v>1.0561577944711522</v>
+      </c>
+      <c r="K1666">
+        <f t="shared" si="68"/>
+        <v>1.2383857600000006</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1667" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B1667">
+        <v>1198.98</v>
+      </c>
+      <c r="C1667">
+        <v>1201.25</v>
+      </c>
+      <c r="D1667">
+        <v>1177.5999999999999</v>
+      </c>
+      <c r="E1667">
+        <v>1177.92</v>
+      </c>
+      <c r="F1667">
+        <f t="shared" si="66"/>
+        <v>1.1779200000000001</v>
+      </c>
+      <c r="G1667">
+        <v>65955228</v>
+      </c>
+      <c r="H1667">
+        <v>84577329152</v>
+      </c>
+      <c r="I1667">
+        <f t="shared" si="67"/>
+        <v>1665</v>
+      </c>
+      <c r="J1667">
+        <f>SUM($F$3:F1667)/I1667</f>
+        <v>1.0562309249249233</v>
+      </c>
+      <c r="K1667">
+        <f t="shared" si="68"/>
+        <v>1.2391125200000004</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1668" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B1668">
+        <v>1173.22</v>
+      </c>
+      <c r="C1668">
+        <v>1182.3399999999999</v>
+      </c>
+      <c r="D1668">
+        <v>1164.3499999999999</v>
+      </c>
+      <c r="E1668">
+        <v>1172.94</v>
+      </c>
+      <c r="F1668">
+        <f t="shared" si="66"/>
+        <v>1.1729400000000001</v>
+      </c>
+      <c r="G1668">
+        <v>55475187</v>
+      </c>
+      <c r="H1668">
+        <v>71661232128</v>
+      </c>
+      <c r="I1668">
+        <f t="shared" si="67"/>
+        <v>1666</v>
+      </c>
+      <c r="J1668">
+        <f>SUM($F$3:F1668)/I1668</f>
+        <v>1.0563009783913551</v>
+      </c>
+      <c r="K1668">
+        <f t="shared" si="68"/>
+        <v>1.2397769200000002</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1669" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B1669">
+        <v>1172.46</v>
+      </c>
+      <c r="C1669">
+        <v>1172.46</v>
+      </c>
+      <c r="D1669">
+        <v>1145.01</v>
+      </c>
+      <c r="E1669">
+        <v>1164.67</v>
+      </c>
+      <c r="F1669">
+        <f t="shared" si="66"/>
+        <v>1.1646700000000001</v>
+      </c>
+      <c r="G1669">
+        <v>63371584</v>
+      </c>
+      <c r="H1669">
+        <v>79929974784</v>
+      </c>
+      <c r="I1669">
+        <f t="shared" si="67"/>
+        <v>1667</v>
+      </c>
+      <c r="J1669">
+        <f>SUM($F$3:F1669)/I1669</f>
+        <v>1.0563659868026378</v>
+      </c>
+      <c r="K1669">
+        <f t="shared" si="68"/>
+        <v>1.2403928000000002</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1670" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B1670">
+        <v>1163</v>
+      </c>
+      <c r="C1670">
+        <v>1163.47</v>
+      </c>
+      <c r="D1670">
+        <v>1135.33</v>
+      </c>
+      <c r="E1670">
+        <v>1135.33</v>
+      </c>
+      <c r="F1670">
+        <f t="shared" si="66"/>
+        <v>1.13533</v>
+      </c>
+      <c r="G1670">
+        <v>58337444</v>
+      </c>
+      <c r="H1670">
+        <v>74291912704</v>
+      </c>
+      <c r="I1670">
+        <f t="shared" si="67"/>
+        <v>1668</v>
+      </c>
+      <c r="J1670">
+        <f>SUM($F$3:F1670)/I1670</f>
+        <v>1.056413327338128</v>
+      </c>
+      <c r="K1670">
+        <f t="shared" si="68"/>
+        <v>1.2409326000000003</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1671" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B1671">
+        <v>1128.1099999999999</v>
+      </c>
+      <c r="C1671">
+        <v>1138.94</v>
+      </c>
+      <c r="D1671">
+        <v>1103.43</v>
+      </c>
+      <c r="E1671">
+        <v>1138.94</v>
+      </c>
+      <c r="F1671">
+        <f t="shared" si="66"/>
+        <v>1.1389400000000001</v>
+      </c>
+      <c r="G1671">
+        <v>83159794</v>
+      </c>
+      <c r="H1671" s="3">
+        <v>105148000000</v>
+      </c>
+      <c r="I1671">
+        <f t="shared" si="67"/>
+        <v>1669</v>
+      </c>
+      <c r="J1671">
+        <f>SUM($F$3:F1671)/I1671</f>
+        <v>1.0564627741162356</v>
+      </c>
+      <c r="K1671">
+        <f t="shared" si="68"/>
+        <v>1.2414677600000001</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1672" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B1672">
+        <v>1138.21</v>
+      </c>
+      <c r="C1672">
+        <v>1143.17</v>
+      </c>
+      <c r="D1672">
+        <v>1117.5999999999999</v>
+      </c>
+      <c r="E1672">
+        <v>1117.5999999999999</v>
+      </c>
+      <c r="F1672">
+        <f t="shared" si="66"/>
+        <v>1.1175999999999999</v>
+      </c>
+      <c r="G1672">
+        <v>66230684</v>
+      </c>
+      <c r="H1672">
+        <v>86786850816</v>
+      </c>
+      <c r="I1672">
+        <f t="shared" si="67"/>
+        <v>1670</v>
+      </c>
+      <c r="J1672">
+        <f>SUM($F$3:F1672)/I1672</f>
+        <v>1.0564993832335314</v>
+      </c>
+      <c r="K1672">
+        <f t="shared" si="68"/>
+        <v>1.2419093200000002</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1673" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B1673">
+        <v>1115.73</v>
+      </c>
+      <c r="C1673">
+        <v>1118.6099999999999</v>
+      </c>
+      <c r="D1673">
+        <v>1042.82</v>
+      </c>
+      <c r="E1673">
+        <v>1051.05</v>
+      </c>
+      <c r="F1673">
+        <f t="shared" si="66"/>
+        <v>1.05105</v>
+      </c>
+      <c r="G1673">
+        <v>78256152</v>
+      </c>
+      <c r="H1673">
+        <v>95699566592</v>
+      </c>
+      <c r="I1673">
+        <f t="shared" si="67"/>
+        <v>1671</v>
+      </c>
+      <c r="J1673">
+        <f>SUM($F$3:F1673)/I1673</f>
+        <v>1.0564961220825837</v>
+      </c>
+      <c r="K1673">
+        <f t="shared" si="68"/>
+        <v>1.2421354800000004</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1674" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B1674">
+        <v>1047.8499999999999</v>
+      </c>
+      <c r="C1674">
+        <v>1067.98</v>
+      </c>
+      <c r="D1674">
+        <v>1037.6099999999999</v>
+      </c>
+      <c r="E1674">
+        <v>1062.82</v>
+      </c>
+      <c r="F1674">
+        <f t="shared" si="66"/>
+        <v>1.0628199999999999</v>
+      </c>
+      <c r="G1674">
+        <v>72255470</v>
+      </c>
+      <c r="H1674">
+        <v>94968414208</v>
+      </c>
+      <c r="I1674">
+        <f t="shared" si="67"/>
+        <v>1672</v>
+      </c>
+      <c r="J1674">
+        <f>SUM($F$3:F1674)/I1674</f>
+        <v>1.0564999043062187</v>
+      </c>
+      <c r="K1674">
+        <f t="shared" si="68"/>
+        <v>1.2423962400000002</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1675" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B1675">
+        <v>1068.21</v>
+      </c>
+      <c r="C1675">
+        <v>1078.55</v>
+      </c>
+      <c r="D1675">
+        <v>1034.5</v>
+      </c>
+      <c r="E1675">
+        <v>1076.69</v>
+      </c>
+      <c r="F1675">
+        <f t="shared" si="66"/>
+        <v>1.0766900000000001</v>
+      </c>
+      <c r="G1675">
+        <v>75025989</v>
+      </c>
+      <c r="H1675">
+        <v>96056066048</v>
+      </c>
+      <c r="I1675">
+        <f t="shared" si="67"/>
+        <v>1673</v>
+      </c>
+      <c r="J1675">
+        <f>SUM($F$3:F1675)/I1675</f>
+        <v>1.0565119725044816</v>
+      </c>
+      <c r="K1675">
+        <f t="shared" si="68"/>
+        <v>1.2427165600000003</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1676" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B1676">
+        <v>1077.26</v>
+      </c>
+      <c r="C1676">
+        <v>1118.82</v>
+      </c>
+      <c r="D1676">
+        <v>1068.72</v>
+      </c>
+      <c r="E1676">
+        <v>1118.22</v>
+      </c>
+      <c r="F1676">
+        <f t="shared" si="66"/>
+        <v>1.11822</v>
+      </c>
+      <c r="G1676">
+        <v>87290953</v>
+      </c>
+      <c r="H1676" s="3">
+        <v>113593000000</v>
+      </c>
+      <c r="I1676">
+        <f t="shared" si="67"/>
+        <v>1674</v>
+      </c>
+      <c r="J1676">
+        <f>SUM($F$3:F1676)/I1676</f>
+        <v>1.0565488351254466</v>
+      </c>
+      <c r="K1676">
+        <f t="shared" si="68"/>
+        <v>1.2431336800000004</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1677" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B1677">
+        <v>1115.99</v>
+      </c>
+      <c r="C1677">
+        <v>1130.32</v>
+      </c>
+      <c r="D1677">
+        <v>1104.24</v>
+      </c>
+      <c r="E1677">
+        <v>1106.7</v>
+      </c>
+      <c r="F1677">
+        <f t="shared" si="66"/>
+        <v>1.1067</v>
+      </c>
+      <c r="G1677">
+        <v>79205353</v>
+      </c>
+      <c r="H1677" s="3">
+        <v>100415000000</v>
+      </c>
+      <c r="I1677">
+        <f t="shared" si="67"/>
+        <v>1675</v>
+      </c>
+      <c r="J1677">
+        <f>SUM($F$3:F1677)/I1677</f>
+        <v>1.0565787761194017</v>
+      </c>
+      <c r="K1677">
+        <f t="shared" si="68"/>
+        <v>1.2435131600000002</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1678" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B1678">
+        <v>1107.77</v>
+      </c>
+      <c r="C1678">
+        <v>1112.92</v>
+      </c>
+      <c r="D1678">
+        <v>1061.31</v>
+      </c>
+      <c r="E1678">
+        <v>1061.31</v>
+      </c>
+      <c r="F1678">
+        <f t="shared" si="66"/>
+        <v>1.06131</v>
+      </c>
+      <c r="G1678">
+        <v>73804743</v>
+      </c>
+      <c r="H1678">
+        <v>91464728576</v>
+      </c>
+      <c r="I1678">
+        <f t="shared" si="67"/>
+        <v>1676</v>
+      </c>
+      <c r="J1678">
+        <f>SUM($F$3:F1678)/I1678</f>
+        <v>1.0565815990453447</v>
+      </c>
+      <c r="K1678">
+        <f t="shared" si="68"/>
+        <v>1.2436518000000003</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1679" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B1679">
+        <v>1053.7</v>
+      </c>
+      <c r="C1679">
+        <v>1065.5999999999999</v>
+      </c>
+      <c r="D1679">
+        <v>1024.8699999999999</v>
+      </c>
+      <c r="E1679">
+        <v>1025.99</v>
+      </c>
+      <c r="F1679">
+        <f t="shared" si="66"/>
+        <v>1.02599</v>
+      </c>
+      <c r="G1679">
+        <v>59785358</v>
+      </c>
+      <c r="H1679">
+        <v>71863320576</v>
+      </c>
+      <c r="I1679">
+        <f t="shared" si="67"/>
+        <v>1677</v>
+      </c>
+      <c r="J1679">
+        <f>SUM($F$3:F1679)/I1679</f>
+        <v>1.0565633571854489</v>
+      </c>
+      <c r="K1679">
+        <f t="shared" si="68"/>
+        <v>1.2435778800000001</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1680" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B1680">
+        <v>1016.62</v>
+      </c>
+      <c r="C1680">
+        <v>1021.24</v>
+      </c>
+      <c r="D1680">
+        <v>965.13</v>
+      </c>
+      <c r="E1680">
+        <v>966.9</v>
+      </c>
+      <c r="F1680">
+        <f t="shared" si="66"/>
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="G1680">
+        <v>79054580</v>
+      </c>
+      <c r="H1680">
+        <v>89509740544</v>
+      </c>
+      <c r="I1680">
+        <f t="shared" si="67"/>
+        <v>1678</v>
+      </c>
+      <c r="J1680">
+        <f>SUM($F$3:F1680)/I1680</f>
+        <v>1.0565099225268164</v>
+      </c>
+      <c r="K1680">
+        <f t="shared" si="68"/>
+        <v>1.2432395200000002</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1680"/>
+  <dimension ref="A1:K1695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1670" workbookViewId="0">
-      <selection activeCell="A1681" sqref="A1681"/>
+    <sheetView tabSelected="1" topLeftCell="A1680" workbookViewId="0">
+      <selection activeCell="A1696" sqref="A1696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1680" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1695" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1680" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1695" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1680" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1695" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -64901,6 +64901,591 @@
       <c r="K1680">
         <f t="shared" si="68"/>
         <v>1.2432395200000002</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1681" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B1681">
+        <v>958.96</v>
+      </c>
+      <c r="C1681">
+        <v>981.05</v>
+      </c>
+      <c r="D1681">
+        <v>938.16</v>
+      </c>
+      <c r="E1681">
+        <v>958.24</v>
+      </c>
+      <c r="F1681">
+        <f t="shared" si="66"/>
+        <v>0.95823999999999998</v>
+      </c>
+      <c r="G1681">
+        <v>79865877</v>
+      </c>
+      <c r="H1681">
+        <v>87682695168</v>
+      </c>
+      <c r="I1681">
+        <f t="shared" si="67"/>
+        <v>1679</v>
+      </c>
+      <c r="J1681">
+        <f>SUM($F$3:F1681)/I1681</f>
+        <v>1.0564513936867168</v>
+      </c>
+      <c r="K1681">
+        <f t="shared" si="68"/>
+        <v>1.2427526800000002</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1682" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B1682">
+        <v>959.49</v>
+      </c>
+      <c r="C1682">
+        <v>977.88</v>
+      </c>
+      <c r="D1682">
+        <v>879.26</v>
+      </c>
+      <c r="E1682">
+        <v>912.94</v>
+      </c>
+      <c r="F1682">
+        <f t="shared" si="66"/>
+        <v>0.91294000000000008</v>
+      </c>
+      <c r="G1682">
+        <v>89040042</v>
+      </c>
+      <c r="H1682">
+        <v>93869137920</v>
+      </c>
+      <c r="I1682">
+        <f t="shared" si="67"/>
+        <v>1680</v>
+      </c>
+      <c r="J1682">
+        <f>SUM($F$3:F1682)/I1682</f>
+        <v>1.0563659702380939</v>
+      </c>
+      <c r="K1682">
+        <f t="shared" si="68"/>
+        <v>1.2420809600000002</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1683" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B1683">
+        <v>903.62</v>
+      </c>
+      <c r="C1683">
+        <v>903.62</v>
+      </c>
+      <c r="D1683">
+        <v>808.35</v>
+      </c>
+      <c r="E1683">
+        <v>823.38</v>
+      </c>
+      <c r="F1683">
+        <f t="shared" si="66"/>
+        <v>0.82338</v>
+      </c>
+      <c r="G1683">
+        <v>100245431</v>
+      </c>
+      <c r="H1683">
+        <v>99417161728</v>
+      </c>
+      <c r="I1683">
+        <f t="shared" si="67"/>
+        <v>1681</v>
+      </c>
+      <c r="J1683">
+        <f>SUM($F$3:F1683)/I1683</f>
+        <v>1.0562273706127292</v>
+      </c>
+      <c r="K1683">
+        <f t="shared" si="68"/>
+        <v>1.24089172</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1684" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B1684">
+        <v>800.51</v>
+      </c>
+      <c r="C1684">
+        <v>868.44</v>
+      </c>
+      <c r="D1684">
+        <v>772.2</v>
+      </c>
+      <c r="E1684">
+        <v>847.14</v>
+      </c>
+      <c r="F1684">
+        <f t="shared" si="66"/>
+        <v>0.84714</v>
+      </c>
+      <c r="G1684">
+        <v>110904008</v>
+      </c>
+      <c r="H1684" s="3">
+        <v>107601000000</v>
+      </c>
+      <c r="I1684">
+        <f t="shared" si="67"/>
+        <v>1682</v>
+      </c>
+      <c r="J1684">
+        <f>SUM($F$3:F1684)/I1684</f>
+        <v>1.056103061831152</v>
+      </c>
+      <c r="K1684">
+        <f t="shared" si="68"/>
+        <v>1.2397762400000003</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1685" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B1685">
+        <v>849.42</v>
+      </c>
+      <c r="C1685">
+        <v>868.33</v>
+      </c>
+      <c r="D1685">
+        <v>822.47</v>
+      </c>
+      <c r="E1685">
+        <v>834.5</v>
+      </c>
+      <c r="F1685">
+        <f t="shared" si="66"/>
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="G1685">
+        <v>112106961</v>
+      </c>
+      <c r="H1685" s="3">
+        <v>113274000000</v>
+      </c>
+      <c r="I1685">
+        <f t="shared" si="67"/>
+        <v>1683</v>
+      </c>
+      <c r="J1685">
+        <f>SUM($F$3:F1685)/I1685</f>
+        <v>1.0559713903743302</v>
+      </c>
+      <c r="K1685">
+        <f t="shared" si="68"/>
+        <v>1.2385258800000001</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1686" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B1686">
+        <v>838.64</v>
+      </c>
+      <c r="C1686">
+        <v>904.75</v>
+      </c>
+      <c r="D1686">
+        <v>834.92</v>
+      </c>
+      <c r="E1686">
+        <v>904.39</v>
+      </c>
+      <c r="F1686">
+        <f t="shared" si="66"/>
+        <v>0.90439000000000003</v>
+      </c>
+      <c r="G1686">
+        <v>110401291</v>
+      </c>
+      <c r="H1686" s="3">
+        <v>114909000000</v>
+      </c>
+      <c r="I1686">
+        <f t="shared" si="67"/>
+        <v>1684</v>
+      </c>
+      <c r="J1686">
+        <f>SUM($F$3:F1686)/I1686</f>
+        <v>1.0558813776722076</v>
+      </c>
+      <c r="K1686">
+        <f t="shared" si="68"/>
+        <v>1.2374965200000001</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1687" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B1687">
+        <v>933.73</v>
+      </c>
+      <c r="C1687">
+        <v>961.69</v>
+      </c>
+      <c r="D1687">
+        <v>933.73</v>
+      </c>
+      <c r="E1687">
+        <v>960.87</v>
+      </c>
+      <c r="F1687">
+        <f t="shared" si="66"/>
+        <v>0.96087</v>
+      </c>
+      <c r="G1687">
+        <v>112272829</v>
+      </c>
+      <c r="H1687" s="3">
+        <v>132770000000</v>
+      </c>
+      <c r="I1687">
+        <f t="shared" si="67"/>
+        <v>1685</v>
+      </c>
+      <c r="J1687">
+        <f>SUM($F$3:F1687)/I1687</f>
+        <v>1.0558249910979216</v>
+      </c>
+      <c r="K1687">
+        <f t="shared" si="68"/>
+        <v>1.2366389200000003</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1688" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B1688">
+        <v>961.43</v>
+      </c>
+      <c r="C1688">
+        <v>981.65</v>
+      </c>
+      <c r="D1688">
+        <v>949.03</v>
+      </c>
+      <c r="E1688">
+        <v>979.51</v>
+      </c>
+      <c r="F1688">
+        <f t="shared" si="66"/>
+        <v>0.97950999999999999</v>
+      </c>
+      <c r="G1688">
+        <v>103671051</v>
+      </c>
+      <c r="H1688" s="3">
+        <v>129228000000</v>
+      </c>
+      <c r="I1688">
+        <f t="shared" si="67"/>
+        <v>1686</v>
+      </c>
+      <c r="J1688">
+        <f>SUM($F$3:F1688)/I1688</f>
+        <v>1.0557797271648859</v>
+      </c>
+      <c r="K1688">
+        <f t="shared" si="68"/>
+        <v>1.2359190800000004</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1689" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B1689">
+        <v>969.38</v>
+      </c>
+      <c r="C1689">
+        <v>1019.26</v>
+      </c>
+      <c r="D1689">
+        <v>963.72</v>
+      </c>
+      <c r="E1689">
+        <v>992.31</v>
+      </c>
+      <c r="F1689">
+        <f t="shared" si="66"/>
+        <v>0.99230999999999991</v>
+      </c>
+      <c r="G1689">
+        <v>119052333</v>
+      </c>
+      <c r="H1689" s="3">
+        <v>144553000000</v>
+      </c>
+      <c r="I1689">
+        <f t="shared" si="67"/>
+        <v>1687</v>
+      </c>
+      <c r="J1689">
+        <f>SUM($F$3:F1689)/I1689</f>
+        <v>1.0557421043272066</v>
+      </c>
+      <c r="K1689">
+        <f t="shared" si="68"/>
+        <v>1.2351408000000004</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1690" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B1690">
+        <v>998.48</v>
+      </c>
+      <c r="C1690">
+        <v>1033.7</v>
+      </c>
+      <c r="D1690">
+        <v>998.48</v>
+      </c>
+      <c r="E1690">
+        <v>1033.7</v>
+      </c>
+      <c r="F1690">
+        <f t="shared" si="66"/>
+        <v>1.0337000000000001</v>
+      </c>
+      <c r="G1690">
+        <v>110818767</v>
+      </c>
+      <c r="H1690" s="3">
+        <v>144530000000</v>
+      </c>
+      <c r="I1690">
+        <f t="shared" si="67"/>
+        <v>1688</v>
+      </c>
+      <c r="J1690">
+        <f>SUM($F$3:F1690)/I1690</f>
+        <v>1.0557290462085294</v>
+      </c>
+      <c r="K1690">
+        <f t="shared" si="68"/>
+        <v>1.2345517600000002</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1691" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B1691">
+        <v>1044.06</v>
+      </c>
+      <c r="C1691">
+        <v>1075.28</v>
+      </c>
+      <c r="D1691">
+        <v>1031.1400000000001</v>
+      </c>
+      <c r="E1691">
+        <v>1075.28</v>
+      </c>
+      <c r="F1691">
+        <f t="shared" si="66"/>
+        <v>1.07528</v>
+      </c>
+      <c r="G1691">
+        <v>126810484</v>
+      </c>
+      <c r="H1691" s="3">
+        <v>159118000000</v>
+      </c>
+      <c r="I1691">
+        <f t="shared" si="67"/>
+        <v>1689</v>
+      </c>
+      <c r="J1691">
+        <f>SUM($F$3:F1691)/I1691</f>
+        <v>1.0557406216696257</v>
+      </c>
+      <c r="K1691">
+        <f t="shared" si="68"/>
+        <v>1.2340775200000003</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1692" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B1692">
+        <v>1081.33</v>
+      </c>
+      <c r="C1692">
+        <v>1111.3800000000001</v>
+      </c>
+      <c r="D1692">
+        <v>1070.08</v>
+      </c>
+      <c r="E1692">
+        <v>1094.3900000000001</v>
+      </c>
+      <c r="F1692">
+        <f t="shared" si="66"/>
+        <v>1.0943900000000002</v>
+      </c>
+      <c r="G1692">
+        <v>134826881</v>
+      </c>
+      <c r="H1692" s="3">
+        <v>164721000000</v>
+      </c>
+      <c r="I1692">
+        <f t="shared" si="67"/>
+        <v>1690</v>
+      </c>
+      <c r="J1692">
+        <f>SUM($F$3:F1692)/I1692</f>
+        <v>1.055763491124259</v>
+      </c>
+      <c r="K1692">
+        <f t="shared" si="68"/>
+        <v>1.2337185600000002</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1693" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B1693">
+        <v>1085.8399999999999</v>
+      </c>
+      <c r="C1693">
+        <v>1134.6600000000001</v>
+      </c>
+      <c r="D1693">
+        <v>1080.4000000000001</v>
+      </c>
+      <c r="E1693">
+        <v>1134.6600000000001</v>
+      </c>
+      <c r="F1693">
+        <f t="shared" si="66"/>
+        <v>1.13466</v>
+      </c>
+      <c r="G1693">
+        <v>144759712</v>
+      </c>
+      <c r="H1693" s="3">
+        <v>191997000000</v>
+      </c>
+      <c r="I1693">
+        <f t="shared" si="67"/>
+        <v>1691</v>
+      </c>
+      <c r="J1693">
+        <f>SUM($F$3:F1693)/I1693</f>
+        <v>1.0558101478415125</v>
+      </c>
+      <c r="K1693">
+        <f t="shared" si="68"/>
+        <v>1.2334163200000003</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1694" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B1694">
+        <v>1135.76</v>
+      </c>
+      <c r="C1694">
+        <v>1151.8399999999999</v>
+      </c>
+      <c r="D1694">
+        <v>1046.29</v>
+      </c>
+      <c r="E1694">
+        <v>1046.47</v>
+      </c>
+      <c r="F1694">
+        <f t="shared" si="66"/>
+        <v>1.04647</v>
+      </c>
+      <c r="G1694">
+        <v>177765979</v>
+      </c>
+      <c r="H1694" s="3">
+        <v>237592000000</v>
+      </c>
+      <c r="I1694">
+        <f t="shared" si="67"/>
+        <v>1692</v>
+      </c>
+      <c r="J1694">
+        <f>SUM($F$3:F1694)/I1694</f>
+        <v>1.0558046276595729</v>
+      </c>
+      <c r="K1694">
+        <f t="shared" si="68"/>
+        <v>1.2328672800000002</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1695" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B1695">
+        <v>1032.6400000000001</v>
+      </c>
+      <c r="C1695">
+        <v>1097.8699999999999</v>
+      </c>
+      <c r="D1695">
+        <v>1032.6400000000001</v>
+      </c>
+      <c r="E1695">
+        <v>1097.8699999999999</v>
+      </c>
+      <c r="F1695">
+        <f t="shared" si="66"/>
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="G1695">
+        <v>128551050</v>
+      </c>
+      <c r="H1695" s="3">
+        <v>180210000000</v>
+      </c>
+      <c r="I1695">
+        <f t="shared" si="67"/>
+        <v>1693</v>
+      </c>
+      <c r="J1695">
+        <f>SUM($F$3:F1695)/I1695</f>
+        <v>1.0558294743059644</v>
+      </c>
+      <c r="K1695">
+        <f t="shared" si="68"/>
+        <v>1.2326303600000001</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1695"/>
+  <dimension ref="A1:K1716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1680" workbookViewId="0">
-      <selection activeCell="A1696" sqref="A1696"/>
+    <sheetView tabSelected="1" topLeftCell="A1697" workbookViewId="0">
+      <selection activeCell="A1717" sqref="A1717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1695" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1716" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1695" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1716" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1695" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1716" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -65486,6 +65486,825 @@
       <c r="K1695">
         <f t="shared" si="68"/>
         <v>1.2326303600000001</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1696" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B1696">
+        <v>1099.56</v>
+      </c>
+      <c r="C1696">
+        <v>1127.51</v>
+      </c>
+      <c r="D1696">
+        <v>1095.9000000000001</v>
+      </c>
+      <c r="E1696">
+        <v>1124.96</v>
+      </c>
+      <c r="F1696">
+        <f t="shared" si="66"/>
+        <v>1.12496</v>
+      </c>
+      <c r="G1696">
+        <v>135404092</v>
+      </c>
+      <c r="H1696" s="3">
+        <v>205217000000</v>
+      </c>
+      <c r="I1696">
+        <f t="shared" si="67"/>
+        <v>1694</v>
+      </c>
+      <c r="J1696">
+        <f>SUM($F$3:F1696)/I1696</f>
+        <v>1.0558702833530094</v>
+      </c>
+      <c r="K1696">
+        <f t="shared" si="68"/>
+        <v>1.2324113200000002</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1697" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B1697">
+        <v>1130.29</v>
+      </c>
+      <c r="C1697">
+        <v>1134.5</v>
+      </c>
+      <c r="D1697">
+        <v>1100.94</v>
+      </c>
+      <c r="E1697">
+        <v>1134.5</v>
+      </c>
+      <c r="F1697">
+        <f t="shared" si="66"/>
+        <v>1.1345000000000001</v>
+      </c>
+      <c r="G1697">
+        <v>136843483</v>
+      </c>
+      <c r="H1697" s="3">
+        <v>208125000000</v>
+      </c>
+      <c r="I1697">
+        <f t="shared" si="67"/>
+        <v>1695</v>
+      </c>
+      <c r="J1697">
+        <f>SUM($F$3:F1697)/I1697</f>
+        <v>1.0559166725663702</v>
+      </c>
+      <c r="K1697">
+        <f t="shared" si="68"/>
+        <v>1.23222684</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1698" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B1698">
+        <v>1123.0999999999999</v>
+      </c>
+      <c r="C1698">
+        <v>1132.93</v>
+      </c>
+      <c r="D1698">
+        <v>1108.8800000000001</v>
+      </c>
+      <c r="E1698">
+        <v>1117.29</v>
+      </c>
+      <c r="F1698">
+        <f t="shared" si="66"/>
+        <v>1.1172899999999999</v>
+      </c>
+      <c r="G1698">
+        <v>134421234</v>
+      </c>
+      <c r="H1698" s="3">
+        <v>209630000000</v>
+      </c>
+      <c r="I1698">
+        <f t="shared" si="67"/>
+        <v>1696</v>
+      </c>
+      <c r="J1698">
+        <f>SUM($F$3:F1698)/I1698</f>
+        <v>1.0559528596698098</v>
+      </c>
+      <c r="K1698">
+        <f t="shared" si="68"/>
+        <v>1.2319653600000002</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1699" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B1699">
+        <v>1109.1099999999999</v>
+      </c>
+      <c r="C1699">
+        <v>1133.5899999999999</v>
+      </c>
+      <c r="D1699">
+        <v>1104.21</v>
+      </c>
+      <c r="E1699">
+        <v>1123.9000000000001</v>
+      </c>
+      <c r="F1699">
+        <f t="shared" si="66"/>
+        <v>1.1239000000000001</v>
+      </c>
+      <c r="G1699">
+        <v>109464915</v>
+      </c>
+      <c r="H1699" s="3">
+        <v>166120000000</v>
+      </c>
+      <c r="I1699">
+        <f t="shared" si="67"/>
+        <v>1697</v>
+      </c>
+      <c r="J1699">
+        <f>SUM($F$3:F1699)/I1699</f>
+        <v>1.0559928992339409</v>
+      </c>
+      <c r="K1699">
+        <f t="shared" si="68"/>
+        <v>1.2318200799999999</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1700" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B1700">
+        <v>1128.79</v>
+      </c>
+      <c r="C1700">
+        <v>1138.25</v>
+      </c>
+      <c r="D1700">
+        <v>1101.1400000000001</v>
+      </c>
+      <c r="E1700">
+        <v>1101.1400000000001</v>
+      </c>
+      <c r="F1700">
+        <f t="shared" si="66"/>
+        <v>1.10114</v>
+      </c>
+      <c r="G1700">
+        <v>114078822</v>
+      </c>
+      <c r="H1700" s="3">
+        <v>166922000000</v>
+      </c>
+      <c r="I1700">
+        <f t="shared" si="67"/>
+        <v>1698</v>
+      </c>
+      <c r="J1700">
+        <f>SUM($F$3:F1700)/I1700</f>
+        <v>1.0560194876325075</v>
+      </c>
+      <c r="K1700">
+        <f t="shared" si="68"/>
+        <v>1.2315551599999999</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1701" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B1701">
+        <v>1101.8499999999999</v>
+      </c>
+      <c r="C1701">
+        <v>1121.19</v>
+      </c>
+      <c r="D1701">
+        <v>1093.1099999999999</v>
+      </c>
+      <c r="E1701">
+        <v>1118.6099999999999</v>
+      </c>
+      <c r="F1701">
+        <f t="shared" si="66"/>
+        <v>1.1186099999999999</v>
+      </c>
+      <c r="G1701">
+        <v>92383728</v>
+      </c>
+      <c r="H1701" s="3">
+        <v>138522000000</v>
+      </c>
+      <c r="I1701">
+        <f t="shared" si="67"/>
+        <v>1699</v>
+      </c>
+      <c r="J1701">
+        <f>SUM($F$3:F1701)/I1701</f>
+        <v>1.0560563272513228</v>
+      </c>
+      <c r="K1701">
+        <f t="shared" si="68"/>
+        <v>1.2314345200000001</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1702" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B1702">
+        <v>1110.94</v>
+      </c>
+      <c r="C1702">
+        <v>1137.72</v>
+      </c>
+      <c r="D1702">
+        <v>1107.1199999999999</v>
+      </c>
+      <c r="E1702">
+        <v>1137.72</v>
+      </c>
+      <c r="F1702">
+        <f t="shared" si="66"/>
+        <v>1.1377200000000001</v>
+      </c>
+      <c r="G1702">
+        <v>102365187</v>
+      </c>
+      <c r="H1702" s="3">
+        <v>151270000000</v>
+      </c>
+      <c r="I1702">
+        <f t="shared" si="67"/>
+        <v>1700</v>
+      </c>
+      <c r="J1702">
+        <f>SUM($F$3:F1702)/I1702</f>
+        <v>1.056104364705881</v>
+      </c>
+      <c r="K1702">
+        <f t="shared" si="68"/>
+        <v>1.2313110399999998</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1703" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B1703">
+        <v>1140.8</v>
+      </c>
+      <c r="C1703">
+        <v>1154.6400000000001</v>
+      </c>
+      <c r="D1703">
+        <v>1133.0999999999999</v>
+      </c>
+      <c r="E1703">
+        <v>1151.46</v>
+      </c>
+      <c r="F1703">
+        <f t="shared" si="66"/>
+        <v>1.1514599999999999</v>
+      </c>
+      <c r="G1703">
+        <v>116444914</v>
+      </c>
+      <c r="H1703" s="3">
+        <v>168388000000</v>
+      </c>
+      <c r="I1703">
+        <f t="shared" si="67"/>
+        <v>1701</v>
+      </c>
+      <c r="J1703">
+        <f>SUM($F$3:F1703)/I1703</f>
+        <v>1.0561604232804218</v>
+      </c>
+      <c r="K1703">
+        <f t="shared" si="68"/>
+        <v>1.2311041999999999</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1704" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B1704">
+        <v>1154.8900000000001</v>
+      </c>
+      <c r="C1704">
+        <v>1175.43</v>
+      </c>
+      <c r="D1704">
+        <v>1151.27</v>
+      </c>
+      <c r="E1704">
+        <v>1163.8800000000001</v>
+      </c>
+      <c r="F1704">
+        <f t="shared" si="66"/>
+        <v>1.16388</v>
+      </c>
+      <c r="G1704">
+        <v>127995592</v>
+      </c>
+      <c r="H1704" s="3">
+        <v>190656000000</v>
+      </c>
+      <c r="I1704">
+        <f t="shared" si="67"/>
+        <v>1702</v>
+      </c>
+      <c r="J1704">
+        <f>SUM($F$3:F1704)/I1704</f>
+        <v>1.0562237132784944</v>
+      </c>
+      <c r="K1704">
+        <f t="shared" si="68"/>
+        <v>1.2309101599999996</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1705" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B1705">
+        <v>1156.81</v>
+      </c>
+      <c r="C1705">
+        <v>1162.21</v>
+      </c>
+      <c r="D1705">
+        <v>1129.94</v>
+      </c>
+      <c r="E1705">
+        <v>1149.02</v>
+      </c>
+      <c r="F1705">
+        <f t="shared" si="66"/>
+        <v>1.1490199999999999</v>
+      </c>
+      <c r="G1705">
+        <v>116236986</v>
+      </c>
+      <c r="H1705" s="3">
+        <v>165809000000</v>
+      </c>
+      <c r="I1705">
+        <f t="shared" si="67"/>
+        <v>1703</v>
+      </c>
+      <c r="J1705">
+        <f>SUM($F$3:F1705)/I1705</f>
+        <v>1.0562782031708735</v>
+      </c>
+      <c r="K1705">
+        <f t="shared" si="68"/>
+        <v>1.2307003999999997</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1706" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B1706">
+        <v>1144.6600000000001</v>
+      </c>
+      <c r="C1706">
+        <v>1164.3499999999999</v>
+      </c>
+      <c r="D1706">
+        <v>1135.8</v>
+      </c>
+      <c r="E1706">
+        <v>1164.3499999999999</v>
+      </c>
+      <c r="F1706">
+        <f t="shared" si="66"/>
+        <v>1.16435</v>
+      </c>
+      <c r="G1706">
+        <v>100852956</v>
+      </c>
+      <c r="H1706" s="3">
+        <v>140819000000</v>
+      </c>
+      <c r="I1706">
+        <f t="shared" si="67"/>
+        <v>1704</v>
+      </c>
+      <c r="J1706">
+        <f>SUM($F$3:F1706)/I1706</f>
+        <v>1.0563416255868532</v>
+      </c>
+      <c r="K1706">
+        <f t="shared" si="68"/>
+        <v>1.2305852799999999</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1707" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B1707">
+        <v>1169.78</v>
+      </c>
+      <c r="C1707">
+        <v>1196.5999999999999</v>
+      </c>
+      <c r="D1707">
+        <v>1168.8</v>
+      </c>
+      <c r="E1707">
+        <v>1196.58</v>
+      </c>
+      <c r="F1707">
+        <f t="shared" si="66"/>
+        <v>1.19658</v>
+      </c>
+      <c r="G1707">
+        <v>124677577</v>
+      </c>
+      <c r="H1707" s="3">
+        <v>185504000000</v>
+      </c>
+      <c r="I1707">
+        <f t="shared" si="67"/>
+        <v>1705</v>
+      </c>
+      <c r="J1707">
+        <f>SUM($F$3:F1707)/I1707</f>
+        <v>1.0564238768328433</v>
+      </c>
+      <c r="K1707">
+        <f t="shared" si="68"/>
+        <v>1.2307243999999995</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1708" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B1708">
+        <v>1194.17</v>
+      </c>
+      <c r="C1708">
+        <v>1205.98</v>
+      </c>
+      <c r="D1708">
+        <v>1193.17</v>
+      </c>
+      <c r="E1708">
+        <v>1194.69</v>
+      </c>
+      <c r="F1708">
+        <f t="shared" si="66"/>
+        <v>1.19469</v>
+      </c>
+      <c r="G1708">
+        <v>121473122</v>
+      </c>
+      <c r="H1708" s="3">
+        <v>178609000000</v>
+      </c>
+      <c r="I1708">
+        <f t="shared" si="67"/>
+        <v>1706</v>
+      </c>
+      <c r="J1708">
+        <f>SUM($F$3:F1708)/I1708</f>
+        <v>1.0565049237983575</v>
+      </c>
+      <c r="K1708">
+        <f t="shared" si="68"/>
+        <v>1.2307671199999994</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1709" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B1709">
+        <v>1191.48</v>
+      </c>
+      <c r="C1709">
+        <v>1221.4100000000001</v>
+      </c>
+      <c r="D1709">
+        <v>1191.48</v>
+      </c>
+      <c r="E1709">
+        <v>1221.4100000000001</v>
+      </c>
+      <c r="F1709">
+        <f t="shared" si="66"/>
+        <v>1.2214100000000001</v>
+      </c>
+      <c r="G1709">
+        <v>126614435</v>
+      </c>
+      <c r="H1709" s="3">
+        <v>184435000000</v>
+      </c>
+      <c r="I1709">
+        <f t="shared" si="67"/>
+        <v>1707</v>
+      </c>
+      <c r="J1709">
+        <f>SUM($F$3:F1709)/I1709</f>
+        <v>1.0566015289982413</v>
+      </c>
+      <c r="K1709">
+        <f t="shared" si="68"/>
+        <v>1.2309024399999997</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1710" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B1710">
+        <v>1226.5</v>
+      </c>
+      <c r="C1710">
+        <v>1234.8699999999999</v>
+      </c>
+      <c r="D1710">
+        <v>1214.24</v>
+      </c>
+      <c r="E1710">
+        <v>1224.76</v>
+      </c>
+      <c r="F1710">
+        <f t="shared" si="66"/>
+        <v>1.2247600000000001</v>
+      </c>
+      <c r="G1710">
+        <v>136791994</v>
+      </c>
+      <c r="H1710" s="3">
+        <v>195074000000</v>
+      </c>
+      <c r="I1710">
+        <f t="shared" si="67"/>
+        <v>1708</v>
+      </c>
+      <c r="J1710">
+        <f>SUM($F$3:F1710)/I1710</f>
+        <v>1.056699982435596</v>
+      </c>
+      <c r="K1710">
+        <f t="shared" si="68"/>
+        <v>1.2310832399999996</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1711" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B1711">
+        <v>1219</v>
+      </c>
+      <c r="C1711">
+        <v>1226.1500000000001</v>
+      </c>
+      <c r="D1711">
+        <v>1191.51</v>
+      </c>
+      <c r="E1711">
+        <v>1212.08</v>
+      </c>
+      <c r="F1711">
+        <f t="shared" si="66"/>
+        <v>1.2120799999999998</v>
+      </c>
+      <c r="G1711">
+        <v>136374149</v>
+      </c>
+      <c r="H1711" s="3">
+        <v>197105000000</v>
+      </c>
+      <c r="I1711">
+        <f t="shared" si="67"/>
+        <v>1709</v>
+      </c>
+      <c r="J1711">
+        <f>SUM($F$3:F1711)/I1711</f>
+        <v>1.05679090111176</v>
+      </c>
+      <c r="K1711">
+        <f t="shared" si="68"/>
+        <v>1.2311168399999994</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1712" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B1712">
+        <v>1210.1600000000001</v>
+      </c>
+      <c r="C1712">
+        <v>1214.1500000000001</v>
+      </c>
+      <c r="D1712">
+        <v>1168.9100000000001</v>
+      </c>
+      <c r="E1712">
+        <v>1169.2</v>
+      </c>
+      <c r="F1712">
+        <f t="shared" si="66"/>
+        <v>1.1692</v>
+      </c>
+      <c r="G1712">
+        <v>126577835</v>
+      </c>
+      <c r="H1712" s="3">
+        <v>181166000000</v>
+      </c>
+      <c r="I1712">
+        <f t="shared" si="67"/>
+        <v>1710</v>
+      </c>
+      <c r="J1712">
+        <f>SUM($F$3:F1712)/I1712</f>
+        <v>1.0568566374268995</v>
+      </c>
+      <c r="K1712">
+        <f t="shared" si="68"/>
+        <v>1.2310382399999995</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1713" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B1713">
+        <v>1162.92</v>
+      </c>
+      <c r="C1713">
+        <v>1175.58</v>
+      </c>
+      <c r="D1713">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="E1713">
+        <v>1151.03</v>
+      </c>
+      <c r="F1713">
+        <f t="shared" si="66"/>
+        <v>1.15103</v>
+      </c>
+      <c r="G1713">
+        <v>106159432</v>
+      </c>
+      <c r="H1713" s="3">
+        <v>155088000000</v>
+      </c>
+      <c r="I1713">
+        <f t="shared" si="67"/>
+        <v>1711</v>
+      </c>
+      <c r="J1713">
+        <f>SUM($F$3:F1713)/I1713</f>
+        <v>1.0569116773816469</v>
+      </c>
+      <c r="K1713">
+        <f t="shared" si="68"/>
+        <v>1.2309099599999993</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1714" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B1714">
+        <v>1147.06</v>
+      </c>
+      <c r="C1714">
+        <v>1147.92</v>
+      </c>
+      <c r="D1714">
+        <v>1093.18</v>
+      </c>
+      <c r="E1714">
+        <v>1093.18</v>
+      </c>
+      <c r="F1714">
+        <f t="shared" si="66"/>
+        <v>1.09318</v>
+      </c>
+      <c r="G1714">
+        <v>101656258</v>
+      </c>
+      <c r="H1714" s="3">
+        <v>135799000000</v>
+      </c>
+      <c r="I1714">
+        <f t="shared" si="67"/>
+        <v>1712</v>
+      </c>
+      <c r="J1714">
+        <f>SUM($F$3:F1714)/I1714</f>
+        <v>1.0569328621495315</v>
+      </c>
+      <c r="K1714">
+        <f t="shared" si="68"/>
+        <v>1.2305997199999994</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1715" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B1715">
+        <v>1092.0899999999999</v>
+      </c>
+      <c r="C1715">
+        <v>1144.3900000000001</v>
+      </c>
+      <c r="D1715">
+        <v>1092.0899999999999</v>
+      </c>
+      <c r="E1715">
+        <v>1134.18</v>
+      </c>
+      <c r="F1715">
+        <f t="shared" si="66"/>
+        <v>1.13418</v>
+      </c>
+      <c r="G1715">
+        <v>107147725</v>
+      </c>
+      <c r="H1715" s="3">
+        <v>150468000000</v>
+      </c>
+      <c r="I1715">
+        <f t="shared" si="67"/>
+        <v>1713</v>
+      </c>
+      <c r="J1715">
+        <f>SUM($F$3:F1715)/I1715</f>
+        <v>1.056977956800933</v>
+      </c>
+      <c r="K1715">
+        <f t="shared" si="68"/>
+        <v>1.2302910799999995</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1716" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B1716">
+        <v>1132.44</v>
+      </c>
+      <c r="C1716">
+        <v>1138.57</v>
+      </c>
+      <c r="D1716">
+        <v>1114.8900000000001</v>
+      </c>
+      <c r="E1716">
+        <v>1138.57</v>
+      </c>
+      <c r="F1716">
+        <f t="shared" si="66"/>
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="G1716">
+        <v>84089797</v>
+      </c>
+      <c r="H1716" s="3">
+        <v>117214000000</v>
+      </c>
+      <c r="I1716">
+        <f t="shared" si="67"/>
+        <v>1714</v>
+      </c>
+      <c r="J1716">
+        <f>SUM($F$3:F1716)/I1716</f>
+        <v>1.0570255600933478</v>
+      </c>
+      <c r="K1716">
+        <f t="shared" si="68"/>
+        <v>1.2300079999999995</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1716"/>
+  <dimension ref="A1:K1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1697" workbookViewId="0">
-      <selection activeCell="A1717" sqref="A1717"/>
+    <sheetView tabSelected="1" topLeftCell="A1717" workbookViewId="0">
+      <selection activeCell="A1737" sqref="A1737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1716" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1736" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1716" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1736" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1716" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1736" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -66305,6 +66305,786 @@
       <c r="K1716">
         <f t="shared" si="68"/>
         <v>1.2300079999999995</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1717" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B1717">
+        <v>1143.45</v>
+      </c>
+      <c r="C1717">
+        <v>1165.1300000000001</v>
+      </c>
+      <c r="D1717">
+        <v>1143.45</v>
+      </c>
+      <c r="E1717">
+        <v>1165.1300000000001</v>
+      </c>
+      <c r="F1717">
+        <f t="shared" si="66"/>
+        <v>1.16513</v>
+      </c>
+      <c r="G1717">
+        <v>96600279</v>
+      </c>
+      <c r="H1717" s="3">
+        <v>127472000000</v>
+      </c>
+      <c r="I1717">
+        <f t="shared" si="67"/>
+        <v>1715</v>
+      </c>
+      <c r="J1717">
+        <f>SUM($F$3:F1717)/I1717</f>
+        <v>1.0570885947521855</v>
+      </c>
+      <c r="K1717">
+        <f t="shared" si="68"/>
+        <v>1.2297241599999995</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1718" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B1718">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="C1718">
+        <v>1164.4000000000001</v>
+      </c>
+      <c r="D1718">
+        <v>1135.97</v>
+      </c>
+      <c r="E1718">
+        <v>1143.6600000000001</v>
+      </c>
+      <c r="F1718">
+        <f t="shared" si="66"/>
+        <v>1.1436600000000001</v>
+      </c>
+      <c r="G1718">
+        <v>86656274</v>
+      </c>
+      <c r="H1718" s="3">
+        <v>115058000000</v>
+      </c>
+      <c r="I1718">
+        <f t="shared" si="67"/>
+        <v>1716</v>
+      </c>
+      <c r="J1718">
+        <f>SUM($F$3:F1718)/I1718</f>
+        <v>1.0571390442890432</v>
+      </c>
+      <c r="K1718">
+        <f t="shared" si="68"/>
+        <v>1.2292435999999998</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1719" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B1719">
+        <v>1139.56</v>
+      </c>
+      <c r="C1719">
+        <v>1139.56</v>
+      </c>
+      <c r="D1719">
+        <v>1104.51</v>
+      </c>
+      <c r="E1719">
+        <v>1114.51</v>
+      </c>
+      <c r="F1719">
+        <f t="shared" si="66"/>
+        <v>1.1145099999999999</v>
+      </c>
+      <c r="G1719">
+        <v>75910238</v>
+      </c>
+      <c r="H1719" s="3">
+        <v>100379000000</v>
+      </c>
+      <c r="I1719">
+        <f t="shared" si="67"/>
+        <v>1717</v>
+      </c>
+      <c r="J1719">
+        <f>SUM($F$3:F1719)/I1719</f>
+        <v>1.0571724577751882</v>
+      </c>
+      <c r="K1719">
+        <f t="shared" si="68"/>
+        <v>1.2285757599999998</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1720" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B1720">
+        <v>1110.6300000000001</v>
+      </c>
+      <c r="C1720">
+        <v>1110.6300000000001</v>
+      </c>
+      <c r="D1720">
+        <v>1085.6199999999999</v>
+      </c>
+      <c r="E1720">
+        <v>1085.6199999999999</v>
+      </c>
+      <c r="F1720">
+        <f t="shared" si="66"/>
+        <v>1.0856199999999998</v>
+      </c>
+      <c r="G1720">
+        <v>72696956</v>
+      </c>
+      <c r="H1720">
+        <v>91912192000</v>
+      </c>
+      <c r="I1720">
+        <f t="shared" si="67"/>
+        <v>1718</v>
+      </c>
+      <c r="J1720">
+        <f>SUM($F$3:F1720)/I1720</f>
+        <v>1.05718901629802</v>
+      </c>
+      <c r="K1720">
+        <f t="shared" si="68"/>
+        <v>1.2277142399999998</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1721" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B1721">
+        <v>1085.99</v>
+      </c>
+      <c r="C1721">
+        <v>1095.81</v>
+      </c>
+      <c r="D1721">
+        <v>1077.96</v>
+      </c>
+      <c r="E1721">
+        <v>1093.68</v>
+      </c>
+      <c r="F1721">
+        <f t="shared" si="66"/>
+        <v>1.09368</v>
+      </c>
+      <c r="G1721">
+        <v>59170467</v>
+      </c>
+      <c r="H1721">
+        <v>77395517440</v>
+      </c>
+      <c r="I1721">
+        <f t="shared" si="67"/>
+        <v>1719</v>
+      </c>
+      <c r="J1721">
+        <f>SUM($F$3:F1721)/I1721</f>
+        <v>1.0572102443280968</v>
+      </c>
+      <c r="K1721">
+        <f t="shared" si="68"/>
+        <v>1.22681164</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1722" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B1722">
+        <v>1091.3599999999999</v>
+      </c>
+      <c r="C1722">
+        <v>1091.3599999999999</v>
+      </c>
+      <c r="D1722">
+        <v>1047.95</v>
+      </c>
+      <c r="E1722">
+        <v>1059.06</v>
+      </c>
+      <c r="F1722">
+        <f t="shared" si="66"/>
+        <v>1.0590599999999999</v>
+      </c>
+      <c r="G1722">
+        <v>70375875</v>
+      </c>
+      <c r="H1722">
+        <v>87529463808</v>
+      </c>
+      <c r="I1722">
+        <f t="shared" si="67"/>
+        <v>1720</v>
+      </c>
+      <c r="J1722">
+        <f>SUM($F$3:F1722)/I1722</f>
+        <v>1.0572113197674409</v>
+      </c>
+      <c r="K1722">
+        <f t="shared" si="68"/>
+        <v>1.2258834799999998</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1723" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B1723">
+        <v>1052.1099999999999</v>
+      </c>
+      <c r="C1723">
+        <v>1080.67</v>
+      </c>
+      <c r="D1723">
+        <v>1050.44</v>
+      </c>
+      <c r="E1723">
+        <v>1064.3499999999999</v>
+      </c>
+      <c r="F1723">
+        <f t="shared" si="66"/>
+        <v>1.0643499999999999</v>
+      </c>
+      <c r="G1723">
+        <v>66637523</v>
+      </c>
+      <c r="H1723">
+        <v>92961308672</v>
+      </c>
+      <c r="I1723">
+        <f t="shared" si="67"/>
+        <v>1721</v>
+      </c>
+      <c r="J1723">
+        <f>SUM($F$3:F1723)/I1723</f>
+        <v>1.0572154677513066</v>
+      </c>
+      <c r="K1723">
+        <f t="shared" si="68"/>
+        <v>1.22497108</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1724" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B1724">
+        <v>1065.06</v>
+      </c>
+      <c r="C1724">
+        <v>1076.1600000000001</v>
+      </c>
+      <c r="D1724">
+        <v>1051.31</v>
+      </c>
+      <c r="E1724">
+        <v>1052.4000000000001</v>
+      </c>
+      <c r="F1724">
+        <f t="shared" si="66"/>
+        <v>1.0524</v>
+      </c>
+      <c r="G1724">
+        <v>64273209</v>
+      </c>
+      <c r="H1724">
+        <v>88266539008</v>
+      </c>
+      <c r="I1724">
+        <f t="shared" si="67"/>
+        <v>1722</v>
+      </c>
+      <c r="J1724">
+        <f>SUM($F$3:F1724)/I1724</f>
+        <v>1.0572126713124266</v>
+      </c>
+      <c r="K1724">
+        <f t="shared" si="68"/>
+        <v>1.2241071599999997</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1725" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B1725">
+        <v>1046.7</v>
+      </c>
+      <c r="C1725">
+        <v>1054.79</v>
+      </c>
+      <c r="D1725">
+        <v>995.76</v>
+      </c>
+      <c r="E1725">
+        <v>1012.53</v>
+      </c>
+      <c r="F1725">
+        <f t="shared" si="66"/>
+        <v>1.0125299999999999</v>
+      </c>
+      <c r="G1725">
+        <v>82794913</v>
+      </c>
+      <c r="H1725" s="3">
+        <v>101809000000</v>
+      </c>
+      <c r="I1725">
+        <f t="shared" si="67"/>
+        <v>1723</v>
+      </c>
+      <c r="J1725">
+        <f>SUM($F$3:F1725)/I1725</f>
+        <v>1.0571867382472424</v>
+      </c>
+      <c r="K1725">
+        <f t="shared" si="68"/>
+        <v>1.2229613199999998</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1726" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B1726">
+        <v>1003.52</v>
+      </c>
+      <c r="C1726">
+        <v>1003.52</v>
+      </c>
+      <c r="D1726">
+        <v>937.05</v>
+      </c>
+      <c r="E1726">
+        <v>937.37</v>
+      </c>
+      <c r="F1726">
+        <f t="shared" si="66"/>
+        <v>0.93737000000000004</v>
+      </c>
+      <c r="G1726">
+        <v>84144686</v>
+      </c>
+      <c r="H1726">
+        <v>96864108544</v>
+      </c>
+      <c r="I1726">
+        <f t="shared" si="67"/>
+        <v>1724</v>
+      </c>
+      <c r="J1726">
+        <f>SUM($F$3:F1726)/I1726</f>
+        <v>1.0571172389791175</v>
+      </c>
+      <c r="K1726">
+        <f t="shared" si="68"/>
+        <v>1.2213510799999998</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1727" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B1727">
+        <v>950.72</v>
+      </c>
+      <c r="C1727">
+        <v>1008.6</v>
+      </c>
+      <c r="D1727">
+        <v>950.72</v>
+      </c>
+      <c r="E1727">
+        <v>1008.6</v>
+      </c>
+      <c r="F1727">
+        <f t="shared" si="66"/>
+        <v>1.0085999999999999</v>
+      </c>
+      <c r="G1727">
+        <v>84070580</v>
+      </c>
+      <c r="H1727" s="3">
+        <v>106206000000</v>
+      </c>
+      <c r="I1727">
+        <f t="shared" si="67"/>
+        <v>1725</v>
+      </c>
+      <c r="J1727">
+        <f>SUM($F$3:F1727)/I1727</f>
+        <v>1.0570891130434774</v>
+      </c>
+      <c r="K1727">
+        <f t="shared" si="68"/>
+        <v>1.2200524399999999</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1728" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B1728">
+        <v>1008.46</v>
+      </c>
+      <c r="C1728">
+        <v>1022.93</v>
+      </c>
+      <c r="D1728">
+        <v>991.04</v>
+      </c>
+      <c r="E1728">
+        <v>1005.23</v>
+      </c>
+      <c r="F1728">
+        <f t="shared" si="66"/>
+        <v>1.0052300000000001</v>
+      </c>
+      <c r="G1728">
+        <v>79404929</v>
+      </c>
+      <c r="H1728" s="3">
+        <v>103606000000</v>
+      </c>
+      <c r="I1728">
+        <f t="shared" si="67"/>
+        <v>1726</v>
+      </c>
+      <c r="J1728">
+        <f>SUM($F$3:F1728)/I1728</f>
+        <v>1.0570590672074152</v>
+      </c>
+      <c r="K1728">
+        <f t="shared" si="68"/>
+        <v>1.2188067599999999</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1729" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B1729">
+        <v>1000.04</v>
+      </c>
+      <c r="C1729">
+        <v>1008.4</v>
+      </c>
+      <c r="D1729">
+        <v>984.31</v>
+      </c>
+      <c r="E1729">
+        <v>992.21</v>
+      </c>
+      <c r="F1729">
+        <f t="shared" si="66"/>
+        <v>0.99221000000000004</v>
+      </c>
+      <c r="G1729">
+        <v>67204323</v>
+      </c>
+      <c r="H1729">
+        <v>87285604352</v>
+      </c>
+      <c r="I1729">
+        <f t="shared" si="67"/>
+        <v>1727</v>
+      </c>
+      <c r="J1729">
+        <f>SUM($F$3:F1729)/I1729</f>
+        <v>1.0570215170816435</v>
+      </c>
+      <c r="K1729">
+        <f t="shared" si="68"/>
+        <v>1.2173951999999999</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1730" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B1730">
+        <v>983.69</v>
+      </c>
+      <c r="C1730">
+        <v>998.7</v>
+      </c>
+      <c r="D1730">
+        <v>962.33</v>
+      </c>
+      <c r="E1730">
+        <v>988.1</v>
+      </c>
+      <c r="F1730">
+        <f t="shared" si="66"/>
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G1730">
+        <v>60649744</v>
+      </c>
+      <c r="H1730">
+        <v>79888424960</v>
+      </c>
+      <c r="I1730">
+        <f t="shared" si="67"/>
+        <v>1728</v>
+      </c>
+      <c r="J1730">
+        <f>SUM($F$3:F1730)/I1730</f>
+        <v>1.0569816319444436</v>
+      </c>
+      <c r="K1730">
+        <f t="shared" si="68"/>
+        <v>1.2161675199999999</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1731" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B1731">
+        <v>991.85</v>
+      </c>
+      <c r="C1731">
+        <v>1008.74</v>
+      </c>
+      <c r="D1731">
+        <v>991.85</v>
+      </c>
+      <c r="E1731">
+        <v>1002.88</v>
+      </c>
+      <c r="F1731">
+        <f t="shared" si="66"/>
+        <v>1.00288</v>
+      </c>
+      <c r="G1731">
+        <v>59891928</v>
+      </c>
+      <c r="H1731">
+        <v>76682240000</v>
+      </c>
+      <c r="I1731">
+        <f t="shared" si="67"/>
+        <v>1729</v>
+      </c>
+      <c r="J1731">
+        <f>SUM($F$3:F1731)/I1731</f>
+        <v>1.0569503412377088</v>
+      </c>
+      <c r="K1731">
+        <f t="shared" si="68"/>
+        <v>1.2149352</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1732" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B1732">
+        <v>1004.34</v>
+      </c>
+      <c r="C1732">
+        <v>1036</v>
+      </c>
+      <c r="D1732">
+        <v>1004.34</v>
+      </c>
+      <c r="E1732">
+        <v>1036</v>
+      </c>
+      <c r="F1732">
+        <f t="shared" si="66"/>
+        <v>1.036</v>
+      </c>
+      <c r="G1732">
+        <v>73821374</v>
+      </c>
+      <c r="H1732">
+        <v>99625320448</v>
+      </c>
+      <c r="I1732">
+        <f t="shared" si="67"/>
+        <v>1730</v>
+      </c>
+      <c r="J1732">
+        <f>SUM($F$3:F1732)/I1732</f>
+        <v>1.056938231213872</v>
+      </c>
+      <c r="K1732">
+        <f t="shared" si="68"/>
+        <v>1.2136920799999997</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1733" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B1733">
+        <v>1030.9000000000001</v>
+      </c>
+      <c r="C1733">
+        <v>1043.06</v>
+      </c>
+      <c r="D1733">
+        <v>1024.22</v>
+      </c>
+      <c r="E1733">
+        <v>1032.96</v>
+      </c>
+      <c r="F1733">
+        <f t="shared" si="66"/>
+        <v>1.0329600000000001</v>
+      </c>
+      <c r="G1733">
+        <v>67413942</v>
+      </c>
+      <c r="H1733">
+        <v>87725989888</v>
+      </c>
+      <c r="I1733">
+        <f t="shared" si="67"/>
+        <v>1731</v>
+      </c>
+      <c r="J1733">
+        <f>SUM($F$3:F1733)/I1733</f>
+        <v>1.0569243789716918</v>
+      </c>
+      <c r="K1733">
+        <f t="shared" si="68"/>
+        <v>1.2125029199999999</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1734" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B1734">
+        <v>1033.24</v>
+      </c>
+      <c r="C1734">
+        <v>1067.3900000000001</v>
+      </c>
+      <c r="D1734">
+        <v>1032.7</v>
+      </c>
+      <c r="E1734">
+        <v>1062.3699999999999</v>
+      </c>
+      <c r="F1734">
+        <f t="shared" si="66"/>
+        <v>1.0623699999999998</v>
+      </c>
+      <c r="G1734">
+        <v>97423810</v>
+      </c>
+      <c r="H1734" s="3">
+        <v>136151000000</v>
+      </c>
+      <c r="I1734">
+        <f t="shared" si="67"/>
+        <v>1732</v>
+      </c>
+      <c r="J1734">
+        <f>SUM($F$3:F1734)/I1734</f>
+        <v>1.0569275230946873</v>
+      </c>
+      <c r="K1734">
+        <f t="shared" si="68"/>
+        <v>1.2114425999999998</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1735" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B1735">
+        <v>1066.68</v>
+      </c>
+      <c r="C1735">
+        <v>1097.67</v>
+      </c>
+      <c r="D1735">
+        <v>1066.68</v>
+      </c>
+      <c r="E1735">
+        <v>1096.97</v>
+      </c>
+      <c r="F1735">
+        <f t="shared" si="66"/>
+        <v>1.09697</v>
+      </c>
+      <c r="G1735">
+        <v>103161529</v>
+      </c>
+      <c r="H1735" s="3">
+        <v>141396000000</v>
+      </c>
+      <c r="I1735">
+        <f t="shared" si="67"/>
+        <v>1733</v>
+      </c>
+      <c r="J1735">
+        <f>SUM($F$3:F1735)/I1735</f>
+        <v>1.0569506289671082</v>
+      </c>
+      <c r="K1735">
+        <f t="shared" si="68"/>
+        <v>1.21062308</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1736" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1736">
+        <v>1096.98</v>
+      </c>
+      <c r="C1736">
+        <v>1101.81</v>
+      </c>
+      <c r="D1736">
+        <v>1075.43</v>
+      </c>
+      <c r="E1736">
+        <v>1086.1300000000001</v>
+      </c>
+      <c r="F1736">
+        <f t="shared" si="66"/>
+        <v>1.08613</v>
+      </c>
+      <c r="G1736">
+        <v>92427613</v>
+      </c>
+      <c r="H1736" s="3">
+        <v>121909000000</v>
+      </c>
+      <c r="I1736">
+        <f t="shared" si="67"/>
+        <v>1734</v>
+      </c>
+      <c r="J1736">
+        <f>SUM($F$3:F1736)/I1736</f>
+        <v>1.0569674567474039</v>
+      </c>
+      <c r="K1736">
+        <f t="shared" si="68"/>
+        <v>1.2097886800000002</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1736"/>
+  <dimension ref="A1:K1756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1717" workbookViewId="0">
-      <selection activeCell="A1737" sqref="A1737"/>
+    <sheetView tabSelected="1" topLeftCell="A1737" workbookViewId="0">
+      <selection activeCell="A1757" sqref="A1757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1736" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1756" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1736" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1756" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1736" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1756" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -67085,6 +67085,786 @@
       <c r="K1736">
         <f t="shared" si="68"/>
         <v>1.2097886800000002</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1737" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B1737">
+        <v>1098.5</v>
+      </c>
+      <c r="C1737">
+        <v>1104.33</v>
+      </c>
+      <c r="D1737">
+        <v>1089.6099999999999</v>
+      </c>
+      <c r="E1737">
+        <v>1094.44</v>
+      </c>
+      <c r="F1737">
+        <f t="shared" si="66"/>
+        <v>1.0944400000000001</v>
+      </c>
+      <c r="G1737">
+        <v>89235350</v>
+      </c>
+      <c r="H1737" s="3">
+        <v>115277000000</v>
+      </c>
+      <c r="I1737">
+        <f t="shared" si="67"/>
+        <v>1735</v>
+      </c>
+      <c r="J1737">
+        <f>SUM($F$3:F1737)/I1737</f>
+        <v>1.0569890547550425</v>
+      </c>
+      <c r="K1737">
+        <f t="shared" si="68"/>
+        <v>1.2089830400000003</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1738" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B1738">
+        <v>1092.44</v>
+      </c>
+      <c r="C1738">
+        <v>1103.45</v>
+      </c>
+      <c r="D1738">
+        <v>1088.07</v>
+      </c>
+      <c r="E1738">
+        <v>1096.92</v>
+      </c>
+      <c r="F1738">
+        <f t="shared" si="66"/>
+        <v>1.0969200000000001</v>
+      </c>
+      <c r="G1738">
+        <v>82486497</v>
+      </c>
+      <c r="H1738" s="3">
+        <v>108818000000</v>
+      </c>
+      <c r="I1738">
+        <f t="shared" si="67"/>
+        <v>1736</v>
+      </c>
+      <c r="J1738">
+        <f>SUM($F$3:F1738)/I1738</f>
+        <v>1.0570120564516121</v>
+      </c>
+      <c r="K1738">
+        <f t="shared" si="68"/>
+        <v>1.2081088400000002</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1739" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B1739">
+        <v>1090.46</v>
+      </c>
+      <c r="C1739">
+        <v>1090.46</v>
+      </c>
+      <c r="D1739">
+        <v>1067.52</v>
+      </c>
+      <c r="E1739">
+        <v>1068.5</v>
+      </c>
+      <c r="F1739">
+        <f t="shared" si="66"/>
+        <v>1.0685</v>
+      </c>
+      <c r="G1739">
+        <v>77855880</v>
+      </c>
+      <c r="H1739">
+        <v>94291804160</v>
+      </c>
+      <c r="I1739">
+        <f t="shared" si="67"/>
+        <v>1737</v>
+      </c>
+      <c r="J1739">
+        <f>SUM($F$3:F1739)/I1739</f>
+        <v>1.0570186701208972</v>
+      </c>
+      <c r="K1739">
+        <f t="shared" si="68"/>
+        <v>1.2074086400000001</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1740" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B1740">
+        <v>1067.18</v>
+      </c>
+      <c r="C1740">
+        <v>1081.47</v>
+      </c>
+      <c r="D1740">
+        <v>1067.18</v>
+      </c>
+      <c r="E1740">
+        <v>1078.4000000000001</v>
+      </c>
+      <c r="F1740">
+        <f t="shared" si="66"/>
+        <v>1.0784</v>
+      </c>
+      <c r="G1740">
+        <v>65211231</v>
+      </c>
+      <c r="H1740">
+        <v>82742116352</v>
+      </c>
+      <c r="I1740">
+        <f t="shared" si="67"/>
+        <v>1738</v>
+      </c>
+      <c r="J1740">
+        <f>SUM($F$3:F1740)/I1740</f>
+        <v>1.0570309723820477</v>
+      </c>
+      <c r="K1740">
+        <f t="shared" si="68"/>
+        <v>1.20675932</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1741" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B1741">
+        <v>1080.05</v>
+      </c>
+      <c r="C1741">
+        <v>1084.58</v>
+      </c>
+      <c r="D1741">
+        <v>1059.28</v>
+      </c>
+      <c r="E1741">
+        <v>1061.75</v>
+      </c>
+      <c r="F1741">
+        <f t="shared" si="66"/>
+        <v>1.06175</v>
+      </c>
+      <c r="G1741">
+        <v>70486456</v>
+      </c>
+      <c r="H1741">
+        <v>88201379840</v>
+      </c>
+      <c r="I1741">
+        <f t="shared" si="67"/>
+        <v>1739</v>
+      </c>
+      <c r="J1741">
+        <f>SUM($F$3:F1741)/I1741</f>
+        <v>1.0570336860264513</v>
+      </c>
+      <c r="K1741">
+        <f t="shared" si="68"/>
+        <v>1.2061519599999999</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1742" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B1742">
+        <v>1052.6600000000001</v>
+      </c>
+      <c r="C1742">
+        <v>1052.6600000000001</v>
+      </c>
+      <c r="D1742">
+        <v>1032.8699999999999</v>
+      </c>
+      <c r="E1742">
+        <v>1036.21</v>
+      </c>
+      <c r="F1742">
+        <f t="shared" si="66"/>
+        <v>1.0362100000000001</v>
+      </c>
+      <c r="G1742">
+        <v>67806856</v>
+      </c>
+      <c r="H1742">
+        <v>83767328768</v>
+      </c>
+      <c r="I1742">
+        <f t="shared" si="67"/>
+        <v>1740</v>
+      </c>
+      <c r="J1742">
+        <f>SUM($F$3:F1742)/I1742</f>
+        <v>1.0570217183908039</v>
+      </c>
+      <c r="K1742">
+        <f t="shared" si="68"/>
+        <v>1.2055099999999999</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1743" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B1743">
+        <v>1040.57</v>
+      </c>
+      <c r="C1743">
+        <v>1054.3399999999999</v>
+      </c>
+      <c r="D1743">
+        <v>1039.49</v>
+      </c>
+      <c r="E1743">
+        <v>1052.8499999999999</v>
+      </c>
+      <c r="F1743">
+        <f t="shared" si="66"/>
+        <v>1.0528499999999998</v>
+      </c>
+      <c r="G1743">
+        <v>70341089</v>
+      </c>
+      <c r="H1743">
+        <v>84436500480</v>
+      </c>
+      <c r="I1743">
+        <f t="shared" si="67"/>
+        <v>1741</v>
+      </c>
+      <c r="J1743">
+        <f>SUM($F$3:F1743)/I1743</f>
+        <v>1.0570193222286035</v>
+      </c>
+      <c r="K1743">
+        <f t="shared" si="68"/>
+        <v>1.2050134399999997</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1744" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B1744">
+        <v>1049.2</v>
+      </c>
+      <c r="C1744">
+        <v>1055.6199999999999</v>
+      </c>
+      <c r="D1744">
+        <v>1039.49</v>
+      </c>
+      <c r="E1744">
+        <v>1040.32</v>
+      </c>
+      <c r="F1744">
+        <f t="shared" si="66"/>
+        <v>1.0403199999999999</v>
+      </c>
+      <c r="G1744">
+        <v>67910024</v>
+      </c>
+      <c r="H1744">
+        <v>79211028480</v>
+      </c>
+      <c r="I1744">
+        <f t="shared" si="67"/>
+        <v>1742</v>
+      </c>
+      <c r="J1744">
+        <f>SUM($F$3:F1744)/I1744</f>
+        <v>1.0570097359357054</v>
+      </c>
+      <c r="K1744">
+        <f t="shared" si="68"/>
+        <v>1.2042610799999998</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1745" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B1745">
+        <v>1041.8</v>
+      </c>
+      <c r="C1745">
+        <v>1056.52</v>
+      </c>
+      <c r="D1745">
+        <v>1041.8</v>
+      </c>
+      <c r="E1745">
+        <v>1047.9000000000001</v>
+      </c>
+      <c r="F1745">
+        <f t="shared" si="66"/>
+        <v>1.0479000000000001</v>
+      </c>
+      <c r="G1745">
+        <v>74275466</v>
+      </c>
+      <c r="H1745">
+        <v>91291500544</v>
+      </c>
+      <c r="I1745">
+        <f t="shared" si="67"/>
+        <v>1743</v>
+      </c>
+      <c r="J1745">
+        <f>SUM($F$3:F1745)/I1745</f>
+        <v>1.0570045094664366</v>
+      </c>
+      <c r="K1745">
+        <f t="shared" si="68"/>
+        <v>1.2035088399999998</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1746" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B1746">
+        <v>1048.1300000000001</v>
+      </c>
+      <c r="C1746">
+        <v>1063.99</v>
+      </c>
+      <c r="D1746">
+        <v>1041.1300000000001</v>
+      </c>
+      <c r="E1746">
+        <v>1063.99</v>
+      </c>
+      <c r="F1746">
+        <f t="shared" si="66"/>
+        <v>1.06399</v>
+      </c>
+      <c r="G1746">
+        <v>72241074</v>
+      </c>
+      <c r="H1746">
+        <v>85227610112</v>
+      </c>
+      <c r="I1746">
+        <f t="shared" si="67"/>
+        <v>1744</v>
+      </c>
+      <c r="J1746">
+        <f>SUM($F$3:F1746)/I1746</f>
+        <v>1.0570085149082564</v>
+      </c>
+      <c r="K1746">
+        <f t="shared" si="68"/>
+        <v>1.2027982799999997</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1747" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B1747">
+        <v>1061.92</v>
+      </c>
+      <c r="C1747">
+        <v>1070.96</v>
+      </c>
+      <c r="D1747">
+        <v>1054.43</v>
+      </c>
+      <c r="E1747">
+        <v>1062.01</v>
+      </c>
+      <c r="F1747">
+        <f t="shared" si="66"/>
+        <v>1.0620099999999999</v>
+      </c>
+      <c r="G1747">
+        <v>72957866</v>
+      </c>
+      <c r="H1747">
+        <v>91593629696</v>
+      </c>
+      <c r="I1747">
+        <f t="shared" si="67"/>
+        <v>1745</v>
+      </c>
+      <c r="J1747">
+        <f>SUM($F$3:F1747)/I1747</f>
+        <v>1.0570113810888246</v>
+      </c>
+      <c r="K1747">
+        <f t="shared" si="68"/>
+        <v>1.2019986399999998</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1748" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B1748">
+        <v>1060.0899999999999</v>
+      </c>
+      <c r="C1748">
+        <v>1061.9000000000001</v>
+      </c>
+      <c r="D1748">
+        <v>1048.22</v>
+      </c>
+      <c r="E1748">
+        <v>1051.55</v>
+      </c>
+      <c r="F1748">
+        <f t="shared" si="66"/>
+        <v>1.05155</v>
+      </c>
+      <c r="G1748">
+        <v>69556719</v>
+      </c>
+      <c r="H1748">
+        <v>78588084224</v>
+      </c>
+      <c r="I1748">
+        <f t="shared" si="67"/>
+        <v>1746</v>
+      </c>
+      <c r="J1748">
+        <f>SUM($F$3:F1748)/I1748</f>
+        <v>1.0570082531500566</v>
+      </c>
+      <c r="K1748">
+        <f t="shared" si="68"/>
+        <v>1.2012452</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1749" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B1749">
+        <v>1049.3399999999999</v>
+      </c>
+      <c r="C1749">
+        <v>1059.44</v>
+      </c>
+      <c r="D1749">
+        <v>1045.02</v>
+      </c>
+      <c r="E1749">
+        <v>1058.72</v>
+      </c>
+      <c r="F1749">
+        <f t="shared" si="66"/>
+        <v>1.0587200000000001</v>
+      </c>
+      <c r="G1749">
+        <v>65902845</v>
+      </c>
+      <c r="H1749">
+        <v>75261640704</v>
+      </c>
+      <c r="I1749">
+        <f t="shared" si="67"/>
+        <v>1747</v>
+      </c>
+      <c r="J1749">
+        <f>SUM($F$3:F1749)/I1749</f>
+        <v>1.0570092329708065</v>
+      </c>
+      <c r="K1749">
+        <f t="shared" si="68"/>
+        <v>1.2005126000000002</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1750" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B1750">
+        <v>1057.0899999999999</v>
+      </c>
+      <c r="C1750">
+        <v>1057.23</v>
+      </c>
+      <c r="D1750">
+        <v>1033.54</v>
+      </c>
+      <c r="E1750">
+        <v>1035.42</v>
+      </c>
+      <c r="F1750">
+        <f t="shared" si="66"/>
+        <v>1.03542</v>
+      </c>
+      <c r="G1750">
+        <v>74166238</v>
+      </c>
+      <c r="H1750">
+        <v>86997614592</v>
+      </c>
+      <c r="I1750">
+        <f t="shared" si="67"/>
+        <v>1748</v>
+      </c>
+      <c r="J1750">
+        <f>SUM($F$3:F1750)/I1750</f>
+        <v>1.0569968821510292</v>
+      </c>
+      <c r="K1750">
+        <f t="shared" si="68"/>
+        <v>1.19966664</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1751" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B1751">
+        <v>1032.01</v>
+      </c>
+      <c r="C1751">
+        <v>1038.19</v>
+      </c>
+      <c r="D1751">
+        <v>1015.19</v>
+      </c>
+      <c r="E1751">
+        <v>1015.19</v>
+      </c>
+      <c r="F1751">
+        <f t="shared" si="66"/>
+        <v>1.01519</v>
+      </c>
+      <c r="G1751">
+        <v>66396541</v>
+      </c>
+      <c r="H1751">
+        <v>80913743872</v>
+      </c>
+      <c r="I1751">
+        <f t="shared" si="67"/>
+        <v>1749</v>
+      </c>
+      <c r="J1751">
+        <f>SUM($F$3:F1751)/I1751</f>
+        <v>1.0569729788450537</v>
+      </c>
+      <c r="K1751">
+        <f t="shared" si="68"/>
+        <v>1.19880436</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1752" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B1752">
+        <v>1017.04</v>
+      </c>
+      <c r="C1752">
+        <v>1024.29</v>
+      </c>
+      <c r="D1752">
+        <v>999.71</v>
+      </c>
+      <c r="E1752">
+        <v>1024.19</v>
+      </c>
+      <c r="F1752">
+        <f t="shared" si="66"/>
+        <v>1.0241900000000002</v>
+      </c>
+      <c r="G1752">
+        <v>68842844</v>
+      </c>
+      <c r="H1752">
+        <v>79469043712</v>
+      </c>
+      <c r="I1752">
+        <f t="shared" si="67"/>
+        <v>1750</v>
+      </c>
+      <c r="J1752">
+        <f>SUM($F$3:F1752)/I1752</f>
+        <v>1.0569542457142853</v>
+      </c>
+      <c r="K1752">
+        <f t="shared" si="68"/>
+        <v>1.19798256</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1753" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B1753">
+        <v>1019.39</v>
+      </c>
+      <c r="C1753">
+        <v>1025.1500000000001</v>
+      </c>
+      <c r="D1753">
+        <v>1007.44</v>
+      </c>
+      <c r="E1753">
+        <v>1008.23</v>
+      </c>
+      <c r="F1753">
+        <f t="shared" si="66"/>
+        <v>1.00823</v>
+      </c>
+      <c r="G1753">
+        <v>68878957</v>
+      </c>
+      <c r="H1753">
+        <v>74210787328</v>
+      </c>
+      <c r="I1753">
+        <f t="shared" si="67"/>
+        <v>1751</v>
+      </c>
+      <c r="J1753">
+        <f>SUM($F$3:F1753)/I1753</f>
+        <v>1.0569264191890342</v>
+      </c>
+      <c r="K1753">
+        <f t="shared" si="68"/>
+        <v>1.19720844</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1754" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B1754">
+        <v>1004.79</v>
+      </c>
+      <c r="C1754">
+        <v>1015.17</v>
+      </c>
+      <c r="D1754">
+        <v>999.72</v>
+      </c>
+      <c r="E1754">
+        <v>1004.74</v>
+      </c>
+      <c r="F1754">
+        <f t="shared" si="66"/>
+        <v>1.00474</v>
+      </c>
+      <c r="G1754">
+        <v>62900247</v>
+      </c>
+      <c r="H1754">
+        <v>63340822528</v>
+      </c>
+      <c r="I1754">
+        <f t="shared" si="67"/>
+        <v>1752</v>
+      </c>
+      <c r="J1754">
+        <f>SUM($F$3:F1754)/I1754</f>
+        <v>1.0568966324200908</v>
+      </c>
+      <c r="K1754">
+        <f t="shared" si="68"/>
+        <v>1.1963355200000001</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1755" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B1755">
+        <v>999.12</v>
+      </c>
+      <c r="C1755">
+        <v>1010.67</v>
+      </c>
+      <c r="D1755">
+        <v>989.22</v>
+      </c>
+      <c r="E1755">
+        <v>1003.65</v>
+      </c>
+      <c r="F1755">
+        <f t="shared" si="66"/>
+        <v>1.0036499999999999</v>
+      </c>
+      <c r="G1755">
+        <v>59713335</v>
+      </c>
+      <c r="H1755">
+        <v>63394377728</v>
+      </c>
+      <c r="I1755">
+        <f t="shared" si="67"/>
+        <v>1753</v>
+      </c>
+      <c r="J1755">
+        <f>SUM($F$3:F1755)/I1755</f>
+        <v>1.056866257843696</v>
+      </c>
+      <c r="K1755">
+        <f t="shared" si="68"/>
+        <v>1.1953183599999999</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1756" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B1756">
+        <v>1003.38</v>
+      </c>
+      <c r="C1756">
+        <v>1025.21</v>
+      </c>
+      <c r="D1756">
+        <v>1003.38</v>
+      </c>
+      <c r="E1756">
+        <v>1021.57</v>
+      </c>
+      <c r="F1756">
+        <f t="shared" si="66"/>
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="G1756">
+        <v>67367015</v>
+      </c>
+      <c r="H1756">
+        <v>77693550592</v>
+      </c>
+      <c r="I1756">
+        <f t="shared" si="67"/>
+        <v>1754</v>
+      </c>
+      <c r="J1756">
+        <f>SUM($F$3:F1756)/I1756</f>
+        <v>1.0568461345496005</v>
+      </c>
+      <c r="K1756">
+        <f t="shared" si="68"/>
+        <v>1.1943829999999998</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1756"/>
+  <dimension ref="A1:K1775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1737" workbookViewId="0">
-      <selection activeCell="A1757" sqref="A1757"/>
+    <sheetView tabSelected="1" topLeftCell="A1757" workbookViewId="0">
+      <selection activeCell="A1776" sqref="A1776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1756" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1775" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1756" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1775" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1756" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1775" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -67865,6 +67865,747 @@
       <c r="K1756">
         <f t="shared" si="68"/>
         <v>1.1943829999999998</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1757" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B1757">
+        <v>1021.9</v>
+      </c>
+      <c r="C1757">
+        <v>1022.04</v>
+      </c>
+      <c r="D1757">
+        <v>994.75</v>
+      </c>
+      <c r="E1757">
+        <v>1003.1</v>
+      </c>
+      <c r="F1757">
+        <f t="shared" si="66"/>
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="G1757">
+        <v>71852107</v>
+      </c>
+      <c r="H1757">
+        <v>83874381824</v>
+      </c>
+      <c r="I1757">
+        <f t="shared" si="67"/>
+        <v>1755</v>
+      </c>
+      <c r="J1757">
+        <f>SUM($F$3:F1757)/I1757</f>
+        <v>1.0568155099715095</v>
+      </c>
+      <c r="K1757">
+        <f t="shared" si="68"/>
+        <v>1.1934027599999997</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1758" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B1758">
+        <v>996.7</v>
+      </c>
+      <c r="C1758">
+        <v>996.81</v>
+      </c>
+      <c r="D1758">
+        <v>975.02</v>
+      </c>
+      <c r="E1758">
+        <v>988.44</v>
+      </c>
+      <c r="F1758">
+        <f t="shared" si="66"/>
+        <v>0.9884400000000001</v>
+      </c>
+      <c r="G1758">
+        <v>73668245</v>
+      </c>
+      <c r="H1758">
+        <v>74694877184</v>
+      </c>
+      <c r="I1758">
+        <f t="shared" si="67"/>
+        <v>1756</v>
+      </c>
+      <c r="J1758">
+        <f>SUM($F$3:F1758)/I1758</f>
+        <v>1.0567765717539859</v>
+      </c>
+      <c r="K1758">
+        <f t="shared" si="68"/>
+        <v>1.1924455599999999</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1759" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B1759">
+        <v>984.93</v>
+      </c>
+      <c r="C1759">
+        <v>991.62</v>
+      </c>
+      <c r="D1759">
+        <v>976.03</v>
+      </c>
+      <c r="E1759">
+        <v>976.03</v>
+      </c>
+      <c r="F1759">
+        <f t="shared" si="66"/>
+        <v>0.97602999999999995</v>
+      </c>
+      <c r="G1759">
+        <v>68473572</v>
+      </c>
+      <c r="H1759">
+        <v>71111180288</v>
+      </c>
+      <c r="I1759">
+        <f t="shared" si="67"/>
+        <v>1757</v>
+      </c>
+      <c r="J1759">
+        <f>SUM($F$3:F1759)/I1759</f>
+        <v>1.0567306146841202</v>
+      </c>
+      <c r="K1759">
+        <f t="shared" si="68"/>
+        <v>1.1914133600000001</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1760" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B1760">
+        <v>976.53</v>
+      </c>
+      <c r="C1760">
+        <v>981.15</v>
+      </c>
+      <c r="D1760">
+        <v>926.92</v>
+      </c>
+      <c r="E1760">
+        <v>931.28</v>
+      </c>
+      <c r="F1760">
+        <f t="shared" si="66"/>
+        <v>0.93128</v>
+      </c>
+      <c r="G1760">
+        <v>91926078</v>
+      </c>
+      <c r="H1760">
+        <v>96661553152</v>
+      </c>
+      <c r="I1760">
+        <f t="shared" si="67"/>
+        <v>1758</v>
+      </c>
+      <c r="J1760">
+        <f>SUM($F$3:F1760)/I1760</f>
+        <v>1.0566592548350395</v>
+      </c>
+      <c r="K1760">
+        <f t="shared" si="68"/>
+        <v>1.1902204399999998</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1761" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B1761">
+        <v>942.24</v>
+      </c>
+      <c r="C1761">
+        <v>955.77</v>
+      </c>
+      <c r="D1761">
+        <v>932.27</v>
+      </c>
+      <c r="E1761">
+        <v>946.52</v>
+      </c>
+      <c r="F1761">
+        <f t="shared" si="66"/>
+        <v>0.94652000000000003</v>
+      </c>
+      <c r="G1761">
+        <v>68290846</v>
+      </c>
+      <c r="H1761">
+        <v>77270720512</v>
+      </c>
+      <c r="I1761">
+        <f t="shared" si="67"/>
+        <v>1759</v>
+      </c>
+      <c r="J1761">
+        <f>SUM($F$3:F1761)/I1761</f>
+        <v>1.0565966401364408</v>
+      </c>
+      <c r="K1761">
+        <f t="shared" si="68"/>
+        <v>1.1889906399999999</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1762" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B1762">
+        <v>942.39</v>
+      </c>
+      <c r="C1762">
+        <v>964.04</v>
+      </c>
+      <c r="D1762">
+        <v>928.12</v>
+      </c>
+      <c r="E1762">
+        <v>963.3</v>
+      </c>
+      <c r="F1762">
+        <f t="shared" si="66"/>
+        <v>0.96329999999999993</v>
+      </c>
+      <c r="G1762">
+        <v>61536434</v>
+      </c>
+      <c r="H1762">
+        <v>72245411840</v>
+      </c>
+      <c r="I1762">
+        <f t="shared" si="67"/>
+        <v>1760</v>
+      </c>
+      <c r="J1762">
+        <f>SUM($F$3:F1762)/I1762</f>
+        <v>1.0565436306818177</v>
+      </c>
+      <c r="K1762">
+        <f t="shared" si="68"/>
+        <v>1.1878179600000001</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1763" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B1763">
+        <v>963.88</v>
+      </c>
+      <c r="C1763">
+        <v>984.01</v>
+      </c>
+      <c r="D1763">
+        <v>963.67</v>
+      </c>
+      <c r="E1763">
+        <v>982.2</v>
+      </c>
+      <c r="F1763">
+        <f t="shared" si="66"/>
+        <v>0.98220000000000007</v>
+      </c>
+      <c r="G1763">
+        <v>65589498</v>
+      </c>
+      <c r="H1763">
+        <v>78014373888</v>
+      </c>
+      <c r="I1763">
+        <f t="shared" si="67"/>
+        <v>1761</v>
+      </c>
+      <c r="J1763">
+        <f>SUM($F$3:F1763)/I1763</f>
+        <v>1.0565014139693352</v>
+      </c>
+      <c r="K1763">
+        <f t="shared" si="68"/>
+        <v>1.1866269600000001</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1764" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B1764">
+        <v>983.73</v>
+      </c>
+      <c r="C1764">
+        <v>989.99</v>
+      </c>
+      <c r="D1764">
+        <v>976.4</v>
+      </c>
+      <c r="E1764">
+        <v>982.7</v>
+      </c>
+      <c r="F1764">
+        <f t="shared" si="66"/>
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="G1764">
+        <v>68549575</v>
+      </c>
+      <c r="H1764">
+        <v>85963644928</v>
+      </c>
+      <c r="I1764">
+        <f t="shared" si="67"/>
+        <v>1762</v>
+      </c>
+      <c r="J1764">
+        <f>SUM($F$3:F1764)/I1764</f>
+        <v>1.056459528944381</v>
+      </c>
+      <c r="K1764">
+        <f t="shared" si="68"/>
+        <v>1.1853628800000002</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1765" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B1765">
+        <v>980.75</v>
+      </c>
+      <c r="C1765">
+        <v>989.86</v>
+      </c>
+      <c r="D1765">
+        <v>972.87</v>
+      </c>
+      <c r="E1765">
+        <v>987.65</v>
+      </c>
+      <c r="F1765">
+        <f t="shared" si="66"/>
+        <v>0.98765000000000003</v>
+      </c>
+      <c r="G1765">
+        <v>76128063</v>
+      </c>
+      <c r="H1765">
+        <v>91573125120</v>
+      </c>
+      <c r="I1765">
+        <f t="shared" si="67"/>
+        <v>1763</v>
+      </c>
+      <c r="J1765">
+        <f>SUM($F$3:F1765)/I1765</f>
+        <v>1.056420499149177</v>
+      </c>
+      <c r="K1765">
+        <f t="shared" si="68"/>
+        <v>1.1840379999999999</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1766" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B1766">
+        <v>983.76</v>
+      </c>
+      <c r="C1766">
+        <v>991.42</v>
+      </c>
+      <c r="D1766">
+        <v>981.6</v>
+      </c>
+      <c r="E1766">
+        <v>985.15</v>
+      </c>
+      <c r="F1766">
+        <f t="shared" si="66"/>
+        <v>0.98514999999999997</v>
+      </c>
+      <c r="G1766">
+        <v>67238346</v>
+      </c>
+      <c r="H1766">
+        <v>82449399808</v>
+      </c>
+      <c r="I1766">
+        <f t="shared" si="67"/>
+        <v>1764</v>
+      </c>
+      <c r="J1766">
+        <f>SUM($F$3:F1766)/I1766</f>
+        <v>1.0563800963718817</v>
+      </c>
+      <c r="K1766">
+        <f t="shared" si="68"/>
+        <v>1.1826958399999998</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1767" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B1767">
+        <v>985.39</v>
+      </c>
+      <c r="C1767">
+        <v>1008</v>
+      </c>
+      <c r="D1767">
+        <v>983.51</v>
+      </c>
+      <c r="E1767">
+        <v>1008</v>
+      </c>
+      <c r="F1767">
+        <f t="shared" si="66"/>
+        <v>1.008</v>
+      </c>
+      <c r="G1767">
+        <v>77812754</v>
+      </c>
+      <c r="H1767">
+        <v>91287617536</v>
+      </c>
+      <c r="I1767">
+        <f t="shared" si="67"/>
+        <v>1765</v>
+      </c>
+      <c r="J1767">
+        <f>SUM($F$3:F1767)/I1767</f>
+        <v>1.0563526855524075</v>
+      </c>
+      <c r="K1767">
+        <f t="shared" si="68"/>
+        <v>1.1814001199999999</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1768" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B1768">
+        <v>1011.45</v>
+      </c>
+      <c r="C1768">
+        <v>1017.38</v>
+      </c>
+      <c r="D1768">
+        <v>1006.4</v>
+      </c>
+      <c r="E1768">
+        <v>1007.79</v>
+      </c>
+      <c r="F1768">
+        <f t="shared" si="66"/>
+        <v>1.00779</v>
+      </c>
+      <c r="G1768">
+        <v>76585823</v>
+      </c>
+      <c r="H1768">
+        <v>92305309696</v>
+      </c>
+      <c r="I1768">
+        <f t="shared" si="67"/>
+        <v>1766</v>
+      </c>
+      <c r="J1768">
+        <f>SUM($F$3:F1768)/I1768</f>
+        <v>1.0563251868629666</v>
+      </c>
+      <c r="K1768">
+        <f t="shared" si="68"/>
+        <v>1.18023112</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1769" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B1769">
+        <v>1004.94</v>
+      </c>
+      <c r="C1769">
+        <v>1006.52</v>
+      </c>
+      <c r="D1769">
+        <v>982.63</v>
+      </c>
+      <c r="E1769">
+        <v>983.12</v>
+      </c>
+      <c r="F1769">
+        <f t="shared" si="66"/>
+        <v>0.98311999999999999</v>
+      </c>
+      <c r="G1769">
+        <v>77850325</v>
+      </c>
+      <c r="H1769">
+        <v>91389493248</v>
+      </c>
+      <c r="I1769">
+        <f t="shared" si="67"/>
+        <v>1767</v>
+      </c>
+      <c r="J1769">
+        <f>SUM($F$3:F1769)/I1769</f>
+        <v>1.0562837577815503</v>
+      </c>
+      <c r="K1769">
+        <f t="shared" si="68"/>
+        <v>1.1788736399999999</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1770" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B1770">
+        <v>977.1</v>
+      </c>
+      <c r="C1770">
+        <v>983.55</v>
+      </c>
+      <c r="D1770">
+        <v>964.35</v>
+      </c>
+      <c r="E1770">
+        <v>978.07</v>
+      </c>
+      <c r="F1770">
+        <f t="shared" si="66"/>
+        <v>0.97806999999999999</v>
+      </c>
+      <c r="G1770">
+        <v>61172525</v>
+      </c>
+      <c r="H1770">
+        <v>70890291200</v>
+      </c>
+      <c r="I1770">
+        <f t="shared" si="67"/>
+        <v>1768</v>
+      </c>
+      <c r="J1770">
+        <f>SUM($F$3:F1770)/I1770</f>
+        <v>1.0562395192307688</v>
+      </c>
+      <c r="K1770">
+        <f t="shared" si="68"/>
+        <v>1.1775393599999999</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1771" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B1771">
+        <v>969.35</v>
+      </c>
+      <c r="C1771">
+        <v>969.35</v>
+      </c>
+      <c r="D1771">
+        <v>935.96</v>
+      </c>
+      <c r="E1771">
+        <v>936.78</v>
+      </c>
+      <c r="F1771">
+        <f t="shared" si="66"/>
+        <v>0.93677999999999995</v>
+      </c>
+      <c r="G1771">
+        <v>72484314</v>
+      </c>
+      <c r="H1771">
+        <v>81346600960</v>
+      </c>
+      <c r="I1771">
+        <f t="shared" si="67"/>
+        <v>1769</v>
+      </c>
+      <c r="J1771">
+        <f>SUM($F$3:F1771)/I1771</f>
+        <v>1.0561719898247592</v>
+      </c>
+      <c r="K1771">
+        <f t="shared" si="68"/>
+        <v>1.1759720399999998</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1772" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B1772">
+        <v>935.93</v>
+      </c>
+      <c r="C1772">
+        <v>945.95</v>
+      </c>
+      <c r="D1772">
+        <v>918.93</v>
+      </c>
+      <c r="E1772">
+        <v>927.72</v>
+      </c>
+      <c r="F1772">
+        <f t="shared" si="66"/>
+        <v>0.92771999999999999</v>
+      </c>
+      <c r="G1772">
+        <v>69825066</v>
+      </c>
+      <c r="H1772">
+        <v>75766448128</v>
+      </c>
+      <c r="I1772">
+        <f t="shared" si="67"/>
+        <v>1770</v>
+      </c>
+      <c r="J1772">
+        <f>SUM($F$3:F1772)/I1772</f>
+        <v>1.0560994180790955</v>
+      </c>
+      <c r="K1772">
+        <f t="shared" si="68"/>
+        <v>1.1743291200000001</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1773" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B1773">
+        <v>925.54</v>
+      </c>
+      <c r="C1773">
+        <v>971.67</v>
+      </c>
+      <c r="D1773">
+        <v>918.68</v>
+      </c>
+      <c r="E1773">
+        <v>971.51</v>
+      </c>
+      <c r="F1773">
+        <f t="shared" si="66"/>
+        <v>0.97150999999999998</v>
+      </c>
+      <c r="G1773">
+        <v>78459436</v>
+      </c>
+      <c r="H1773">
+        <v>89321783296</v>
+      </c>
+      <c r="I1773">
+        <f t="shared" si="67"/>
+        <v>1771</v>
+      </c>
+      <c r="J1773">
+        <f>SUM($F$3:F1773)/I1773</f>
+        <v>1.0560516544325236</v>
+      </c>
+      <c r="K1773">
+        <f t="shared" si="68"/>
+        <v>1.17277772</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1774" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B1774">
+        <v>968.04</v>
+      </c>
+      <c r="C1774">
+        <v>976.01</v>
+      </c>
+      <c r="D1774">
+        <v>956.95</v>
+      </c>
+      <c r="E1774">
+        <v>956.95</v>
+      </c>
+      <c r="F1774">
+        <f t="shared" si="66"/>
+        <v>0.95695000000000008</v>
+      </c>
+      <c r="G1774">
+        <v>72245974</v>
+      </c>
+      <c r="H1774">
+        <v>82773245952</v>
+      </c>
+      <c r="I1774">
+        <f t="shared" si="67"/>
+        <v>1772</v>
+      </c>
+      <c r="J1774">
+        <f>SUM($F$3:F1774)/I1774</f>
+        <v>1.0559957279909702</v>
+      </c>
+      <c r="K1774">
+        <f t="shared" si="68"/>
+        <v>1.17115444</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1775" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B1775">
+        <v>954.43</v>
+      </c>
+      <c r="C1775">
+        <v>973.43</v>
+      </c>
+      <c r="D1775">
+        <v>953.98</v>
+      </c>
+      <c r="E1775">
+        <v>956.43</v>
+      </c>
+      <c r="F1775">
+        <f t="shared" si="66"/>
+        <v>0.95643</v>
+      </c>
+      <c r="G1775">
+        <v>71270167</v>
+      </c>
+      <c r="H1775">
+        <v>84064010240</v>
+      </c>
+      <c r="I1775">
+        <f t="shared" si="67"/>
+        <v>1773</v>
+      </c>
+      <c r="J1775">
+        <f>SUM($F$3:F1775)/I1775</f>
+        <v>1.0559395713479971</v>
+      </c>
+      <c r="K1775">
+        <f t="shared" si="68"/>
+        <v>1.16957004</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1775"/>
+  <dimension ref="A1:K1798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1757" workbookViewId="0">
-      <selection activeCell="A1776" sqref="A1776"/>
+    <sheetView tabSelected="1" topLeftCell="A1776" workbookViewId="0">
+      <selection activeCell="A1799" sqref="A1799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -59460,7 +59460,7 @@
         <v>1300.73</v>
       </c>
       <c r="F1541">
-        <f t="shared" ref="F1541:F1775" si="66">E1541/1000</f>
+        <f t="shared" ref="F1541:F1795" si="66">E1541/1000</f>
         <v>1.3007299999999999</v>
       </c>
       <c r="G1541">
@@ -59587,7 +59587,7 @@
         <v>175135064064</v>
       </c>
       <c r="I1544">
-        <f t="shared" ref="I1544:I1775" si="67">I1543+1</f>
+        <f t="shared" ref="I1544:I1798" si="67">I1543+1</f>
         <v>1542</v>
       </c>
       <c r="J1544">
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1775" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1798" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -68606,6 +68606,903 @@
       <c r="K1775">
         <f t="shared" si="68"/>
         <v>1.16957004</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1776" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B1776">
+        <v>955.07</v>
+      </c>
+      <c r="C1776">
+        <v>961.17</v>
+      </c>
+      <c r="D1776">
+        <v>940.79</v>
+      </c>
+      <c r="E1776">
+        <v>959.58</v>
+      </c>
+      <c r="F1776">
+        <f t="shared" si="66"/>
+        <v>0.95957999999999999</v>
+      </c>
+      <c r="G1776">
+        <v>60233510</v>
+      </c>
+      <c r="H1776">
+        <v>69142994944</v>
+      </c>
+      <c r="I1776">
+        <f t="shared" si="67"/>
+        <v>1774</v>
+      </c>
+      <c r="J1776">
+        <f>SUM($F$3:F1776)/I1776</f>
+        <v>1.0558852536640355</v>
+      </c>
+      <c r="K1776">
+        <f t="shared" si="68"/>
+        <v>1.1678966800000001</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1777" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B1777">
+        <v>962.2</v>
+      </c>
+      <c r="C1777">
+        <v>981</v>
+      </c>
+      <c r="D1777">
+        <v>962.2</v>
+      </c>
+      <c r="E1777">
+        <v>970.42</v>
+      </c>
+      <c r="F1777">
+        <f t="shared" si="66"/>
+        <v>0.97041999999999995</v>
+      </c>
+      <c r="G1777">
+        <v>76260269</v>
+      </c>
+      <c r="H1777">
+        <v>78265966592</v>
+      </c>
+      <c r="I1777">
+        <f t="shared" si="67"/>
+        <v>1775</v>
+      </c>
+      <c r="J1777">
+        <f>SUM($F$3:F1777)/I1777</f>
+        <v>1.0558371042253516</v>
+      </c>
+      <c r="K1777">
+        <f t="shared" si="68"/>
+        <v>1.1661641600000001</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1778" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B1778">
+        <v>968.9</v>
+      </c>
+      <c r="C1778">
+        <v>969.35</v>
+      </c>
+      <c r="D1778">
+        <v>954.71</v>
+      </c>
+      <c r="E1778">
+        <v>955.16</v>
+      </c>
+      <c r="F1778">
+        <f t="shared" si="66"/>
+        <v>0.95516000000000001</v>
+      </c>
+      <c r="G1778">
+        <v>71198616</v>
+      </c>
+      <c r="H1778">
+        <v>71603412992</v>
+      </c>
+      <c r="I1778">
+        <f t="shared" si="67"/>
+        <v>1776</v>
+      </c>
+      <c r="J1778">
+        <f>SUM($F$3:F1778)/I1778</f>
+        <v>1.0557804166666662</v>
+      </c>
+      <c r="K1778">
+        <f t="shared" si="68"/>
+        <v>1.16435624</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1779" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B1779">
+        <v>956.08</v>
+      </c>
+      <c r="C1779">
+        <v>961.7</v>
+      </c>
+      <c r="D1779">
+        <v>928.57</v>
+      </c>
+      <c r="E1779">
+        <v>929.61</v>
+      </c>
+      <c r="F1779">
+        <f t="shared" si="66"/>
+        <v>0.92961000000000005</v>
+      </c>
+      <c r="G1779">
+        <v>70087682</v>
+      </c>
+      <c r="H1779">
+        <v>67931213824</v>
+      </c>
+      <c r="I1779">
+        <f t="shared" si="67"/>
+        <v>1777</v>
+      </c>
+      <c r="J1779">
+        <f>SUM($F$3:F1779)/I1779</f>
+        <v>1.0557094147439499</v>
+      </c>
+      <c r="K1779">
+        <f t="shared" si="68"/>
+        <v>1.1626401200000003</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1780" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B1780">
+        <v>927.6</v>
+      </c>
+      <c r="C1780">
+        <v>946.86</v>
+      </c>
+      <c r="D1780">
+        <v>914.72</v>
+      </c>
+      <c r="E1780">
+        <v>941.65</v>
+      </c>
+      <c r="F1780">
+        <f t="shared" si="66"/>
+        <v>0.94164999999999999</v>
+      </c>
+      <c r="G1780">
+        <v>63707119</v>
+      </c>
+      <c r="H1780">
+        <v>66756730880</v>
+      </c>
+      <c r="I1780">
+        <f t="shared" si="67"/>
+        <v>1778</v>
+      </c>
+      <c r="J1780">
+        <f>SUM($F$3:F1780)/I1780</f>
+        <v>1.0556452643419567</v>
+      </c>
+      <c r="K1780">
+        <f t="shared" si="68"/>
+        <v>1.1612200400000001</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1781" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B1781">
+        <v>936.67</v>
+      </c>
+      <c r="C1781">
+        <v>936.67</v>
+      </c>
+      <c r="D1781">
+        <v>907.29</v>
+      </c>
+      <c r="E1781">
+        <v>909.75</v>
+      </c>
+      <c r="F1781">
+        <f t="shared" si="66"/>
+        <v>0.90974999999999995</v>
+      </c>
+      <c r="G1781">
+        <v>62638089</v>
+      </c>
+      <c r="H1781">
+        <v>63417024512</v>
+      </c>
+      <c r="I1781">
+        <f t="shared" si="67"/>
+        <v>1779</v>
+      </c>
+      <c r="J1781">
+        <f>SUM($F$3:F1781)/I1781</f>
+        <v>1.0555632546374363</v>
+      </c>
+      <c r="K1781">
+        <f t="shared" si="68"/>
+        <v>1.1595947600000003</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1782" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B1782">
+        <v>909.03</v>
+      </c>
+      <c r="C1782">
+        <v>931</v>
+      </c>
+      <c r="D1782">
+        <v>893.68</v>
+      </c>
+      <c r="E1782">
+        <v>930.31</v>
+      </c>
+      <c r="F1782">
+        <f t="shared" si="66"/>
+        <v>0.93030999999999997</v>
+      </c>
+      <c r="G1782">
+        <v>73652553</v>
+      </c>
+      <c r="H1782">
+        <v>86153437184</v>
+      </c>
+      <c r="I1782">
+        <f t="shared" si="67"/>
+        <v>1780</v>
+      </c>
+      <c r="J1782">
+        <f>SUM($F$3:F1782)/I1782</f>
+        <v>1.0554928876404488</v>
+      </c>
+      <c r="K1782">
+        <f t="shared" si="68"/>
+        <v>1.1581536400000001</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1783" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B1783">
+        <v>924.8</v>
+      </c>
+      <c r="C1783">
+        <v>937.67</v>
+      </c>
+      <c r="D1783">
+        <v>922.3</v>
+      </c>
+      <c r="E1783">
+        <v>927.31</v>
+      </c>
+      <c r="F1783">
+        <f t="shared" si="66"/>
+        <v>0.92730999999999997</v>
+      </c>
+      <c r="G1783">
+        <v>67859603</v>
+      </c>
+      <c r="H1783">
+        <v>74433273856</v>
+      </c>
+      <c r="I1783">
+        <f t="shared" si="67"/>
+        <v>1781</v>
+      </c>
+      <c r="J1783">
+        <f>SUM($F$3:F1783)/I1783</f>
+        <v>1.0554209152161702</v>
+      </c>
+      <c r="K1783">
+        <f t="shared" si="68"/>
+        <v>1.1566183999999999</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1784" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B1784">
+        <v>943.65</v>
+      </c>
+      <c r="C1784">
+        <v>956.05</v>
+      </c>
+      <c r="D1784">
+        <v>938.3</v>
+      </c>
+      <c r="E1784">
+        <v>956.05</v>
+      </c>
+      <c r="F1784">
+        <f t="shared" si="66"/>
+        <v>0.95604999999999996</v>
+      </c>
+      <c r="G1784">
+        <v>80658176</v>
+      </c>
+      <c r="H1784">
+        <v>89628385280</v>
+      </c>
+      <c r="I1784">
+        <f t="shared" si="67"/>
+        <v>1782</v>
+      </c>
+      <c r="J1784">
+        <f>SUM($F$3:F1784)/I1784</f>
+        <v>1.055365151515151</v>
+      </c>
+      <c r="K1784">
+        <f t="shared" si="68"/>
+        <v>1.1551612799999997</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1785" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B1785">
+        <v>952.78</v>
+      </c>
+      <c r="C1785">
+        <v>959.44</v>
+      </c>
+      <c r="D1785">
+        <v>947.24</v>
+      </c>
+      <c r="E1785">
+        <v>950.01</v>
+      </c>
+      <c r="F1785">
+        <f t="shared" si="66"/>
+        <v>0.95001000000000002</v>
+      </c>
+      <c r="G1785">
+        <v>69197771</v>
+      </c>
+      <c r="H1785">
+        <v>72850857984</v>
+      </c>
+      <c r="I1785">
+        <f t="shared" si="67"/>
+        <v>1783</v>
+      </c>
+      <c r="J1785">
+        <f>SUM($F$3:F1785)/I1785</f>
+        <v>1.0553060628154789</v>
+      </c>
+      <c r="K1785">
+        <f t="shared" si="68"/>
+        <v>1.1537042399999997</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1786" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B1786">
+        <v>947.42</v>
+      </c>
+      <c r="C1786">
+        <v>947.42</v>
+      </c>
+      <c r="D1786">
+        <v>931.18</v>
+      </c>
+      <c r="E1786">
+        <v>933.38</v>
+      </c>
+      <c r="F1786">
+        <f t="shared" si="66"/>
+        <v>0.93337999999999999</v>
+      </c>
+      <c r="G1786">
+        <v>68276504</v>
+      </c>
+      <c r="H1786">
+        <v>68114071552</v>
+      </c>
+      <c r="I1786">
+        <f t="shared" si="67"/>
+        <v>1784</v>
+      </c>
+      <c r="J1786">
+        <f>SUM($F$3:F1786)/I1786</f>
+        <v>1.0552377186098649</v>
+      </c>
+      <c r="K1786">
+        <f t="shared" si="68"/>
+        <v>1.1521275599999996</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1787" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B1787">
+        <v>930.83</v>
+      </c>
+      <c r="C1787">
+        <v>942.89</v>
+      </c>
+      <c r="D1787">
+        <v>924.73</v>
+      </c>
+      <c r="E1787">
+        <v>940.34</v>
+      </c>
+      <c r="F1787">
+        <f t="shared" si="66"/>
+        <v>0.94034000000000006</v>
+      </c>
+      <c r="G1787">
+        <v>66588034</v>
+      </c>
+      <c r="H1787">
+        <v>83249192960</v>
+      </c>
+      <c r="I1787">
+        <f t="shared" si="67"/>
+        <v>1785</v>
+      </c>
+      <c r="J1787">
+        <f>SUM($F$3:F1787)/I1787</f>
+        <v>1.0551733501400555</v>
+      </c>
+      <c r="K1787">
+        <f t="shared" si="68"/>
+        <v>1.1506417599999996</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1788" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B1788">
+        <v>938.19</v>
+      </c>
+      <c r="C1788">
+        <v>942</v>
+      </c>
+      <c r="D1788">
+        <v>922.87</v>
+      </c>
+      <c r="E1788">
+        <v>922.87</v>
+      </c>
+      <c r="F1788">
+        <f t="shared" si="66"/>
+        <v>0.92286999999999997</v>
+      </c>
+      <c r="G1788">
+        <v>66964162</v>
+      </c>
+      <c r="H1788">
+        <v>78580965376</v>
+      </c>
+      <c r="I1788">
+        <f t="shared" si="67"/>
+        <v>1786</v>
+      </c>
+      <c r="J1788">
+        <f>SUM($F$3:F1788)/I1788</f>
+        <v>1.0550992721164609</v>
+      </c>
+      <c r="K1788">
+        <f t="shared" si="68"/>
+        <v>1.1490751599999993</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1789" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B1789">
+        <v>913.97</v>
+      </c>
+      <c r="C1789">
+        <v>920.38</v>
+      </c>
+      <c r="D1789">
+        <v>896.38</v>
+      </c>
+      <c r="E1789">
+        <v>917.55</v>
+      </c>
+      <c r="F1789">
+        <f t="shared" si="66"/>
+        <v>0.91754999999999998</v>
+      </c>
+      <c r="G1789">
+        <v>67752071</v>
+      </c>
+      <c r="H1789">
+        <v>79365865472</v>
+      </c>
+      <c r="I1789">
+        <f t="shared" si="67"/>
+        <v>1787</v>
+      </c>
+      <c r="J1789">
+        <f>SUM($F$3:F1789)/I1789</f>
+        <v>1.0550222999440397</v>
+      </c>
+      <c r="K1789">
+        <f t="shared" si="68"/>
+        <v>1.1475693599999992</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1790" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B1790">
+        <v>914.31</v>
+      </c>
+      <c r="C1790">
+        <v>936</v>
+      </c>
+      <c r="D1790">
+        <v>912.46</v>
+      </c>
+      <c r="E1790">
+        <v>930.68</v>
+      </c>
+      <c r="F1790">
+        <f t="shared" si="66"/>
+        <v>0.93067999999999995</v>
+      </c>
+      <c r="G1790">
+        <v>64911888</v>
+      </c>
+      <c r="H1790">
+        <v>84697784320</v>
+      </c>
+      <c r="I1790">
+        <f t="shared" si="67"/>
+        <v>1788</v>
+      </c>
+      <c r="J1790">
+        <f>SUM($F$3:F1790)/I1790</f>
+        <v>1.0549527572706929</v>
+      </c>
+      <c r="K1790">
+        <f t="shared" si="68"/>
+        <v>1.1461315599999993</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1791" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B1791">
+        <v>934.54</v>
+      </c>
+      <c r="C1791">
+        <v>948.05</v>
+      </c>
+      <c r="D1791">
+        <v>933.44</v>
+      </c>
+      <c r="E1791">
+        <v>944.81</v>
+      </c>
+      <c r="F1791">
+        <f t="shared" si="66"/>
+        <v>0.94480999999999993</v>
+      </c>
+      <c r="G1791">
+        <v>67836971</v>
+      </c>
+      <c r="H1791">
+        <v>82633056256</v>
+      </c>
+      <c r="I1791">
+        <f t="shared" si="67"/>
+        <v>1789</v>
+      </c>
+      <c r="J1791">
+        <f>SUM($F$3:F1791)/I1791</f>
+        <v>1.0548911906092784</v>
+      </c>
+      <c r="K1791">
+        <f t="shared" si="68"/>
+        <v>1.1447078799999992</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1792" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B1792">
+        <v>943.8</v>
+      </c>
+      <c r="C1792">
+        <v>948.99</v>
+      </c>
+      <c r="D1792">
+        <v>928.46</v>
+      </c>
+      <c r="E1792">
+        <v>928.48</v>
+      </c>
+      <c r="F1792">
+        <f t="shared" si="66"/>
+        <v>0.92847999999999997</v>
+      </c>
+      <c r="G1792">
+        <v>77788298</v>
+      </c>
+      <c r="H1792">
+        <v>84875624448</v>
+      </c>
+      <c r="I1792">
+        <f t="shared" si="67"/>
+        <v>1790</v>
+      </c>
+      <c r="J1792">
+        <f>SUM($F$3:F1792)/I1792</f>
+        <v>1.0548205698324016</v>
+      </c>
+      <c r="K1792">
+        <f t="shared" si="68"/>
+        <v>1.1433439999999992</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1793" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B1793">
+        <v>923.17</v>
+      </c>
+      <c r="C1793">
+        <v>930.09</v>
+      </c>
+      <c r="D1793">
+        <v>909.1</v>
+      </c>
+      <c r="E1793">
+        <v>910.08</v>
+      </c>
+      <c r="F1793">
+        <f t="shared" si="66"/>
+        <v>0.91008</v>
+      </c>
+      <c r="G1793">
+        <v>71943316</v>
+      </c>
+      <c r="H1793">
+        <v>75312185344</v>
+      </c>
+      <c r="I1793">
+        <f t="shared" si="67"/>
+        <v>1791</v>
+      </c>
+      <c r="J1793">
+        <f>SUM($F$3:F1793)/I1793</f>
+        <v>1.054739754327191</v>
+      </c>
+      <c r="K1793">
+        <f t="shared" si="68"/>
+        <v>1.1418252799999991</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1794" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B1794">
+        <v>904</v>
+      </c>
+      <c r="C1794">
+        <v>923.14</v>
+      </c>
+      <c r="D1794">
+        <v>899.51</v>
+      </c>
+      <c r="E1794">
+        <v>912.97</v>
+      </c>
+      <c r="F1794">
+        <f t="shared" si="66"/>
+        <v>0.91297000000000006</v>
+      </c>
+      <c r="G1794">
+        <v>60759915</v>
+      </c>
+      <c r="H1794">
+        <v>64885678080</v>
+      </c>
+      <c r="I1794">
+        <f t="shared" si="67"/>
+        <v>1792</v>
+      </c>
+      <c r="J1794">
+        <f>SUM($F$3:F1794)/I1794</f>
+        <v>1.0546606417410709</v>
+      </c>
+      <c r="K1794">
+        <f t="shared" si="68"/>
+        <v>1.1402300399999987</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1795" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B1795">
+        <v>913.47</v>
+      </c>
+      <c r="C1795">
+        <v>928.39</v>
+      </c>
+      <c r="D1795">
+        <v>913.47</v>
+      </c>
+      <c r="E1795">
+        <v>927.72</v>
+      </c>
+      <c r="F1795">
+        <f t="shared" si="66"/>
+        <v>0.92771999999999999</v>
+      </c>
+      <c r="G1795">
+        <v>62331992</v>
+      </c>
+      <c r="H1795">
+        <v>63031885824</v>
+      </c>
+      <c r="I1795">
+        <f t="shared" si="67"/>
+        <v>1793</v>
+      </c>
+      <c r="J1795">
+        <f>SUM($F$3:F1795)/I1795</f>
+        <v>1.0545898438371439</v>
+      </c>
+      <c r="K1795">
+        <f t="shared" si="68"/>
+        <v>1.138714279999999</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1796" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B1796">
+        <v>928.51</v>
+      </c>
+      <c r="C1796">
+        <v>939.09</v>
+      </c>
+      <c r="D1796">
+        <v>921.07</v>
+      </c>
+      <c r="E1796">
+        <v>935.05</v>
+      </c>
+      <c r="F1796">
+        <f t="shared" ref="F1796:F1798" si="69">E1796/1000</f>
+        <v>0.93504999999999994</v>
+      </c>
+      <c r="G1796">
+        <v>64897611</v>
+      </c>
+      <c r="H1796">
+        <v>62055354368</v>
+      </c>
+      <c r="I1796">
+        <f t="shared" si="67"/>
+        <v>1794</v>
+      </c>
+      <c r="J1796">
+        <f>SUM($F$3:F1796)/I1796</f>
+        <v>1.0545232107023406</v>
+      </c>
+      <c r="K1796">
+        <f t="shared" si="68"/>
+        <v>1.1372900799999992</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1797" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B1797">
+        <v>930.86</v>
+      </c>
+      <c r="C1797">
+        <v>945.32</v>
+      </c>
+      <c r="D1797">
+        <v>927.75</v>
+      </c>
+      <c r="E1797">
+        <v>942.65</v>
+      </c>
+      <c r="F1797">
+        <f t="shared" si="69"/>
+        <v>0.94264999999999999</v>
+      </c>
+      <c r="G1797">
+        <v>66351854</v>
+      </c>
+      <c r="H1797">
+        <v>67181801472</v>
+      </c>
+      <c r="I1797">
+        <f t="shared" si="67"/>
+        <v>1795</v>
+      </c>
+      <c r="J1797">
+        <f>SUM($F$3:F1797)/I1797</f>
+        <v>1.0544608857938713</v>
+      </c>
+      <c r="K1797">
+        <f t="shared" si="68"/>
+        <v>1.1358817199999993</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1798" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B1798">
+        <v>941.42</v>
+      </c>
+      <c r="C1798">
+        <v>979.35</v>
+      </c>
+      <c r="D1798">
+        <v>941.42</v>
+      </c>
+      <c r="E1798">
+        <v>979.35</v>
+      </c>
+      <c r="F1798">
+        <f t="shared" si="69"/>
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="G1798">
+        <v>100777046</v>
+      </c>
+      <c r="H1798" s="3">
+        <v>110574000000</v>
+      </c>
+      <c r="I1798">
+        <f t="shared" si="67"/>
+        <v>1796</v>
+      </c>
+      <c r="J1798">
+        <f>SUM($F$3:F1798)/I1798</f>
+        <v>1.0544190645879727</v>
+      </c>
+      <c r="K1798">
+        <f t="shared" si="68"/>
+        <v>1.1347305599999995</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1798"/>
+  <dimension ref="A1:K1820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1776" workbookViewId="0">
-      <selection activeCell="A1799" sqref="A1799"/>
+    <sheetView tabSelected="1" topLeftCell="A1799" workbookViewId="0">
+      <selection activeCell="A1821" sqref="A1821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1798" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1820" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -69405,7 +69405,7 @@
         <v>935.05</v>
       </c>
       <c r="F1796">
-        <f t="shared" ref="F1796:F1798" si="69">E1796/1000</f>
+        <f t="shared" ref="F1796:F1820" si="69">E1796/1000</f>
         <v>0.93504999999999994</v>
       </c>
       <c r="G1796">
@@ -69503,6 +69503,864 @@
       <c r="K1798">
         <f t="shared" si="68"/>
         <v>1.1347305599999995</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1799" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B1799">
+        <v>979.01</v>
+      </c>
+      <c r="C1799">
+        <v>987.24</v>
+      </c>
+      <c r="D1799">
+        <v>976.34</v>
+      </c>
+      <c r="E1799">
+        <v>983.26</v>
+      </c>
+      <c r="F1799">
+        <f t="shared" si="69"/>
+        <v>0.98326000000000002</v>
+      </c>
+      <c r="G1799">
+        <v>86511177</v>
+      </c>
+      <c r="H1799">
+        <v>93530005504</v>
+      </c>
+      <c r="I1799">
+        <f t="shared" ref="I1799:I1820" si="70">I1798+1</f>
+        <v>1797</v>
+      </c>
+      <c r="J1799">
+        <f>SUM($F$3:F1799)/I1799</f>
+        <v>1.0543794657762933</v>
+      </c>
+      <c r="K1799">
+        <f t="shared" si="68"/>
+        <v>1.1336508799999991</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1800" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B1800">
+        <v>974.86</v>
+      </c>
+      <c r="C1800">
+        <v>986.09</v>
+      </c>
+      <c r="D1800">
+        <v>961.88</v>
+      </c>
+      <c r="E1800">
+        <v>962.62</v>
+      </c>
+      <c r="F1800">
+        <f t="shared" si="69"/>
+        <v>0.96262000000000003</v>
+      </c>
+      <c r="G1800">
+        <v>81465412</v>
+      </c>
+      <c r="H1800">
+        <v>84830601216</v>
+      </c>
+      <c r="I1800">
+        <f t="shared" si="70"/>
+        <v>1798</v>
+      </c>
+      <c r="J1800">
+        <f>SUM($F$3:F1800)/I1800</f>
+        <v>1.0543284315906558</v>
+      </c>
+      <c r="K1800">
+        <f t="shared" si="68"/>
+        <v>1.1324666399999994</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1801" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B1801">
+        <v>954.91</v>
+      </c>
+      <c r="C1801">
+        <v>969.55</v>
+      </c>
+      <c r="D1801">
+        <v>929.3</v>
+      </c>
+      <c r="E1801">
+        <v>929.3</v>
+      </c>
+      <c r="F1801">
+        <f t="shared" si="69"/>
+        <v>0.9292999999999999</v>
+      </c>
+      <c r="G1801">
+        <v>89574672</v>
+      </c>
+      <c r="H1801">
+        <v>91232632832</v>
+      </c>
+      <c r="I1801">
+        <f t="shared" si="70"/>
+        <v>1799</v>
+      </c>
+      <c r="J1801">
+        <f>SUM($F$3:F1801)/I1801</f>
+        <v>1.0542589327404108</v>
+      </c>
+      <c r="K1801">
+        <f t="shared" si="68"/>
+        <v>1.1310556399999991</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1802" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B1802">
+        <v>940.44</v>
+      </c>
+      <c r="C1802">
+        <v>947.55</v>
+      </c>
+      <c r="D1802">
+        <v>933.37</v>
+      </c>
+      <c r="E1802">
+        <v>947.06</v>
+      </c>
+      <c r="F1802">
+        <f t="shared" si="69"/>
+        <v>0.9470599999999999</v>
+      </c>
+      <c r="G1802">
+        <v>71374599</v>
+      </c>
+      <c r="H1802">
+        <v>67010703360</v>
+      </c>
+      <c r="I1802">
+        <f t="shared" si="70"/>
+        <v>1800</v>
+      </c>
+      <c r="J1802">
+        <f>SUM($F$3:F1802)/I1802</f>
+        <v>1.0541993777777774</v>
+      </c>
+      <c r="K1802">
+        <f t="shared" si="68"/>
+        <v>1.1298118399999992</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1803" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B1803">
+        <v>946.11</v>
+      </c>
+      <c r="C1803">
+        <v>956.46</v>
+      </c>
+      <c r="D1803">
+        <v>945.61</v>
+      </c>
+      <c r="E1803">
+        <v>947.96</v>
+      </c>
+      <c r="F1803">
+        <f t="shared" si="69"/>
+        <v>0.94796000000000002</v>
+      </c>
+      <c r="G1803">
+        <v>63915822</v>
+      </c>
+      <c r="H1803">
+        <v>64703762432</v>
+      </c>
+      <c r="I1803">
+        <f t="shared" si="70"/>
+        <v>1801</v>
+      </c>
+      <c r="J1803">
+        <f>SUM($F$3:F1803)/I1803</f>
+        <v>1.054140388672959</v>
+      </c>
+      <c r="K1803">
+        <f t="shared" si="68"/>
+        <v>1.1286343999999993</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1804" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B1804">
+        <v>942.99</v>
+      </c>
+      <c r="C1804">
+        <v>945.8</v>
+      </c>
+      <c r="D1804">
+        <v>924.04</v>
+      </c>
+      <c r="E1804">
+        <v>936.39</v>
+      </c>
+      <c r="F1804">
+        <f t="shared" si="69"/>
+        <v>0.93638999999999994</v>
+      </c>
+      <c r="G1804">
+        <v>67434665</v>
+      </c>
+      <c r="H1804">
+        <v>66366136320</v>
+      </c>
+      <c r="I1804">
+        <f t="shared" si="70"/>
+        <v>1802</v>
+      </c>
+      <c r="J1804">
+        <f>SUM($F$3:F1804)/I1804</f>
+        <v>1.0540750443951161</v>
+      </c>
+      <c r="K1804">
+        <f t="shared" si="68"/>
+        <v>1.1273841599999994</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1805" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B1805">
+        <v>939.77</v>
+      </c>
+      <c r="C1805">
+        <v>944.15</v>
+      </c>
+      <c r="D1805">
+        <v>926.69</v>
+      </c>
+      <c r="E1805">
+        <v>926.69</v>
+      </c>
+      <c r="F1805">
+        <f t="shared" si="69"/>
+        <v>0.92669000000000001</v>
+      </c>
+      <c r="G1805">
+        <v>60866628</v>
+      </c>
+      <c r="H1805">
+        <v>57510535168</v>
+      </c>
+      <c r="I1805">
+        <f t="shared" si="70"/>
+        <v>1803</v>
+      </c>
+      <c r="J1805">
+        <f>SUM($F$3:F1805)/I1805</f>
+        <v>1.054004392678868</v>
+      </c>
+      <c r="K1805">
+        <f t="shared" si="68"/>
+        <v>1.1260553999999994</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1806" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B1806">
+        <v>923.85</v>
+      </c>
+      <c r="C1806">
+        <v>923.93</v>
+      </c>
+      <c r="D1806">
+        <v>910.1</v>
+      </c>
+      <c r="E1806">
+        <v>913.73</v>
+      </c>
+      <c r="F1806">
+        <f t="shared" si="69"/>
+        <v>0.91373000000000004</v>
+      </c>
+      <c r="G1806">
+        <v>55804793</v>
+      </c>
+      <c r="H1806">
+        <v>50635255808</v>
+      </c>
+      <c r="I1806">
+        <f t="shared" si="70"/>
+        <v>1804</v>
+      </c>
+      <c r="J1806">
+        <f>SUM($F$3:F1806)/I1806</f>
+        <v>1.0539266352549885</v>
+      </c>
+      <c r="K1806">
+        <f t="shared" si="68"/>
+        <v>1.1246833199999993</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1807" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B1807">
+        <v>912.73</v>
+      </c>
+      <c r="C1807">
+        <v>922.15</v>
+      </c>
+      <c r="D1807">
+        <v>907.25</v>
+      </c>
+      <c r="E1807">
+        <v>922.15</v>
+      </c>
+      <c r="F1807">
+        <f t="shared" si="69"/>
+        <v>0.92215000000000003</v>
+      </c>
+      <c r="G1807">
+        <v>48560081</v>
+      </c>
+      <c r="H1807">
+        <v>45023186944</v>
+      </c>
+      <c r="I1807">
+        <f t="shared" si="70"/>
+        <v>1805</v>
+      </c>
+      <c r="J1807">
+        <f>SUM($F$3:F1807)/I1807</f>
+        <v>1.0538536288088638</v>
+      </c>
+      <c r="K1807">
+        <f t="shared" si="68"/>
+        <v>1.1233302799999993</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1808" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B1808">
+        <v>922.27</v>
+      </c>
+      <c r="C1808">
+        <v>929.78</v>
+      </c>
+      <c r="D1808">
+        <v>919.05</v>
+      </c>
+      <c r="E1808">
+        <v>923.15</v>
+      </c>
+      <c r="F1808">
+        <f t="shared" si="69"/>
+        <v>0.92315000000000003</v>
+      </c>
+      <c r="G1808">
+        <v>53157699</v>
+      </c>
+      <c r="H1808">
+        <v>52606623744</v>
+      </c>
+      <c r="I1808">
+        <f t="shared" si="70"/>
+        <v>1806</v>
+      </c>
+      <c r="J1808">
+        <f>SUM($F$3:F1808)/I1808</f>
+        <v>1.0537812569213729</v>
+      </c>
+      <c r="K1808">
+        <f t="shared" si="68"/>
+        <v>1.1220019999999995</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1809" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B1809">
+        <v>919.33</v>
+      </c>
+      <c r="C1809">
+        <v>942.37</v>
+      </c>
+      <c r="D1809">
+        <v>913.11</v>
+      </c>
+      <c r="E1809">
+        <v>936.86</v>
+      </c>
+      <c r="F1809">
+        <f t="shared" si="69"/>
+        <v>0.93686000000000003</v>
+      </c>
+      <c r="G1809">
+        <v>72504824</v>
+      </c>
+      <c r="H1809">
+        <v>67957420032</v>
+      </c>
+      <c r="I1809">
+        <f t="shared" si="70"/>
+        <v>1807</v>
+      </c>
+      <c r="J1809">
+        <f>SUM($F$3:F1809)/I1809</f>
+        <v>1.0537165522966239</v>
+      </c>
+      <c r="K1809">
+        <f t="shared" si="68"/>
+        <v>1.1206378399999997</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1810" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B1810">
+        <v>937.32</v>
+      </c>
+      <c r="C1810">
+        <v>943.96</v>
+      </c>
+      <c r="D1810">
+        <v>936.13</v>
+      </c>
+      <c r="E1810">
+        <v>936.84</v>
+      </c>
+      <c r="F1810">
+        <f t="shared" si="69"/>
+        <v>0.93684000000000001</v>
+      </c>
+      <c r="G1810">
+        <v>65823507</v>
+      </c>
+      <c r="H1810">
+        <v>62598701056</v>
+      </c>
+      <c r="I1810">
+        <f t="shared" si="70"/>
+        <v>1808</v>
+      </c>
+      <c r="J1810">
+        <f>SUM($F$3:F1810)/I1810</f>
+        <v>1.0536519081858404</v>
+      </c>
+      <c r="K1810">
+        <f t="shared" si="68"/>
+        <v>1.1192611199999996</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1811" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B1811">
+        <v>935.13</v>
+      </c>
+      <c r="C1811">
+        <v>948.2</v>
+      </c>
+      <c r="D1811">
+        <v>933.14</v>
+      </c>
+      <c r="E1811">
+        <v>937.84</v>
+      </c>
+      <c r="F1811">
+        <f t="shared" si="69"/>
+        <v>0.93784000000000001</v>
+      </c>
+      <c r="G1811">
+        <v>65538406</v>
+      </c>
+      <c r="H1811">
+        <v>65710170112</v>
+      </c>
+      <c r="I1811">
+        <f t="shared" si="70"/>
+        <v>1809</v>
+      </c>
+      <c r="J1811">
+        <f>SUM($F$3:F1811)/I1811</f>
+        <v>1.053587888336097</v>
+      </c>
+      <c r="K1811">
+        <f t="shared" si="68"/>
+        <v>1.1179181599999997</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1812" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B1812">
+        <v>936.36</v>
+      </c>
+      <c r="C1812">
+        <v>936.84</v>
+      </c>
+      <c r="D1812">
+        <v>918.34</v>
+      </c>
+      <c r="E1812">
+        <v>920.71</v>
+      </c>
+      <c r="F1812">
+        <f t="shared" si="69"/>
+        <v>0.92071000000000003</v>
+      </c>
+      <c r="G1812">
+        <v>70924121</v>
+      </c>
+      <c r="H1812">
+        <v>62464684032</v>
+      </c>
+      <c r="I1812">
+        <f t="shared" si="70"/>
+        <v>1810</v>
+      </c>
+      <c r="J1812">
+        <f>SUM($F$3:F1812)/I1812</f>
+        <v>1.0535144751381214</v>
+      </c>
+      <c r="K1812">
+        <f t="shared" si="68"/>
+        <v>1.1165593599999997</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1813" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B1813">
+        <v>916.91</v>
+      </c>
+      <c r="C1813">
+        <v>928.68</v>
+      </c>
+      <c r="D1813">
+        <v>916.91</v>
+      </c>
+      <c r="E1813">
+        <v>919.09</v>
+      </c>
+      <c r="F1813">
+        <f t="shared" si="69"/>
+        <v>0.91909000000000007</v>
+      </c>
+      <c r="G1813">
+        <v>68569319</v>
+      </c>
+      <c r="H1813">
+        <v>58381164544</v>
+      </c>
+      <c r="I1813">
+        <f t="shared" si="70"/>
+        <v>1811</v>
+      </c>
+      <c r="J1813">
+        <f>SUM($F$3:F1813)/I1813</f>
+        <v>1.0534402484815018</v>
+      </c>
+      <c r="K1813">
+        <f t="shared" si="68"/>
+        <v>1.1151864399999996</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1814" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B1814">
+        <v>918.76</v>
+      </c>
+      <c r="C1814">
+        <v>926.54</v>
+      </c>
+      <c r="D1814">
+        <v>898.8</v>
+      </c>
+      <c r="E1814">
+        <v>899.64</v>
+      </c>
+      <c r="F1814">
+        <f t="shared" si="69"/>
+        <v>0.89964</v>
+      </c>
+      <c r="G1814">
+        <v>79613420</v>
+      </c>
+      <c r="H1814">
+        <v>68497801216</v>
+      </c>
+      <c r="I1814">
+        <f t="shared" si="70"/>
+        <v>1812</v>
+      </c>
+      <c r="J1814">
+        <f>SUM($F$3:F1814)/I1814</f>
+        <v>1.0533553697571743</v>
+      </c>
+      <c r="K1814">
+        <f t="shared" si="68"/>
+        <v>1.1138459199999993</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1815" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B1815">
+        <v>897.51</v>
+      </c>
+      <c r="C1815">
+        <v>911.59</v>
+      </c>
+      <c r="D1815">
+        <v>893.32</v>
+      </c>
+      <c r="E1815">
+        <v>905.04</v>
+      </c>
+      <c r="F1815">
+        <f t="shared" si="69"/>
+        <v>0.90503999999999996</v>
+      </c>
+      <c r="G1815">
+        <v>73526222</v>
+      </c>
+      <c r="H1815">
+        <v>63002976256</v>
+      </c>
+      <c r="I1815">
+        <f t="shared" si="70"/>
+        <v>1813</v>
+      </c>
+      <c r="J1815">
+        <f>SUM($F$3:F1815)/I1815</f>
+        <v>1.0532735631549917</v>
+      </c>
+      <c r="K1815">
+        <f t="shared" si="68"/>
+        <v>1.1124434399999994</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1816" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B1816">
+        <v>905.46</v>
+      </c>
+      <c r="C1816">
+        <v>912.6</v>
+      </c>
+      <c r="D1816">
+        <v>897.76</v>
+      </c>
+      <c r="E1816">
+        <v>910.54</v>
+      </c>
+      <c r="F1816">
+        <f t="shared" si="69"/>
+        <v>0.91054000000000002</v>
+      </c>
+      <c r="G1816">
+        <v>68960805</v>
+      </c>
+      <c r="H1816">
+        <v>60516118528</v>
+      </c>
+      <c r="I1816">
+        <f t="shared" si="70"/>
+        <v>1814</v>
+      </c>
+      <c r="J1816">
+        <f>SUM($F$3:F1816)/I1816</f>
+        <v>1.0531948787210583</v>
+      </c>
+      <c r="K1816">
+        <f t="shared" si="68"/>
+        <v>1.1111250399999995</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1817" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B1817">
+        <v>907.26</v>
+      </c>
+      <c r="C1817">
+        <v>909.97</v>
+      </c>
+      <c r="D1817">
+        <v>890.76</v>
+      </c>
+      <c r="E1817">
+        <v>892.49</v>
+      </c>
+      <c r="F1817">
+        <f t="shared" si="69"/>
+        <v>0.89249000000000001</v>
+      </c>
+      <c r="G1817">
+        <v>73603615</v>
+      </c>
+      <c r="H1817">
+        <v>63739781120</v>
+      </c>
+      <c r="I1817">
+        <f t="shared" si="70"/>
+        <v>1815</v>
+      </c>
+      <c r="J1817">
+        <f>SUM($F$3:F1817)/I1817</f>
+        <v>1.0531063360881543</v>
+      </c>
+      <c r="K1817">
+        <f t="shared" si="68"/>
+        <v>1.1098271599999994</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1818" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B1818">
+        <v>887.97</v>
+      </c>
+      <c r="C1818">
+        <v>903.45</v>
+      </c>
+      <c r="D1818">
+        <v>882.01</v>
+      </c>
+      <c r="E1818">
+        <v>897.32</v>
+      </c>
+      <c r="F1818">
+        <f t="shared" si="69"/>
+        <v>0.89732000000000001</v>
+      </c>
+      <c r="G1818">
+        <v>66776187</v>
+      </c>
+      <c r="H1818">
+        <v>56069115904</v>
+      </c>
+      <c r="I1818">
+        <f t="shared" si="70"/>
+        <v>1816</v>
+      </c>
+      <c r="J1818">
+        <f>SUM($F$3:F1818)/I1818</f>
+        <v>1.053020550660793</v>
+      </c>
+      <c r="K1818">
+        <f t="shared" si="68"/>
+        <v>1.1084674799999994</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1819" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B1819">
+        <v>893.09</v>
+      </c>
+      <c r="C1819">
+        <v>915.13</v>
+      </c>
+      <c r="D1819">
+        <v>890.14</v>
+      </c>
+      <c r="E1819">
+        <v>911.55</v>
+      </c>
+      <c r="F1819">
+        <f t="shared" si="69"/>
+        <v>0.91154999999999997</v>
+      </c>
+      <c r="G1819">
+        <v>71832407</v>
+      </c>
+      <c r="H1819">
+        <v>63871909888</v>
+      </c>
+      <c r="I1819">
+        <f t="shared" si="70"/>
+        <v>1817</v>
+      </c>
+      <c r="J1819">
+        <f>SUM($F$3:F1819)/I1819</f>
+        <v>1.0529426912493121</v>
+      </c>
+      <c r="K1819">
+        <f t="shared" si="68"/>
+        <v>1.107281919999999</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1820" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B1820">
+        <v>911.57</v>
+      </c>
+      <c r="C1820">
+        <v>949.81</v>
+      </c>
+      <c r="D1820">
+        <v>911.57</v>
+      </c>
+      <c r="E1820">
+        <v>939.03</v>
+      </c>
+      <c r="F1820">
+        <f t="shared" si="69"/>
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="G1820">
+        <v>108591623</v>
+      </c>
+      <c r="H1820" s="3">
+        <v>102143000000</v>
+      </c>
+      <c r="I1820">
+        <f t="shared" si="70"/>
+        <v>1818</v>
+      </c>
+      <c r="J1820">
+        <f>SUM($F$3:F1820)/I1820</f>
+        <v>1.0528800330033004</v>
+      </c>
+      <c r="K1820">
+        <f t="shared" si="68"/>
+        <v>1.1062063599999989</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1820"/>
+  <dimension ref="A1:K1839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1799" workbookViewId="0">
-      <selection activeCell="A1821" sqref="A1821"/>
+    <sheetView tabSelected="1" topLeftCell="A1821" workbookViewId="0">
+      <selection activeCell="A1840" sqref="A1840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -60804,7 +60804,7 @@
         <v>1.04488228226319</v>
       </c>
       <c r="K1575">
-        <f t="shared" ref="K1575:K1820" si="68">SUM(F1326:F1575)/250</f>
+        <f t="shared" ref="K1575:K1829" si="68">SUM(F1326:F1575)/250</f>
         <v>1.13614792</v>
       </c>
     </row>
@@ -69405,7 +69405,7 @@
         <v>935.05</v>
       </c>
       <c r="F1796">
-        <f t="shared" ref="F1796:F1820" si="69">E1796/1000</f>
+        <f t="shared" ref="F1796:F1839" si="69">E1796/1000</f>
         <v>0.93504999999999994</v>
       </c>
       <c r="G1796">
@@ -69532,7 +69532,7 @@
         <v>93530005504</v>
       </c>
       <c r="I1799">
-        <f t="shared" ref="I1799:I1820" si="70">I1798+1</f>
+        <f t="shared" ref="I1799:I1839" si="70">I1798+1</f>
         <v>1797</v>
       </c>
       <c r="J1799">
@@ -70361,6 +70361,747 @@
       <c r="K1820">
         <f t="shared" si="68"/>
         <v>1.1062063599999989</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1821" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B1821">
+        <v>937.82</v>
+      </c>
+      <c r="C1821">
+        <v>941.28</v>
+      </c>
+      <c r="D1821">
+        <v>919.49</v>
+      </c>
+      <c r="E1821">
+        <v>919.68</v>
+      </c>
+      <c r="F1821">
+        <f t="shared" si="69"/>
+        <v>0.91967999999999994</v>
+      </c>
+      <c r="G1821">
+        <v>88949544</v>
+      </c>
+      <c r="H1821">
+        <v>78322712576</v>
+      </c>
+      <c r="I1821">
+        <f t="shared" si="70"/>
+        <v>1819</v>
+      </c>
+      <c r="J1821">
+        <f>SUM($F$3:F1821)/I1821</f>
+        <v>1.0528068059373281</v>
+      </c>
+      <c r="K1821">
+        <f t="shared" si="68"/>
+        <v>1.1049247199999992</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1822" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B1822">
+        <v>919.85</v>
+      </c>
+      <c r="C1822">
+        <v>935.7</v>
+      </c>
+      <c r="D1822">
+        <v>919.85</v>
+      </c>
+      <c r="E1822">
+        <v>935.7</v>
+      </c>
+      <c r="F1822">
+        <f t="shared" si="69"/>
+        <v>0.93570000000000009</v>
+      </c>
+      <c r="G1822">
+        <v>77382858</v>
+      </c>
+      <c r="H1822">
+        <v>65489764352</v>
+      </c>
+      <c r="I1822">
+        <f t="shared" si="70"/>
+        <v>1820</v>
+      </c>
+      <c r="J1822">
+        <f>SUM($F$3:F1822)/I1822</f>
+        <v>1.0527424615384615</v>
+      </c>
+      <c r="K1822">
+        <f t="shared" si="68"/>
+        <v>1.1037978799999992</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1823" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B1823">
+        <v>928.4</v>
+      </c>
+      <c r="C1823">
+        <v>934.26</v>
+      </c>
+      <c r="D1823">
+        <v>921.75</v>
+      </c>
+      <c r="E1823">
+        <v>924.31</v>
+      </c>
+      <c r="F1823">
+        <f t="shared" si="69"/>
+        <v>0.92430999999999996</v>
+      </c>
+      <c r="G1823">
+        <v>75210798</v>
+      </c>
+      <c r="H1823">
+        <v>60710440960</v>
+      </c>
+      <c r="I1823">
+        <f t="shared" si="70"/>
+        <v>1821</v>
+      </c>
+      <c r="J1823">
+        <f>SUM($F$3:F1823)/I1823</f>
+        <v>1.0526719330038441</v>
+      </c>
+      <c r="K1823">
+        <f t="shared" si="68"/>
+        <v>1.102629759999999</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1824" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B1824">
+        <v>925.87</v>
+      </c>
+      <c r="C1824">
+        <v>942.44</v>
+      </c>
+      <c r="D1824">
+        <v>925.87</v>
+      </c>
+      <c r="E1824">
+        <v>938.64</v>
+      </c>
+      <c r="F1824">
+        <f t="shared" si="69"/>
+        <v>0.93864000000000003</v>
+      </c>
+      <c r="G1824">
+        <v>76406037</v>
+      </c>
+      <c r="H1824">
+        <v>64640765952</v>
+      </c>
+      <c r="I1824">
+        <f t="shared" si="70"/>
+        <v>1822</v>
+      </c>
+      <c r="J1824">
+        <f>SUM($F$3:F1824)/I1824</f>
+        <v>1.0526093468715698</v>
+      </c>
+      <c r="K1824">
+        <f t="shared" si="68"/>
+        <v>1.101714359999999</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1825" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B1825">
+        <v>938.43</v>
+      </c>
+      <c r="C1825">
+        <v>940.53</v>
+      </c>
+      <c r="D1825">
+        <v>919.98</v>
+      </c>
+      <c r="E1825">
+        <v>920.07</v>
+      </c>
+      <c r="F1825">
+        <f t="shared" si="69"/>
+        <v>0.92007000000000005</v>
+      </c>
+      <c r="G1825">
+        <v>72903194</v>
+      </c>
+      <c r="H1825">
+        <v>62732369920</v>
+      </c>
+      <c r="I1825">
+        <f t="shared" si="70"/>
+        <v>1823</v>
+      </c>
+      <c r="J1825">
+        <f>SUM($F$3:F1825)/I1825</f>
+        <v>1.0525366428963248</v>
+      </c>
+      <c r="K1825">
+        <f t="shared" si="68"/>
+        <v>1.1006978799999989</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1826" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B1826">
+        <v>914.27</v>
+      </c>
+      <c r="C1826">
+        <v>925.53</v>
+      </c>
+      <c r="D1826">
+        <v>906.37</v>
+      </c>
+      <c r="E1826">
+        <v>916.89</v>
+      </c>
+      <c r="F1826">
+        <f t="shared" si="69"/>
+        <v>0.91688999999999998</v>
+      </c>
+      <c r="G1826">
+        <v>65088597</v>
+      </c>
+      <c r="H1826">
+        <v>52526374912</v>
+      </c>
+      <c r="I1826">
+        <f t="shared" si="70"/>
+        <v>1824</v>
+      </c>
+      <c r="J1826">
+        <f>SUM($F$3:F1826)/I1826</f>
+        <v>1.0524622752192982</v>
+      </c>
+      <c r="K1826">
+        <f t="shared" si="68"/>
+        <v>1.0994373999999991</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1827" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B1827">
+        <v>919.07</v>
+      </c>
+      <c r="C1827">
+        <v>935.45</v>
+      </c>
+      <c r="D1827">
+        <v>907.8</v>
+      </c>
+      <c r="E1827">
+        <v>932.14</v>
+      </c>
+      <c r="F1827">
+        <f t="shared" si="69"/>
+        <v>0.93213999999999997</v>
+      </c>
+      <c r="G1827">
+        <v>73699854</v>
+      </c>
+      <c r="H1827">
+        <v>63653761024</v>
+      </c>
+      <c r="I1827">
+        <f t="shared" si="70"/>
+        <v>1825</v>
+      </c>
+      <c r="J1827">
+        <f>SUM($F$3:F1827)/I1827</f>
+        <v>1.0523963452054794</v>
+      </c>
+      <c r="K1827">
+        <f t="shared" si="68"/>
+        <v>1.0981233199999989</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1828" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B1828">
+        <v>927.8</v>
+      </c>
+      <c r="C1828">
+        <v>929.46</v>
+      </c>
+      <c r="D1828">
+        <v>919.95</v>
+      </c>
+      <c r="E1828">
+        <v>924.05</v>
+      </c>
+      <c r="F1828">
+        <f t="shared" si="69"/>
+        <v>0.92404999999999993</v>
+      </c>
+      <c r="G1828">
+        <v>62042016</v>
+      </c>
+      <c r="H1828">
+        <v>52338073600</v>
+      </c>
+      <c r="I1828">
+        <f t="shared" si="70"/>
+        <v>1826</v>
+      </c>
+      <c r="J1828">
+        <f>SUM($F$3:F1828)/I1828</f>
+        <v>1.0523260569550932</v>
+      </c>
+      <c r="K1828">
+        <f t="shared" si="68"/>
+        <v>1.096807319999999</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1829" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B1829">
+        <v>926.18</v>
+      </c>
+      <c r="C1829">
+        <v>935.11</v>
+      </c>
+      <c r="D1829">
+        <v>926.08</v>
+      </c>
+      <c r="E1829">
+        <v>926.08</v>
+      </c>
+      <c r="F1829">
+        <f t="shared" si="69"/>
+        <v>0.92608000000000001</v>
+      </c>
+      <c r="G1829">
+        <v>74301791</v>
+      </c>
+      <c r="H1829">
+        <v>60964503552</v>
+      </c>
+      <c r="I1829">
+        <f t="shared" si="70"/>
+        <v>1827</v>
+      </c>
+      <c r="J1829">
+        <f>SUM($F$3:F1829)/I1829</f>
+        <v>1.0522569567597153</v>
+      </c>
+      <c r="K1829">
+        <f t="shared" si="68"/>
+        <v>1.095539719999999</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1830" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B1830">
+        <v>925.36</v>
+      </c>
+      <c r="C1830">
+        <v>927.26</v>
+      </c>
+      <c r="D1830">
+        <v>913.24</v>
+      </c>
+      <c r="E1830">
+        <v>913.24</v>
+      </c>
+      <c r="F1830">
+        <f t="shared" si="69"/>
+        <v>0.91324000000000005</v>
+      </c>
+      <c r="G1830">
+        <v>75869959</v>
+      </c>
+      <c r="H1830">
+        <v>57287741440</v>
+      </c>
+      <c r="I1830">
+        <f t="shared" si="70"/>
+        <v>1828</v>
+      </c>
+      <c r="J1830">
+        <f>SUM($F$3:F1830)/I1830</f>
+        <v>1.0521809080962801</v>
+      </c>
+      <c r="K1830">
+        <f t="shared" ref="K1830:K1839" si="71">SUM(F1581:F1830)/250</f>
+        <v>1.0941513999999988</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1831" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B1831">
+        <v>911.25</v>
+      </c>
+      <c r="C1831">
+        <v>916.26</v>
+      </c>
+      <c r="D1831">
+        <v>891.87</v>
+      </c>
+      <c r="E1831">
+        <v>905.45</v>
+      </c>
+      <c r="F1831">
+        <f t="shared" si="69"/>
+        <v>0.90545000000000009</v>
+      </c>
+      <c r="G1831">
+        <v>78254602</v>
+      </c>
+      <c r="H1831">
+        <v>55171760128</v>
+      </c>
+      <c r="I1831">
+        <f t="shared" si="70"/>
+        <v>1829</v>
+      </c>
+      <c r="J1831">
+        <f>SUM($F$3:F1831)/I1831</f>
+        <v>1.0521006834335702</v>
+      </c>
+      <c r="K1831">
+        <f t="shared" si="71"/>
+        <v>1.0927746799999989</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1832" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B1832">
+        <v>909.72</v>
+      </c>
+      <c r="C1832">
+        <v>932.51</v>
+      </c>
+      <c r="D1832">
+        <v>906.07</v>
+      </c>
+      <c r="E1832">
+        <v>930.05</v>
+      </c>
+      <c r="F1832">
+        <f t="shared" si="69"/>
+        <v>0.93004999999999993</v>
+      </c>
+      <c r="G1832">
+        <v>98070022</v>
+      </c>
+      <c r="H1832">
+        <v>74866630656</v>
+      </c>
+      <c r="I1832">
+        <f t="shared" si="70"/>
+        <v>1830</v>
+      </c>
+      <c r="J1832">
+        <f>SUM($F$3:F1832)/I1832</f>
+        <v>1.0520339890710382</v>
+      </c>
+      <c r="K1832">
+        <f t="shared" si="71"/>
+        <v>1.0914524399999992</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1833" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B1833">
+        <v>930.82</v>
+      </c>
+      <c r="C1833">
+        <v>938.4</v>
+      </c>
+      <c r="D1833">
+        <v>930.41</v>
+      </c>
+      <c r="E1833">
+        <v>937.55</v>
+      </c>
+      <c r="F1833">
+        <f t="shared" si="69"/>
+        <v>0.93754999999999999</v>
+      </c>
+      <c r="G1833">
+        <v>97083183</v>
+      </c>
+      <c r="H1833">
+        <v>76350406656</v>
+      </c>
+      <c r="I1833">
+        <f t="shared" si="70"/>
+        <v>1831</v>
+      </c>
+      <c r="J1833">
+        <f>SUM($F$3:F1833)/I1833</f>
+        <v>1.0519714636810487</v>
+      </c>
+      <c r="K1833">
+        <f t="shared" si="71"/>
+        <v>1.0902246799999991</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1834" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B1834">
+        <v>938.4</v>
+      </c>
+      <c r="C1834">
+        <v>950.04</v>
+      </c>
+      <c r="D1834">
+        <v>933.63</v>
+      </c>
+      <c r="E1834">
+        <v>945.83</v>
+      </c>
+      <c r="F1834">
+        <f t="shared" si="69"/>
+        <v>0.94583000000000006</v>
+      </c>
+      <c r="G1834">
+        <v>96806989</v>
+      </c>
+      <c r="H1834">
+        <v>82800074752</v>
+      </c>
+      <c r="I1834">
+        <f t="shared" si="70"/>
+        <v>1832</v>
+      </c>
+      <c r="J1834">
+        <f>SUM($F$3:F1834)/I1834</f>
+        <v>1.0519135262008734</v>
+      </c>
+      <c r="K1834">
+        <f t="shared" si="71"/>
+        <v>1.0890025599999991</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1835" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B1835">
+        <v>946.21</v>
+      </c>
+      <c r="C1835">
+        <v>971.65</v>
+      </c>
+      <c r="D1835">
+        <v>935.9</v>
+      </c>
+      <c r="E1835">
+        <v>971.65</v>
+      </c>
+      <c r="F1835">
+        <f t="shared" si="69"/>
+        <v>0.97165000000000001</v>
+      </c>
+      <c r="G1835">
+        <v>144243061</v>
+      </c>
+      <c r="H1835" s="3">
+        <v>127200000000</v>
+      </c>
+      <c r="I1835">
+        <f t="shared" si="70"/>
+        <v>1833</v>
+      </c>
+      <c r="J1835">
+        <f>SUM($F$3:F1835)/I1835</f>
+        <v>1.0518697381342061</v>
+      </c>
+      <c r="K1835">
+        <f t="shared" si="71"/>
+        <v>1.0878339999999991</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1836" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B1836">
+        <v>976.62</v>
+      </c>
+      <c r="C1836">
+        <v>1006.8</v>
+      </c>
+      <c r="D1836">
+        <v>976.62</v>
+      </c>
+      <c r="E1836">
+        <v>988.99</v>
+      </c>
+      <c r="F1836">
+        <f t="shared" si="69"/>
+        <v>0.98899000000000004</v>
+      </c>
+      <c r="G1836">
+        <v>163992311</v>
+      </c>
+      <c r="H1836" s="3">
+        <v>151694000000</v>
+      </c>
+      <c r="I1836">
+        <f t="shared" si="70"/>
+        <v>1834</v>
+      </c>
+      <c r="J1836">
+        <f>SUM($F$3:F1836)/I1836</f>
+        <v>1.0518354525627045</v>
+      </c>
+      <c r="K1836">
+        <f t="shared" si="71"/>
+        <v>1.0867607199999993</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1837" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B1837">
+        <v>984.83</v>
+      </c>
+      <c r="C1837">
+        <v>1016.68</v>
+      </c>
+      <c r="D1837">
+        <v>984.29</v>
+      </c>
+      <c r="E1837">
+        <v>1016.68</v>
+      </c>
+      <c r="F1837">
+        <f t="shared" si="69"/>
+        <v>1.01668</v>
+      </c>
+      <c r="G1837">
+        <v>161858474</v>
+      </c>
+      <c r="H1837" s="3">
+        <v>152161000000</v>
+      </c>
+      <c r="I1837">
+        <f t="shared" si="70"/>
+        <v>1835</v>
+      </c>
+      <c r="J1837">
+        <f>SUM($F$3:F1837)/I1837</f>
+        <v>1.051816294277929</v>
+      </c>
+      <c r="K1837">
+        <f t="shared" si="71"/>
+        <v>1.0859107199999993</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1838" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B1838">
+        <v>1029.6400000000001</v>
+      </c>
+      <c r="C1838">
+        <v>1089.19</v>
+      </c>
+      <c r="D1838">
+        <v>1028.79</v>
+      </c>
+      <c r="E1838">
+        <v>1077.78</v>
+      </c>
+      <c r="F1838">
+        <f t="shared" si="69"/>
+        <v>1.07778</v>
+      </c>
+      <c r="G1838">
+        <v>213449342</v>
+      </c>
+      <c r="H1838" s="3">
+        <v>223748000000</v>
+      </c>
+      <c r="I1838">
+        <f t="shared" si="70"/>
+        <v>1836</v>
+      </c>
+      <c r="J1838">
+        <f>SUM($F$3:F1838)/I1838</f>
+        <v>1.0518304357298476</v>
+      </c>
+      <c r="K1838">
+        <f t="shared" si="71"/>
+        <v>1.0853633599999997</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1839" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B1839">
+        <v>1128.03</v>
+      </c>
+      <c r="C1839">
+        <v>1224.4100000000001</v>
+      </c>
+      <c r="D1839">
+        <v>1110.8399999999999</v>
+      </c>
+      <c r="E1839">
+        <v>1218.1600000000001</v>
+      </c>
+      <c r="F1839">
+        <f t="shared" si="69"/>
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="G1839">
+        <v>277978702</v>
+      </c>
+      <c r="H1839" s="3">
+        <v>307668000000</v>
+      </c>
+      <c r="I1839">
+        <f t="shared" si="70"/>
+        <v>1837</v>
+      </c>
+      <c r="J1839">
+        <f>SUM($F$3:F1839)/I1839</f>
+        <v>1.0519209798584648</v>
+      </c>
+      <c r="K1839">
+        <f t="shared" si="71"/>
+        <v>1.0854110799999994</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1839"/>
+  <dimension ref="A1:K1858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1821" workbookViewId="0">
-      <selection activeCell="A1840" sqref="A1840"/>
+    <sheetView tabSelected="1" topLeftCell="A1841" workbookViewId="0">
+      <selection activeCell="A1859" sqref="A1859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -69405,7 +69405,7 @@
         <v>935.05</v>
       </c>
       <c r="F1796">
-        <f t="shared" ref="F1796:F1839" si="69">E1796/1000</f>
+        <f t="shared" ref="F1796:F1858" si="69">E1796/1000</f>
         <v>0.93504999999999994</v>
       </c>
       <c r="G1796">
@@ -69532,7 +69532,7 @@
         <v>93530005504</v>
       </c>
       <c r="I1799">
-        <f t="shared" ref="I1799:I1839" si="70">I1798+1</f>
+        <f t="shared" ref="I1799:I1858" si="70">I1798+1</f>
         <v>1797</v>
       </c>
       <c r="J1799">
@@ -70749,7 +70749,7 @@
         <v>1.0521809080962801</v>
       </c>
       <c r="K1830">
-        <f t="shared" ref="K1830:K1839" si="71">SUM(F1581:F1830)/250</f>
+        <f t="shared" ref="K1830:K1858" si="71">SUM(F1581:F1830)/250</f>
         <v>1.0941513999999988</v>
       </c>
     </row>
@@ -71102,6 +71102,747 @@
       <c r="K1839">
         <f t="shared" si="71"/>
         <v>1.0854110799999994</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1840" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B1840">
+        <v>1361.47</v>
+      </c>
+      <c r="C1840">
+        <v>1397.23</v>
+      </c>
+      <c r="D1840">
+        <v>1353.4</v>
+      </c>
+      <c r="E1840">
+        <v>1386.31</v>
+      </c>
+      <c r="F1840">
+        <f t="shared" si="69"/>
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="G1840">
+        <v>290669995</v>
+      </c>
+      <c r="H1840" s="3">
+        <v>410854000000</v>
+      </c>
+      <c r="I1840">
+        <f t="shared" si="70"/>
+        <v>1838</v>
+      </c>
+      <c r="J1840">
+        <f>SUM($F$3:F1840)/I1840</f>
+        <v>1.0521029107725788</v>
+      </c>
+      <c r="K1840">
+        <f t="shared" si="71"/>
+        <v>1.0861233999999995</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1841" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B1841">
+        <v>1353.98</v>
+      </c>
+      <c r="C1841">
+        <v>1394.31</v>
+      </c>
+      <c r="D1841">
+        <v>1264.47</v>
+      </c>
+      <c r="E1841">
+        <v>1366.26</v>
+      </c>
+      <c r="F1841">
+        <f t="shared" si="69"/>
+        <v>1.36626</v>
+      </c>
+      <c r="G1841">
+        <v>313099830</v>
+      </c>
+      <c r="H1841" s="3">
+        <v>389432000000</v>
+      </c>
+      <c r="I1841">
+        <f t="shared" si="70"/>
+        <v>1839</v>
+      </c>
+      <c r="J1841">
+        <f>SUM($F$3:F1841)/I1841</f>
+        <v>1.0522737411636758</v>
+      </c>
+      <c r="K1841">
+        <f t="shared" si="71"/>
+        <v>1.0868375999999993</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1842" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B1842">
+        <v>1317.7</v>
+      </c>
+      <c r="C1842">
+        <v>1339.87</v>
+      </c>
+      <c r="D1842">
+        <v>1244.8699999999999</v>
+      </c>
+      <c r="E1842">
+        <v>1244.8699999999999</v>
+      </c>
+      <c r="F1842">
+        <f t="shared" si="69"/>
+        <v>1.2448699999999999</v>
+      </c>
+      <c r="G1842">
+        <v>291885589</v>
+      </c>
+      <c r="H1842" s="3">
+        <v>452241000000</v>
+      </c>
+      <c r="I1842">
+        <f t="shared" si="70"/>
+        <v>1840</v>
+      </c>
+      <c r="J1842">
+        <f>SUM($F$3:F1842)/I1842</f>
+        <v>1.0523784130434783</v>
+      </c>
+      <c r="K1842">
+        <f t="shared" si="71"/>
+        <v>1.0870969599999993</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1843" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B1843">
+        <v>1262.73</v>
+      </c>
+      <c r="C1843">
+        <v>1280.78</v>
+      </c>
+      <c r="D1843">
+        <v>1213.58</v>
+      </c>
+      <c r="E1843">
+        <v>1229.8900000000001</v>
+      </c>
+      <c r="F1843">
+        <f t="shared" si="69"/>
+        <v>1.2298900000000001</v>
+      </c>
+      <c r="G1843">
+        <v>225347811</v>
+      </c>
+      <c r="H1843" s="3">
+        <v>335410000000</v>
+      </c>
+      <c r="I1843">
+        <f t="shared" si="70"/>
+        <v>1841</v>
+      </c>
+      <c r="J1843">
+        <f>SUM($F$3:F1843)/I1843</f>
+        <v>1.052474834329169</v>
+      </c>
+      <c r="K1843">
+        <f t="shared" si="71"/>
+        <v>1.0873022399999992</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1844" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B1844">
+        <v>1212.74</v>
+      </c>
+      <c r="C1844">
+        <v>1218.25</v>
+      </c>
+      <c r="D1844">
+        <v>1159.33</v>
+      </c>
+      <c r="E1844">
+        <v>1175.75</v>
+      </c>
+      <c r="F1844">
+        <f t="shared" si="69"/>
+        <v>1.1757500000000001</v>
+      </c>
+      <c r="G1844">
+        <v>178558296</v>
+      </c>
+      <c r="H1844" s="3">
+        <v>248352000000</v>
+      </c>
+      <c r="I1844">
+        <f t="shared" si="70"/>
+        <v>1842</v>
+      </c>
+      <c r="J1844">
+        <f>SUM($F$3:F1844)/I1844</f>
+        <v>1.0525417589576549</v>
+      </c>
+      <c r="K1844">
+        <f t="shared" si="71"/>
+        <v>1.0871337599999995</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1845" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B1845">
+        <v>1180.68</v>
+      </c>
+      <c r="C1845">
+        <v>1230.99</v>
+      </c>
+      <c r="D1845">
+        <v>1159.29</v>
+      </c>
+      <c r="E1845">
+        <v>1230.99</v>
+      </c>
+      <c r="F1845">
+        <f t="shared" si="69"/>
+        <v>1.23099</v>
+      </c>
+      <c r="G1845">
+        <v>180054319</v>
+      </c>
+      <c r="H1845" s="3">
+        <v>259533000000</v>
+      </c>
+      <c r="I1845">
+        <f t="shared" si="70"/>
+        <v>1843</v>
+      </c>
+      <c r="J1845">
+        <f>SUM($F$3:F1845)/I1845</f>
+        <v>1.0526385838307109</v>
+      </c>
+      <c r="K1845">
+        <f t="shared" si="71"/>
+        <v>1.0872170399999996</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1846" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B1846">
+        <v>1220.69</v>
+      </c>
+      <c r="C1846">
+        <v>1262.57</v>
+      </c>
+      <c r="D1846">
+        <v>1207.1500000000001</v>
+      </c>
+      <c r="E1846">
+        <v>1217.05</v>
+      </c>
+      <c r="F1846">
+        <f t="shared" si="69"/>
+        <v>1.21705</v>
+      </c>
+      <c r="G1846">
+        <v>217528015</v>
+      </c>
+      <c r="H1846" s="3">
+        <v>313106000000</v>
+      </c>
+      <c r="I1846">
+        <f t="shared" si="70"/>
+        <v>1844</v>
+      </c>
+      <c r="J1846">
+        <f>SUM($F$3:F1846)/I1846</f>
+        <v>1.0527277440347071</v>
+      </c>
+      <c r="K1846">
+        <f t="shared" si="71"/>
+        <v>1.0872118399999997</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1847" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B1847">
+        <v>1192.4000000000001</v>
+      </c>
+      <c r="C1847">
+        <v>1240.32</v>
+      </c>
+      <c r="D1847">
+        <v>1192.29</v>
+      </c>
+      <c r="E1847">
+        <v>1226.52</v>
+      </c>
+      <c r="F1847">
+        <f t="shared" si="69"/>
+        <v>1.2265200000000001</v>
+      </c>
+      <c r="G1847">
+        <v>180011780</v>
+      </c>
+      <c r="H1847" s="3">
+        <v>245895000000</v>
+      </c>
+      <c r="I1847">
+        <f t="shared" si="70"/>
+        <v>1845</v>
+      </c>
+      <c r="J1847">
+        <f>SUM($F$3:F1847)/I1847</f>
+        <v>1.0528219403794039</v>
+      </c>
+      <c r="K1847">
+        <f t="shared" si="71"/>
+        <v>1.0872507599999994</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1848" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B1848">
+        <v>1238.77</v>
+      </c>
+      <c r="C1848">
+        <v>1258.3</v>
+      </c>
+      <c r="D1848">
+        <v>1230.6500000000001</v>
+      </c>
+      <c r="E1848">
+        <v>1232.56</v>
+      </c>
+      <c r="F1848">
+        <f t="shared" si="69"/>
+        <v>1.2325599999999999</v>
+      </c>
+      <c r="G1848">
+        <v>216355188</v>
+      </c>
+      <c r="H1848" s="3">
+        <v>302848000000</v>
+      </c>
+      <c r="I1848">
+        <f t="shared" si="70"/>
+        <v>1846</v>
+      </c>
+      <c r="J1848">
+        <f>SUM($F$3:F1848)/I1848</f>
+        <v>1.052919306608884</v>
+      </c>
+      <c r="K1848">
+        <f t="shared" si="71"/>
+        <v>1.0872545999999994</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1849" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B1849">
+        <v>1224.8900000000001</v>
+      </c>
+      <c r="C1849">
+        <v>1301.52</v>
+      </c>
+      <c r="D1849">
+        <v>1219.3599999999999</v>
+      </c>
+      <c r="E1849">
+        <v>1273.07</v>
+      </c>
+      <c r="F1849">
+        <f t="shared" si="69"/>
+        <v>1.2730699999999999</v>
+      </c>
+      <c r="G1849">
+        <v>264340993</v>
+      </c>
+      <c r="H1849" s="3">
+        <v>387200000000</v>
+      </c>
+      <c r="I1849">
+        <f t="shared" si="70"/>
+        <v>1847</v>
+      </c>
+      <c r="J1849">
+        <f>SUM($F$3:F1849)/I1849</f>
+        <v>1.0530385002707092</v>
+      </c>
+      <c r="K1849">
+        <f t="shared" si="71"/>
+        <v>1.0874166399999994</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1850" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B1850">
+        <v>1278.46</v>
+      </c>
+      <c r="C1850">
+        <v>1328.23</v>
+      </c>
+      <c r="D1850">
+        <v>1278.42</v>
+      </c>
+      <c r="E1850">
+        <v>1314.74</v>
+      </c>
+      <c r="F1850">
+        <f t="shared" si="69"/>
+        <v>1.31474</v>
+      </c>
+      <c r="G1850">
+        <v>267578954</v>
+      </c>
+      <c r="H1850" s="3">
+        <v>395402000000</v>
+      </c>
+      <c r="I1850">
+        <f t="shared" si="70"/>
+        <v>1848</v>
+      </c>
+      <c r="J1850">
+        <f>SUM($F$3:F1850)/I1850</f>
+        <v>1.0531801136363637</v>
+      </c>
+      <c r="K1850">
+        <f t="shared" si="71"/>
+        <v>1.0876874799999992</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1851" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B1851">
+        <v>1314.4</v>
+      </c>
+      <c r="C1851">
+        <v>1330.61</v>
+      </c>
+      <c r="D1851">
+        <v>1295.68</v>
+      </c>
+      <c r="E1851">
+        <v>1311.86</v>
+      </c>
+      <c r="F1851">
+        <f t="shared" si="69"/>
+        <v>1.3118599999999998</v>
+      </c>
+      <c r="G1851">
+        <v>250768522</v>
+      </c>
+      <c r="H1851" s="3">
+        <v>350130000000</v>
+      </c>
+      <c r="I1851">
+        <f t="shared" si="70"/>
+        <v>1849</v>
+      </c>
+      <c r="J1851">
+        <f>SUM($F$3:F1851)/I1851</f>
+        <v>1.0533200162249865</v>
+      </c>
+      <c r="K1851">
+        <f t="shared" si="71"/>
+        <v>1.0879035999999991</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1852" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B1852">
+        <v>1309</v>
+      </c>
+      <c r="C1852">
+        <v>1332.23</v>
+      </c>
+      <c r="D1852">
+        <v>1300.99</v>
+      </c>
+      <c r="E1852">
+        <v>1307.18</v>
+      </c>
+      <c r="F1852">
+        <f t="shared" si="69"/>
+        <v>1.30718</v>
+      </c>
+      <c r="G1852">
+        <v>231395163</v>
+      </c>
+      <c r="H1852" s="3">
+        <v>312476000000</v>
+      </c>
+      <c r="I1852">
+        <f t="shared" si="70"/>
+        <v>1850</v>
+      </c>
+      <c r="J1852">
+        <f>SUM($F$3:F1852)/I1852</f>
+        <v>1.0534572378378377</v>
+      </c>
+      <c r="K1852">
+        <f t="shared" si="71"/>
+        <v>1.0881235599999994</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1853" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B1853">
+        <v>1295.98</v>
+      </c>
+      <c r="C1853">
+        <v>1304.3900000000001</v>
+      </c>
+      <c r="D1853">
+        <v>1285.3800000000001</v>
+      </c>
+      <c r="E1853">
+        <v>1298.6500000000001</v>
+      </c>
+      <c r="F1853">
+        <f t="shared" si="69"/>
+        <v>1.2986500000000001</v>
+      </c>
+      <c r="G1853">
+        <v>184328875</v>
+      </c>
+      <c r="H1853" s="3">
+        <v>249477000000</v>
+      </c>
+      <c r="I1853">
+        <f t="shared" si="70"/>
+        <v>1851</v>
+      </c>
+      <c r="J1853">
+        <f>SUM($F$3:F1853)/I1853</f>
+        <v>1.0535897028633172</v>
+      </c>
+      <c r="K1853">
+        <f t="shared" si="71"/>
+        <v>1.0883510799999994</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1854" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B1854">
+        <v>1300.96</v>
+      </c>
+      <c r="C1854">
+        <v>1329.93</v>
+      </c>
+      <c r="D1854">
+        <v>1300.47</v>
+      </c>
+      <c r="E1854">
+        <v>1322.82</v>
+      </c>
+      <c r="F1854">
+        <f t="shared" si="69"/>
+        <v>1.3228199999999999</v>
+      </c>
+      <c r="G1854">
+        <v>198624374</v>
+      </c>
+      <c r="H1854" s="3">
+        <v>265108000000</v>
+      </c>
+      <c r="I1854">
+        <f t="shared" si="70"/>
+        <v>1852</v>
+      </c>
+      <c r="J1854">
+        <f>SUM($F$3:F1854)/I1854</f>
+        <v>1.0537350755939525</v>
+      </c>
+      <c r="K1854">
+        <f t="shared" si="71"/>
+        <v>1.0887155199999996</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1855" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B1855">
+        <v>1326</v>
+      </c>
+      <c r="C1855">
+        <v>1365.39</v>
+      </c>
+      <c r="D1855">
+        <v>1326</v>
+      </c>
+      <c r="E1855">
+        <v>1365.39</v>
+      </c>
+      <c r="F1855">
+        <f t="shared" si="69"/>
+        <v>1.3653900000000001</v>
+      </c>
+      <c r="G1855">
+        <v>214983765</v>
+      </c>
+      <c r="H1855" s="3">
+        <v>279851000000</v>
+      </c>
+      <c r="I1855">
+        <f t="shared" si="70"/>
+        <v>1853</v>
+      </c>
+      <c r="J1855">
+        <f>SUM($F$3:F1855)/I1855</f>
+        <v>1.053903264975715</v>
+      </c>
+      <c r="K1855">
+        <f t="shared" si="71"/>
+        <v>1.0892455199999995</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1856" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B1856">
+        <v>1377.89</v>
+      </c>
+      <c r="C1856">
+        <v>1381.81</v>
+      </c>
+      <c r="D1856">
+        <v>1350.92</v>
+      </c>
+      <c r="E1856">
+        <v>1350.92</v>
+      </c>
+      <c r="F1856">
+        <f t="shared" si="69"/>
+        <v>1.3509200000000001</v>
+      </c>
+      <c r="G1856">
+        <v>246220103</v>
+      </c>
+      <c r="H1856" s="3">
+        <v>336229000000</v>
+      </c>
+      <c r="I1856">
+        <f t="shared" si="70"/>
+        <v>1854</v>
+      </c>
+      <c r="J1856">
+        <f>SUM($F$3:F1856)/I1856</f>
+        <v>1.0540634681769148</v>
+      </c>
+      <c r="K1856">
+        <f t="shared" si="71"/>
+        <v>1.0898095599999997</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1857" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B1857">
+        <v>1342.43</v>
+      </c>
+      <c r="C1857">
+        <v>1365.48</v>
+      </c>
+      <c r="D1857">
+        <v>1340.27</v>
+      </c>
+      <c r="E1857">
+        <v>1360.89</v>
+      </c>
+      <c r="F1857">
+        <f t="shared" si="69"/>
+        <v>1.3608900000000002</v>
+      </c>
+      <c r="G1857">
+        <v>235269143</v>
+      </c>
+      <c r="H1857" s="3">
+        <v>312146000000</v>
+      </c>
+      <c r="I1857">
+        <f t="shared" si="70"/>
+        <v>1855</v>
+      </c>
+      <c r="J1857">
+        <f>SUM($F$3:F1857)/I1857</f>
+        <v>1.054228873315364</v>
+      </c>
+      <c r="K1857">
+        <f t="shared" si="71"/>
+        <v>1.0904455599999994</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1858" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B1858">
+        <v>1361.47</v>
+      </c>
+      <c r="C1858">
+        <v>1397.23</v>
+      </c>
+      <c r="D1858">
+        <v>1353.4</v>
+      </c>
+      <c r="E1858">
+        <v>1386.31</v>
+      </c>
+      <c r="F1858">
+        <f t="shared" si="69"/>
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="G1858">
+        <v>290669995</v>
+      </c>
+      <c r="H1858" s="3">
+        <v>410854000000</v>
+      </c>
+      <c r="I1858">
+        <f t="shared" si="70"/>
+        <v>1856</v>
+      </c>
+      <c r="J1858">
+        <f>SUM($F$3:F1858)/I1858</f>
+        <v>1.0544077963362068</v>
+      </c>
+      <c r="K1858">
+        <f t="shared" si="71"/>
+        <v>1.0912980399999994</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1858"/>
+  <dimension ref="A1:K1878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1841" workbookViewId="0">
-      <selection activeCell="A1859" sqref="A1859"/>
+    <sheetView tabSelected="1" topLeftCell="A1858" workbookViewId="0">
+      <selection activeCell="A1879" sqref="A1879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -69405,7 +69405,7 @@
         <v>935.05</v>
       </c>
       <c r="F1796">
-        <f t="shared" ref="F1796:F1858" si="69">E1796/1000</f>
+        <f t="shared" ref="F1796:F1878" si="69">E1796/1000</f>
         <v>0.93504999999999994</v>
       </c>
       <c r="G1796">
@@ -69532,7 +69532,7 @@
         <v>93530005504</v>
       </c>
       <c r="I1799">
-        <f t="shared" ref="I1799:I1858" si="70">I1798+1</f>
+        <f t="shared" ref="I1799:I1878" si="70">I1798+1</f>
         <v>1797</v>
       </c>
       <c r="J1799">
@@ -70749,7 +70749,7 @@
         <v>1.0521809080962801</v>
       </c>
       <c r="K1830">
-        <f t="shared" ref="K1830:K1858" si="71">SUM(F1581:F1830)/250</f>
+        <f t="shared" ref="K1830:K1839" si="71">SUM(F1581:F1830)/250</f>
         <v>1.0941513999999988</v>
       </c>
     </row>
@@ -71106,29 +71106,29 @@
     </row>
     <row r="1840" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1840" s="1">
-        <v>45596</v>
+        <v>45573</v>
       </c>
       <c r="B1840">
-        <v>1361.47</v>
+        <v>1353.98</v>
       </c>
       <c r="C1840">
-        <v>1397.23</v>
+        <v>1394.31</v>
       </c>
       <c r="D1840">
-        <v>1353.4</v>
+        <v>1264.47</v>
       </c>
       <c r="E1840">
-        <v>1386.31</v>
+        <v>1366.26</v>
       </c>
       <c r="F1840">
         <f t="shared" si="69"/>
-        <v>1.3863099999999999</v>
+        <v>1.36626</v>
       </c>
       <c r="G1840">
-        <v>290669995</v>
+        <v>313099830</v>
       </c>
       <c r="H1840" s="3">
-        <v>410854000000</v>
+        <v>389432000000</v>
       </c>
       <c r="I1840">
         <f t="shared" si="70"/>
@@ -71136,38 +71136,38 @@
       </c>
       <c r="J1840">
         <f>SUM($F$3:F1840)/I1840</f>
-        <v>1.0521029107725788</v>
+        <v>1.0520920021762785</v>
       </c>
       <c r="K1840">
-        <f t="shared" si="71"/>
-        <v>1.0861233999999995</v>
+        <f t="shared" ref="K1840:K1878" si="72">SUM(F1591:F1840)/250</f>
+        <v>1.0860431999999995</v>
       </c>
     </row>
     <row r="1841" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1841" s="1">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B1841">
-        <v>1353.98</v>
+        <v>1317.7</v>
       </c>
       <c r="C1841">
-        <v>1394.31</v>
+        <v>1339.87</v>
       </c>
       <c r="D1841">
-        <v>1264.47</v>
+        <v>1244.8699999999999</v>
       </c>
       <c r="E1841">
-        <v>1366.26</v>
+        <v>1244.8699999999999</v>
       </c>
       <c r="F1841">
         <f t="shared" si="69"/>
-        <v>1.36626</v>
+        <v>1.2448699999999999</v>
       </c>
       <c r="G1841">
-        <v>313099830</v>
+        <v>291885589</v>
       </c>
       <c r="H1841" s="3">
-        <v>389432000000</v>
+        <v>452241000000</v>
       </c>
       <c r="I1841">
         <f t="shared" si="70"/>
@@ -71175,38 +71175,38 @@
       </c>
       <c r="J1841">
         <f>SUM($F$3:F1841)/I1841</f>
-        <v>1.0522737411636758</v>
+        <v>1.0521968297988036</v>
       </c>
       <c r="K1841">
-        <f t="shared" si="71"/>
-        <v>1.0868375999999993</v>
+        <f t="shared" si="72"/>
+        <v>1.0862718399999993</v>
       </c>
     </row>
     <row r="1842" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1842" s="1">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B1842">
-        <v>1317.7</v>
+        <v>1262.73</v>
       </c>
       <c r="C1842">
-        <v>1339.87</v>
+        <v>1280.78</v>
       </c>
       <c r="D1842">
-        <v>1244.8699999999999</v>
+        <v>1213.58</v>
       </c>
       <c r="E1842">
-        <v>1244.8699999999999</v>
+        <v>1229.8900000000001</v>
       </c>
       <c r="F1842">
         <f t="shared" si="69"/>
-        <v>1.2448699999999999</v>
+        <v>1.2298900000000001</v>
       </c>
       <c r="G1842">
-        <v>291885589</v>
+        <v>225347811</v>
       </c>
       <c r="H1842" s="3">
-        <v>452241000000</v>
+        <v>335410000000</v>
       </c>
       <c r="I1842">
         <f t="shared" si="70"/>
@@ -71214,38 +71214,38 @@
       </c>
       <c r="J1842">
         <f>SUM($F$3:F1842)/I1842</f>
-        <v>1.0523784130434783</v>
+        <v>1.052293402173913</v>
       </c>
       <c r="K1842">
-        <f t="shared" si="71"/>
-        <v>1.0870969599999993</v>
+        <f t="shared" si="72"/>
+        <v>1.0864712799999996</v>
       </c>
     </row>
     <row r="1843" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1843" s="1">
-        <v>45575</v>
+        <v>45576</v>
       </c>
       <c r="B1843">
-        <v>1262.73</v>
+        <v>1212.74</v>
       </c>
       <c r="C1843">
-        <v>1280.78</v>
+        <v>1218.25</v>
       </c>
       <c r="D1843">
-        <v>1213.58</v>
+        <v>1159.33</v>
       </c>
       <c r="E1843">
-        <v>1229.8900000000001</v>
+        <v>1175.75</v>
       </c>
       <c r="F1843">
         <f t="shared" si="69"/>
-        <v>1.2298900000000001</v>
+        <v>1.1757500000000001</v>
       </c>
       <c r="G1843">
-        <v>225347811</v>
+        <v>178558296</v>
       </c>
       <c r="H1843" s="3">
-        <v>335410000000</v>
+        <v>248352000000</v>
       </c>
       <c r="I1843">
         <f t="shared" si="70"/>
@@ -71253,38 +71253,38 @@
       </c>
       <c r="J1843">
         <f>SUM($F$3:F1843)/I1843</f>
-        <v>1.052474834329169</v>
+        <v>1.0523604617055948</v>
       </c>
       <c r="K1843">
-        <f t="shared" si="71"/>
-        <v>1.0873022399999992</v>
+        <f t="shared" si="72"/>
+        <v>1.0864599999999993</v>
       </c>
     </row>
     <row r="1844" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1844" s="1">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B1844">
-        <v>1212.74</v>
+        <v>1180.68</v>
       </c>
       <c r="C1844">
-        <v>1218.25</v>
+        <v>1230.99</v>
       </c>
       <c r="D1844">
-        <v>1159.33</v>
+        <v>1159.29</v>
       </c>
       <c r="E1844">
-        <v>1175.75</v>
+        <v>1230.99</v>
       </c>
       <c r="F1844">
         <f t="shared" si="69"/>
-        <v>1.1757500000000001</v>
+        <v>1.23099</v>
       </c>
       <c r="G1844">
-        <v>178558296</v>
+        <v>180054319</v>
       </c>
       <c r="H1844" s="3">
-        <v>248352000000</v>
+        <v>259533000000</v>
       </c>
       <c r="I1844">
         <f t="shared" si="70"/>
@@ -71292,38 +71292,38 @@
       </c>
       <c r="J1844">
         <f>SUM($F$3:F1844)/I1844</f>
-        <v>1.0525417589576549</v>
+        <v>1.052457437567861</v>
       </c>
       <c r="K1844">
-        <f t="shared" si="71"/>
-        <v>1.0871337599999995</v>
+        <f t="shared" si="72"/>
+        <v>1.0865124799999997</v>
       </c>
     </row>
     <row r="1845" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1845" s="1">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B1845">
-        <v>1180.68</v>
+        <v>1220.69</v>
       </c>
       <c r="C1845">
-        <v>1230.99</v>
+        <v>1262.57</v>
       </c>
       <c r="D1845">
-        <v>1159.29</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="E1845">
-        <v>1230.99</v>
+        <v>1217.05</v>
       </c>
       <c r="F1845">
         <f t="shared" si="69"/>
-        <v>1.23099</v>
+        <v>1.21705</v>
       </c>
       <c r="G1845">
-        <v>180054319</v>
+        <v>217528015</v>
       </c>
       <c r="H1845" s="3">
-        <v>259533000000</v>
+        <v>313106000000</v>
       </c>
       <c r="I1845">
         <f t="shared" si="70"/>
@@ -71331,38 +71331,38 @@
       </c>
       <c r="J1845">
         <f>SUM($F$3:F1845)/I1845</f>
-        <v>1.0526385838307109</v>
+        <v>1.0525467444384156</v>
       </c>
       <c r="K1845">
-        <f t="shared" si="71"/>
-        <v>1.0872170399999996</v>
+        <f t="shared" si="72"/>
+        <v>1.0865399999999996</v>
       </c>
     </row>
     <row r="1846" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1846" s="1">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B1846">
-        <v>1220.69</v>
+        <v>1192.4000000000001</v>
       </c>
       <c r="C1846">
-        <v>1262.57</v>
+        <v>1240.32</v>
       </c>
       <c r="D1846">
-        <v>1207.1500000000001</v>
+        <v>1192.29</v>
       </c>
       <c r="E1846">
-        <v>1217.05</v>
+        <v>1226.52</v>
       </c>
       <c r="F1846">
         <f t="shared" si="69"/>
-        <v>1.21705</v>
+        <v>1.2265200000000001</v>
       </c>
       <c r="G1846">
-        <v>217528015</v>
+        <v>180011780</v>
       </c>
       <c r="H1846" s="3">
-        <v>313106000000</v>
+        <v>245895000000</v>
       </c>
       <c r="I1846">
         <f t="shared" si="70"/>
@@ -71370,38 +71370,38 @@
       </c>
       <c r="J1846">
         <f>SUM($F$3:F1846)/I1846</f>
-        <v>1.0527277440347071</v>
+        <v>1.052641090021692</v>
       </c>
       <c r="K1846">
-        <f t="shared" si="71"/>
-        <v>1.0872118399999997</v>
+        <f t="shared" si="72"/>
+        <v>1.0865726799999997</v>
       </c>
     </row>
     <row r="1847" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1847" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B1847">
-        <v>1192.4000000000001</v>
+        <v>1238.77</v>
       </c>
       <c r="C1847">
-        <v>1240.32</v>
+        <v>1258.3</v>
       </c>
       <c r="D1847">
-        <v>1192.29</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="E1847">
-        <v>1226.52</v>
+        <v>1232.56</v>
       </c>
       <c r="F1847">
         <f t="shared" si="69"/>
-        <v>1.2265200000000001</v>
+        <v>1.2325599999999999</v>
       </c>
       <c r="G1847">
-        <v>180011780</v>
+        <v>216355188</v>
       </c>
       <c r="H1847" s="3">
-        <v>245895000000</v>
+        <v>302848000000</v>
       </c>
       <c r="I1847">
         <f t="shared" si="70"/>
@@ -71409,38 +71409,38 @@
       </c>
       <c r="J1847">
         <f>SUM($F$3:F1847)/I1847</f>
-        <v>1.0528219403794039</v>
+        <v>1.0527386070460705</v>
       </c>
       <c r="K1847">
-        <f t="shared" si="71"/>
-        <v>1.0872507599999994</v>
+        <f t="shared" si="72"/>
+        <v>1.0866357599999994</v>
       </c>
     </row>
     <row r="1848" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1848" s="1">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B1848">
-        <v>1238.77</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="C1848">
-        <v>1258.3</v>
+        <v>1301.52</v>
       </c>
       <c r="D1848">
-        <v>1230.6500000000001</v>
+        <v>1219.3599999999999</v>
       </c>
       <c r="E1848">
-        <v>1232.56</v>
+        <v>1273.07</v>
       </c>
       <c r="F1848">
         <f t="shared" si="69"/>
-        <v>1.2325599999999999</v>
+        <v>1.2730699999999999</v>
       </c>
       <c r="G1848">
-        <v>216355188</v>
+        <v>264340993</v>
       </c>
       <c r="H1848" s="3">
-        <v>302848000000</v>
+        <v>387200000000</v>
       </c>
       <c r="I1848">
         <f t="shared" si="70"/>
@@ -71448,38 +71448,38 @@
       </c>
       <c r="J1848">
         <f>SUM($F$3:F1848)/I1848</f>
-        <v>1.052919306608884</v>
+        <v>1.0528579631635968</v>
       </c>
       <c r="K1848">
-        <f t="shared" si="71"/>
-        <v>1.0872545999999994</v>
+        <f t="shared" si="72"/>
+        <v>1.0868016399999993</v>
       </c>
     </row>
     <row r="1849" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1849" s="1">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B1849">
-        <v>1224.8900000000001</v>
+        <v>1278.46</v>
       </c>
       <c r="C1849">
-        <v>1301.52</v>
+        <v>1328.23</v>
       </c>
       <c r="D1849">
-        <v>1219.3599999999999</v>
+        <v>1278.42</v>
       </c>
       <c r="E1849">
-        <v>1273.07</v>
+        <v>1314.74</v>
       </c>
       <c r="F1849">
         <f t="shared" si="69"/>
-        <v>1.2730699999999999</v>
+        <v>1.31474</v>
       </c>
       <c r="G1849">
-        <v>264340993</v>
+        <v>267578954</v>
       </c>
       <c r="H1849" s="3">
-        <v>387200000000</v>
+        <v>395402000000</v>
       </c>
       <c r="I1849">
         <f t="shared" si="70"/>
@@ -71487,38 +71487,38 @@
       </c>
       <c r="J1849">
         <f>SUM($F$3:F1849)/I1849</f>
-        <v>1.0530385002707092</v>
+        <v>1.0529997509474824</v>
       </c>
       <c r="K1849">
-        <f t="shared" si="71"/>
-        <v>1.0874166399999994</v>
+        <f t="shared" si="72"/>
+        <v>1.0871303599999995</v>
       </c>
     </row>
     <row r="1850" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1850" s="1">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B1850">
-        <v>1278.46</v>
+        <v>1314.4</v>
       </c>
       <c r="C1850">
-        <v>1328.23</v>
+        <v>1330.61</v>
       </c>
       <c r="D1850">
-        <v>1278.42</v>
+        <v>1295.68</v>
       </c>
       <c r="E1850">
-        <v>1314.74</v>
+        <v>1311.86</v>
       </c>
       <c r="F1850">
         <f t="shared" si="69"/>
-        <v>1.31474</v>
+        <v>1.3118599999999998</v>
       </c>
       <c r="G1850">
-        <v>267578954</v>
+        <v>250768522</v>
       </c>
       <c r="H1850" s="3">
-        <v>395402000000</v>
+        <v>350130000000</v>
       </c>
       <c r="I1850">
         <f t="shared" si="70"/>
@@ -71526,38 +71526,38 @@
       </c>
       <c r="J1850">
         <f>SUM($F$3:F1850)/I1850</f>
-        <v>1.0531801136363637</v>
+        <v>1.0531398268398269</v>
       </c>
       <c r="K1850">
-        <f t="shared" si="71"/>
-        <v>1.0876874799999992</v>
+        <f t="shared" si="72"/>
+        <v>1.0873896799999994</v>
       </c>
     </row>
     <row r="1851" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1851" s="1">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B1851">
-        <v>1314.4</v>
+        <v>1309</v>
       </c>
       <c r="C1851">
-        <v>1330.61</v>
+        <v>1332.23</v>
       </c>
       <c r="D1851">
-        <v>1295.68</v>
+        <v>1300.99</v>
       </c>
       <c r="E1851">
-        <v>1311.86</v>
+        <v>1307.18</v>
       </c>
       <c r="F1851">
         <f t="shared" si="69"/>
-        <v>1.3118599999999998</v>
+        <v>1.30718</v>
       </c>
       <c r="G1851">
-        <v>250768522</v>
+        <v>231395163</v>
       </c>
       <c r="H1851" s="3">
-        <v>350130000000</v>
+        <v>312476000000</v>
       </c>
       <c r="I1851">
         <f t="shared" si="70"/>
@@ -71565,38 +71565,38 @@
       </c>
       <c r="J1851">
         <f>SUM($F$3:F1851)/I1851</f>
-        <v>1.0533200162249865</v>
+        <v>1.0532772201189833</v>
       </c>
       <c r="K1851">
-        <f t="shared" si="71"/>
-        <v>1.0879035999999991</v>
+        <f t="shared" si="72"/>
+        <v>1.0875870799999994</v>
       </c>
     </row>
     <row r="1852" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1852" s="1">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B1852">
-        <v>1309</v>
+        <v>1295.98</v>
       </c>
       <c r="C1852">
-        <v>1332.23</v>
+        <v>1304.3900000000001</v>
       </c>
       <c r="D1852">
-        <v>1300.99</v>
+        <v>1285.3800000000001</v>
       </c>
       <c r="E1852">
-        <v>1307.18</v>
+        <v>1298.6500000000001</v>
       </c>
       <c r="F1852">
         <f t="shared" si="69"/>
-        <v>1.30718</v>
+        <v>1.2986500000000001</v>
       </c>
       <c r="G1852">
-        <v>231395163</v>
+        <v>184328875</v>
       </c>
       <c r="H1852" s="3">
-        <v>312476000000</v>
+        <v>249477000000</v>
       </c>
       <c r="I1852">
         <f t="shared" si="70"/>
@@ -71604,38 +71604,38 @@
       </c>
       <c r="J1852">
         <f>SUM($F$3:F1852)/I1852</f>
-        <v>1.0534572378378377</v>
+        <v>1.053409854054054</v>
       </c>
       <c r="K1852">
-        <f t="shared" si="71"/>
-        <v>1.0881235599999994</v>
+        <f t="shared" si="72"/>
+        <v>1.0877729199999995</v>
       </c>
     </row>
     <row r="1853" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1853" s="1">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B1853">
-        <v>1295.98</v>
+        <v>1300.96</v>
       </c>
       <c r="C1853">
-        <v>1304.3900000000001</v>
+        <v>1329.93</v>
       </c>
       <c r="D1853">
-        <v>1285.3800000000001</v>
+        <v>1300.47</v>
       </c>
       <c r="E1853">
-        <v>1298.6500000000001</v>
+        <v>1322.82</v>
       </c>
       <c r="F1853">
         <f t="shared" si="69"/>
-        <v>1.2986500000000001</v>
+        <v>1.3228199999999999</v>
       </c>
       <c r="G1853">
-        <v>184328875</v>
+        <v>198624374</v>
       </c>
       <c r="H1853" s="3">
-        <v>249477000000</v>
+        <v>265108000000</v>
       </c>
       <c r="I1853">
         <f t="shared" si="70"/>
@@ -71643,38 +71643,38 @@
       </c>
       <c r="J1853">
         <f>SUM($F$3:F1853)/I1853</f>
-        <v>1.0535897028633172</v>
+        <v>1.0535554024851432</v>
       </c>
       <c r="K1853">
-        <f t="shared" si="71"/>
-        <v>1.0883510799999994</v>
+        <f t="shared" si="72"/>
+        <v>1.0880971199999994</v>
       </c>
     </row>
     <row r="1854" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1854" s="1">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B1854">
-        <v>1300.96</v>
+        <v>1326</v>
       </c>
       <c r="C1854">
-        <v>1329.93</v>
+        <v>1365.39</v>
       </c>
       <c r="D1854">
-        <v>1300.47</v>
+        <v>1326</v>
       </c>
       <c r="E1854">
-        <v>1322.82</v>
+        <v>1365.39</v>
       </c>
       <c r="F1854">
         <f t="shared" si="69"/>
-        <v>1.3228199999999999</v>
+        <v>1.3653900000000001</v>
       </c>
       <c r="G1854">
-        <v>198624374</v>
+        <v>214983765</v>
       </c>
       <c r="H1854" s="3">
-        <v>265108000000</v>
+        <v>279851000000</v>
       </c>
       <c r="I1854">
         <f t="shared" si="70"/>
@@ -71682,38 +71682,38 @@
       </c>
       <c r="J1854">
         <f>SUM($F$3:F1854)/I1854</f>
-        <v>1.0537350755939525</v>
+        <v>1.0537237796976242</v>
       </c>
       <c r="K1854">
-        <f t="shared" si="71"/>
-        <v>1.0887155199999996</v>
+        <f t="shared" si="72"/>
+        <v>1.0886318399999992</v>
       </c>
     </row>
     <row r="1855" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1855" s="1">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="B1855">
-        <v>1326</v>
+        <v>1377.89</v>
       </c>
       <c r="C1855">
-        <v>1365.39</v>
+        <v>1381.81</v>
       </c>
       <c r="D1855">
-        <v>1326</v>
+        <v>1350.92</v>
       </c>
       <c r="E1855">
-        <v>1365.39</v>
+        <v>1350.92</v>
       </c>
       <c r="F1855">
         <f t="shared" si="69"/>
-        <v>1.3653900000000001</v>
+        <v>1.3509200000000001</v>
       </c>
       <c r="G1855">
-        <v>214983765</v>
+        <v>246220103</v>
       </c>
       <c r="H1855" s="3">
-        <v>279851000000</v>
+        <v>336229000000</v>
       </c>
       <c r="I1855">
         <f t="shared" si="70"/>
@@ -71721,38 +71721,38 @@
       </c>
       <c r="J1855">
         <f>SUM($F$3:F1855)/I1855</f>
-        <v>1.053903264975715</v>
+        <v>1.0538841662169456</v>
       </c>
       <c r="K1855">
-        <f t="shared" si="71"/>
-        <v>1.0892455199999995</v>
+        <f t="shared" si="72"/>
+        <v>1.0891039599999994</v>
       </c>
     </row>
     <row r="1856" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1856" s="1">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B1856">
-        <v>1377.89</v>
+        <v>1342.43</v>
       </c>
       <c r="C1856">
-        <v>1381.81</v>
+        <v>1365.48</v>
       </c>
       <c r="D1856">
-        <v>1350.92</v>
+        <v>1340.27</v>
       </c>
       <c r="E1856">
-        <v>1350.92</v>
+        <v>1360.89</v>
       </c>
       <c r="F1856">
         <f t="shared" si="69"/>
-        <v>1.3509200000000001</v>
+        <v>1.3608900000000002</v>
       </c>
       <c r="G1856">
-        <v>246220103</v>
+        <v>235269143</v>
       </c>
       <c r="H1856" s="3">
-        <v>336229000000</v>
+        <v>312146000000</v>
       </c>
       <c r="I1856">
         <f t="shared" si="70"/>
@@ -71760,38 +71760,38 @@
       </c>
       <c r="J1856">
         <f>SUM($F$3:F1856)/I1856</f>
-        <v>1.0540634681769148</v>
+        <v>1.0540497572815533</v>
       </c>
       <c r="K1856">
-        <f t="shared" si="71"/>
-        <v>1.0898095599999997</v>
+        <f t="shared" si="72"/>
+        <v>1.0897078799999995</v>
       </c>
     </row>
     <row r="1857" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1857" s="1">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B1857">
-        <v>1342.43</v>
+        <v>1361.47</v>
       </c>
       <c r="C1857">
-        <v>1365.48</v>
+        <v>1397.23</v>
       </c>
       <c r="D1857">
-        <v>1340.27</v>
+        <v>1353.4</v>
       </c>
       <c r="E1857">
-        <v>1360.89</v>
+        <v>1386.31</v>
       </c>
       <c r="F1857">
         <f t="shared" si="69"/>
-        <v>1.3608900000000002</v>
+        <v>1.3863099999999999</v>
       </c>
       <c r="G1857">
-        <v>235269143</v>
+        <v>290669995</v>
       </c>
       <c r="H1857" s="3">
-        <v>312146000000</v>
+        <v>410854000000</v>
       </c>
       <c r="I1857">
         <f t="shared" si="70"/>
@@ -71802,35 +71802,35 @@
         <v>1.054228873315364</v>
       </c>
       <c r="K1857">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.0904455599999994</v>
       </c>
     </row>
     <row r="1858" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1858" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="B1858">
-        <v>1361.47</v>
+        <v>1380.27</v>
       </c>
       <c r="C1858">
-        <v>1397.23</v>
+        <v>1384.15</v>
       </c>
       <c r="D1858">
-        <v>1353.4</v>
+        <v>1301.22</v>
       </c>
       <c r="E1858">
-        <v>1386.31</v>
+        <v>1301.48</v>
       </c>
       <c r="F1858">
         <f t="shared" si="69"/>
-        <v>1.3863099999999999</v>
+        <v>1.30148</v>
       </c>
       <c r="G1858">
-        <v>290669995</v>
+        <v>288148990</v>
       </c>
       <c r="H1858" s="3">
-        <v>410854000000</v>
+        <v>375991000000</v>
       </c>
       <c r="I1858">
         <f t="shared" si="70"/>
@@ -71838,11 +71838,791 @@
       </c>
       <c r="J1858">
         <f>SUM($F$3:F1858)/I1858</f>
-        <v>1.0544077963362068</v>
+        <v>1.0543620905172415</v>
       </c>
       <c r="K1858">
-        <f t="shared" si="71"/>
-        <v>1.0912980399999994</v>
+        <f t="shared" si="72"/>
+        <v>1.0909587199999997</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1859" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B1859">
+        <v>1290.8</v>
+      </c>
+      <c r="C1859">
+        <v>1333.06</v>
+      </c>
+      <c r="D1859">
+        <v>1290.8</v>
+      </c>
+      <c r="E1859">
+        <v>1333.06</v>
+      </c>
+      <c r="F1859">
+        <f t="shared" si="69"/>
+        <v>1.3330599999999999</v>
+      </c>
+      <c r="G1859">
+        <v>189892144</v>
+      </c>
+      <c r="H1859" s="3">
+        <v>268275000000</v>
+      </c>
+      <c r="I1859">
+        <f t="shared" si="70"/>
+        <v>1857</v>
+      </c>
+      <c r="J1859">
+        <f>SUM($F$3:F1859)/I1859</f>
+        <v>1.054512170166936</v>
+      </c>
+      <c r="K1859">
+        <f t="shared" si="72"/>
+        <v>1.0917249199999997</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1860" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B1860">
+        <v>1334.51</v>
+      </c>
+      <c r="C1860">
+        <v>1386.82</v>
+      </c>
+      <c r="D1860">
+        <v>1334.18</v>
+      </c>
+      <c r="E1860">
+        <v>1385.52</v>
+      </c>
+      <c r="F1860">
+        <f t="shared" si="69"/>
+        <v>1.3855200000000001</v>
+      </c>
+      <c r="G1860">
+        <v>261047477</v>
+      </c>
+      <c r="H1860" s="3">
+        <v>390143000000</v>
+      </c>
+      <c r="I1860">
+        <f t="shared" si="70"/>
+        <v>1858</v>
+      </c>
+      <c r="J1860">
+        <f>SUM($F$3:F1860)/I1860</f>
+        <v>1.0546903229278795</v>
+      </c>
+      <c r="K1860">
+        <f t="shared" si="72"/>
+        <v>1.0925987199999996</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1861" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B1861">
+        <v>1390.32</v>
+      </c>
+      <c r="C1861">
+        <v>1413.41</v>
+      </c>
+      <c r="D1861">
+        <v>1381.86</v>
+      </c>
+      <c r="E1861">
+        <v>1397.82</v>
+      </c>
+      <c r="F1861">
+        <f t="shared" si="69"/>
+        <v>1.3978199999999998</v>
+      </c>
+      <c r="G1861">
+        <v>293102990</v>
+      </c>
+      <c r="H1861" s="3">
+        <v>430922000000</v>
+      </c>
+      <c r="I1861">
+        <f t="shared" si="70"/>
+        <v>1859</v>
+      </c>
+      <c r="J1861">
+        <f>SUM($F$3:F1861)/I1861</f>
+        <v>1.0548749004841311</v>
+      </c>
+      <c r="K1861">
+        <f t="shared" si="72"/>
+        <v>1.0934177999999994</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1862" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B1862">
+        <v>1386.07</v>
+      </c>
+      <c r="C1862">
+        <v>1432.12</v>
+      </c>
+      <c r="D1862">
+        <v>1382.25</v>
+      </c>
+      <c r="E1862">
+        <v>1432.12</v>
+      </c>
+      <c r="F1862">
+        <f t="shared" si="69"/>
+        <v>1.4321199999999998</v>
+      </c>
+      <c r="G1862">
+        <v>275969019</v>
+      </c>
+      <c r="H1862" s="3">
+        <v>389226000000</v>
+      </c>
+      <c r="I1862">
+        <f t="shared" si="70"/>
+        <v>1860</v>
+      </c>
+      <c r="J1862">
+        <f>SUM($F$3:F1862)/I1862</f>
+        <v>1.0550777204301074</v>
+      </c>
+      <c r="K1862">
+        <f t="shared" si="72"/>
+        <v>1.0943399999999994</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1863" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B1863">
+        <v>1445.55</v>
+      </c>
+      <c r="C1863">
+        <v>1466.59</v>
+      </c>
+      <c r="D1863">
+        <v>1436.55</v>
+      </c>
+      <c r="E1863">
+        <v>1441.02</v>
+      </c>
+      <c r="F1863">
+        <f t="shared" si="69"/>
+        <v>1.44102</v>
+      </c>
+      <c r="G1863">
+        <v>288152013</v>
+      </c>
+      <c r="H1863" s="3">
+        <v>429656000000</v>
+      </c>
+      <c r="I1863">
+        <f t="shared" si="70"/>
+        <v>1861</v>
+      </c>
+      <c r="J1863">
+        <f>SUM($F$3:F1863)/I1863</f>
+        <v>1.055285104782375</v>
+      </c>
+      <c r="K1863">
+        <f t="shared" si="72"/>
+        <v>1.0953085199999997</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1864" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B1864">
+        <v>1440.66</v>
+      </c>
+      <c r="C1864">
+        <v>1488.95</v>
+      </c>
+      <c r="D1864">
+        <v>1440.6</v>
+      </c>
+      <c r="E1864">
+        <v>1488.95</v>
+      </c>
+      <c r="F1864">
+        <f t="shared" si="69"/>
+        <v>1.48895</v>
+      </c>
+      <c r="G1864">
+        <v>273589631</v>
+      </c>
+      <c r="H1864" s="3">
+        <v>419310000000</v>
+      </c>
+      <c r="I1864">
+        <f t="shared" si="70"/>
+        <v>1862</v>
+      </c>
+      <c r="J1864">
+        <f>SUM($F$3:F1864)/I1864</f>
+        <v>1.0555180075187969</v>
+      </c>
+      <c r="K1864">
+        <f t="shared" si="72"/>
+        <v>1.0963650799999993</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1865" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B1865">
+        <v>1494.58</v>
+      </c>
+      <c r="C1865">
+        <v>1495.25</v>
+      </c>
+      <c r="D1865">
+        <v>1450.5</v>
+      </c>
+      <c r="E1865">
+        <v>1467.33</v>
+      </c>
+      <c r="F1865">
+        <f t="shared" si="69"/>
+        <v>1.46733</v>
+      </c>
+      <c r="G1865">
+        <v>267978793</v>
+      </c>
+      <c r="H1865" s="3">
+        <v>390188000000</v>
+      </c>
+      <c r="I1865">
+        <f t="shared" si="70"/>
+        <v>1863</v>
+      </c>
+      <c r="J1865">
+        <f>SUM($F$3:F1865)/I1865</f>
+        <v>1.055739055287171</v>
+      </c>
+      <c r="K1865">
+        <f t="shared" si="72"/>
+        <v>1.0973785999999994</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1866" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B1866">
+        <v>1459.04</v>
+      </c>
+      <c r="C1866">
+        <v>1479.03</v>
+      </c>
+      <c r="D1866">
+        <v>1436.96</v>
+      </c>
+      <c r="E1866">
+        <v>1474.99</v>
+      </c>
+      <c r="F1866">
+        <f t="shared" si="69"/>
+        <v>1.47499</v>
+      </c>
+      <c r="G1866">
+        <v>221335709</v>
+      </c>
+      <c r="H1866" s="3">
+        <v>330699000000</v>
+      </c>
+      <c r="I1866">
+        <f t="shared" si="70"/>
+        <v>1864</v>
+      </c>
+      <c r="J1866">
+        <f>SUM($F$3:F1866)/I1866</f>
+        <v>1.0559639753218883</v>
+      </c>
+      <c r="K1866">
+        <f t="shared" si="72"/>
+        <v>1.0984400399999994</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1867" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B1867">
+        <v>1468.9</v>
+      </c>
+      <c r="C1867">
+        <v>1477.21</v>
+      </c>
+      <c r="D1867">
+        <v>1431.6</v>
+      </c>
+      <c r="E1867">
+        <v>1433.04</v>
+      </c>
+      <c r="F1867">
+        <f t="shared" si="69"/>
+        <v>1.4330399999999999</v>
+      </c>
+      <c r="G1867">
+        <v>227085537</v>
+      </c>
+      <c r="H1867" s="3">
+        <v>330020000000</v>
+      </c>
+      <c r="I1867">
+        <f t="shared" si="70"/>
+        <v>1865</v>
+      </c>
+      <c r="J1867">
+        <f>SUM($F$3:F1867)/I1867</f>
+        <v>1.0561661608579087</v>
+      </c>
+      <c r="K1867">
+        <f t="shared" si="72"/>
+        <v>1.0993799999999996</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1868" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B1868">
+        <v>1429.3</v>
+      </c>
+      <c r="C1868">
+        <v>1465.34</v>
+      </c>
+      <c r="D1868">
+        <v>1413.39</v>
+      </c>
+      <c r="E1868">
+        <v>1413.47</v>
+      </c>
+      <c r="F1868">
+        <f t="shared" si="69"/>
+        <v>1.41347</v>
+      </c>
+      <c r="G1868">
+        <v>248449341</v>
+      </c>
+      <c r="H1868" s="3">
+        <v>359241000000</v>
+      </c>
+      <c r="I1868">
+        <f t="shared" si="70"/>
+        <v>1866</v>
+      </c>
+      <c r="J1868">
+        <f>SUM($F$3:F1868)/I1868</f>
+        <v>1.0563576420150051</v>
+      </c>
+      <c r="K1868">
+        <f t="shared" si="72"/>
+        <v>1.1001359999999996</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1869" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B1869">
+        <v>1419.21</v>
+      </c>
+      <c r="C1869">
+        <v>1425.21</v>
+      </c>
+      <c r="D1869">
+        <v>1334.01</v>
+      </c>
+      <c r="E1869">
+        <v>1343.16</v>
+      </c>
+      <c r="F1869">
+        <f t="shared" si="69"/>
+        <v>1.3431600000000001</v>
+      </c>
+      <c r="G1869">
+        <v>238447013</v>
+      </c>
+      <c r="H1869" s="3">
+        <v>303685000000</v>
+      </c>
+      <c r="I1869">
+        <f t="shared" si="70"/>
+        <v>1867</v>
+      </c>
+      <c r="J1869">
+        <f>SUM($F$3:F1869)/I1869</f>
+        <v>1.0565112587038026</v>
+      </c>
+      <c r="K1869">
+        <f t="shared" si="72"/>
+        <v>1.1004530399999997</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1870" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B1870">
+        <v>1341.03</v>
+      </c>
+      <c r="C1870">
+        <v>1383.73</v>
+      </c>
+      <c r="D1870">
+        <v>1333.94</v>
+      </c>
+      <c r="E1870">
+        <v>1383.73</v>
+      </c>
+      <c r="F1870">
+        <f t="shared" si="69"/>
+        <v>1.3837300000000001</v>
+      </c>
+      <c r="G1870">
+        <v>200160209</v>
+      </c>
+      <c r="H1870" s="3">
+        <v>263774000000</v>
+      </c>
+      <c r="I1870">
+        <f t="shared" si="70"/>
+        <v>1868</v>
+      </c>
+      <c r="J1870">
+        <f>SUM($F$3:F1870)/I1870</f>
+        <v>1.0566864293361882</v>
+      </c>
+      <c r="K1870">
+        <f t="shared" si="72"/>
+        <v>1.10087044</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1871" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B1871">
+        <v>1379.07</v>
+      </c>
+      <c r="C1871">
+        <v>1438.27</v>
+      </c>
+      <c r="D1871">
+        <v>1376.67</v>
+      </c>
+      <c r="E1871">
+        <v>1431.6</v>
+      </c>
+      <c r="F1871">
+        <f t="shared" si="69"/>
+        <v>1.4316</v>
+      </c>
+      <c r="G1871">
+        <v>227436753</v>
+      </c>
+      <c r="H1871" s="3">
+        <v>300165000000</v>
+      </c>
+      <c r="I1871">
+        <f t="shared" si="70"/>
+        <v>1869</v>
+      </c>
+      <c r="J1871">
+        <f>SUM($F$3:F1871)/I1871</f>
+        <v>1.0568870251471372</v>
+      </c>
+      <c r="K1871">
+        <f t="shared" si="72"/>
+        <v>1.101426</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1872" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B1872">
+        <v>1427.29</v>
+      </c>
+      <c r="C1872">
+        <v>1445.65</v>
+      </c>
+      <c r="D1872">
+        <v>1420.39</v>
+      </c>
+      <c r="E1872">
+        <v>1437.14</v>
+      </c>
+      <c r="F1872">
+        <f t="shared" si="69"/>
+        <v>1.4371400000000001</v>
+      </c>
+      <c r="G1872">
+        <v>233333610</v>
+      </c>
+      <c r="H1872" s="3">
+        <v>315321000000</v>
+      </c>
+      <c r="I1872">
+        <f t="shared" si="70"/>
+        <v>1870</v>
+      </c>
+      <c r="J1872">
+        <f>SUM($F$3:F1872)/I1872</f>
+        <v>1.0570903689839568</v>
+      </c>
+      <c r="K1872">
+        <f t="shared" si="72"/>
+        <v>1.1020447999999998</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1873" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B1873">
+        <v>1431.81</v>
+      </c>
+      <c r="C1873">
+        <v>1459.24</v>
+      </c>
+      <c r="D1873">
+        <v>1391.65</v>
+      </c>
+      <c r="E1873">
+        <v>1392.06</v>
+      </c>
+      <c r="F1873">
+        <f t="shared" si="69"/>
+        <v>1.3920599999999999</v>
+      </c>
+      <c r="G1873">
+        <v>331324844</v>
+      </c>
+      <c r="H1873" s="3">
+        <v>472106000000</v>
+      </c>
+      <c r="I1873">
+        <f t="shared" si="70"/>
+        <v>1871</v>
+      </c>
+      <c r="J1873">
+        <f>SUM($F$3:F1873)/I1873</f>
+        <v>1.0572694013896309</v>
+      </c>
+      <c r="K1873">
+        <f t="shared" si="72"/>
+        <v>1.1025324000000001</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1874" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B1874">
+        <v>1403.16</v>
+      </c>
+      <c r="C1874">
+        <v>1413.82</v>
+      </c>
+      <c r="D1874">
+        <v>1374.01</v>
+      </c>
+      <c r="E1874">
+        <v>1413.82</v>
+      </c>
+      <c r="F1874">
+        <f t="shared" si="69"/>
+        <v>1.4138199999999999</v>
+      </c>
+      <c r="G1874">
+        <v>274897685</v>
+      </c>
+      <c r="H1874" s="3">
+        <v>379889000000</v>
+      </c>
+      <c r="I1874">
+        <f t="shared" si="70"/>
+        <v>1872</v>
+      </c>
+      <c r="J1874">
+        <f>SUM($F$3:F1874)/I1874</f>
+        <v>1.0574598664529911</v>
+      </c>
+      <c r="K1874">
+        <f t="shared" si="72"/>
+        <v>1.1029892800000001</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1875" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B1875">
+        <v>1410.97</v>
+      </c>
+      <c r="C1875">
+        <v>1430.28</v>
+      </c>
+      <c r="D1875">
+        <v>1392.58</v>
+      </c>
+      <c r="E1875">
+        <v>1393.14</v>
+      </c>
+      <c r="F1875">
+        <f t="shared" si="69"/>
+        <v>1.39314</v>
+      </c>
+      <c r="G1875">
+        <v>255267780</v>
+      </c>
+      <c r="H1875" s="3">
+        <v>327988000000</v>
+      </c>
+      <c r="I1875">
+        <f t="shared" si="70"/>
+        <v>1873</v>
+      </c>
+      <c r="J1875">
+        <f>SUM($F$3:F1875)/I1875</f>
+        <v>1.0576390870261607</v>
+      </c>
+      <c r="K1875">
+        <f t="shared" si="72"/>
+        <v>1.1032629200000001</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1876" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B1876">
+        <v>1380.7</v>
+      </c>
+      <c r="C1876">
+        <v>1432.46</v>
+      </c>
+      <c r="D1876">
+        <v>1353.42</v>
+      </c>
+      <c r="E1876">
+        <v>1432.46</v>
+      </c>
+      <c r="F1876">
+        <f t="shared" si="69"/>
+        <v>1.4324600000000001</v>
+      </c>
+      <c r="G1876">
+        <v>296170440</v>
+      </c>
+      <c r="H1876" s="3">
+        <v>380827000000</v>
+      </c>
+      <c r="I1876">
+        <f t="shared" si="70"/>
+        <v>1874</v>
+      </c>
+      <c r="J1876">
+        <f>SUM($F$3:F1876)/I1876</f>
+        <v>1.0578390981856987</v>
+      </c>
+      <c r="K1876">
+        <f t="shared" si="72"/>
+        <v>1.10368496</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1877" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B1877">
+        <v>1437.25</v>
+      </c>
+      <c r="C1877">
+        <v>1458.12</v>
+      </c>
+      <c r="D1877">
+        <v>1428.83</v>
+      </c>
+      <c r="E1877">
+        <v>1431.46</v>
+      </c>
+      <c r="F1877">
+        <f t="shared" si="69"/>
+        <v>1.43146</v>
+      </c>
+      <c r="G1877">
+        <v>301367392</v>
+      </c>
+      <c r="H1877" s="3">
+        <v>403167000000</v>
+      </c>
+      <c r="I1877">
+        <f t="shared" si="70"/>
+        <v>1875</v>
+      </c>
+      <c r="J1877">
+        <f>SUM($F$3:F1877)/I1877</f>
+        <v>1.0580383626666663</v>
+      </c>
+      <c r="K1877">
+        <f t="shared" si="72"/>
+        <v>1.1041210000000001</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1878" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B1878">
+        <v>1427.46</v>
+      </c>
+      <c r="C1878">
+        <v>1472.36</v>
+      </c>
+      <c r="D1878">
+        <v>1419.75</v>
+      </c>
+      <c r="E1878">
+        <v>1462.69</v>
+      </c>
+      <c r="F1878">
+        <f t="shared" si="69"/>
+        <v>1.46269</v>
+      </c>
+      <c r="G1878">
+        <v>307959933</v>
+      </c>
+      <c r="H1878" s="3">
+        <v>457063000000</v>
+      </c>
+      <c r="I1878">
+        <f t="shared" si="70"/>
+        <v>1876</v>
+      </c>
+      <c r="J1878">
+        <f>SUM($F$3:F1878)/I1878</f>
+        <v>1.0582540618336882</v>
+      </c>
+      <c r="K1878">
+        <f t="shared" si="72"/>
+        <v>1.1046611600000003</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1878"/>
+  <dimension ref="A1:K1900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1858" workbookViewId="0">
-      <selection activeCell="A1879" sqref="A1879"/>
+    <sheetView tabSelected="1" topLeftCell="A1879" workbookViewId="0">
+      <selection activeCell="A1901" sqref="A1901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -69405,7 +69405,7 @@
         <v>935.05</v>
       </c>
       <c r="F1796">
-        <f t="shared" ref="F1796:F1878" si="69">E1796/1000</f>
+        <f t="shared" ref="F1796:F1900" si="69">E1796/1000</f>
         <v>0.93504999999999994</v>
       </c>
       <c r="G1796">
@@ -69532,7 +69532,7 @@
         <v>93530005504</v>
       </c>
       <c r="I1799">
-        <f t="shared" ref="I1799:I1878" si="70">I1798+1</f>
+        <f t="shared" ref="I1799:I1900" si="70">I1798+1</f>
         <v>1797</v>
       </c>
       <c r="J1799">
@@ -71139,7 +71139,7 @@
         <v>1.0520920021762785</v>
       </c>
       <c r="K1840">
-        <f t="shared" ref="K1840:K1878" si="72">SUM(F1591:F1840)/250</f>
+        <f t="shared" ref="K1840:K1900" si="72">SUM(F1591:F1840)/250</f>
         <v>1.0860431999999995</v>
       </c>
     </row>
@@ -72623,6 +72623,864 @@
       <c r="K1878">
         <f t="shared" si="72"/>
         <v>1.1046611600000003</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1879" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B1879">
+        <v>1463.85</v>
+      </c>
+      <c r="C1879">
+        <v>1495.42</v>
+      </c>
+      <c r="D1879">
+        <v>1463.53</v>
+      </c>
+      <c r="E1879">
+        <v>1492.37</v>
+      </c>
+      <c r="F1879">
+        <f t="shared" si="69"/>
+        <v>1.49237</v>
+      </c>
+      <c r="G1879">
+        <v>311267890</v>
+      </c>
+      <c r="H1879" s="3">
+        <v>435422000000</v>
+      </c>
+      <c r="I1879">
+        <f t="shared" si="70"/>
+        <v>1877</v>
+      </c>
+      <c r="J1879">
+        <f>SUM($F$3:F1879)/I1879</f>
+        <v>1.0584853436334571</v>
+      </c>
+      <c r="K1879">
+        <f t="shared" si="72"/>
+        <v>1.1052544000000002</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1880" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B1880">
+        <v>1490.98</v>
+      </c>
+      <c r="C1880">
+        <v>1509.56</v>
+      </c>
+      <c r="D1880">
+        <v>1474.22</v>
+      </c>
+      <c r="E1880">
+        <v>1500.03</v>
+      </c>
+      <c r="F1880">
+        <f t="shared" si="69"/>
+        <v>1.50003</v>
+      </c>
+      <c r="G1880">
+        <v>322139766</v>
+      </c>
+      <c r="H1880" s="3">
+        <v>427649000000</v>
+      </c>
+      <c r="I1880">
+        <f t="shared" si="70"/>
+        <v>1878</v>
+      </c>
+      <c r="J1880">
+        <f>SUM($F$3:F1880)/I1880</f>
+        <v>1.0587204579339717</v>
+      </c>
+      <c r="K1880">
+        <f t="shared" si="72"/>
+        <v>1.1059292000000003</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1881" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B1881">
+        <v>1495.24</v>
+      </c>
+      <c r="C1881">
+        <v>1502.57</v>
+      </c>
+      <c r="D1881">
+        <v>1464.58</v>
+      </c>
+      <c r="E1881">
+        <v>1473.1</v>
+      </c>
+      <c r="F1881">
+        <f t="shared" si="69"/>
+        <v>1.4730999999999999</v>
+      </c>
+      <c r="G1881">
+        <v>329887654</v>
+      </c>
+      <c r="H1881" s="3">
+        <v>416484000000</v>
+      </c>
+      <c r="I1881">
+        <f t="shared" si="70"/>
+        <v>1879</v>
+      </c>
+      <c r="J1881">
+        <f>SUM($F$3:F1881)/I1881</f>
+        <v>1.0589409898882378</v>
+      </c>
+      <c r="K1881">
+        <f t="shared" si="72"/>
+        <v>1.1065525600000001</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1882" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B1882">
+        <v>1468.84</v>
+      </c>
+      <c r="C1882">
+        <v>1513.88</v>
+      </c>
+      <c r="D1882">
+        <v>1468.84</v>
+      </c>
+      <c r="E1882">
+        <v>1511.1</v>
+      </c>
+      <c r="F1882">
+        <f t="shared" si="69"/>
+        <v>1.5110999999999999</v>
+      </c>
+      <c r="G1882">
+        <v>316543697</v>
+      </c>
+      <c r="H1882" s="3">
+        <v>411086000000</v>
+      </c>
+      <c r="I1882">
+        <f t="shared" si="70"/>
+        <v>1880</v>
+      </c>
+      <c r="J1882">
+        <f>SUM($F$3:F1882)/I1882</f>
+        <v>1.0591814999999996</v>
+      </c>
+      <c r="K1882">
+        <f t="shared" si="72"/>
+        <v>1.1073078000000001</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1883" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B1883">
+        <v>1523.25</v>
+      </c>
+      <c r="C1883">
+        <v>1542.65</v>
+      </c>
+      <c r="D1883">
+        <v>1507.51</v>
+      </c>
+      <c r="E1883">
+        <v>1530.82</v>
+      </c>
+      <c r="F1883">
+        <f t="shared" si="69"/>
+        <v>1.5308199999999998</v>
+      </c>
+      <c r="G1883">
+        <v>374348894</v>
+      </c>
+      <c r="H1883" s="3">
+        <v>496223000000</v>
+      </c>
+      <c r="I1883">
+        <f t="shared" si="70"/>
+        <v>1881</v>
+      </c>
+      <c r="J1883">
+        <f>SUM($F$3:F1883)/I1883</f>
+        <v>1.0594322381711849</v>
+      </c>
+      <c r="K1883">
+        <f t="shared" si="72"/>
+        <v>1.1082745999999999</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1884" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1884">
+        <v>1532.98</v>
+      </c>
+      <c r="C1884">
+        <v>1542.11</v>
+      </c>
+      <c r="D1884">
+        <v>1511.54</v>
+      </c>
+      <c r="E1884">
+        <v>1527.46</v>
+      </c>
+      <c r="F1884">
+        <f t="shared" si="69"/>
+        <v>1.52746</v>
+      </c>
+      <c r="G1884">
+        <v>336508257</v>
+      </c>
+      <c r="H1884" s="3">
+        <v>424309000000</v>
+      </c>
+      <c r="I1884">
+        <f t="shared" si="70"/>
+        <v>1882</v>
+      </c>
+      <c r="J1884">
+        <f>SUM($F$3:F1884)/I1884</f>
+        <v>1.0596809245483523</v>
+      </c>
+      <c r="K1884">
+        <f t="shared" si="72"/>
+        <v>1.10921512</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1885" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B1885">
+        <v>1576.36</v>
+      </c>
+      <c r="C1885">
+        <v>1577.64</v>
+      </c>
+      <c r="D1885">
+        <v>1547.99</v>
+      </c>
+      <c r="E1885">
+        <v>1550.77</v>
+      </c>
+      <c r="F1885">
+        <f t="shared" si="69"/>
+        <v>1.55077</v>
+      </c>
+      <c r="G1885">
+        <v>415981303</v>
+      </c>
+      <c r="H1885" s="3">
+        <v>579937000000</v>
+      </c>
+      <c r="I1885">
+        <f t="shared" si="70"/>
+        <v>1883</v>
+      </c>
+      <c r="J1885">
+        <f>SUM($F$3:F1885)/I1885</f>
+        <v>1.0599417259691974</v>
+      </c>
+      <c r="K1885">
+        <f t="shared" si="72"/>
+        <v>1.1102218000000001</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1886" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B1886">
+        <v>1544.26</v>
+      </c>
+      <c r="C1886">
+        <v>1569.17</v>
+      </c>
+      <c r="D1886">
+        <v>1542.52</v>
+      </c>
+      <c r="E1886">
+        <v>1569.17</v>
+      </c>
+      <c r="F1886">
+        <f t="shared" si="69"/>
+        <v>1.5691700000000002</v>
+      </c>
+      <c r="G1886">
+        <v>348530917</v>
+      </c>
+      <c r="H1886" s="3">
+        <v>460999000000</v>
+      </c>
+      <c r="I1886">
+        <f t="shared" si="70"/>
+        <v>1884</v>
+      </c>
+      <c r="J1886">
+        <f>SUM($F$3:F1886)/I1886</f>
+        <v>1.0602120169851375</v>
+      </c>
+      <c r="K1886">
+        <f t="shared" si="72"/>
+        <v>1.1113494800000001</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1887" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B1887">
+        <v>1570.72</v>
+      </c>
+      <c r="C1887">
+        <v>1577.38</v>
+      </c>
+      <c r="D1887">
+        <v>1549.97</v>
+      </c>
+      <c r="E1887">
+        <v>1577.38</v>
+      </c>
+      <c r="F1887">
+        <f t="shared" si="69"/>
+        <v>1.57738</v>
+      </c>
+      <c r="G1887">
+        <v>343666140</v>
+      </c>
+      <c r="H1887" s="3">
+        <v>463032000000</v>
+      </c>
+      <c r="I1887">
+        <f t="shared" si="70"/>
+        <v>1885</v>
+      </c>
+      <c r="J1887">
+        <f>SUM($F$3:F1887)/I1887</f>
+        <v>1.0604863766578243</v>
+      </c>
+      <c r="K1887">
+        <f t="shared" si="72"/>
+        <v>1.1125528800000002</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1888" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B1888">
+        <v>1563.61</v>
+      </c>
+      <c r="C1888">
+        <v>1580.69</v>
+      </c>
+      <c r="D1888">
+        <v>1553.46</v>
+      </c>
+      <c r="E1888">
+        <v>1553.94</v>
+      </c>
+      <c r="F1888">
+        <f t="shared" si="69"/>
+        <v>1.5539400000000001</v>
+      </c>
+      <c r="G1888">
+        <v>357625674</v>
+      </c>
+      <c r="H1888" s="3">
+        <v>498630000000</v>
+      </c>
+      <c r="I1888">
+        <f t="shared" si="70"/>
+        <v>1886</v>
+      </c>
+      <c r="J1888">
+        <f>SUM($F$3:F1888)/I1888</f>
+        <v>1.0607480169671257</v>
+      </c>
+      <c r="K1888">
+        <f t="shared" si="72"/>
+        <v>1.1135274800000001</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1889" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1889">
+        <v>1557.09</v>
+      </c>
+      <c r="C1889">
+        <v>1560.08</v>
+      </c>
+      <c r="D1889">
+        <v>1527.15</v>
+      </c>
+      <c r="E1889">
+        <v>1535.74</v>
+      </c>
+      <c r="F1889">
+        <f t="shared" si="69"/>
+        <v>1.5357400000000001</v>
+      </c>
+      <c r="G1889">
+        <v>322362711</v>
+      </c>
+      <c r="H1889" s="3">
+        <v>427818000000</v>
+      </c>
+      <c r="I1889">
+        <f t="shared" si="70"/>
+        <v>1887</v>
+      </c>
+      <c r="J1889">
+        <f>SUM($F$3:F1889)/I1889</f>
+        <v>1.0609997350291462</v>
+      </c>
+      <c r="K1889">
+        <f t="shared" si="72"/>
+        <v>1.11440088</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1890" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B1890">
+        <v>1529.61</v>
+      </c>
+      <c r="C1890">
+        <v>1530.28</v>
+      </c>
+      <c r="D1890">
+        <v>1465.41</v>
+      </c>
+      <c r="E1890">
+        <v>1468.32</v>
+      </c>
+      <c r="F1890">
+        <f t="shared" si="69"/>
+        <v>1.4683199999999998</v>
+      </c>
+      <c r="G1890">
+        <v>286036760</v>
+      </c>
+      <c r="H1890" s="3">
+        <v>374870000000</v>
+      </c>
+      <c r="I1890">
+        <f t="shared" si="70"/>
+        <v>1888</v>
+      </c>
+      <c r="J1890">
+        <f>SUM($F$3:F1890)/I1890</f>
+        <v>1.0612154766949147</v>
+      </c>
+      <c r="K1890">
+        <f t="shared" si="72"/>
+        <v>1.1151673200000001</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1891" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B1891">
+        <v>1469.58</v>
+      </c>
+      <c r="C1891">
+        <v>1505.47</v>
+      </c>
+      <c r="D1891">
+        <v>1447.25</v>
+      </c>
+      <c r="E1891">
+        <v>1490.76</v>
+      </c>
+      <c r="F1891">
+        <f t="shared" si="69"/>
+        <v>1.4907600000000001</v>
+      </c>
+      <c r="G1891">
+        <v>257918501</v>
+      </c>
+      <c r="H1891" s="3">
+        <v>349022000000</v>
+      </c>
+      <c r="I1891">
+        <f t="shared" si="70"/>
+        <v>1889</v>
+      </c>
+      <c r="J1891">
+        <f>SUM($F$3:F1891)/I1891</f>
+        <v>1.0614428692429851</v>
+      </c>
+      <c r="K1891">
+        <f t="shared" si="72"/>
+        <v>1.11599888</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1892" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B1892">
+        <v>1471.42</v>
+      </c>
+      <c r="C1892">
+        <v>1512.68</v>
+      </c>
+      <c r="D1892">
+        <v>1469.82</v>
+      </c>
+      <c r="E1892">
+        <v>1508.58</v>
+      </c>
+      <c r="F1892">
+        <f t="shared" si="69"/>
+        <v>1.50858</v>
+      </c>
+      <c r="G1892">
+        <v>275603692</v>
+      </c>
+      <c r="H1892" s="3">
+        <v>403762000000</v>
+      </c>
+      <c r="I1892">
+        <f t="shared" si="70"/>
+        <v>1890</v>
+      </c>
+      <c r="J1892">
+        <f>SUM($F$3:F1892)/I1892</f>
+        <v>1.0616794497354491</v>
+      </c>
+      <c r="K1892">
+        <f t="shared" si="72"/>
+        <v>1.1168307200000001</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1893" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B1893">
+        <v>1503.58</v>
+      </c>
+      <c r="C1893">
+        <v>1543.99</v>
+      </c>
+      <c r="D1893">
+        <v>1501.74</v>
+      </c>
+      <c r="E1893">
+        <v>1531.6</v>
+      </c>
+      <c r="F1893">
+        <f t="shared" si="69"/>
+        <v>1.5315999999999999</v>
+      </c>
+      <c r="G1893">
+        <v>267434944</v>
+      </c>
+      <c r="H1893" s="3">
+        <v>405453000000</v>
+      </c>
+      <c r="I1893">
+        <f t="shared" si="70"/>
+        <v>1891</v>
+      </c>
+      <c r="J1893">
+        <f>SUM($F$3:F1893)/I1893</f>
+        <v>1.0619279534637751</v>
+      </c>
+      <c r="K1893">
+        <f t="shared" si="72"/>
+        <v>1.1177527199999999</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1894" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B1894">
+        <v>1526.44</v>
+      </c>
+      <c r="C1894">
+        <v>1527.45</v>
+      </c>
+      <c r="D1894">
+        <v>1446.08</v>
+      </c>
+      <c r="E1894">
+        <v>1448.37</v>
+      </c>
+      <c r="F1894">
+        <f t="shared" si="69"/>
+        <v>1.4483699999999999</v>
+      </c>
+      <c r="G1894">
+        <v>260731884</v>
+      </c>
+      <c r="H1894" s="3">
+        <v>368840000000</v>
+      </c>
+      <c r="I1894">
+        <f t="shared" si="70"/>
+        <v>1892</v>
+      </c>
+      <c r="J1894">
+        <f>SUM($F$3:F1894)/I1894</f>
+        <v>1.0621322040169128</v>
+      </c>
+      <c r="K1894">
+        <f t="shared" si="72"/>
+        <v>1.1182489200000003</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1895" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B1895">
+        <v>1453.72</v>
+      </c>
+      <c r="C1895">
+        <v>1464.56</v>
+      </c>
+      <c r="D1895">
+        <v>1426.28</v>
+      </c>
+      <c r="E1895">
+        <v>1456.63</v>
+      </c>
+      <c r="F1895">
+        <f t="shared" si="69"/>
+        <v>1.4566300000000001</v>
+      </c>
+      <c r="G1895">
+        <v>213492934</v>
+      </c>
+      <c r="H1895" s="3">
+        <v>306398000000</v>
+      </c>
+      <c r="I1895">
+        <f t="shared" si="70"/>
+        <v>1893</v>
+      </c>
+      <c r="J1895">
+        <f>SUM($F$3:F1895)/I1895</f>
+        <v>1.0623406022186999</v>
+      </c>
+      <c r="K1895">
+        <f t="shared" si="72"/>
+        <v>1.1187411600000003</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1896" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B1896">
+        <v>1451.36</v>
+      </c>
+      <c r="C1896">
+        <v>1451.77</v>
+      </c>
+      <c r="D1896">
+        <v>1402.81</v>
+      </c>
+      <c r="E1896">
+        <v>1418.54</v>
+      </c>
+      <c r="F1896">
+        <f t="shared" si="69"/>
+        <v>1.4185399999999999</v>
+      </c>
+      <c r="G1896">
+        <v>210823927</v>
+      </c>
+      <c r="H1896" s="3">
+        <v>304709000000</v>
+      </c>
+      <c r="I1896">
+        <f t="shared" si="70"/>
+        <v>1894</v>
+      </c>
+      <c r="J1896">
+        <f>SUM($F$3:F1896)/I1896</f>
+        <v>1.0625286694825757</v>
+      </c>
+      <c r="K1896">
+        <f t="shared" si="72"/>
+        <v>1.1191368800000006</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1897" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B1897">
+        <v>1416.42</v>
+      </c>
+      <c r="C1897">
+        <v>1453.81</v>
+      </c>
+      <c r="D1897">
+        <v>1416.42</v>
+      </c>
+      <c r="E1897">
+        <v>1444.16</v>
+      </c>
+      <c r="F1897">
+        <f t="shared" si="69"/>
+        <v>1.4441600000000001</v>
+      </c>
+      <c r="G1897">
+        <v>193635245</v>
+      </c>
+      <c r="H1897" s="3">
+        <v>305889000000</v>
+      </c>
+      <c r="I1897">
+        <f t="shared" si="70"/>
+        <v>1895</v>
+      </c>
+      <c r="J1897">
+        <f>SUM($F$3:F1897)/I1897</f>
+        <v>1.0627300580474928</v>
+      </c>
+      <c r="K1897">
+        <f t="shared" si="72"/>
+        <v>1.1196817600000004</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1898" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B1898">
+        <v>1444.27</v>
+      </c>
+      <c r="C1898">
+        <v>1470.57</v>
+      </c>
+      <c r="D1898">
+        <v>1439.18</v>
+      </c>
+      <c r="E1898">
+        <v>1445.79</v>
+      </c>
+      <c r="F1898">
+        <f t="shared" si="69"/>
+        <v>1.4457899999999999</v>
+      </c>
+      <c r="G1898">
+        <v>210107425</v>
+      </c>
+      <c r="H1898" s="3">
+        <v>337005000000</v>
+      </c>
+      <c r="I1898">
+        <f t="shared" si="70"/>
+        <v>1896</v>
+      </c>
+      <c r="J1898">
+        <f>SUM($F$3:F1898)/I1898</f>
+        <v>1.0629320938818558</v>
+      </c>
+      <c r="K1898">
+        <f t="shared" si="72"/>
+        <v>1.1202608800000002</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1899" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1899">
+        <v>1442.11</v>
+      </c>
+      <c r="C1899">
+        <v>1444.98</v>
+      </c>
+      <c r="D1899">
+        <v>1411.93</v>
+      </c>
+      <c r="E1899">
+        <v>1434.27</v>
+      </c>
+      <c r="F1899">
+        <f t="shared" si="69"/>
+        <v>1.4342699999999999</v>
+      </c>
+      <c r="G1899">
+        <v>188406174</v>
+      </c>
+      <c r="H1899" s="3">
+        <v>287462000000</v>
+      </c>
+      <c r="I1899">
+        <f t="shared" si="70"/>
+        <v>1897</v>
+      </c>
+      <c r="J1899">
+        <f>SUM($F$3:F1899)/I1899</f>
+        <v>1.0631278439641532</v>
+      </c>
+      <c r="K1899">
+        <f t="shared" si="72"/>
+        <v>1.1208805200000005</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1900" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B1900">
+        <v>1437.66</v>
+      </c>
+      <c r="C1900">
+        <v>1441.18</v>
+      </c>
+      <c r="D1900">
+        <v>1384.64</v>
+      </c>
+      <c r="E1900">
+        <v>1384.64</v>
+      </c>
+      <c r="F1900">
+        <f t="shared" si="69"/>
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="G1900">
+        <v>205059005</v>
+      </c>
+      <c r="H1900" s="3">
+        <v>300820000000</v>
+      </c>
+      <c r="I1900">
+        <f t="shared" si="70"/>
+        <v>1898</v>
+      </c>
+      <c r="J1900">
+        <f>SUM($F$3:F1900)/I1900</f>
+        <v>1.0632972391991562</v>
+      </c>
+      <c r="K1900">
+        <f t="shared" si="72"/>
+        <v>1.1212557200000004</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1900"/>
+  <dimension ref="A1:K1918"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1879" workbookViewId="0">
-      <selection activeCell="A1901" sqref="A1901"/>
+    <sheetView tabSelected="1" topLeftCell="A1910" workbookViewId="0">
+      <selection activeCell="A1919" sqref="A1919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -69405,7 +69405,7 @@
         <v>935.05</v>
       </c>
       <c r="F1796">
-        <f t="shared" ref="F1796:F1900" si="69">E1796/1000</f>
+        <f t="shared" ref="F1796:F1918" si="69">E1796/1000</f>
         <v>0.93504999999999994</v>
       </c>
       <c r="G1796">
@@ -69532,7 +69532,7 @@
         <v>93530005504</v>
       </c>
       <c r="I1799">
-        <f t="shared" ref="I1799:I1900" si="70">I1798+1</f>
+        <f t="shared" ref="I1799:I1918" si="70">I1798+1</f>
         <v>1797</v>
       </c>
       <c r="J1799">
@@ -71139,7 +71139,7 @@
         <v>1.0520920021762785</v>
       </c>
       <c r="K1840">
-        <f t="shared" ref="K1840:K1900" si="72">SUM(F1591:F1840)/250</f>
+        <f t="shared" ref="K1840:K1918" si="72">SUM(F1591:F1840)/250</f>
         <v>1.0860431999999995</v>
       </c>
     </row>
@@ -73481,6 +73481,708 @@
       <c r="K1900">
         <f t="shared" si="72"/>
         <v>1.1212557200000004</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1901" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B1901">
+        <v>1381.31</v>
+      </c>
+      <c r="C1901">
+        <v>1398.72</v>
+      </c>
+      <c r="D1901">
+        <v>1339.5</v>
+      </c>
+      <c r="E1901">
+        <v>1354.13</v>
+      </c>
+      <c r="F1901">
+        <f t="shared" si="69"/>
+        <v>1.3541300000000001</v>
+      </c>
+      <c r="G1901">
+        <v>205032745</v>
+      </c>
+      <c r="H1901" s="3">
+        <v>300426000000</v>
+      </c>
+      <c r="I1901">
+        <f t="shared" si="70"/>
+        <v>1899</v>
+      </c>
+      <c r="J1901">
+        <f>SUM($F$3:F1901)/I1901</f>
+        <v>1.0634503896787775</v>
+      </c>
+      <c r="K1901">
+        <f t="shared" si="72"/>
+        <v>1.1216081600000001</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1902" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B1902">
+        <v>1359.13</v>
+      </c>
+      <c r="C1902">
+        <v>1364.05</v>
+      </c>
+      <c r="D1902">
+        <v>1287.8</v>
+      </c>
+      <c r="E1902">
+        <v>1289.74</v>
+      </c>
+      <c r="F1902">
+        <f t="shared" si="69"/>
+        <v>1.2897400000000001</v>
+      </c>
+      <c r="G1902">
+        <v>198627587</v>
+      </c>
+      <c r="H1902" s="3">
+        <v>267088000000</v>
+      </c>
+      <c r="I1902">
+        <f t="shared" si="70"/>
+        <v>1900</v>
+      </c>
+      <c r="J1902">
+        <f>SUM($F$3:F1902)/I1902</f>
+        <v>1.0635694894736833</v>
+      </c>
+      <c r="K1902">
+        <f t="shared" si="72"/>
+        <v>1.1216732800000002</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1903" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B1903">
+        <v>1284.8</v>
+      </c>
+      <c r="C1903">
+        <v>1293.74</v>
+      </c>
+      <c r="D1903">
+        <v>1254.78</v>
+      </c>
+      <c r="E1903">
+        <v>1270.02</v>
+      </c>
+      <c r="F1903">
+        <f t="shared" si="69"/>
+        <v>1.2700199999999999</v>
+      </c>
+      <c r="G1903">
+        <v>157243307</v>
+      </c>
+      <c r="H1903" s="3">
+        <v>204752000000</v>
+      </c>
+      <c r="I1903">
+        <f t="shared" si="70"/>
+        <v>1901</v>
+      </c>
+      <c r="J1903">
+        <f>SUM($F$3:F1903)/I1903</f>
+        <v>1.0636780904786947</v>
+      </c>
+      <c r="K1903">
+        <f t="shared" si="72"/>
+        <v>1.1218216400000001</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1904" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B1904">
+        <v>1273.24</v>
+      </c>
+      <c r="C1904">
+        <v>1310.98</v>
+      </c>
+      <c r="D1904">
+        <v>1273.24</v>
+      </c>
+      <c r="E1904">
+        <v>1310.98</v>
+      </c>
+      <c r="F1904">
+        <f t="shared" si="69"/>
+        <v>1.31098</v>
+      </c>
+      <c r="G1904">
+        <v>173777816</v>
+      </c>
+      <c r="H1904" s="3">
+        <v>223663000000</v>
+      </c>
+      <c r="I1904">
+        <f t="shared" si="70"/>
+        <v>1902</v>
+      </c>
+      <c r="J1904">
+        <f>SUM($F$3:F1904)/I1904</f>
+        <v>1.0638081125131431</v>
+      </c>
+      <c r="K1904">
+        <f t="shared" si="72"/>
+        <v>1.1221512</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1905" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B1905">
+        <v>1305.71</v>
+      </c>
+      <c r="C1905">
+        <v>1324.61</v>
+      </c>
+      <c r="D1905">
+        <v>1269.1400000000001</v>
+      </c>
+      <c r="E1905">
+        <v>1314.4</v>
+      </c>
+      <c r="F1905">
+        <f t="shared" si="69"/>
+        <v>1.3144</v>
+      </c>
+      <c r="G1905">
+        <v>210953432</v>
+      </c>
+      <c r="H1905" s="3">
+        <v>266410000000</v>
+      </c>
+      <c r="I1905">
+        <f t="shared" si="70"/>
+        <v>1903</v>
+      </c>
+      <c r="J1905">
+        <f>SUM($F$3:F1905)/I1905</f>
+        <v>1.0639397950604301</v>
+      </c>
+      <c r="K1905">
+        <f t="shared" si="72"/>
+        <v>1.1226044399999999</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1906" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B1906">
+        <v>1308.0899999999999</v>
+      </c>
+      <c r="C1906">
+        <v>1338.03</v>
+      </c>
+      <c r="D1906">
+        <v>1307.48</v>
+      </c>
+      <c r="E1906">
+        <v>1327.93</v>
+      </c>
+      <c r="F1906">
+        <f t="shared" si="69"/>
+        <v>1.3279300000000001</v>
+      </c>
+      <c r="G1906">
+        <v>194002713</v>
+      </c>
+      <c r="H1906" s="3">
+        <v>247429000000</v>
+      </c>
+      <c r="I1906">
+        <f t="shared" si="70"/>
+        <v>1904</v>
+      </c>
+      <c r="J1906">
+        <f>SUM($F$3:F1906)/I1906</f>
+        <v>1.0640784453781504</v>
+      </c>
+      <c r="K1906">
+        <f t="shared" si="72"/>
+        <v>1.1230602399999998</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1907" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B1907">
+        <v>1325.51</v>
+      </c>
+      <c r="C1907">
+        <v>1340.87</v>
+      </c>
+      <c r="D1907">
+        <v>1285.68</v>
+      </c>
+      <c r="E1907">
+        <v>1285.68</v>
+      </c>
+      <c r="F1907">
+        <f t="shared" si="69"/>
+        <v>1.2856800000000002</v>
+      </c>
+      <c r="G1907">
+        <v>202803016</v>
+      </c>
+      <c r="H1907" s="3">
+        <v>257364000000</v>
+      </c>
+      <c r="I1907">
+        <f t="shared" si="70"/>
+        <v>1905</v>
+      </c>
+      <c r="J1907">
+        <f>SUM($F$3:F1907)/I1907</f>
+        <v>1.0641947716535425</v>
+      </c>
+      <c r="K1907">
+        <f t="shared" si="72"/>
+        <v>1.12325516</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1908" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B1908">
+        <v>1267.46</v>
+      </c>
+      <c r="C1908">
+        <v>1297.49</v>
+      </c>
+      <c r="D1908">
+        <v>1247.6300000000001</v>
+      </c>
+      <c r="E1908">
+        <v>1287.98</v>
+      </c>
+      <c r="F1908">
+        <f t="shared" si="69"/>
+        <v>1.2879800000000001</v>
+      </c>
+      <c r="G1908">
+        <v>161912011</v>
+      </c>
+      <c r="H1908" s="3">
+        <v>206496000000</v>
+      </c>
+      <c r="I1908">
+        <f t="shared" si="70"/>
+        <v>1906</v>
+      </c>
+      <c r="J1908">
+        <f>SUM($F$3:F1908)/I1908</f>
+        <v>1.0643121825813213</v>
+      </c>
+      <c r="K1908">
+        <f t="shared" si="72"/>
+        <v>1.1233415199999999</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1909" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B1909">
+        <v>1297.31</v>
+      </c>
+      <c r="C1909">
+        <v>1366.42</v>
+      </c>
+      <c r="D1909">
+        <v>1297.1300000000001</v>
+      </c>
+      <c r="E1909">
+        <v>1366.42</v>
+      </c>
+      <c r="F1909">
+        <f t="shared" si="69"/>
+        <v>1.36642</v>
+      </c>
+      <c r="G1909">
+        <v>234504305</v>
+      </c>
+      <c r="H1909" s="3">
+        <v>329715000000</v>
+      </c>
+      <c r="I1909">
+        <f t="shared" si="70"/>
+        <v>1907</v>
+      </c>
+      <c r="J1909">
+        <f>SUM($F$3:F1909)/I1909</f>
+        <v>1.0644706030414255</v>
+      </c>
+      <c r="K1909">
+        <f t="shared" si="72"/>
+        <v>1.1237926</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1910" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B1910">
+        <v>1369.61</v>
+      </c>
+      <c r="C1910">
+        <v>1380.26</v>
+      </c>
+      <c r="D1910">
+        <v>1361.14</v>
+      </c>
+      <c r="E1910">
+        <v>1365.64</v>
+      </c>
+      <c r="F1910">
+        <f t="shared" si="69"/>
+        <v>1.3656400000000002</v>
+      </c>
+      <c r="G1910">
+        <v>208515086</v>
+      </c>
+      <c r="H1910" s="3">
+        <v>295327000000</v>
+      </c>
+      <c r="I1910">
+        <f t="shared" si="70"/>
+        <v>1908</v>
+      </c>
+      <c r="J1910">
+        <f>SUM($F$3:F1910)/I1910</f>
+        <v>1.0646284486373156</v>
+      </c>
+      <c r="K1910">
+        <f t="shared" si="72"/>
+        <v>1.1242771199999999</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1911" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B1911">
+        <v>1373.49</v>
+      </c>
+      <c r="C1911">
+        <v>1398.88</v>
+      </c>
+      <c r="D1911">
+        <v>1358.76</v>
+      </c>
+      <c r="E1911">
+        <v>1372.35</v>
+      </c>
+      <c r="F1911">
+        <f t="shared" si="69"/>
+        <v>1.37235</v>
+      </c>
+      <c r="G1911">
+        <v>231390343</v>
+      </c>
+      <c r="H1911" s="3">
+        <v>319297000000</v>
+      </c>
+      <c r="I1911">
+        <f t="shared" si="70"/>
+        <v>1909</v>
+      </c>
+      <c r="J1911">
+        <f>SUM($F$3:F1911)/I1911</f>
+        <v>1.0647896437925608</v>
+      </c>
+      <c r="K1911">
+        <f t="shared" si="72"/>
+        <v>1.1248067599999998</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1912" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B1912">
+        <v>1365.77</v>
+      </c>
+      <c r="C1912">
+        <v>1380.55</v>
+      </c>
+      <c r="D1912">
+        <v>1358.13</v>
+      </c>
+      <c r="E1912">
+        <v>1367.95</v>
+      </c>
+      <c r="F1912">
+        <f t="shared" si="69"/>
+        <v>1.36795</v>
+      </c>
+      <c r="G1912">
+        <v>181613322</v>
+      </c>
+      <c r="H1912" s="3">
+        <v>258543000000</v>
+      </c>
+      <c r="I1912">
+        <f t="shared" si="70"/>
+        <v>1910</v>
+      </c>
+      <c r="J1912">
+        <f>SUM($F$3:F1912)/I1912</f>
+        <v>1.0649483664921457</v>
+      </c>
+      <c r="K1912">
+        <f t="shared" si="72"/>
+        <v>1.1254191199999997</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1913" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B1913">
+        <v>1378.89</v>
+      </c>
+      <c r="C1913">
+        <v>1387.32</v>
+      </c>
+      <c r="D1913">
+        <v>1365.03</v>
+      </c>
+      <c r="E1913">
+        <v>1379.1</v>
+      </c>
+      <c r="F1913">
+        <f t="shared" si="69"/>
+        <v>1.3791</v>
+      </c>
+      <c r="G1913">
+        <v>180921371</v>
+      </c>
+      <c r="H1913" s="3">
+        <v>253463000000</v>
+      </c>
+      <c r="I1913">
+        <f t="shared" si="70"/>
+        <v>1911</v>
+      </c>
+      <c r="J1913">
+        <f>SUM($F$3:F1913)/I1913</f>
+        <v>1.0651127577184714</v>
+      </c>
+      <c r="K1913">
+        <f t="shared" si="72"/>
+        <v>1.1261743999999996</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1914" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B1914">
+        <v>1386.89</v>
+      </c>
+      <c r="C1914">
+        <v>1389.31</v>
+      </c>
+      <c r="D1914">
+        <v>1363.39</v>
+      </c>
+      <c r="E1914">
+        <v>1384.8</v>
+      </c>
+      <c r="F1914">
+        <f t="shared" si="69"/>
+        <v>1.3848</v>
+      </c>
+      <c r="G1914">
+        <v>188765993</v>
+      </c>
+      <c r="H1914" s="3">
+        <v>281376000000</v>
+      </c>
+      <c r="I1914">
+        <f t="shared" si="70"/>
+        <v>1912</v>
+      </c>
+      <c r="J1914">
+        <f>SUM($F$3:F1914)/I1914</f>
+        <v>1.0652799581589951</v>
+      </c>
+      <c r="K1914">
+        <f t="shared" si="72"/>
+        <v>1.1269421199999994</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1915" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B1915">
+        <v>1374.48</v>
+      </c>
+      <c r="C1915">
+        <v>1375.86</v>
+      </c>
+      <c r="D1915">
+        <v>1361.55</v>
+      </c>
+      <c r="E1915">
+        <v>1367.01</v>
+      </c>
+      <c r="F1915">
+        <f t="shared" si="69"/>
+        <v>1.3670100000000001</v>
+      </c>
+      <c r="G1915">
+        <v>171039747</v>
+      </c>
+      <c r="H1915" s="3">
+        <v>256322000000</v>
+      </c>
+      <c r="I1915">
+        <f t="shared" si="70"/>
+        <v>1913</v>
+      </c>
+      <c r="J1915">
+        <f>SUM($F$3:F1915)/I1915</f>
+        <v>1.0654376842655509</v>
+      </c>
+      <c r="K1915">
+        <f t="shared" si="72"/>
+        <v>1.1277490399999994</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1916" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B1916">
+        <v>1382.63</v>
+      </c>
+      <c r="C1916">
+        <v>1407.74</v>
+      </c>
+      <c r="D1916">
+        <v>1365.91</v>
+      </c>
+      <c r="E1916">
+        <v>1365.91</v>
+      </c>
+      <c r="F1916">
+        <f t="shared" si="69"/>
+        <v>1.3659100000000002</v>
+      </c>
+      <c r="G1916">
+        <v>221895785</v>
+      </c>
+      <c r="H1916" s="3">
+        <v>338152000000</v>
+      </c>
+      <c r="I1916">
+        <f t="shared" si="70"/>
+        <v>1914</v>
+      </c>
+      <c r="J1916">
+        <f>SUM($F$3:F1916)/I1916</f>
+        <v>1.0655946708463941</v>
+      </c>
+      <c r="K1916">
+        <f t="shared" si="72"/>
+        <v>1.1284065199999995</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1917" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B1917">
+        <v>1361.68</v>
+      </c>
+      <c r="C1917">
+        <v>1406.79</v>
+      </c>
+      <c r="D1917">
+        <v>1361.06</v>
+      </c>
+      <c r="E1917">
+        <v>1405.95</v>
+      </c>
+      <c r="F1917">
+        <f t="shared" si="69"/>
+        <v>1.40595</v>
+      </c>
+      <c r="G1917">
+        <v>216818866</v>
+      </c>
+      <c r="H1917" s="3">
+        <v>320932000000</v>
+      </c>
+      <c r="I1917">
+        <f t="shared" si="70"/>
+        <v>1915</v>
+      </c>
+      <c r="J1917">
+        <f>SUM($F$3:F1917)/I1917</f>
+        <v>1.0657724020887722</v>
+      </c>
+      <c r="K1917">
+        <f t="shared" si="72"/>
+        <v>1.1293186399999997</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1918" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B1918">
+        <v>1418.8</v>
+      </c>
+      <c r="C1918">
+        <v>1423.83</v>
+      </c>
+      <c r="D1918">
+        <v>1389.65</v>
+      </c>
+      <c r="E1918">
+        <v>1389.98</v>
+      </c>
+      <c r="F1918">
+        <f t="shared" si="69"/>
+        <v>1.38998</v>
+      </c>
+      <c r="G1918">
+        <v>199317389</v>
+      </c>
+      <c r="H1918" s="3">
+        <v>310002000000</v>
+      </c>
+      <c r="I1918">
+        <f t="shared" si="70"/>
+        <v>1916</v>
+      </c>
+      <c r="J1918">
+        <f>SUM($F$3:F1918)/I1918</f>
+        <v>1.0659416127348635</v>
+      </c>
+      <c r="K1918">
+        <f t="shared" si="72"/>
+        <v>1.1301867999999995</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1936"/>
+  <dimension ref="A1:K1957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1916" workbookViewId="0">
-      <selection activeCell="A1937" sqref="A1937"/>
+    <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
+      <selection activeCell="A1958" sqref="A1958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74103,7 +74103,7 @@
         <v>1.0655946708463941</v>
       </c>
       <c r="K1916">
-        <f t="shared" ref="K1916:K1979" si="86">SUM(F1667:F1916)/250</f>
+        <f t="shared" ref="K1916:K1918" si="86">SUM(F1667:F1916)/250</f>
         <v>1.1284065199999995</v>
       </c>
     </row>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I1936" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I1957" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K1936" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K1957" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F1986" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F1957" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -74885,6 +74885,825 @@
       <c r="K1936">
         <f t="shared" si="88"/>
         <v>1.1721302800000002</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1937" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B1937">
+        <v>1588.57</v>
+      </c>
+      <c r="C1937">
+        <v>1616.92</v>
+      </c>
+      <c r="D1937">
+        <v>1568.52</v>
+      </c>
+      <c r="E1937">
+        <v>1587.98</v>
+      </c>
+      <c r="F1937">
+        <f t="shared" si="89"/>
+        <v>1.5879799999999999</v>
+      </c>
+      <c r="G1937">
+        <v>246672523</v>
+      </c>
+      <c r="H1937" s="3">
+        <v>398269000000</v>
+      </c>
+      <c r="I1937">
+        <f t="shared" si="87"/>
+        <v>1935</v>
+      </c>
+      <c r="J1937">
+        <f>SUM($F$3:F1937)/I1937</f>
+        <v>1.0711756020671825</v>
+      </c>
+      <c r="K1937">
+        <f t="shared" si="88"/>
+        <v>1.1746387200000001</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1938" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B1938">
+        <v>1571.93</v>
+      </c>
+      <c r="C1938">
+        <v>1625.26</v>
+      </c>
+      <c r="D1938">
+        <v>1571.66</v>
+      </c>
+      <c r="E1938">
+        <v>1624.91</v>
+      </c>
+      <c r="F1938">
+        <f t="shared" si="89"/>
+        <v>1.6249100000000001</v>
+      </c>
+      <c r="G1938">
+        <v>229045168</v>
+      </c>
+      <c r="H1938" s="3">
+        <v>363060000000</v>
+      </c>
+      <c r="I1938">
+        <f t="shared" si="87"/>
+        <v>1936</v>
+      </c>
+      <c r="J1938">
+        <f>SUM($F$3:F1938)/I1938</f>
+        <v>1.0714616219008257</v>
+      </c>
+      <c r="K1938">
+        <f t="shared" si="88"/>
+        <v>1.17722032</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1939" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B1939">
+        <v>1626.4</v>
+      </c>
+      <c r="C1939">
+        <v>1640.88</v>
+      </c>
+      <c r="D1939">
+        <v>1612.19</v>
+      </c>
+      <c r="E1939">
+        <v>1640.78</v>
+      </c>
+      <c r="F1939">
+        <f t="shared" si="89"/>
+        <v>1.6407799999999999</v>
+      </c>
+      <c r="G1939">
+        <v>248715237</v>
+      </c>
+      <c r="H1939" s="3">
+        <v>395195000000</v>
+      </c>
+      <c r="I1939">
+        <f t="shared" si="87"/>
+        <v>1937</v>
+      </c>
+      <c r="J1939">
+        <f>SUM($F$3:F1939)/I1939</f>
+        <v>1.0717555394940623</v>
+      </c>
+      <c r="K1939">
+        <f t="shared" si="88"/>
+        <v>1.1798142000000003</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1940" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B1940">
+        <v>1655.89</v>
+      </c>
+      <c r="C1940">
+        <v>1709.77</v>
+      </c>
+      <c r="D1940">
+        <v>1655.89</v>
+      </c>
+      <c r="E1940">
+        <v>1700.69</v>
+      </c>
+      <c r="F1940">
+        <f t="shared" si="89"/>
+        <v>1.70069</v>
+      </c>
+      <c r="G1940">
+        <v>345298734</v>
+      </c>
+      <c r="H1940" s="3">
+        <v>581681000000</v>
+      </c>
+      <c r="I1940">
+        <f t="shared" si="87"/>
+        <v>1938</v>
+      </c>
+      <c r="J1940">
+        <f>SUM($F$3:F1940)/I1940</f>
+        <v>1.0720800670794628</v>
+      </c>
+      <c r="K1940">
+        <f t="shared" si="88"/>
+        <v>1.1824821600000002</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1941" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B1941">
+        <v>1697.63</v>
+      </c>
+      <c r="C1941">
+        <v>1712.78</v>
+      </c>
+      <c r="D1941">
+        <v>1670.23</v>
+      </c>
+      <c r="E1941">
+        <v>1683.15</v>
+      </c>
+      <c r="F1941">
+        <f t="shared" si="89"/>
+        <v>1.6831500000000001</v>
+      </c>
+      <c r="G1941">
+        <v>350475156</v>
+      </c>
+      <c r="H1941" s="3">
+        <v>544489000000</v>
+      </c>
+      <c r="I1941">
+        <f t="shared" si="87"/>
+        <v>1939</v>
+      </c>
+      <c r="J1941">
+        <f>SUM($F$3:F1941)/I1941</f>
+        <v>1.0723952140278485</v>
+      </c>
+      <c r="K1941">
+        <f t="shared" si="88"/>
+        <v>1.1849136400000002</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1942" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B1942">
+        <v>1685.79</v>
+      </c>
+      <c r="C1942">
+        <v>1689.26</v>
+      </c>
+      <c r="D1942">
+        <v>1663.35</v>
+      </c>
+      <c r="E1942">
+        <v>1678.03</v>
+      </c>
+      <c r="F1942">
+        <f t="shared" si="89"/>
+        <v>1.6780299999999999</v>
+      </c>
+      <c r="G1942">
+        <v>267042918</v>
+      </c>
+      <c r="H1942" s="3">
+        <v>402590000000</v>
+      </c>
+      <c r="I1942">
+        <f t="shared" si="87"/>
+        <v>1940</v>
+      </c>
+      <c r="J1942">
+        <f>SUM($F$3:F1942)/I1942</f>
+        <v>1.0727073969072158</v>
+      </c>
+      <c r="K1942">
+        <f t="shared" si="88"/>
+        <v>1.1872482</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1943" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B1943">
+        <v>1649.49</v>
+      </c>
+      <c r="C1943">
+        <v>1680.64</v>
+      </c>
+      <c r="D1943">
+        <v>1648.59</v>
+      </c>
+      <c r="E1943">
+        <v>1679.6</v>
+      </c>
+      <c r="F1943">
+        <f t="shared" si="89"/>
+        <v>1.6796</v>
+      </c>
+      <c r="G1943">
+        <v>243243030</v>
+      </c>
+      <c r="H1943" s="3">
+        <v>355057000000</v>
+      </c>
+      <c r="I1943">
+        <f t="shared" si="87"/>
+        <v>1941</v>
+      </c>
+      <c r="J1943">
+        <f>SUM($F$3:F1943)/I1943</f>
+        <v>1.073020066975785</v>
+      </c>
+      <c r="K1943">
+        <f t="shared" si="88"/>
+        <v>1.18942796</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1944" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B1944">
+        <v>1691.49</v>
+      </c>
+      <c r="C1944">
+        <v>1713.97</v>
+      </c>
+      <c r="D1944">
+        <v>1686.15</v>
+      </c>
+      <c r="E1944">
+        <v>1695.8</v>
+      </c>
+      <c r="F1944">
+        <f t="shared" si="89"/>
+        <v>1.6958</v>
+      </c>
+      <c r="G1944">
+        <v>294474857</v>
+      </c>
+      <c r="H1944" s="3">
+        <v>452706000000</v>
+      </c>
+      <c r="I1944">
+        <f t="shared" si="87"/>
+        <v>1942</v>
+      </c>
+      <c r="J1944">
+        <f>SUM($F$3:F1944)/I1944</f>
+        <v>1.0733407569515956</v>
+      </c>
+      <c r="K1944">
+        <f t="shared" si="88"/>
+        <v>1.19202528</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1945" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B1945">
+        <v>1689.45</v>
+      </c>
+      <c r="C1945">
+        <v>1691.83</v>
+      </c>
+      <c r="D1945">
+        <v>1639.61</v>
+      </c>
+      <c r="E1945">
+        <v>1661.38</v>
+      </c>
+      <c r="F1945">
+        <f t="shared" si="89"/>
+        <v>1.6613800000000001</v>
+      </c>
+      <c r="G1945">
+        <v>264574672</v>
+      </c>
+      <c r="H1945" s="3">
+        <v>407053000000</v>
+      </c>
+      <c r="I1945">
+        <f t="shared" si="87"/>
+        <v>1943</v>
+      </c>
+      <c r="J1945">
+        <f>SUM($F$3:F1945)/I1945</f>
+        <v>1.0736434019557377</v>
+      </c>
+      <c r="K1945">
+        <f t="shared" si="88"/>
+        <v>1.1942793200000001</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1946" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B1946">
+        <v>1657.61</v>
+      </c>
+      <c r="C1946">
+        <v>1692.52</v>
+      </c>
+      <c r="D1946">
+        <v>1643.78</v>
+      </c>
+      <c r="E1946">
+        <v>1691.41</v>
+      </c>
+      <c r="F1946">
+        <f t="shared" si="89"/>
+        <v>1.6914100000000001</v>
+      </c>
+      <c r="G1946">
+        <v>249492233</v>
+      </c>
+      <c r="H1946" s="3">
+        <v>413650000000</v>
+      </c>
+      <c r="I1946">
+        <f t="shared" si="87"/>
+        <v>1944</v>
+      </c>
+      <c r="J1946">
+        <f>SUM($F$3:F1946)/I1946</f>
+        <v>1.0739611831275713</v>
+      </c>
+      <c r="K1946">
+        <f t="shared" si="88"/>
+        <v>1.1965451200000001</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1947" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B1947">
+        <v>1694.36</v>
+      </c>
+      <c r="C1947">
+        <v>1702.54</v>
+      </c>
+      <c r="D1947">
+        <v>1683.94</v>
+      </c>
+      <c r="E1947">
+        <v>1696.16</v>
+      </c>
+      <c r="F1947">
+        <f t="shared" si="89"/>
+        <v>1.6961600000000001</v>
+      </c>
+      <c r="G1947">
+        <v>225384532</v>
+      </c>
+      <c r="H1947" s="3">
+        <v>362191000000</v>
+      </c>
+      <c r="I1947">
+        <f t="shared" si="87"/>
+        <v>1945</v>
+      </c>
+      <c r="J1947">
+        <f>SUM($F$3:F1947)/I1947</f>
+        <v>1.0742810796915159</v>
+      </c>
+      <c r="K1947">
+        <f t="shared" si="88"/>
+        <v>1.1987917600000002</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1948" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B1948">
+        <v>1700.16</v>
+      </c>
+      <c r="C1948">
+        <v>1713.42</v>
+      </c>
+      <c r="D1948">
+        <v>1694.04</v>
+      </c>
+      <c r="E1948">
+        <v>1704.61</v>
+      </c>
+      <c r="F1948">
+        <f t="shared" si="89"/>
+        <v>1.70461</v>
+      </c>
+      <c r="G1948">
+        <v>222566160</v>
+      </c>
+      <c r="H1948" s="3">
+        <v>351532000000</v>
+      </c>
+      <c r="I1948">
+        <f t="shared" si="87"/>
+        <v>1946</v>
+      </c>
+      <c r="J1948">
+        <f>SUM($F$3:F1948)/I1948</f>
+        <v>1.0746049897225067</v>
+      </c>
+      <c r="K1948">
+        <f t="shared" si="88"/>
+        <v>1.2011410400000004</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1949" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B1949">
+        <v>1697.53</v>
+      </c>
+      <c r="C1949">
+        <v>1700.94</v>
+      </c>
+      <c r="D1949">
+        <v>1679.96</v>
+      </c>
+      <c r="E1949">
+        <v>1687.65</v>
+      </c>
+      <c r="F1949">
+        <f t="shared" si="89"/>
+        <v>1.6876500000000001</v>
+      </c>
+      <c r="G1949">
+        <v>219570509</v>
+      </c>
+      <c r="H1949" s="3">
+        <v>338944000000</v>
+      </c>
+      <c r="I1949">
+        <f t="shared" si="87"/>
+        <v>1947</v>
+      </c>
+      <c r="J1949">
+        <f>SUM($F$3:F1949)/I1949</f>
+        <v>1.0749198561890076</v>
+      </c>
+      <c r="K1949">
+        <f t="shared" si="88"/>
+        <v>1.2033960400000003</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1950" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B1950">
+        <v>1683.42</v>
+      </c>
+      <c r="C1950">
+        <v>1700.04</v>
+      </c>
+      <c r="D1950">
+        <v>1674.01</v>
+      </c>
+      <c r="E1950">
+        <v>1677.89</v>
+      </c>
+      <c r="F1950">
+        <f t="shared" si="89"/>
+        <v>1.6778900000000001</v>
+      </c>
+      <c r="G1950">
+        <v>211975839</v>
+      </c>
+      <c r="H1950" s="3">
+        <v>332014000000</v>
+      </c>
+      <c r="I1950">
+        <f t="shared" si="87"/>
+        <v>1948</v>
+      </c>
+      <c r="J1950">
+        <f>SUM($F$3:F1950)/I1950</f>
+        <v>1.0752293891170421</v>
+      </c>
+      <c r="K1950">
+        <f t="shared" si="88"/>
+        <v>1.2057030400000004</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1951" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B1951">
+        <v>1668.02</v>
+      </c>
+      <c r="C1951">
+        <v>1669.22</v>
+      </c>
+      <c r="D1951">
+        <v>1632.02</v>
+      </c>
+      <c r="E1951">
+        <v>1636.29</v>
+      </c>
+      <c r="F1951">
+        <f t="shared" si="89"/>
+        <v>1.63629</v>
+      </c>
+      <c r="G1951">
+        <v>228124746</v>
+      </c>
+      <c r="H1951" s="3">
+        <v>346486000000</v>
+      </c>
+      <c r="I1951">
+        <f t="shared" si="87"/>
+        <v>1949</v>
+      </c>
+      <c r="J1951">
+        <f>SUM($F$3:F1951)/I1951</f>
+        <v>1.0755172601334007</v>
+      </c>
+      <c r="K1951">
+        <f t="shared" si="88"/>
+        <v>1.20777376</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1952" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B1952">
+        <v>1633.83</v>
+      </c>
+      <c r="C1952">
+        <v>1635.62</v>
+      </c>
+      <c r="D1952">
+        <v>1561.37</v>
+      </c>
+      <c r="E1952">
+        <v>1598.52</v>
+      </c>
+      <c r="F1952">
+        <f t="shared" si="89"/>
+        <v>1.5985199999999999</v>
+      </c>
+      <c r="G1952">
+        <v>220991015</v>
+      </c>
+      <c r="H1952" s="3">
+        <v>311731000000</v>
+      </c>
+      <c r="I1952">
+        <f t="shared" si="87"/>
+        <v>1950</v>
+      </c>
+      <c r="J1952">
+        <f>SUM($F$3:F1952)/I1952</f>
+        <v>1.0757854666666655</v>
+      </c>
+      <c r="K1952">
+        <f t="shared" si="88"/>
+        <v>1.20961696</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1953" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B1953">
+        <v>1595.5</v>
+      </c>
+      <c r="C1953">
+        <v>1598.71</v>
+      </c>
+      <c r="D1953">
+        <v>1566.64</v>
+      </c>
+      <c r="E1953">
+        <v>1573.28</v>
+      </c>
+      <c r="F1953">
+        <f t="shared" si="89"/>
+        <v>1.57328</v>
+      </c>
+      <c r="G1953">
+        <v>168038568</v>
+      </c>
+      <c r="H1953" s="3">
+        <v>246422000000</v>
+      </c>
+      <c r="I1953">
+        <f t="shared" si="87"/>
+        <v>1951</v>
+      </c>
+      <c r="J1953">
+        <f>SUM($F$3:F1953)/I1953</f>
+        <v>1.0760404613018955</v>
+      </c>
+      <c r="K1953">
+        <f t="shared" si="88"/>
+        <v>1.21130424</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1954" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B1954">
+        <v>1568.5</v>
+      </c>
+      <c r="C1954">
+        <v>1591.15</v>
+      </c>
+      <c r="D1954">
+        <v>1568.5</v>
+      </c>
+      <c r="E1954">
+        <v>1582.79</v>
+      </c>
+      <c r="F1954">
+        <f t="shared" si="89"/>
+        <v>1.5827899999999999</v>
+      </c>
+      <c r="G1954">
+        <v>138332226</v>
+      </c>
+      <c r="H1954" s="3">
+        <v>200005000000</v>
+      </c>
+      <c r="I1954">
+        <f t="shared" si="87"/>
+        <v>1952</v>
+      </c>
+      <c r="J1954">
+        <f>SUM($F$3:F1954)/I1954</f>
+        <v>1.0763000665983595</v>
+      </c>
+      <c r="K1954">
+        <f t="shared" si="88"/>
+        <v>1.21297988</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1955" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B1955">
+        <v>1578.22</v>
+      </c>
+      <c r="C1955">
+        <v>1591.27</v>
+      </c>
+      <c r="D1955">
+        <v>1555.15</v>
+      </c>
+      <c r="E1955">
+        <v>1572.3</v>
+      </c>
+      <c r="F1955">
+        <f t="shared" si="89"/>
+        <v>1.5723</v>
+      </c>
+      <c r="G1955">
+        <v>147048016</v>
+      </c>
+      <c r="H1955" s="3">
+        <v>219289000000</v>
+      </c>
+      <c r="I1955">
+        <f t="shared" si="87"/>
+        <v>1953</v>
+      </c>
+      <c r="J1955">
+        <f>SUM($F$3:F1955)/I1955</f>
+        <v>1.0765540348182272</v>
+      </c>
+      <c r="K1955">
+        <f t="shared" si="88"/>
+        <v>1.2146730000000003</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1956" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B1956">
+        <v>1570.08</v>
+      </c>
+      <c r="C1956">
+        <v>1579.2</v>
+      </c>
+      <c r="D1956">
+        <v>1552.35</v>
+      </c>
+      <c r="E1956">
+        <v>1552.35</v>
+      </c>
+      <c r="F1956">
+        <f t="shared" si="89"/>
+        <v>1.5523499999999999</v>
+      </c>
+      <c r="G1956">
+        <v>137815024</v>
+      </c>
+      <c r="H1956" s="3">
+        <v>197663000000</v>
+      </c>
+      <c r="I1956">
+        <f t="shared" si="87"/>
+        <v>1954</v>
+      </c>
+      <c r="J1956">
+        <f>SUM($F$3:F1956)/I1956</f>
+        <v>1.0767975332650961</v>
+      </c>
+      <c r="K1956">
+        <f t="shared" si="88"/>
+        <v>1.2162250000000001</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1957" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B1957">
+        <v>1538.36</v>
+      </c>
+      <c r="C1957">
+        <v>1548.11</v>
+      </c>
+      <c r="D1957">
+        <v>1509.09</v>
+      </c>
+      <c r="E1957">
+        <v>1542.96</v>
+      </c>
+      <c r="F1957">
+        <f t="shared" si="89"/>
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="G1957">
+        <v>178223236</v>
+      </c>
+      <c r="H1957" s="3">
+        <v>261253000000</v>
+      </c>
+      <c r="I1957">
+        <f t="shared" si="87"/>
+        <v>1955</v>
+      </c>
+      <c r="J1957">
+        <f>SUM($F$3:F1957)/I1957</f>
+        <v>1.0770359795396409</v>
+      </c>
+      <c r="K1957">
+        <f t="shared" si="88"/>
+        <v>1.21761052</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1957"/>
+  <dimension ref="A1:K1978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
-      <selection activeCell="A1958" sqref="A1958"/>
+    <sheetView tabSelected="1" topLeftCell="A1957" workbookViewId="0">
+      <selection activeCell="A1979" sqref="A1979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I1957" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I1978" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K1957" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K1978" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F1957" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F1978" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -75704,6 +75704,825 @@
       <c r="K1957">
         <f t="shared" si="88"/>
         <v>1.21761052</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1958" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B1958">
+        <v>1546.99</v>
+      </c>
+      <c r="C1958">
+        <v>1564.32</v>
+      </c>
+      <c r="D1958">
+        <v>1544.56</v>
+      </c>
+      <c r="E1958">
+        <v>1546.58</v>
+      </c>
+      <c r="F1958">
+        <f t="shared" si="89"/>
+        <v>1.5465799999999998</v>
+      </c>
+      <c r="G1958">
+        <v>147312605</v>
+      </c>
+      <c r="H1958" s="3">
+        <v>227510000000</v>
+      </c>
+      <c r="I1958">
+        <f t="shared" si="87"/>
+        <v>1956</v>
+      </c>
+      <c r="J1958">
+        <f>SUM($F$3:F1958)/I1958</f>
+        <v>1.0772760327198354</v>
+      </c>
+      <c r="K1958">
+        <f t="shared" si="88"/>
+        <v>1.2190180800000001</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1959" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B1959">
+        <v>1542.99</v>
+      </c>
+      <c r="C1959">
+        <v>1564.18</v>
+      </c>
+      <c r="D1959">
+        <v>1542.5</v>
+      </c>
+      <c r="E1959">
+        <v>1552.27</v>
+      </c>
+      <c r="F1959">
+        <f t="shared" si="89"/>
+        <v>1.55227</v>
+      </c>
+      <c r="G1959">
+        <v>129019708</v>
+      </c>
+      <c r="H1959" s="3">
+        <v>191695000000</v>
+      </c>
+      <c r="I1959">
+        <f t="shared" si="87"/>
+        <v>1957</v>
+      </c>
+      <c r="J1959">
+        <f>SUM($F$3:F1959)/I1959</f>
+        <v>1.0775187480838007</v>
+      </c>
+      <c r="K1959">
+        <f t="shared" si="88"/>
+        <v>1.2203415199999998</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1960" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B1960">
+        <v>1532.56</v>
+      </c>
+      <c r="C1960">
+        <v>1558.63</v>
+      </c>
+      <c r="D1960">
+        <v>1523.35</v>
+      </c>
+      <c r="E1960">
+        <v>1534.16</v>
+      </c>
+      <c r="F1960">
+        <f t="shared" si="89"/>
+        <v>1.5341600000000002</v>
+      </c>
+      <c r="G1960">
+        <v>145106893</v>
+      </c>
+      <c r="H1960" s="3">
+        <v>219766000000</v>
+      </c>
+      <c r="I1960">
+        <f t="shared" si="87"/>
+        <v>1958</v>
+      </c>
+      <c r="J1960">
+        <f>SUM($F$3:F1960)/I1960</f>
+        <v>1.077751966292134</v>
+      </c>
+      <c r="K1960">
+        <f t="shared" si="88"/>
+        <v>1.2215791199999999</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1961" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B1961">
+        <v>1427.1</v>
+      </c>
+      <c r="C1961">
+        <v>1443.07</v>
+      </c>
+      <c r="D1961">
+        <v>1304.5899999999999</v>
+      </c>
+      <c r="E1961">
+        <v>1315.54</v>
+      </c>
+      <c r="F1961">
+        <f t="shared" si="89"/>
+        <v>1.3155399999999999</v>
+      </c>
+      <c r="G1961">
+        <v>212960149</v>
+      </c>
+      <c r="H1961" s="3">
+        <v>303015000000</v>
+      </c>
+      <c r="I1961">
+        <f t="shared" si="87"/>
+        <v>1959</v>
+      </c>
+      <c r="J1961">
+        <f>SUM($F$3:F1961)/I1961</f>
+        <v>1.0778733486472682</v>
+      </c>
+      <c r="K1961">
+        <f t="shared" si="88"/>
+        <v>1.2219929599999999</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1962" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B1962">
+        <v>1310.3599999999999</v>
+      </c>
+      <c r="C1962">
+        <v>1357.68</v>
+      </c>
+      <c r="D1962">
+        <v>1288.1500000000001</v>
+      </c>
+      <c r="E1962">
+        <v>1321.37</v>
+      </c>
+      <c r="F1962">
+        <f t="shared" si="89"/>
+        <v>1.3213699999999999</v>
+      </c>
+      <c r="G1962">
+        <v>252495526</v>
+      </c>
+      <c r="H1962" s="3">
+        <v>322922000000</v>
+      </c>
+      <c r="I1962">
+        <f t="shared" si="87"/>
+        <v>1960</v>
+      </c>
+      <c r="J1962">
+        <f>SUM($F$3:F1962)/I1962</f>
+        <v>1.0779975816326524</v>
+      </c>
+      <c r="K1962">
+        <f t="shared" si="88"/>
+        <v>1.2226016399999999</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1963" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B1963">
+        <v>1296.0899999999999</v>
+      </c>
+      <c r="C1963">
+        <v>1380.88</v>
+      </c>
+      <c r="D1963">
+        <v>1231.8900000000001</v>
+      </c>
+      <c r="E1963">
+        <v>1371.5</v>
+      </c>
+      <c r="F1963">
+        <f t="shared" si="89"/>
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="G1963">
+        <v>272524103</v>
+      </c>
+      <c r="H1963" s="3">
+        <v>359491000000</v>
+      </c>
+      <c r="I1963">
+        <f t="shared" si="87"/>
+        <v>1961</v>
+      </c>
+      <c r="J1963">
+        <f>SUM($F$3:F1963)/I1963</f>
+        <v>1.0781472514023451</v>
+      </c>
+      <c r="K1963">
+        <f t="shared" si="88"/>
+        <v>1.22348352</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1964" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B1964">
+        <v>1403.34</v>
+      </c>
+      <c r="C1964">
+        <v>1440.65</v>
+      </c>
+      <c r="D1964">
+        <v>1403.34</v>
+      </c>
+      <c r="E1964">
+        <v>1413.91</v>
+      </c>
+      <c r="F1964">
+        <f t="shared" si="89"/>
+        <v>1.41391</v>
+      </c>
+      <c r="G1964">
+        <v>239426120</v>
+      </c>
+      <c r="H1964" s="3">
+        <v>342137000000</v>
+      </c>
+      <c r="I1964">
+        <f t="shared" si="87"/>
+        <v>1962</v>
+      </c>
+      <c r="J1964">
+        <f>SUM($F$3:F1964)/I1964</f>
+        <v>1.0783183843017323</v>
+      </c>
+      <c r="K1964">
+        <f t="shared" si="88"/>
+        <v>1.22476644</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1965" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B1965">
+        <v>1402.81</v>
+      </c>
+      <c r="C1965">
+        <v>1447.09</v>
+      </c>
+      <c r="D1965">
+        <v>1402.72</v>
+      </c>
+      <c r="E1965">
+        <v>1431</v>
+      </c>
+      <c r="F1965">
+        <f t="shared" si="89"/>
+        <v>1.431</v>
+      </c>
+      <c r="G1965">
+        <v>191959611</v>
+      </c>
+      <c r="H1965" s="3">
+        <v>288100000000</v>
+      </c>
+      <c r="I1965">
+        <f t="shared" si="87"/>
+        <v>1963</v>
+      </c>
+      <c r="J1965">
+        <f>SUM($F$3:F1965)/I1965</f>
+        <v>1.0784980489047371</v>
+      </c>
+      <c r="K1965">
+        <f t="shared" si="88"/>
+        <v>1.2259537199999999</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1966" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B1966">
+        <v>1452.96</v>
+      </c>
+      <c r="C1966">
+        <v>1470.78</v>
+      </c>
+      <c r="D1966">
+        <v>1450.86</v>
+      </c>
+      <c r="E1966">
+        <v>1456.31</v>
+      </c>
+      <c r="F1966">
+        <f t="shared" si="89"/>
+        <v>1.45631</v>
+      </c>
+      <c r="G1966">
+        <v>185931941</v>
+      </c>
+      <c r="H1966" s="3">
+        <v>264346000000</v>
+      </c>
+      <c r="I1966">
+        <f t="shared" si="87"/>
+        <v>1964</v>
+      </c>
+      <c r="J1966">
+        <f>SUM($F$3:F1966)/I1966</f>
+        <v>1.0786904175152745</v>
+      </c>
+      <c r="K1966">
+        <f t="shared" si="88"/>
+        <v>1.2272246799999997</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1967" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B1967">
+        <v>1457.46</v>
+      </c>
+      <c r="C1967">
+        <v>1464.19</v>
+      </c>
+      <c r="D1967">
+        <v>1441.39</v>
+      </c>
+      <c r="E1967">
+        <v>1455.01</v>
+      </c>
+      <c r="F1967">
+        <f t="shared" si="89"/>
+        <v>1.4550099999999999</v>
+      </c>
+      <c r="G1967">
+        <v>159930654</v>
+      </c>
+      <c r="H1967" s="3">
+        <v>217110000000</v>
+      </c>
+      <c r="I1967">
+        <f t="shared" si="87"/>
+        <v>1965</v>
+      </c>
+      <c r="J1967">
+        <f>SUM($F$3:F1967)/I1967</f>
+        <v>1.0788819287531801</v>
+      </c>
+      <c r="K1967">
+        <f t="shared" si="88"/>
+        <v>1.2283842</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1968" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B1968">
+        <v>1449.48</v>
+      </c>
+      <c r="C1968">
+        <v>1452.78</v>
+      </c>
+      <c r="D1968">
+        <v>1408.42</v>
+      </c>
+      <c r="E1968">
+        <v>1431.25</v>
+      </c>
+      <c r="F1968">
+        <f t="shared" si="89"/>
+        <v>1.4312499999999999</v>
+      </c>
+      <c r="G1968">
+        <v>169037164</v>
+      </c>
+      <c r="H1968" s="3">
+        <v>228101000000</v>
+      </c>
+      <c r="I1968">
+        <f t="shared" si="87"/>
+        <v>1966</v>
+      </c>
+      <c r="J1968">
+        <f>SUM($F$3:F1968)/I1968</f>
+        <v>1.0790611597151571</v>
+      </c>
+      <c r="K1968">
+        <f t="shared" si="88"/>
+        <v>1.2295345599999998</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1969" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B1969">
+        <v>1421.68</v>
+      </c>
+      <c r="C1969">
+        <v>1451.02</v>
+      </c>
+      <c r="D1969">
+        <v>1421.04</v>
+      </c>
+      <c r="E1969">
+        <v>1436.64</v>
+      </c>
+      <c r="F1969">
+        <f t="shared" si="89"/>
+        <v>1.4366400000000001</v>
+      </c>
+      <c r="G1969">
+        <v>144651142</v>
+      </c>
+      <c r="H1969" s="3">
+        <v>204278000000</v>
+      </c>
+      <c r="I1969">
+        <f t="shared" si="87"/>
+        <v>1967</v>
+      </c>
+      <c r="J1969">
+        <f>SUM($F$3:F1969)/I1969</f>
+        <v>1.0792429486527702</v>
+      </c>
+      <c r="K1969">
+        <f t="shared" si="88"/>
+        <v>1.23082308</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1970" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B1970">
+        <v>1434.23</v>
+      </c>
+      <c r="C1970">
+        <v>1442.49</v>
+      </c>
+      <c r="D1970">
+        <v>1423.06</v>
+      </c>
+      <c r="E1970">
+        <v>1436.38</v>
+      </c>
+      <c r="F1970">
+        <f t="shared" si="89"/>
+        <v>1.4363800000000002</v>
+      </c>
+      <c r="G1970">
+        <v>143745077</v>
+      </c>
+      <c r="H1970" s="3">
+        <v>195841000000</v>
+      </c>
+      <c r="I1970">
+        <f t="shared" si="87"/>
+        <v>1968</v>
+      </c>
+      <c r="J1970">
+        <f>SUM($F$3:F1970)/I1970</f>
+        <v>1.079424420731707</v>
+      </c>
+      <c r="K1970">
+        <f t="shared" si="88"/>
+        <v>1.2322261199999998</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1971" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B1971">
+        <v>1432.95</v>
+      </c>
+      <c r="C1971">
+        <v>1470.35</v>
+      </c>
+      <c r="D1971">
+        <v>1424.8</v>
+      </c>
+      <c r="E1971">
+        <v>1470.35</v>
+      </c>
+      <c r="F1971">
+        <f t="shared" si="89"/>
+        <v>1.4703499999999998</v>
+      </c>
+      <c r="G1971">
+        <v>170104119</v>
+      </c>
+      <c r="H1971" s="3">
+        <v>232820000000</v>
+      </c>
+      <c r="I1971">
+        <f t="shared" si="87"/>
+        <v>1969</v>
+      </c>
+      <c r="J1971">
+        <f>SUM($F$3:F1971)/I1971</f>
+        <v>1.0796229608938543</v>
+      </c>
+      <c r="K1971">
+        <f t="shared" si="88"/>
+        <v>1.2337327999999999</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1972" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B1972">
+        <v>1469.52</v>
+      </c>
+      <c r="C1972">
+        <v>1475.14</v>
+      </c>
+      <c r="D1972">
+        <v>1462.83</v>
+      </c>
+      <c r="E1972">
+        <v>1465.69</v>
+      </c>
+      <c r="F1972">
+        <f t="shared" si="89"/>
+        <v>1.4656900000000002</v>
+      </c>
+      <c r="G1972">
+        <v>179818955</v>
+      </c>
+      <c r="H1972" s="3">
+        <v>237891000000</v>
+      </c>
+      <c r="I1972">
+        <f t="shared" si="87"/>
+        <v>1970</v>
+      </c>
+      <c r="J1972">
+        <f>SUM($F$3:F1972)/I1972</f>
+        <v>1.0798189340101518</v>
+      </c>
+      <c r="K1972">
+        <f t="shared" si="88"/>
+        <v>1.2353593199999997</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1973" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B1973">
+        <v>1473.47</v>
+      </c>
+      <c r="C1973">
+        <v>1487.59</v>
+      </c>
+      <c r="D1973">
+        <v>1471.83</v>
+      </c>
+      <c r="E1973">
+        <v>1480.3</v>
+      </c>
+      <c r="F1973">
+        <f t="shared" si="89"/>
+        <v>1.4802999999999999</v>
+      </c>
+      <c r="G1973">
+        <v>190422488</v>
+      </c>
+      <c r="H1973" s="3">
+        <v>267365000000</v>
+      </c>
+      <c r="I1973">
+        <f t="shared" si="87"/>
+        <v>1971</v>
+      </c>
+      <c r="J1973">
+        <f>SUM($F$3:F1973)/I1973</f>
+        <v>1.0800221207508875</v>
+      </c>
+      <c r="K1973">
+        <f t="shared" si="88"/>
+        <v>1.2370231199999997</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1974" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B1974">
+        <v>1477.26</v>
+      </c>
+      <c r="C1974">
+        <v>1477.48</v>
+      </c>
+      <c r="D1974">
+        <v>1445.61</v>
+      </c>
+      <c r="E1974">
+        <v>1451.6</v>
+      </c>
+      <c r="F1974">
+        <f t="shared" si="89"/>
+        <v>1.4516</v>
+      </c>
+      <c r="G1974">
+        <v>164029009</v>
+      </c>
+      <c r="H1974" s="3">
+        <v>222458000000</v>
+      </c>
+      <c r="I1974">
+        <f t="shared" si="87"/>
+        <v>1972</v>
+      </c>
+      <c r="J1974">
+        <f>SUM($F$3:F1974)/I1974</f>
+        <v>1.0802105476673425</v>
+      </c>
+      <c r="K1974">
+        <f t="shared" si="88"/>
+        <v>1.2386199199999997</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1975" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B1975">
+        <v>1453.63</v>
+      </c>
+      <c r="C1975">
+        <v>1469.8</v>
+      </c>
+      <c r="D1975">
+        <v>1446.63</v>
+      </c>
+      <c r="E1975">
+        <v>1457.14</v>
+      </c>
+      <c r="F1975">
+        <f t="shared" si="89"/>
+        <v>1.4571400000000001</v>
+      </c>
+      <c r="G1975">
+        <v>166727774</v>
+      </c>
+      <c r="H1975" s="3">
+        <v>221386000000</v>
+      </c>
+      <c r="I1975">
+        <f t="shared" si="87"/>
+        <v>1973</v>
+      </c>
+      <c r="J1975">
+        <f>SUM($F$3:F1975)/I1975</f>
+        <v>1.0804015914850478</v>
+      </c>
+      <c r="K1975">
+        <f t="shared" si="88"/>
+        <v>1.2403983599999995</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1976" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B1976">
+        <v>1452.76</v>
+      </c>
+      <c r="C1976">
+        <v>1460.45</v>
+      </c>
+      <c r="D1976">
+        <v>1436.8</v>
+      </c>
+      <c r="E1976">
+        <v>1440.43</v>
+      </c>
+      <c r="F1976">
+        <f t="shared" si="89"/>
+        <v>1.4404300000000001</v>
+      </c>
+      <c r="G1976">
+        <v>162647527</v>
+      </c>
+      <c r="H1976" s="3">
+        <v>218944000000</v>
+      </c>
+      <c r="I1976">
+        <f t="shared" si="87"/>
+        <v>1974</v>
+      </c>
+      <c r="J1976">
+        <f>SUM($F$3:F1976)/I1976</f>
+        <v>1.0805839766970615</v>
+      </c>
+      <c r="K1976">
+        <f t="shared" si="88"/>
+        <v>1.2424105999999995</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1977" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B1977">
+        <v>1431.39</v>
+      </c>
+      <c r="C1977">
+        <v>1457.05</v>
+      </c>
+      <c r="D1977">
+        <v>1425.16</v>
+      </c>
+      <c r="E1977">
+        <v>1451.95</v>
+      </c>
+      <c r="F1977">
+        <f t="shared" si="89"/>
+        <v>1.4519500000000001</v>
+      </c>
+      <c r="G1977">
+        <v>161596766</v>
+      </c>
+      <c r="H1977" s="3">
+        <v>217852000000</v>
+      </c>
+      <c r="I1977">
+        <f t="shared" si="87"/>
+        <v>1975</v>
+      </c>
+      <c r="J1977">
+        <f>SUM($F$3:F1977)/I1977</f>
+        <v>1.0807720101265821</v>
+      </c>
+      <c r="K1977">
+        <f t="shared" si="88"/>
+        <v>1.2441839999999995</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1978" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B1978">
+        <v>1456.12</v>
+      </c>
+      <c r="C1978">
+        <v>1486.6</v>
+      </c>
+      <c r="D1978">
+        <v>1456.12</v>
+      </c>
+      <c r="E1978">
+        <v>1481.03</v>
+      </c>
+      <c r="F1978">
+        <f t="shared" si="89"/>
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="G1978">
+        <v>195334604</v>
+      </c>
+      <c r="H1978" s="3">
+        <v>277193000000</v>
+      </c>
+      <c r="I1978">
+        <f t="shared" si="87"/>
+        <v>1976</v>
+      </c>
+      <c r="J1978">
+        <f>SUM($F$3:F1978)/I1978</f>
+        <v>1.0809745698380564</v>
+      </c>
+      <c r="K1978">
+        <f t="shared" si="88"/>
+        <v>1.2460871999999994</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1978"/>
+  <dimension ref="A1:K1997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1957" workbookViewId="0">
-      <selection activeCell="A1979" sqref="A1979"/>
+    <sheetView tabSelected="1" topLeftCell="A1978" workbookViewId="0">
+      <selection activeCell="A1998" sqref="A1998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I1978" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I1997" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K1978" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K1997" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F1978" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F1997" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -76523,6 +76523,747 @@
       <c r="K1978">
         <f t="shared" si="88"/>
         <v>1.2460871999999994</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1979" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B1979">
+        <v>1492.99</v>
+      </c>
+      <c r="C1979">
+        <v>1529.11</v>
+      </c>
+      <c r="D1979">
+        <v>1492.99</v>
+      </c>
+      <c r="E1979">
+        <v>1529.11</v>
+      </c>
+      <c r="F1979">
+        <f t="shared" si="89"/>
+        <v>1.52911</v>
+      </c>
+      <c r="G1979">
+        <v>229412055</v>
+      </c>
+      <c r="H1979" s="3">
+        <v>328371000000</v>
+      </c>
+      <c r="I1979">
+        <f t="shared" si="87"/>
+        <v>1977</v>
+      </c>
+      <c r="J1979">
+        <f>SUM($F$3:F1979)/I1979</f>
+        <v>1.0812012443095596</v>
+      </c>
+      <c r="K1979">
+        <f t="shared" si="88"/>
+        <v>1.2482347999999996</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1980" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B1980">
+        <v>1549.66</v>
+      </c>
+      <c r="C1980">
+        <v>1554.64</v>
+      </c>
+      <c r="D1980">
+        <v>1519.15</v>
+      </c>
+      <c r="E1980">
+        <v>1534.06</v>
+      </c>
+      <c r="F1980">
+        <f t="shared" si="89"/>
+        <v>1.53406</v>
+      </c>
+      <c r="G1980">
+        <v>247279083</v>
+      </c>
+      <c r="H1980" s="3">
+        <v>355055000000</v>
+      </c>
+      <c r="I1980">
+        <f t="shared" si="87"/>
+        <v>1978</v>
+      </c>
+      <c r="J1980">
+        <f>SUM($F$3:F1980)/I1980</f>
+        <v>1.0814301921132454</v>
+      </c>
+      <c r="K1980">
+        <f t="shared" si="88"/>
+        <v>1.2504186399999997</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1981" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B1981">
+        <v>1528.83</v>
+      </c>
+      <c r="C1981">
+        <v>1554.63</v>
+      </c>
+      <c r="D1981">
+        <v>1527.69</v>
+      </c>
+      <c r="E1981">
+        <v>1553.03</v>
+      </c>
+      <c r="F1981">
+        <f t="shared" si="89"/>
+        <v>1.5530299999999999</v>
+      </c>
+      <c r="G1981">
+        <v>219169434</v>
+      </c>
+      <c r="H1981" s="3">
+        <v>298778000000</v>
+      </c>
+      <c r="I1981">
+        <f t="shared" si="87"/>
+        <v>1979</v>
+      </c>
+      <c r="J1981">
+        <f>SUM($F$3:F1981)/I1981</f>
+        <v>1.081668494188984</v>
+      </c>
+      <c r="K1981">
+        <f t="shared" si="88"/>
+        <v>1.2526192399999996</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1982" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B1982">
+        <v>1550.81</v>
+      </c>
+      <c r="C1982">
+        <v>1550.81</v>
+      </c>
+      <c r="D1982">
+        <v>1521.81</v>
+      </c>
+      <c r="E1982">
+        <v>1526.1</v>
+      </c>
+      <c r="F1982">
+        <f t="shared" si="89"/>
+        <v>1.5261</v>
+      </c>
+      <c r="G1982">
+        <v>196277439</v>
+      </c>
+      <c r="H1982" s="3">
+        <v>274388000000</v>
+      </c>
+      <c r="I1982">
+        <f t="shared" si="87"/>
+        <v>1980</v>
+      </c>
+      <c r="J1982">
+        <f>SUM($F$3:F1982)/I1982</f>
+        <v>1.0818929545454543</v>
+      </c>
+      <c r="K1982">
+        <f t="shared" si="88"/>
+        <v>1.2545796399999993</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1983" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B1983">
+        <v>1538.52</v>
+      </c>
+      <c r="C1983">
+        <v>1554.45</v>
+      </c>
+      <c r="D1983">
+        <v>1535.91</v>
+      </c>
+      <c r="E1983">
+        <v>1554.45</v>
+      </c>
+      <c r="F1983">
+        <f t="shared" si="89"/>
+        <v>1.5544500000000001</v>
+      </c>
+      <c r="G1983">
+        <v>189007590</v>
+      </c>
+      <c r="H1983" s="3">
+        <v>282935000000</v>
+      </c>
+      <c r="I1983">
+        <f t="shared" si="87"/>
+        <v>1981</v>
+      </c>
+      <c r="J1983">
+        <f>SUM($F$3:F1983)/I1983</f>
+        <v>1.0821314992428064</v>
+      </c>
+      <c r="K1983">
+        <f t="shared" si="88"/>
+        <v>1.2566655999999992</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1984" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B1984">
+        <v>1570.8</v>
+      </c>
+      <c r="C1984">
+        <v>1571.66</v>
+      </c>
+      <c r="D1984">
+        <v>1544.24</v>
+      </c>
+      <c r="E1984">
+        <v>1546.38</v>
+      </c>
+      <c r="F1984">
+        <f t="shared" si="89"/>
+        <v>1.5463800000000001</v>
+      </c>
+      <c r="G1984">
+        <v>195707880</v>
+      </c>
+      <c r="H1984" s="3">
+        <v>282492000000</v>
+      </c>
+      <c r="I1984">
+        <f t="shared" si="87"/>
+        <v>1982</v>
+      </c>
+      <c r="J1984">
+        <f>SUM($F$3:F1984)/I1984</f>
+        <v>1.0823657315842581</v>
+      </c>
+      <c r="K1984">
+        <f t="shared" si="88"/>
+        <v>1.2586016399999991</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1985" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B1985">
+        <v>1544.55</v>
+      </c>
+      <c r="C1985">
+        <v>1560.31</v>
+      </c>
+      <c r="D1985">
+        <v>1535.35</v>
+      </c>
+      <c r="E1985">
+        <v>1550.89</v>
+      </c>
+      <c r="F1985">
+        <f t="shared" si="89"/>
+        <v>1.5508900000000001</v>
+      </c>
+      <c r="G1985">
+        <v>195080766</v>
+      </c>
+      <c r="H1985" s="3">
+        <v>286098000000</v>
+      </c>
+      <c r="I1985">
+        <f t="shared" si="87"/>
+        <v>1983</v>
+      </c>
+      <c r="J1985">
+        <f>SUM($F$3:F1985)/I1985</f>
+        <v>1.0826020020171456</v>
+      </c>
+      <c r="K1985">
+        <f t="shared" si="88"/>
+        <v>1.2604173199999991</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1986" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B1986">
+        <v>1548.24</v>
+      </c>
+      <c r="C1986">
+        <v>1548.24</v>
+      </c>
+      <c r="D1986">
+        <v>1520.31</v>
+      </c>
+      <c r="E1986">
+        <v>1521.33</v>
+      </c>
+      <c r="F1986">
+        <f t="shared" si="89"/>
+        <v>1.5213299999999998</v>
+      </c>
+      <c r="G1986">
+        <v>170387950</v>
+      </c>
+      <c r="H1986" s="3">
+        <v>238209000000</v>
+      </c>
+      <c r="I1986">
+        <f t="shared" si="87"/>
+        <v>1984</v>
+      </c>
+      <c r="J1986">
+        <f>SUM($F$3:F1986)/I1986</f>
+        <v>1.082823135080645</v>
+      </c>
+      <c r="K1986">
+        <f t="shared" si="88"/>
+        <v>1.2621581199999989</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1987" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B1987">
+        <v>1517.65</v>
+      </c>
+      <c r="C1987">
+        <v>1536.36</v>
+      </c>
+      <c r="D1987">
+        <v>1514.42</v>
+      </c>
+      <c r="E1987">
+        <v>1527.36</v>
+      </c>
+      <c r="F1987">
+        <f t="shared" si="89"/>
+        <v>1.5273599999999998</v>
+      </c>
+      <c r="G1987">
+        <v>146412680</v>
+      </c>
+      <c r="H1987" s="3">
+        <v>198926000000</v>
+      </c>
+      <c r="I1987">
+        <f t="shared" si="87"/>
+        <v>1985</v>
+      </c>
+      <c r="J1987">
+        <f>SUM($F$3:F1987)/I1987</f>
+        <v>1.0830470831234256</v>
+      </c>
+      <c r="K1987">
+        <f t="shared" si="88"/>
+        <v>1.2638897999999987</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1988" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B1988">
+        <v>1530.19</v>
+      </c>
+      <c r="C1988">
+        <v>1540.44</v>
+      </c>
+      <c r="D1988">
+        <v>1514.35</v>
+      </c>
+      <c r="E1988">
+        <v>1540.12</v>
+      </c>
+      <c r="F1988">
+        <f t="shared" si="89"/>
+        <v>1.5401199999999999</v>
+      </c>
+      <c r="G1988">
+        <v>150346445</v>
+      </c>
+      <c r="H1988" s="3">
+        <v>200084000000</v>
+      </c>
+      <c r="I1988">
+        <f t="shared" si="87"/>
+        <v>1986</v>
+      </c>
+      <c r="J1988">
+        <f>SUM($F$3:F1988)/I1988</f>
+        <v>1.0832772306142999</v>
+      </c>
+      <c r="K1988">
+        <f t="shared" si="88"/>
+        <v>1.2656625999999986</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1989" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B1989">
+        <v>1541.33</v>
+      </c>
+      <c r="C1989">
+        <v>1560.6</v>
+      </c>
+      <c r="D1989">
+        <v>1531.84</v>
+      </c>
+      <c r="E1989">
+        <v>1557.98</v>
+      </c>
+      <c r="F1989">
+        <f t="shared" si="89"/>
+        <v>1.5579799999999999</v>
+      </c>
+      <c r="G1989">
+        <v>175270260</v>
+      </c>
+      <c r="H1989" s="3">
+        <v>229524000000</v>
+      </c>
+      <c r="I1989">
+        <f t="shared" si="87"/>
+        <v>1987</v>
+      </c>
+      <c r="J1989">
+        <f>SUM($F$3:F1989)/I1989</f>
+        <v>1.0835161348766984</v>
+      </c>
+      <c r="K1989">
+        <f t="shared" si="88"/>
+        <v>1.2676205199999986</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1990" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B1990">
+        <v>1555.58</v>
+      </c>
+      <c r="C1990">
+        <v>1555.58</v>
+      </c>
+      <c r="D1990">
+        <v>1537.22</v>
+      </c>
+      <c r="E1990">
+        <v>1543.97</v>
+      </c>
+      <c r="F1990">
+        <f t="shared" si="89"/>
+        <v>1.5439700000000001</v>
+      </c>
+      <c r="G1990">
+        <v>158714455</v>
+      </c>
+      <c r="H1990" s="3">
+        <v>213285000000</v>
+      </c>
+      <c r="I1990">
+        <f t="shared" si="87"/>
+        <v>1988</v>
+      </c>
+      <c r="J1990">
+        <f>SUM($F$3:F1990)/I1990</f>
+        <v>1.0837477515090543</v>
+      </c>
+      <c r="K1990">
+        <f t="shared" si="88"/>
+        <v>1.2694827999999987</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1991" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B1991">
+        <v>1539.61</v>
+      </c>
+      <c r="C1991">
+        <v>1555.27</v>
+      </c>
+      <c r="D1991">
+        <v>1528.66</v>
+      </c>
+      <c r="E1991">
+        <v>1530.3</v>
+      </c>
+      <c r="F1991">
+        <f t="shared" si="89"/>
+        <v>1.5303</v>
+      </c>
+      <c r="G1991">
+        <v>162327249</v>
+      </c>
+      <c r="H1991" s="3">
+        <v>214536000000</v>
+      </c>
+      <c r="I1991">
+        <f t="shared" si="87"/>
+        <v>1989</v>
+      </c>
+      <c r="J1991">
+        <f>SUM($F$3:F1991)/I1991</f>
+        <v>1.0839722624434389</v>
+      </c>
+      <c r="K1991">
+        <f t="shared" si="88"/>
+        <v>1.2713569999999987</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1992" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B1992">
+        <v>1528.11</v>
+      </c>
+      <c r="C1992">
+        <v>1540.85</v>
+      </c>
+      <c r="D1992">
+        <v>1505.49</v>
+      </c>
+      <c r="E1992">
+        <v>1505.49</v>
+      </c>
+      <c r="F1992">
+        <f t="shared" si="89"/>
+        <v>1.50549</v>
+      </c>
+      <c r="G1992">
+        <v>165018877</v>
+      </c>
+      <c r="H1992" s="3">
+        <v>228373000000</v>
+      </c>
+      <c r="I1992">
+        <f t="shared" si="87"/>
+        <v>1990</v>
+      </c>
+      <c r="J1992">
+        <f>SUM($F$3:F1992)/I1992</f>
+        <v>1.08418408040201</v>
+      </c>
+      <c r="K1992">
+        <f t="shared" si="88"/>
+        <v>1.2732341199999988</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1993" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B1993">
+        <v>1506.48</v>
+      </c>
+      <c r="C1993">
+        <v>1529.77</v>
+      </c>
+      <c r="D1993">
+        <v>1506.48</v>
+      </c>
+      <c r="E1993">
+        <v>1529.77</v>
+      </c>
+      <c r="F1993">
+        <f t="shared" si="89"/>
+        <v>1.5297700000000001</v>
+      </c>
+      <c r="G1993">
+        <v>142157316</v>
+      </c>
+      <c r="H1993" s="3">
+        <v>199627000000</v>
+      </c>
+      <c r="I1993">
+        <f t="shared" si="87"/>
+        <v>1991</v>
+      </c>
+      <c r="J1993">
+        <f>SUM($F$3:F1993)/I1993</f>
+        <v>1.0844078804620794</v>
+      </c>
+      <c r="K1993">
+        <f t="shared" si="88"/>
+        <v>1.2751417999999988</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1994" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B1994">
+        <v>1528.77</v>
+      </c>
+      <c r="C1994">
+        <v>1529.39</v>
+      </c>
+      <c r="D1994">
+        <v>1516.98</v>
+      </c>
+      <c r="E1994">
+        <v>1525.6</v>
+      </c>
+      <c r="F1994">
+        <f t="shared" si="89"/>
+        <v>1.5255999999999998</v>
+      </c>
+      <c r="G1994">
+        <v>138541089</v>
+      </c>
+      <c r="H1994" s="3">
+        <v>194810000000</v>
+      </c>
+      <c r="I1994">
+        <f t="shared" si="87"/>
+        <v>1992</v>
+      </c>
+      <c r="J1994">
+        <f>SUM($F$3:F1994)/I1994</f>
+        <v>1.0846293624497991</v>
+      </c>
+      <c r="K1994">
+        <f t="shared" si="88"/>
+        <v>1.2770829199999987</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1995" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B1995">
+        <v>1527.65</v>
+      </c>
+      <c r="C1995">
+        <v>1534.83</v>
+      </c>
+      <c r="D1995">
+        <v>1514.35</v>
+      </c>
+      <c r="E1995">
+        <v>1519.36</v>
+      </c>
+      <c r="F1995">
+        <f t="shared" si="89"/>
+        <v>1.5193599999999998</v>
+      </c>
+      <c r="G1995">
+        <v>150160483</v>
+      </c>
+      <c r="H1995" s="3">
+        <v>196647000000</v>
+      </c>
+      <c r="I1995">
+        <f t="shared" si="87"/>
+        <v>1993</v>
+      </c>
+      <c r="J1995">
+        <f>SUM($F$3:F1995)/I1995</f>
+        <v>1.0848474912192674</v>
+      </c>
+      <c r="K1995">
+        <f t="shared" si="88"/>
+        <v>1.2789687599999988</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1996" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B1996">
+        <v>1518.64</v>
+      </c>
+      <c r="C1996">
+        <v>1563.48</v>
+      </c>
+      <c r="D1996">
+        <v>1518.64</v>
+      </c>
+      <c r="E1996">
+        <v>1563.48</v>
+      </c>
+      <c r="F1996">
+        <f t="shared" si="89"/>
+        <v>1.56348</v>
+      </c>
+      <c r="G1996">
+        <v>192498793</v>
+      </c>
+      <c r="H1996" s="3">
+        <v>265698000000</v>
+      </c>
+      <c r="I1996">
+        <f t="shared" si="87"/>
+        <v>1994</v>
+      </c>
+      <c r="J1996">
+        <f>SUM($F$3:F1996)/I1996</f>
+        <v>1.0850875275827481</v>
+      </c>
+      <c r="K1996">
+        <f t="shared" si="88"/>
+        <v>1.280966719999999</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1997" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B1997">
+        <v>1560.46</v>
+      </c>
+      <c r="C1997">
+        <v>1560.46</v>
+      </c>
+      <c r="D1997">
+        <v>1535.7</v>
+      </c>
+      <c r="E1997">
+        <v>1539.25</v>
+      </c>
+      <c r="F1997">
+        <f t="shared" si="89"/>
+        <v>1.53925</v>
+      </c>
+      <c r="G1997">
+        <v>190719027</v>
+      </c>
+      <c r="H1997" s="3">
+        <v>255626000000</v>
+      </c>
+      <c r="I1997">
+        <f t="shared" si="87"/>
+        <v>1995</v>
+      </c>
+      <c r="J1997">
+        <f>SUM($F$3:F1997)/I1997</f>
+        <v>1.0853151779448618</v>
+      </c>
+      <c r="K1997">
+        <f t="shared" si="88"/>
+        <v>1.282875679999999</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1997"/>
+  <dimension ref="A1:K2017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1978" workbookViewId="0">
-      <selection activeCell="A1998" sqref="A1998"/>
+    <sheetView tabSelected="1" topLeftCell="A1997" workbookViewId="0">
+      <selection activeCell="A2018" sqref="A2018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I1997" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2017" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K1997" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2017" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F1997" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2017" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -77264,6 +77264,786 @@
       <c r="K1997">
         <f t="shared" si="88"/>
         <v>1.282875679999999</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1998" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B1998">
+        <v>1535.08</v>
+      </c>
+      <c r="C1998">
+        <v>1559.86</v>
+      </c>
+      <c r="D1998">
+        <v>1535.08</v>
+      </c>
+      <c r="E1998">
+        <v>1549.11</v>
+      </c>
+      <c r="F1998">
+        <f t="shared" si="89"/>
+        <v>1.54911</v>
+      </c>
+      <c r="G1998">
+        <v>180407134</v>
+      </c>
+      <c r="H1998" s="3">
+        <v>250839000000</v>
+      </c>
+      <c r="I1998">
+        <f t="shared" si="87"/>
+        <v>1996</v>
+      </c>
+      <c r="J1998">
+        <f>SUM($F$3:F1998)/I1998</f>
+        <v>1.08554754008016</v>
+      </c>
+      <c r="K1998">
+        <f t="shared" si="88"/>
+        <v>1.2848659199999988</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1999" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B1999">
+        <v>1549.77</v>
+      </c>
+      <c r="C1999">
+        <v>1562.21</v>
+      </c>
+      <c r="D1999">
+        <v>1548.49</v>
+      </c>
+      <c r="E1999">
+        <v>1561.72</v>
+      </c>
+      <c r="F1999">
+        <f t="shared" si="89"/>
+        <v>1.56172</v>
+      </c>
+      <c r="G1999">
+        <v>180433698</v>
+      </c>
+      <c r="H1999" s="3">
+        <v>240052000000</v>
+      </c>
+      <c r="I1999">
+        <f t="shared" si="87"/>
+        <v>1997</v>
+      </c>
+      <c r="J1999">
+        <f>SUM($F$3:F1999)/I1999</f>
+        <v>1.0857859839759636</v>
+      </c>
+      <c r="K1999">
+        <f t="shared" si="88"/>
+        <v>1.2868779199999987</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2000" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B2000">
+        <v>1562.95</v>
+      </c>
+      <c r="C2000">
+        <v>1583.86</v>
+      </c>
+      <c r="D2000">
+        <v>1558.79</v>
+      </c>
+      <c r="E2000">
+        <v>1580.99</v>
+      </c>
+      <c r="F2000">
+        <f t="shared" si="89"/>
+        <v>1.5809900000000001</v>
+      </c>
+      <c r="G2000">
+        <v>209744361</v>
+      </c>
+      <c r="H2000" s="3">
+        <v>301705000000</v>
+      </c>
+      <c r="I2000">
+        <f t="shared" si="87"/>
+        <v>1998</v>
+      </c>
+      <c r="J2000">
+        <f>SUM($F$3:F2000)/I2000</f>
+        <v>1.0860338338338336</v>
+      </c>
+      <c r="K2000">
+        <f t="shared" si="88"/>
+        <v>1.2890601999999987</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2001" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B2001">
+        <v>1579.8</v>
+      </c>
+      <c r="C2001">
+        <v>1582.3</v>
+      </c>
+      <c r="D2001">
+        <v>1570.64</v>
+      </c>
+      <c r="E2001">
+        <v>1578.2</v>
+      </c>
+      <c r="F2001">
+        <f t="shared" si="89"/>
+        <v>1.5782</v>
+      </c>
+      <c r="G2001">
+        <v>174702050</v>
+      </c>
+      <c r="H2001" s="3">
+        <v>248960000000</v>
+      </c>
+      <c r="I2001">
+        <f t="shared" si="87"/>
+        <v>1999</v>
+      </c>
+      <c r="J2001">
+        <f>SUM($F$3:F2001)/I2001</f>
+        <v>1.0862800400200097</v>
+      </c>
+      <c r="K2001">
+        <f t="shared" si="88"/>
+        <v>1.2913122399999988</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2002" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B2002">
+        <v>1581.72</v>
+      </c>
+      <c r="C2002">
+        <v>1599.51</v>
+      </c>
+      <c r="D2002">
+        <v>1579.56</v>
+      </c>
+      <c r="E2002">
+        <v>1599.51</v>
+      </c>
+      <c r="F2002">
+        <f t="shared" si="89"/>
+        <v>1.59951</v>
+      </c>
+      <c r="G2002">
+        <v>190079402</v>
+      </c>
+      <c r="H2002" s="3">
+        <v>267858000000</v>
+      </c>
+      <c r="I2002">
+        <f t="shared" si="87"/>
+        <v>2000</v>
+      </c>
+      <c r="J2002">
+        <f>SUM($F$3:F2002)/I2002</f>
+        <v>1.0865366549999997</v>
+      </c>
+      <c r="K2002">
+        <f t="shared" si="88"/>
+        <v>1.2936135199999987</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2003" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B2003">
+        <v>1600.59</v>
+      </c>
+      <c r="C2003">
+        <v>1601.14</v>
+      </c>
+      <c r="D2003">
+        <v>1558.58</v>
+      </c>
+      <c r="E2003">
+        <v>1580.01</v>
+      </c>
+      <c r="F2003">
+        <f t="shared" si="89"/>
+        <v>1.5800099999999999</v>
+      </c>
+      <c r="G2003">
+        <v>219727395</v>
+      </c>
+      <c r="H2003" s="3">
+        <v>305207000000</v>
+      </c>
+      <c r="I2003">
+        <f t="shared" si="87"/>
+        <v>2001</v>
+      </c>
+      <c r="J2003">
+        <f>SUM($F$3:F2003)/I2003</f>
+        <v>1.0867832683658167</v>
+      </c>
+      <c r="K2003">
+        <f t="shared" si="88"/>
+        <v>1.2959006399999988</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2004" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B2004">
+        <v>1580.49</v>
+      </c>
+      <c r="C2004">
+        <v>1595.56</v>
+      </c>
+      <c r="D2004">
+        <v>1578.35</v>
+      </c>
+      <c r="E2004">
+        <v>1590.12</v>
+      </c>
+      <c r="F2004">
+        <f t="shared" si="89"/>
+        <v>1.59012</v>
+      </c>
+      <c r="G2004">
+        <v>191293116</v>
+      </c>
+      <c r="H2004" s="3">
+        <v>265664000000</v>
+      </c>
+      <c r="I2004">
+        <f t="shared" si="87"/>
+        <v>2002</v>
+      </c>
+      <c r="J2004">
+        <f>SUM($F$3:F2004)/I2004</f>
+        <v>1.0870346853146851</v>
+      </c>
+      <c r="K2004">
+        <f t="shared" si="88"/>
+        <v>1.2982421599999989</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2005" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B2005">
+        <v>1585.29</v>
+      </c>
+      <c r="C2005">
+        <v>1602.66</v>
+      </c>
+      <c r="D2005">
+        <v>1580.26</v>
+      </c>
+      <c r="E2005">
+        <v>1596.66</v>
+      </c>
+      <c r="F2005">
+        <f t="shared" si="89"/>
+        <v>1.5966600000000002</v>
+      </c>
+      <c r="G2005">
+        <v>187107628</v>
+      </c>
+      <c r="H2005" s="3">
+        <v>264976000000</v>
+      </c>
+      <c r="I2005">
+        <f t="shared" si="87"/>
+        <v>2003</v>
+      </c>
+      <c r="J2005">
+        <f>SUM($F$3:F2005)/I2005</f>
+        <v>1.0872891163255114</v>
+      </c>
+      <c r="K2005">
+        <f t="shared" si="88"/>
+        <v>1.3006141999999989</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2006" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B2006">
+        <v>1590.26</v>
+      </c>
+      <c r="C2006">
+        <v>1590.26</v>
+      </c>
+      <c r="D2006">
+        <v>1559.14</v>
+      </c>
+      <c r="E2006">
+        <v>1560.57</v>
+      </c>
+      <c r="F2006">
+        <f t="shared" si="89"/>
+        <v>1.56057</v>
+      </c>
+      <c r="G2006">
+        <v>214577632</v>
+      </c>
+      <c r="H2006" s="3">
+        <v>310200000000</v>
+      </c>
+      <c r="I2006">
+        <f t="shared" si="87"/>
+        <v>2004</v>
+      </c>
+      <c r="J2006">
+        <f>SUM($F$3:F2006)/I2006</f>
+        <v>1.0875252844311374</v>
+      </c>
+      <c r="K2006">
+        <f t="shared" si="88"/>
+        <v>1.3027701999999988</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2007" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B2007">
+        <v>1555</v>
+      </c>
+      <c r="C2007">
+        <v>1587.16</v>
+      </c>
+      <c r="D2007">
+        <v>1555</v>
+      </c>
+      <c r="E2007">
+        <v>1587.16</v>
+      </c>
+      <c r="F2007">
+        <f t="shared" si="89"/>
+        <v>1.5871600000000001</v>
+      </c>
+      <c r="G2007">
+        <v>182001492</v>
+      </c>
+      <c r="H2007" s="3">
+        <v>270259000000</v>
+      </c>
+      <c r="I2007">
+        <f t="shared" si="87"/>
+        <v>2005</v>
+      </c>
+      <c r="J2007">
+        <f>SUM($F$3:F2007)/I2007</f>
+        <v>1.0877744788029924</v>
+      </c>
+      <c r="K2007">
+        <f t="shared" si="88"/>
+        <v>1.305106439999999</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2008" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B2008">
+        <v>1589.03</v>
+      </c>
+      <c r="C2008">
+        <v>1593.83</v>
+      </c>
+      <c r="D2008">
+        <v>1577.42</v>
+      </c>
+      <c r="E2008">
+        <v>1583.99</v>
+      </c>
+      <c r="F2008">
+        <f t="shared" si="89"/>
+        <v>1.58399</v>
+      </c>
+      <c r="G2008">
+        <v>187812095</v>
+      </c>
+      <c r="H2008" s="3">
+        <v>276446000000</v>
+      </c>
+      <c r="I2008">
+        <f t="shared" si="87"/>
+        <v>2006</v>
+      </c>
+      <c r="J2008">
+        <f>SUM($F$3:F2008)/I2008</f>
+        <v>1.0880218444666001</v>
+      </c>
+      <c r="K2008">
+        <f t="shared" si="88"/>
+        <v>1.3074886399999988</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2009" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B2009">
+        <v>1577.79</v>
+      </c>
+      <c r="C2009">
+        <v>1583.76</v>
+      </c>
+      <c r="D2009">
+        <v>1567.43</v>
+      </c>
+      <c r="E2009">
+        <v>1579.9</v>
+      </c>
+      <c r="F2009">
+        <f t="shared" si="89"/>
+        <v>1.5799000000000001</v>
+      </c>
+      <c r="G2009">
+        <v>173022665</v>
+      </c>
+      <c r="H2009" s="3">
+        <v>257964000000</v>
+      </c>
+      <c r="I2009">
+        <f t="shared" si="87"/>
+        <v>2007</v>
+      </c>
+      <c r="J2009">
+        <f>SUM($F$3:F2009)/I2009</f>
+        <v>1.0882669257598405</v>
+      </c>
+      <c r="K2009">
+        <f t="shared" si="88"/>
+        <v>1.309904119999999</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2010" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B2010">
+        <v>1578.53</v>
+      </c>
+      <c r="C2010">
+        <v>1586.09</v>
+      </c>
+      <c r="D2010">
+        <v>1547.27</v>
+      </c>
+      <c r="E2010">
+        <v>1551.02</v>
+      </c>
+      <c r="F2010">
+        <f t="shared" si="89"/>
+        <v>1.5510200000000001</v>
+      </c>
+      <c r="G2010">
+        <v>185147351</v>
+      </c>
+      <c r="H2010" s="3">
+        <v>271498000000</v>
+      </c>
+      <c r="I2010">
+        <f t="shared" si="87"/>
+        <v>2008</v>
+      </c>
+      <c r="J2010">
+        <f>SUM($F$3:F2010)/I2010</f>
+        <v>1.0884973804780875</v>
+      </c>
+      <c r="K2010">
+        <f t="shared" si="88"/>
+        <v>1.3123830799999989</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2011" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B2011">
+        <v>1546.28</v>
+      </c>
+      <c r="C2011">
+        <v>1551.77</v>
+      </c>
+      <c r="D2011">
+        <v>1523.07</v>
+      </c>
+      <c r="E2011">
+        <v>1524.04</v>
+      </c>
+      <c r="F2011">
+        <f t="shared" si="89"/>
+        <v>1.5240400000000001</v>
+      </c>
+      <c r="G2011">
+        <v>154119848</v>
+      </c>
+      <c r="H2011" s="3">
+        <v>221001000000</v>
+      </c>
+      <c r="I2011">
+        <f t="shared" si="87"/>
+        <v>2009</v>
+      </c>
+      <c r="J2011">
+        <f>SUM($F$3:F2011)/I2011</f>
+        <v>1.088714176207068</v>
+      </c>
+      <c r="K2011">
+        <f t="shared" si="88"/>
+        <v>1.3146931599999991</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2012" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B2012">
+        <v>1513.27</v>
+      </c>
+      <c r="C2012">
+        <v>1556.4</v>
+      </c>
+      <c r="D2012">
+        <v>1512.44</v>
+      </c>
+      <c r="E2012">
+        <v>1555.22</v>
+      </c>
+      <c r="F2012">
+        <f t="shared" si="89"/>
+        <v>1.55522</v>
+      </c>
+      <c r="G2012">
+        <v>160459530</v>
+      </c>
+      <c r="H2012" s="3">
+        <v>234918000000</v>
+      </c>
+      <c r="I2012">
+        <f t="shared" si="87"/>
+        <v>2010</v>
+      </c>
+      <c r="J2012">
+        <f>SUM($F$3:F2012)/I2012</f>
+        <v>1.0889462686567162</v>
+      </c>
+      <c r="K2012">
+        <f t="shared" si="88"/>
+        <v>1.3170608399999988</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2013" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B2013">
+        <v>1559.74</v>
+      </c>
+      <c r="C2013">
+        <v>1592.17</v>
+      </c>
+      <c r="D2013">
+        <v>1559.74</v>
+      </c>
+      <c r="E2013">
+        <v>1591.57</v>
+      </c>
+      <c r="F2013">
+        <f t="shared" si="89"/>
+        <v>1.5915699999999999</v>
+      </c>
+      <c r="G2013">
+        <v>203281767</v>
+      </c>
+      <c r="H2013" s="3">
+        <v>310965000000</v>
+      </c>
+      <c r="I2013">
+        <f t="shared" si="87"/>
+        <v>2011</v>
+      </c>
+      <c r="J2013">
+        <f>SUM($F$3:F2013)/I2013</f>
+        <v>1.0891962058677274</v>
+      </c>
+      <c r="K2013">
+        <f t="shared" si="88"/>
+        <v>1.319498319999999</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2014" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B2014">
+        <v>1592.49</v>
+      </c>
+      <c r="C2014">
+        <v>1617.75</v>
+      </c>
+      <c r="D2014">
+        <v>1589.5</v>
+      </c>
+      <c r="E2014">
+        <v>1617.1</v>
+      </c>
+      <c r="F2014">
+        <f t="shared" si="89"/>
+        <v>1.6171</v>
+      </c>
+      <c r="G2014">
+        <v>233513983</v>
+      </c>
+      <c r="H2014" s="3">
+        <v>390034000000</v>
+      </c>
+      <c r="I2014">
+        <f t="shared" si="87"/>
+        <v>2012</v>
+      </c>
+      <c r="J2014">
+        <f>SUM($F$3:F2014)/I2014</f>
+        <v>1.0894585834990058</v>
+      </c>
+      <c r="K2014">
+        <f t="shared" si="88"/>
+        <v>1.3220359199999989</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2015" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B2015">
+        <v>1615.97</v>
+      </c>
+      <c r="C2015">
+        <v>1634.91</v>
+      </c>
+      <c r="D2015">
+        <v>1611.01</v>
+      </c>
+      <c r="E2015">
+        <v>1617.74</v>
+      </c>
+      <c r="F2015">
+        <f t="shared" si="89"/>
+        <v>1.61774</v>
+      </c>
+      <c r="G2015">
+        <v>242280544</v>
+      </c>
+      <c r="H2015" s="3">
+        <v>394446000000</v>
+      </c>
+      <c r="I2015">
+        <f t="shared" si="87"/>
+        <v>2013</v>
+      </c>
+      <c r="J2015">
+        <f>SUM($F$3:F2015)/I2015</f>
+        <v>1.0897210183805266</v>
+      </c>
+      <c r="K2015">
+        <f t="shared" si="88"/>
+        <v>1.3245562799999993</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2016" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B2016">
+        <v>1619.55</v>
+      </c>
+      <c r="C2016">
+        <v>1636.27</v>
+      </c>
+      <c r="D2016">
+        <v>1614.5</v>
+      </c>
+      <c r="E2016">
+        <v>1624.05</v>
+      </c>
+      <c r="F2016">
+        <f t="shared" si="89"/>
+        <v>1.62405</v>
+      </c>
+      <c r="G2016">
+        <v>225761830</v>
+      </c>
+      <c r="H2016" s="3">
+        <v>356898000000</v>
+      </c>
+      <c r="I2016">
+        <f t="shared" si="87"/>
+        <v>2014</v>
+      </c>
+      <c r="J2016">
+        <f>SUM($F$3:F2016)/I2016</f>
+        <v>1.0899863257199602</v>
+      </c>
+      <c r="K2016">
+        <f t="shared" si="88"/>
+        <v>1.327111879999999</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2017" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B2017">
+        <v>1628.82</v>
+      </c>
+      <c r="C2017">
+        <v>1651.3</v>
+      </c>
+      <c r="D2017">
+        <v>1628.82</v>
+      </c>
+      <c r="E2017">
+        <v>1651.3</v>
+      </c>
+      <c r="F2017">
+        <f t="shared" si="89"/>
+        <v>1.6513</v>
+      </c>
+      <c r="G2017">
+        <v>216176018</v>
+      </c>
+      <c r="H2017" s="3">
+        <v>341037000000</v>
+      </c>
+      <c r="I2017">
+        <f t="shared" si="87"/>
+        <v>2015</v>
+      </c>
+      <c r="J2017">
+        <f>SUM($F$3:F2017)/I2017</f>
+        <v>1.0902648933002479</v>
+      </c>
+      <c r="K2017">
+        <f t="shared" si="88"/>
+        <v>1.3296850799999993</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2017"/>
+  <dimension ref="A1:K2040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1997" workbookViewId="0">
-      <selection activeCell="A2018" sqref="A2018"/>
+    <sheetView tabSelected="1" topLeftCell="A2017" workbookViewId="0">
+      <selection activeCell="A2041" sqref="A2041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I2017" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2040" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K2017" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2040" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F2017" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2040" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -78044,6 +78044,903 @@
       <c r="K2017">
         <f t="shared" si="88"/>
         <v>1.3296850799999993</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2018" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B2018">
+        <v>1652.81</v>
+      </c>
+      <c r="C2018">
+        <v>1652.81</v>
+      </c>
+      <c r="D2018">
+        <v>1632.1</v>
+      </c>
+      <c r="E2018">
+        <v>1646.48</v>
+      </c>
+      <c r="F2018">
+        <f t="shared" si="89"/>
+        <v>1.6464799999999999</v>
+      </c>
+      <c r="G2018">
+        <v>211150312</v>
+      </c>
+      <c r="H2018" s="3">
+        <v>324625000000</v>
+      </c>
+      <c r="I2018">
+        <f t="shared" si="87"/>
+        <v>2016</v>
+      </c>
+      <c r="J2018">
+        <f>SUM($F$3:F2018)/I2018</f>
+        <v>1.0905407936507934</v>
+      </c>
+      <c r="K2018">
+        <f t="shared" si="88"/>
+        <v>1.3322398399999993</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2019" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B2019">
+        <v>1642.92</v>
+      </c>
+      <c r="C2019">
+        <v>1642.96</v>
+      </c>
+      <c r="D2019">
+        <v>1619.42</v>
+      </c>
+      <c r="E2019">
+        <v>1628.43</v>
+      </c>
+      <c r="F2019">
+        <f t="shared" si="89"/>
+        <v>1.62843</v>
+      </c>
+      <c r="G2019">
+        <v>189490223</v>
+      </c>
+      <c r="H2019" s="3">
+        <v>269319000000</v>
+      </c>
+      <c r="I2019">
+        <f t="shared" si="87"/>
+        <v>2017</v>
+      </c>
+      <c r="J2019">
+        <f>SUM($F$3:F2019)/I2019</f>
+        <v>1.0908074714923153</v>
+      </c>
+      <c r="K2019">
+        <f t="shared" si="88"/>
+        <v>1.3348210799999993</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2020" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B2020">
+        <v>1627.08</v>
+      </c>
+      <c r="C2020">
+        <v>1638.98</v>
+      </c>
+      <c r="D2020">
+        <v>1626.25</v>
+      </c>
+      <c r="E2020">
+        <v>1636.78</v>
+      </c>
+      <c r="F2020">
+        <f t="shared" si="89"/>
+        <v>1.6367799999999999</v>
+      </c>
+      <c r="G2020">
+        <v>170211168</v>
+      </c>
+      <c r="H2020" s="3">
+        <v>249264000000</v>
+      </c>
+      <c r="I2020">
+        <f t="shared" si="87"/>
+        <v>2018</v>
+      </c>
+      <c r="J2020">
+        <f>SUM($F$3:F2020)/I2020</f>
+        <v>1.0910780227948462</v>
+      </c>
+      <c r="K2020">
+        <f t="shared" si="88"/>
+        <v>1.3374559199999991</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2021" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B2021">
+        <v>1636.55</v>
+      </c>
+      <c r="C2021">
+        <v>1646.38</v>
+      </c>
+      <c r="D2021">
+        <v>1621.02</v>
+      </c>
+      <c r="E2021">
+        <v>1627.69</v>
+      </c>
+      <c r="F2021">
+        <f t="shared" si="89"/>
+        <v>1.6276900000000001</v>
+      </c>
+      <c r="G2021">
+        <v>200197230</v>
+      </c>
+      <c r="H2021" s="3">
+        <v>304126000000</v>
+      </c>
+      <c r="I2021">
+        <f t="shared" si="87"/>
+        <v>2019</v>
+      </c>
+      <c r="J2021">
+        <f>SUM($F$3:F2021)/I2021</f>
+        <v>1.0913438038632983</v>
+      </c>
+      <c r="K2021">
+        <f t="shared" si="88"/>
+        <v>1.3402195599999991</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2022" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B2022">
+        <v>1624.2</v>
+      </c>
+      <c r="C2022">
+        <v>1636.43</v>
+      </c>
+      <c r="D2022">
+        <v>1622.83</v>
+      </c>
+      <c r="E2022">
+        <v>1635.79</v>
+      </c>
+      <c r="F2022">
+        <f t="shared" si="89"/>
+        <v>1.6357899999999999</v>
+      </c>
+      <c r="G2022">
+        <v>175234507</v>
+      </c>
+      <c r="H2022" s="3">
+        <v>257876000000</v>
+      </c>
+      <c r="I2022">
+        <f t="shared" si="87"/>
+        <v>2020</v>
+      </c>
+      <c r="J2022">
+        <f>SUM($F$3:F2022)/I2022</f>
+        <v>1.091613331683168</v>
+      </c>
+      <c r="K2022">
+        <f t="shared" si="88"/>
+        <v>1.3430518399999989</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2023" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B2023">
+        <v>1634.78</v>
+      </c>
+      <c r="C2023">
+        <v>1655.93</v>
+      </c>
+      <c r="D2023">
+        <v>1632.14</v>
+      </c>
+      <c r="E2023">
+        <v>1655.93</v>
+      </c>
+      <c r="F2023">
+        <f t="shared" si="89"/>
+        <v>1.6559300000000001</v>
+      </c>
+      <c r="G2023">
+        <v>195522398</v>
+      </c>
+      <c r="H2023" s="3">
+        <v>307886000000</v>
+      </c>
+      <c r="I2023">
+        <f t="shared" si="87"/>
+        <v>2021</v>
+      </c>
+      <c r="J2023">
+        <f>SUM($F$3:F2023)/I2023</f>
+        <v>1.0918925581395345</v>
+      </c>
+      <c r="K2023">
+        <f t="shared" si="88"/>
+        <v>1.3457895199999992</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2024" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B2024">
+        <v>1657.59</v>
+      </c>
+      <c r="C2024">
+        <v>1667.31</v>
+      </c>
+      <c r="D2024">
+        <v>1652.31</v>
+      </c>
+      <c r="E2024">
+        <v>1656.86</v>
+      </c>
+      <c r="F2024">
+        <f t="shared" si="89"/>
+        <v>1.65686</v>
+      </c>
+      <c r="G2024">
+        <v>210929675</v>
+      </c>
+      <c r="H2024" s="3">
+        <v>319957000000</v>
+      </c>
+      <c r="I2024">
+        <f t="shared" si="87"/>
+        <v>2022</v>
+      </c>
+      <c r="J2024">
+        <f>SUM($F$3:F2024)/I2024</f>
+        <v>1.0921719683481697</v>
+      </c>
+      <c r="K2024">
+        <f t="shared" si="88"/>
+        <v>1.3485891599999991</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2025" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B2025">
+        <v>1653.22</v>
+      </c>
+      <c r="C2025">
+        <v>1664.25</v>
+      </c>
+      <c r="D2025">
+        <v>1646.51</v>
+      </c>
+      <c r="E2025">
+        <v>1658.31</v>
+      </c>
+      <c r="F2025">
+        <f t="shared" si="89"/>
+        <v>1.65831</v>
+      </c>
+      <c r="G2025">
+        <v>208427226</v>
+      </c>
+      <c r="H2025" s="3">
+        <v>308576000000</v>
+      </c>
+      <c r="I2025">
+        <f t="shared" si="87"/>
+        <v>2023</v>
+      </c>
+      <c r="J2025">
+        <f>SUM($F$3:F2025)/I2025</f>
+        <v>1.092451819080573</v>
+      </c>
+      <c r="K2025">
+        <f t="shared" si="88"/>
+        <v>1.3513966799999992</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2026" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B2026">
+        <v>1658.29</v>
+      </c>
+      <c r="C2026">
+        <v>1676.77</v>
+      </c>
+      <c r="D2026">
+        <v>1647.42</v>
+      </c>
+      <c r="E2026">
+        <v>1670.52</v>
+      </c>
+      <c r="F2026">
+        <f t="shared" si="89"/>
+        <v>1.67052</v>
+      </c>
+      <c r="G2026">
+        <v>241517413</v>
+      </c>
+      <c r="H2026" s="3">
+        <v>380421000000</v>
+      </c>
+      <c r="I2026">
+        <f t="shared" si="87"/>
+        <v>2024</v>
+      </c>
+      <c r="J2026">
+        <f>SUM($F$3:F2026)/I2026</f>
+        <v>1.0927374258893277</v>
+      </c>
+      <c r="K2026">
+        <f t="shared" si="88"/>
+        <v>1.354240439999999</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2027" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B2027">
+        <v>1670.07</v>
+      </c>
+      <c r="C2027">
+        <v>1673.11</v>
+      </c>
+      <c r="D2027">
+        <v>1662.29</v>
+      </c>
+      <c r="E2027">
+        <v>1670.99</v>
+      </c>
+      <c r="F2027">
+        <f t="shared" si="89"/>
+        <v>1.67099</v>
+      </c>
+      <c r="G2027">
+        <v>195064142</v>
+      </c>
+      <c r="H2027" s="3">
+        <v>295692000000</v>
+      </c>
+      <c r="I2027">
+        <f t="shared" si="87"/>
+        <v>2025</v>
+      </c>
+      <c r="J2027">
+        <f>SUM($F$3:F2027)/I2027</f>
+        <v>1.0930229827160489</v>
+      </c>
+      <c r="K2027">
+        <f t="shared" si="88"/>
+        <v>1.357042719999999</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2028" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B2028">
+        <v>1667.4</v>
+      </c>
+      <c r="C2028">
+        <v>1671.11</v>
+      </c>
+      <c r="D2028">
+        <v>1645.02</v>
+      </c>
+      <c r="E2028">
+        <v>1671.11</v>
+      </c>
+      <c r="F2028">
+        <f t="shared" si="89"/>
+        <v>1.6711099999999999</v>
+      </c>
+      <c r="G2028">
+        <v>238652606</v>
+      </c>
+      <c r="H2028" s="3">
+        <v>362089000000</v>
+      </c>
+      <c r="I2028">
+        <f t="shared" si="87"/>
+        <v>2026</v>
+      </c>
+      <c r="J2028">
+        <f>SUM($F$3:F2028)/I2028</f>
+        <v>1.0933083168805526</v>
+      </c>
+      <c r="K2028">
+        <f t="shared" si="88"/>
+        <v>1.3599065199999991</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2029" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B2029">
+        <v>1671.25</v>
+      </c>
+      <c r="C2029">
+        <v>1689.57</v>
+      </c>
+      <c r="D2029">
+        <v>1671.06</v>
+      </c>
+      <c r="E2029">
+        <v>1682.61</v>
+      </c>
+      <c r="F2029">
+        <f t="shared" si="89"/>
+        <v>1.6826099999999999</v>
+      </c>
+      <c r="G2029">
+        <v>220471022</v>
+      </c>
+      <c r="H2029" s="3">
+        <v>340008000000</v>
+      </c>
+      <c r="I2029">
+        <f t="shared" si="87"/>
+        <v>2027</v>
+      </c>
+      <c r="J2029">
+        <f>SUM($F$3:F2029)/I2029</f>
+        <v>1.093599042920572</v>
+      </c>
+      <c r="K2029">
+        <f t="shared" si="88"/>
+        <v>1.3629185199999996</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2030" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B2030">
+        <v>1681.17</v>
+      </c>
+      <c r="C2030">
+        <v>1700.11</v>
+      </c>
+      <c r="D2030">
+        <v>1677.04</v>
+      </c>
+      <c r="E2030">
+        <v>1700.11</v>
+      </c>
+      <c r="F2030">
+        <f t="shared" si="89"/>
+        <v>1.70011</v>
+      </c>
+      <c r="G2030">
+        <v>222499418</v>
+      </c>
+      <c r="H2030" s="3">
+        <v>369996000000</v>
+      </c>
+      <c r="I2030">
+        <f t="shared" si="87"/>
+        <v>2028</v>
+      </c>
+      <c r="J2030">
+        <f>SUM($F$3:F2030)/I2030</f>
+        <v>1.0938981114398421</v>
+      </c>
+      <c r="K2030">
+        <f t="shared" si="88"/>
+        <v>1.3659523599999996</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2031" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B2031">
+        <v>1704.56</v>
+      </c>
+      <c r="C2031">
+        <v>1712.08</v>
+      </c>
+      <c r="D2031">
+        <v>1696.64</v>
+      </c>
+      <c r="E2031">
+        <v>1703.34</v>
+      </c>
+      <c r="F2031">
+        <f t="shared" si="89"/>
+        <v>1.7033399999999999</v>
+      </c>
+      <c r="G2031">
+        <v>222895881</v>
+      </c>
+      <c r="H2031" s="3">
+        <v>366194000000</v>
+      </c>
+      <c r="I2031">
+        <f t="shared" si="87"/>
+        <v>2029</v>
+      </c>
+      <c r="J2031">
+        <f>SUM($F$3:F2031)/I2031</f>
+        <v>1.0941984770823063</v>
+      </c>
+      <c r="K2031">
+        <f t="shared" si="88"/>
+        <v>1.3691267199999995</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2032" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B2032">
+        <v>1702.34</v>
+      </c>
+      <c r="C2032">
+        <v>1715.53</v>
+      </c>
+      <c r="D2032">
+        <v>1700.96</v>
+      </c>
+      <c r="E2032">
+        <v>1715.53</v>
+      </c>
+      <c r="F2032">
+        <f t="shared" si="89"/>
+        <v>1.71553</v>
+      </c>
+      <c r="G2032">
+        <v>227867933</v>
+      </c>
+      <c r="H2032" s="3">
+        <v>341981000000</v>
+      </c>
+      <c r="I2032">
+        <f t="shared" si="87"/>
+        <v>2030</v>
+      </c>
+      <c r="J2032">
+        <f>SUM($F$3:F2032)/I2032</f>
+        <v>1.0945045517241376</v>
+      </c>
+      <c r="K2032">
+        <f t="shared" si="88"/>
+        <v>1.3722675999999991</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2033" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B2033">
+        <v>1714.48</v>
+      </c>
+      <c r="C2033">
+        <v>1716.71</v>
+      </c>
+      <c r="D2033">
+        <v>1701.84</v>
+      </c>
+      <c r="E2033">
+        <v>1710.02</v>
+      </c>
+      <c r="F2033">
+        <f t="shared" si="89"/>
+        <v>1.7100199999999999</v>
+      </c>
+      <c r="G2033">
+        <v>238466947</v>
+      </c>
+      <c r="H2033" s="3">
+        <v>354513000000</v>
+      </c>
+      <c r="I2033">
+        <f t="shared" si="87"/>
+        <v>2031</v>
+      </c>
+      <c r="J2033">
+        <f>SUM($F$3:F2033)/I2033</f>
+        <v>1.094807612013786</v>
+      </c>
+      <c r="K2033">
+        <f t="shared" si="88"/>
+        <v>1.3753984399999994</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2034" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B2034">
+        <v>1707.72</v>
+      </c>
+      <c r="C2034">
+        <v>1716.05</v>
+      </c>
+      <c r="D2034">
+        <v>1697.01</v>
+      </c>
+      <c r="E2034">
+        <v>1701.23</v>
+      </c>
+      <c r="F2034">
+        <f t="shared" si="89"/>
+        <v>1.70123</v>
+      </c>
+      <c r="G2034">
+        <v>241854077</v>
+      </c>
+      <c r="H2034" s="3">
+        <v>354018000000</v>
+      </c>
+      <c r="I2034">
+        <f t="shared" si="87"/>
+        <v>2032</v>
+      </c>
+      <c r="J2034">
+        <f>SUM($F$3:F2034)/I2034</f>
+        <v>1.0951060482283463</v>
+      </c>
+      <c r="K2034">
+        <f t="shared" si="88"/>
+        <v>1.3783791599999995</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2035" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B2035">
+        <v>1700.26</v>
+      </c>
+      <c r="C2035">
+        <v>1721.11</v>
+      </c>
+      <c r="D2035">
+        <v>1700.26</v>
+      </c>
+      <c r="E2035">
+        <v>1721.11</v>
+      </c>
+      <c r="F2035">
+        <f t="shared" si="89"/>
+        <v>1.7211099999999999</v>
+      </c>
+      <c r="G2035">
+        <v>220347263</v>
+      </c>
+      <c r="H2035" s="3">
+        <v>331002000000</v>
+      </c>
+      <c r="I2035">
+        <f t="shared" si="87"/>
+        <v>2033</v>
+      </c>
+      <c r="J2035">
+        <f>SUM($F$3:F2035)/I2035</f>
+        <v>1.095413969503197</v>
+      </c>
+      <c r="K2035">
+        <f t="shared" si="88"/>
+        <v>1.3814635599999994</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2036" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B2036">
+        <v>1723.57</v>
+      </c>
+      <c r="C2036">
+        <v>1737.33</v>
+      </c>
+      <c r="D2036">
+        <v>1719.65</v>
+      </c>
+      <c r="E2036">
+        <v>1737.22</v>
+      </c>
+      <c r="F2036">
+        <f t="shared" si="89"/>
+        <v>1.73722</v>
+      </c>
+      <c r="G2036">
+        <v>248725280</v>
+      </c>
+      <c r="H2036" s="3">
+        <v>385588000000</v>
+      </c>
+      <c r="I2036">
+        <f t="shared" si="87"/>
+        <v>2034</v>
+      </c>
+      <c r="J2036">
+        <f>SUM($F$3:F2036)/I2036</f>
+        <v>1.0957295083579153</v>
+      </c>
+      <c r="K2036">
+        <f t="shared" si="88"/>
+        <v>1.3846789199999991</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2037" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B2037">
+        <v>1740.17</v>
+      </c>
+      <c r="C2037">
+        <v>1742.75</v>
+      </c>
+      <c r="D2037">
+        <v>1731.36</v>
+      </c>
+      <c r="E2037">
+        <v>1742.74</v>
+      </c>
+      <c r="F2037">
+        <f t="shared" si="89"/>
+        <v>1.74274</v>
+      </c>
+      <c r="G2037">
+        <v>230037500</v>
+      </c>
+      <c r="H2037" s="3">
+        <v>362008000000</v>
+      </c>
+      <c r="I2037">
+        <f t="shared" si="87"/>
+        <v>2035</v>
+      </c>
+      <c r="J2037">
+        <f>SUM($F$3:F2037)/I2037</f>
+        <v>1.0960474496314494</v>
+      </c>
+      <c r="K2037">
+        <f t="shared" si="88"/>
+        <v>1.3878885199999993</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2038" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B2038">
+        <v>1739.11</v>
+      </c>
+      <c r="C2038">
+        <v>1747.61</v>
+      </c>
+      <c r="D2038">
+        <v>1725.96</v>
+      </c>
+      <c r="E2038">
+        <v>1747.61</v>
+      </c>
+      <c r="F2038">
+        <f t="shared" si="89"/>
+        <v>1.7476099999999999</v>
+      </c>
+      <c r="G2038">
+        <v>230250854</v>
+      </c>
+      <c r="H2038" s="3">
+        <v>378220000000</v>
+      </c>
+      <c r="I2038">
+        <f t="shared" si="87"/>
+        <v>2036</v>
+      </c>
+      <c r="J2038">
+        <f>SUM($F$3:F2038)/I2038</f>
+        <v>1.0963674705304516</v>
+      </c>
+      <c r="K2038">
+        <f t="shared" si="88"/>
+        <v>1.3911874799999995</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2039" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B2039">
+        <v>1742.52</v>
+      </c>
+      <c r="C2039">
+        <v>1745.73</v>
+      </c>
+      <c r="D2039">
+        <v>1719.27</v>
+      </c>
+      <c r="E2039">
+        <v>1733.24</v>
+      </c>
+      <c r="F2039">
+        <f t="shared" si="89"/>
+        <v>1.7332400000000001</v>
+      </c>
+      <c r="G2039">
+        <v>240548662</v>
+      </c>
+      <c r="H2039" s="3">
+        <v>373337000000</v>
+      </c>
+      <c r="I2039">
+        <f t="shared" si="87"/>
+        <v>2037</v>
+      </c>
+      <c r="J2039">
+        <f>SUM($F$3:F2039)/I2039</f>
+        <v>1.096680122729504</v>
+      </c>
+      <c r="K2039">
+        <f t="shared" si="88"/>
+        <v>1.3944502399999998</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2040" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B2040">
+        <v>1729.68</v>
+      </c>
+      <c r="C2040">
+        <v>1750.15</v>
+      </c>
+      <c r="D2040">
+        <v>1723.45</v>
+      </c>
+      <c r="E2040">
+        <v>1728.95</v>
+      </c>
+      <c r="F2040">
+        <f t="shared" si="89"/>
+        <v>1.72895</v>
+      </c>
+      <c r="G2040">
+        <v>274050617</v>
+      </c>
+      <c r="H2040" s="3">
+        <v>435420000000</v>
+      </c>
+      <c r="I2040">
+        <f t="shared" si="87"/>
+        <v>2038</v>
+      </c>
+      <c r="J2040">
+        <f>SUM($F$3:F2040)/I2040</f>
+        <v>1.0969903631010793</v>
+      </c>
+      <c r="K2040">
+        <f t="shared" si="88"/>
+        <v>1.3976433199999996</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2040"/>
+  <dimension ref="A1:K2061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2017" workbookViewId="0">
-      <selection activeCell="A2041" sqref="A2041"/>
+    <sheetView tabSelected="1" topLeftCell="A2040" workbookViewId="0">
+      <selection activeCell="A2062" sqref="A2062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I2040" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2061" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K2040" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2061" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F2040" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2061" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -78941,6 +78941,825 @@
       <c r="K2040">
         <f t="shared" si="88"/>
         <v>1.3976433199999996</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2041" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B2041">
+        <v>1733.24</v>
+      </c>
+      <c r="C2041">
+        <v>1747.59</v>
+      </c>
+      <c r="D2041">
+        <v>1724.06</v>
+      </c>
+      <c r="E2041">
+        <v>1744.14</v>
+      </c>
+      <c r="F2041">
+        <f t="shared" si="89"/>
+        <v>1.74414</v>
+      </c>
+      <c r="G2041">
+        <v>242626101</v>
+      </c>
+      <c r="H2041" s="3">
+        <v>393183000000</v>
+      </c>
+      <c r="I2041">
+        <f t="shared" si="87"/>
+        <v>2039</v>
+      </c>
+      <c r="J2041">
+        <f>SUM($F$3:F2041)/I2041</f>
+        <v>1.0973077488965177</v>
+      </c>
+      <c r="K2041">
+        <f t="shared" si="88"/>
+        <v>1.40084064</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2042" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B2042">
+        <v>1733.37</v>
+      </c>
+      <c r="C2042">
+        <v>1766.07</v>
+      </c>
+      <c r="D2042">
+        <v>1730.3</v>
+      </c>
+      <c r="E2042">
+        <v>1766.07</v>
+      </c>
+      <c r="F2042">
+        <f t="shared" si="89"/>
+        <v>1.76607</v>
+      </c>
+      <c r="G2042">
+        <v>208597554</v>
+      </c>
+      <c r="H2042" s="3">
+        <v>343257000000</v>
+      </c>
+      <c r="I2042">
+        <f t="shared" si="87"/>
+        <v>2040</v>
+      </c>
+      <c r="J2042">
+        <f>SUM($F$3:F2042)/I2042</f>
+        <v>1.0976355735294117</v>
+      </c>
+      <c r="K2042">
+        <f t="shared" si="88"/>
+        <v>1.4041910000000002</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2043" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B2043">
+        <v>1766.84</v>
+      </c>
+      <c r="C2043">
+        <v>1776.5</v>
+      </c>
+      <c r="D2043">
+        <v>1763.94</v>
+      </c>
+      <c r="E2043">
+        <v>1776.5</v>
+      </c>
+      <c r="F2043">
+        <f t="shared" si="89"/>
+        <v>1.7765</v>
+      </c>
+      <c r="G2043">
+        <v>225524521</v>
+      </c>
+      <c r="H2043" s="3">
+        <v>362671000000</v>
+      </c>
+      <c r="I2043">
+        <f t="shared" si="87"/>
+        <v>2041</v>
+      </c>
+      <c r="J2043">
+        <f>SUM($F$3:F2043)/I2043</f>
+        <v>1.097968187163155</v>
+      </c>
+      <c r="K2043">
+        <f t="shared" si="88"/>
+        <v>1.4076566800000003</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2044" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B2044">
+        <v>1775.4</v>
+      </c>
+      <c r="C2044">
+        <v>1798.09</v>
+      </c>
+      <c r="D2044">
+        <v>1772.31</v>
+      </c>
+      <c r="E2044">
+        <v>1798.09</v>
+      </c>
+      <c r="F2044">
+        <f t="shared" si="89"/>
+        <v>1.79809</v>
+      </c>
+      <c r="G2044">
+        <v>257885932</v>
+      </c>
+      <c r="H2044" s="3">
+        <v>417783000000</v>
+      </c>
+      <c r="I2044">
+        <f t="shared" si="87"/>
+        <v>2042</v>
+      </c>
+      <c r="J2044">
+        <f>SUM($F$3:F2044)/I2044</f>
+        <v>1.0983110479921643</v>
+      </c>
+      <c r="K2044">
+        <f t="shared" si="88"/>
+        <v>1.41119716</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2045" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B2045">
+        <v>1797.85</v>
+      </c>
+      <c r="C2045">
+        <v>1804.94</v>
+      </c>
+      <c r="D2045">
+        <v>1789.49</v>
+      </c>
+      <c r="E2045">
+        <v>1799.43</v>
+      </c>
+      <c r="F2045">
+        <f t="shared" si="89"/>
+        <v>1.7994300000000001</v>
+      </c>
+      <c r="G2045">
+        <v>256518294</v>
+      </c>
+      <c r="H2045" s="3">
+        <v>423672000000</v>
+      </c>
+      <c r="I2045">
+        <f t="shared" si="87"/>
+        <v>2043</v>
+      </c>
+      <c r="J2045">
+        <f>SUM($F$3:F2045)/I2045</f>
+        <v>1.0986542290748895</v>
+      </c>
+      <c r="K2045">
+        <f t="shared" si="88"/>
+        <v>1.4146840000000003</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2046" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B2046">
+        <v>1794.57</v>
+      </c>
+      <c r="C2046">
+        <v>1794.57</v>
+      </c>
+      <c r="D2046">
+        <v>1776.1</v>
+      </c>
+      <c r="E2046">
+        <v>1780.07</v>
+      </c>
+      <c r="F2046">
+        <f t="shared" si="89"/>
+        <v>1.78007</v>
+      </c>
+      <c r="G2046">
+        <v>253077750</v>
+      </c>
+      <c r="H2046" s="3">
+        <v>399554000000</v>
+      </c>
+      <c r="I2046">
+        <f t="shared" si="87"/>
+        <v>2044</v>
+      </c>
+      <c r="J2046">
+        <f>SUM($F$3:F2046)/I2046</f>
+        <v>1.0989876027397256</v>
+      </c>
+      <c r="K2046">
+        <f t="shared" si="88"/>
+        <v>1.4180640800000002</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2047" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B2047">
+        <v>1779.14</v>
+      </c>
+      <c r="C2047">
+        <v>1807.15</v>
+      </c>
+      <c r="D2047">
+        <v>1779.14</v>
+      </c>
+      <c r="E2047">
+        <v>1805.95</v>
+      </c>
+      <c r="F2047">
+        <f t="shared" si="89"/>
+        <v>1.8059499999999999</v>
+      </c>
+      <c r="G2047">
+        <v>240304470</v>
+      </c>
+      <c r="H2047" s="3">
+        <v>389919000000</v>
+      </c>
+      <c r="I2047">
+        <f t="shared" si="87"/>
+        <v>2045</v>
+      </c>
+      <c r="J2047">
+        <f>SUM($F$3:F2047)/I2047</f>
+        <v>1.0993333056234715</v>
+      </c>
+      <c r="K2047">
+        <f t="shared" si="88"/>
+        <v>1.4215172800000002</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2048" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B2048">
+        <v>1804.71</v>
+      </c>
+      <c r="C2048">
+        <v>1806.87</v>
+      </c>
+      <c r="D2048">
+        <v>1791.6</v>
+      </c>
+      <c r="E2048">
+        <v>1805.93</v>
+      </c>
+      <c r="F2048">
+        <f t="shared" si="89"/>
+        <v>1.80593</v>
+      </c>
+      <c r="G2048">
+        <v>244156127</v>
+      </c>
+      <c r="H2048" s="3">
+        <v>425915000000</v>
+      </c>
+      <c r="I2048">
+        <f t="shared" si="87"/>
+        <v>2046</v>
+      </c>
+      <c r="J2048">
+        <f>SUM($F$3:F2048)/I2048</f>
+        <v>1.0996786608015636</v>
+      </c>
+      <c r="K2048">
+        <f t="shared" si="88"/>
+        <v>1.4248236000000003</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2049" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B2049">
+        <v>1807.44</v>
+      </c>
+      <c r="C2049">
+        <v>1819.85</v>
+      </c>
+      <c r="D2049">
+        <v>1801.84</v>
+      </c>
+      <c r="E2049">
+        <v>1817.81</v>
+      </c>
+      <c r="F2049">
+        <f t="shared" si="89"/>
+        <v>1.8178099999999999</v>
+      </c>
+      <c r="G2049">
+        <v>287236331</v>
+      </c>
+      <c r="H2049" s="3">
+        <v>497335000000</v>
+      </c>
+      <c r="I2049">
+        <f t="shared" si="87"/>
+        <v>2047</v>
+      </c>
+      <c r="J2049">
+        <f>SUM($F$3:F2049)/I2049</f>
+        <v>1.1000294821690275</v>
+      </c>
+      <c r="K2049">
+        <f t="shared" si="88"/>
+        <v>1.4281618</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2050" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B2050">
+        <v>1820.32</v>
+      </c>
+      <c r="C2050">
+        <v>1822.66</v>
+      </c>
+      <c r="D2050">
+        <v>1791.35</v>
+      </c>
+      <c r="E2050">
+        <v>1792.22</v>
+      </c>
+      <c r="F2050">
+        <f t="shared" si="89"/>
+        <v>1.7922199999999999</v>
+      </c>
+      <c r="G2050">
+        <v>333952196</v>
+      </c>
+      <c r="H2050" s="3">
+        <v>580371000000</v>
+      </c>
+      <c r="I2050">
+        <f t="shared" si="87"/>
+        <v>2048</v>
+      </c>
+      <c r="J2050">
+        <f>SUM($F$3:F2050)/I2050</f>
+        <v>1.100367465820312</v>
+      </c>
+      <c r="K2050">
+        <f t="shared" si="88"/>
+        <v>1.4314802000000004</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2051" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B2051">
+        <v>1788.36</v>
+      </c>
+      <c r="C2051">
+        <v>1824.18</v>
+      </c>
+      <c r="D2051">
+        <v>1788.36</v>
+      </c>
+      <c r="E2051">
+        <v>1824.18</v>
+      </c>
+      <c r="F2051">
+        <f t="shared" si="89"/>
+        <v>1.8241800000000001</v>
+      </c>
+      <c r="G2051">
+        <v>301069712</v>
+      </c>
+      <c r="H2051" s="3">
+        <v>549243000000</v>
+      </c>
+      <c r="I2051">
+        <f t="shared" si="87"/>
+        <v>2049</v>
+      </c>
+      <c r="J2051">
+        <f>SUM($F$3:F2051)/I2051</f>
+        <v>1.1007207174231328</v>
+      </c>
+      <c r="K2051">
+        <f t="shared" si="88"/>
+        <v>1.4350597200000004</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2052" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B2052">
+        <v>1832.92</v>
+      </c>
+      <c r="C2052">
+        <v>1872.51</v>
+      </c>
+      <c r="D2052">
+        <v>1832.92</v>
+      </c>
+      <c r="E2052">
+        <v>1865.96</v>
+      </c>
+      <c r="F2052">
+        <f t="shared" si="89"/>
+        <v>1.8659600000000001</v>
+      </c>
+      <c r="G2052">
+        <v>400450515</v>
+      </c>
+      <c r="H2052" s="3">
+        <v>719098000000</v>
+      </c>
+      <c r="I2052">
+        <f t="shared" si="87"/>
+        <v>2050</v>
+      </c>
+      <c r="J2052">
+        <f>SUM($F$3:F2052)/I2052</f>
+        <v>1.1010940048780484</v>
+      </c>
+      <c r="K2052">
+        <f t="shared" si="88"/>
+        <v>1.4387353199999999</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2053" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B2053">
+        <v>1867.06</v>
+      </c>
+      <c r="C2053">
+        <v>1887.38</v>
+      </c>
+      <c r="D2053">
+        <v>1860.81</v>
+      </c>
+      <c r="E2053">
+        <v>1877.09</v>
+      </c>
+      <c r="F2053">
+        <f t="shared" si="89"/>
+        <v>1.8770899999999999</v>
+      </c>
+      <c r="G2053">
+        <v>370972532</v>
+      </c>
+      <c r="H2053" s="3">
+        <v>666059000000</v>
+      </c>
+      <c r="I2053">
+        <f t="shared" si="87"/>
+        <v>2051</v>
+      </c>
+      <c r="J2053">
+        <f>SUM($F$3:F2053)/I2053</f>
+        <v>1.101472354948805</v>
+      </c>
+      <c r="K2053">
+        <f t="shared" si="88"/>
+        <v>1.4424518400000002</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2054" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B2054">
+        <v>1867.96</v>
+      </c>
+      <c r="C2054">
+        <v>1883.84</v>
+      </c>
+      <c r="D2054">
+        <v>1850.39</v>
+      </c>
+      <c r="E2054">
+        <v>1883.84</v>
+      </c>
+      <c r="F2054">
+        <f t="shared" si="89"/>
+        <v>1.88384</v>
+      </c>
+      <c r="G2054">
+        <v>351662103</v>
+      </c>
+      <c r="H2054" s="3">
+        <v>612209000000</v>
+      </c>
+      <c r="I2054">
+        <f t="shared" si="87"/>
+        <v>2052</v>
+      </c>
+      <c r="J2054">
+        <f>SUM($F$3:F2054)/I2054</f>
+        <v>1.1018536257309937</v>
+      </c>
+      <c r="K2054">
+        <f t="shared" si="88"/>
+        <v>1.4462416400000004</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2055" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B2055">
+        <v>1889</v>
+      </c>
+      <c r="C2055">
+        <v>1896.97</v>
+      </c>
+      <c r="D2055">
+        <v>1869.98</v>
+      </c>
+      <c r="E2055">
+        <v>1880.18</v>
+      </c>
+      <c r="F2055">
+        <f t="shared" si="89"/>
+        <v>1.88018</v>
+      </c>
+      <c r="G2055">
+        <v>358132251</v>
+      </c>
+      <c r="H2055" s="3">
+        <v>635118000000</v>
+      </c>
+      <c r="I2055">
+        <f t="shared" si="87"/>
+        <v>2053</v>
+      </c>
+      <c r="J2055">
+        <f>SUM($F$3:F2055)/I2055</f>
+        <v>1.1022327423282996</v>
+      </c>
+      <c r="K2055">
+        <f t="shared" si="88"/>
+        <v>1.4500556000000004</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2056" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B2056">
+        <v>1880.01</v>
+      </c>
+      <c r="C2056">
+        <v>1907.68</v>
+      </c>
+      <c r="D2056">
+        <v>1879.86</v>
+      </c>
+      <c r="E2056">
+        <v>1907.68</v>
+      </c>
+      <c r="F2056">
+        <f t="shared" si="89"/>
+        <v>1.90768</v>
+      </c>
+      <c r="G2056">
+        <v>375633729</v>
+      </c>
+      <c r="H2056" s="3">
+        <v>709348000000</v>
+      </c>
+      <c r="I2056">
+        <f t="shared" si="87"/>
+        <v>2054</v>
+      </c>
+      <c r="J2056">
+        <f>SUM($F$3:F2056)/I2056</f>
+        <v>1.1026248782862702</v>
+      </c>
+      <c r="K2056">
+        <f t="shared" si="88"/>
+        <v>1.4540314000000005</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2057" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B2057">
+        <v>1924.69</v>
+      </c>
+      <c r="C2057">
+        <v>1940.69</v>
+      </c>
+      <c r="D2057">
+        <v>1914.49</v>
+      </c>
+      <c r="E2057">
+        <v>1931.8</v>
+      </c>
+      <c r="F2057">
+        <f t="shared" si="89"/>
+        <v>1.9318</v>
+      </c>
+      <c r="G2057">
+        <v>435250931</v>
+      </c>
+      <c r="H2057" s="3">
+        <v>849020000000</v>
+      </c>
+      <c r="I2057">
+        <f t="shared" si="87"/>
+        <v>2055</v>
+      </c>
+      <c r="J2057">
+        <f>SUM($F$3:F2057)/I2057</f>
+        <v>1.103028369829683</v>
+      </c>
+      <c r="K2057">
+        <f t="shared" si="88"/>
+        <v>1.4580700000000006</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2058" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B2058">
+        <v>1926.39</v>
+      </c>
+      <c r="C2058">
+        <v>1953.19</v>
+      </c>
+      <c r="D2058">
+        <v>1920.8</v>
+      </c>
+      <c r="E2058">
+        <v>1941.18</v>
+      </c>
+      <c r="F2058">
+        <f t="shared" si="89"/>
+        <v>1.9411800000000001</v>
+      </c>
+      <c r="G2058">
+        <v>384891532</v>
+      </c>
+      <c r="H2058" s="3">
+        <v>722366000000</v>
+      </c>
+      <c r="I2058">
+        <f t="shared" si="87"/>
+        <v>2056</v>
+      </c>
+      <c r="J2058">
+        <f>SUM($F$3:F2058)/I2058</f>
+        <v>1.1034360311284039</v>
+      </c>
+      <c r="K2058">
+        <f t="shared" si="88"/>
+        <v>1.4621421200000007</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2059" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B2059">
+        <v>1952.43</v>
+      </c>
+      <c r="C2059">
+        <v>1965.17</v>
+      </c>
+      <c r="D2059">
+        <v>1903.32</v>
+      </c>
+      <c r="E2059">
+        <v>1903.34</v>
+      </c>
+      <c r="F2059">
+        <f t="shared" si="89"/>
+        <v>1.9033399999999998</v>
+      </c>
+      <c r="G2059">
+        <v>475820372</v>
+      </c>
+      <c r="H2059" s="3">
+        <v>902689000000</v>
+      </c>
+      <c r="I2059">
+        <f t="shared" si="87"/>
+        <v>2057</v>
+      </c>
+      <c r="J2059">
+        <f>SUM($F$3:F2059)/I2059</f>
+        <v>1.1038249003403007</v>
+      </c>
+      <c r="K2059">
+        <f t="shared" si="88"/>
+        <v>1.4660080400000006</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2060" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B2060">
+        <v>1899.78</v>
+      </c>
+      <c r="C2060">
+        <v>1921.14</v>
+      </c>
+      <c r="D2060">
+        <v>1853.38</v>
+      </c>
+      <c r="E2060">
+        <v>1919.22</v>
+      </c>
+      <c r="F2060">
+        <f t="shared" si="89"/>
+        <v>1.9192199999999999</v>
+      </c>
+      <c r="G2060">
+        <v>426833433</v>
+      </c>
+      <c r="H2060" s="3">
+        <v>813941000000</v>
+      </c>
+      <c r="I2060">
+        <f t="shared" si="87"/>
+        <v>2058</v>
+      </c>
+      <c r="J2060">
+        <f>SUM($F$3:F2060)/I2060</f>
+        <v>1.1042211078717195</v>
+      </c>
+      <c r="K2060">
+        <f t="shared" si="88"/>
+        <v>1.4699375600000002</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2061" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B2061">
+        <v>1917.97</v>
+      </c>
+      <c r="C2061">
+        <v>1917.97</v>
+      </c>
+      <c r="D2061">
+        <v>1893.41</v>
+      </c>
+      <c r="E2061">
+        <v>1901.59</v>
+      </c>
+      <c r="F2061">
+        <f t="shared" si="89"/>
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="G2061">
+        <v>349128364</v>
+      </c>
+      <c r="H2061" s="3">
+        <v>701526000000</v>
+      </c>
+      <c r="I2061">
+        <f t="shared" si="87"/>
+        <v>2059</v>
+      </c>
+      <c r="J2061">
+        <f>SUM($F$3:F2061)/I2061</f>
+        <v>1.1046083681398731</v>
+      </c>
+      <c r="K2061">
+        <f t="shared" si="88"/>
+        <v>1.4737925600000001</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2061"/>
+  <dimension ref="A1:K2083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2040" workbookViewId="0">
-      <selection activeCell="A2062" sqref="A2062"/>
+    <sheetView tabSelected="1" topLeftCell="A2061" workbookViewId="0">
+      <selection activeCell="A2084" sqref="A2084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I2061" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2083" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K2061" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2083" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F2061" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2083" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -79760,6 +79760,864 @@
       <c r="K2061">
         <f t="shared" si="88"/>
         <v>1.4737925600000001</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2062" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B2062">
+        <v>1908.12</v>
+      </c>
+      <c r="C2062">
+        <v>1924.78</v>
+      </c>
+      <c r="D2062">
+        <v>1903.72</v>
+      </c>
+      <c r="E2062">
+        <v>1916.16</v>
+      </c>
+      <c r="F2062">
+        <f t="shared" si="89"/>
+        <v>1.9161600000000001</v>
+      </c>
+      <c r="G2062">
+        <v>340257528</v>
+      </c>
+      <c r="H2062" s="3">
+        <v>683140000000</v>
+      </c>
+      <c r="I2062">
+        <f t="shared" si="87"/>
+        <v>2060</v>
+      </c>
+      <c r="J2062">
+        <f>SUM($F$3:F2062)/I2062</f>
+        <v>1.1050023252427179</v>
+      </c>
+      <c r="K2062">
+        <f t="shared" si="88"/>
+        <v>1.4777743600000002</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2063" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B2063">
+        <v>1913.85</v>
+      </c>
+      <c r="C2063">
+        <v>1913.85</v>
+      </c>
+      <c r="D2063">
+        <v>1847.93</v>
+      </c>
+      <c r="E2063">
+        <v>1864.49</v>
+      </c>
+      <c r="F2063">
+        <f t="shared" si="89"/>
+        <v>1.86449</v>
+      </c>
+      <c r="G2063">
+        <v>374441649</v>
+      </c>
+      <c r="H2063" s="3">
+        <v>702928000000</v>
+      </c>
+      <c r="I2063">
+        <f t="shared" si="87"/>
+        <v>2061</v>
+      </c>
+      <c r="J2063">
+        <f>SUM($F$3:F2063)/I2063</f>
+        <v>1.1053708296943225</v>
+      </c>
+      <c r="K2063">
+        <f t="shared" si="88"/>
+        <v>1.4815559600000001</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2064" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B2064">
+        <v>1868.23</v>
+      </c>
+      <c r="C2064">
+        <v>1874.61</v>
+      </c>
+      <c r="D2064">
+        <v>1817.22</v>
+      </c>
+      <c r="E2064">
+        <v>1822.59</v>
+      </c>
+      <c r="F2064">
+        <f t="shared" si="89"/>
+        <v>1.8225899999999999</v>
+      </c>
+      <c r="G2064">
+        <v>305322894</v>
+      </c>
+      <c r="H2064" s="3">
+        <v>547639000000</v>
+      </c>
+      <c r="I2064">
+        <f t="shared" si="87"/>
+        <v>2062</v>
+      </c>
+      <c r="J2064">
+        <f>SUM($F$3:F2064)/I2064</f>
+        <v>1.1057186566440345</v>
+      </c>
+      <c r="K2064">
+        <f t="shared" si="88"/>
+        <v>1.4852477600000003</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2065" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B2065">
+        <v>1824.58</v>
+      </c>
+      <c r="C2065">
+        <v>1836.38</v>
+      </c>
+      <c r="D2065">
+        <v>1770.01</v>
+      </c>
+      <c r="E2065">
+        <v>1797.09</v>
+      </c>
+      <c r="F2065">
+        <f t="shared" si="89"/>
+        <v>1.7970899999999999</v>
+      </c>
+      <c r="G2065">
+        <v>306215413</v>
+      </c>
+      <c r="H2065" s="3">
+        <v>569476000000</v>
+      </c>
+      <c r="I2065">
+        <f t="shared" si="87"/>
+        <v>2063</v>
+      </c>
+      <c r="J2065">
+        <f>SUM($F$3:F2065)/I2065</f>
+        <v>1.1060537857489088</v>
+      </c>
+      <c r="K2065">
+        <f t="shared" si="88"/>
+        <v>1.4888159600000004</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2066" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B2066">
+        <v>1802.5</v>
+      </c>
+      <c r="C2066">
+        <v>1838.81</v>
+      </c>
+      <c r="D2066">
+        <v>1783.9</v>
+      </c>
+      <c r="E2066">
+        <v>1838.81</v>
+      </c>
+      <c r="F2066">
+        <f t="shared" si="89"/>
+        <v>1.8388100000000001</v>
+      </c>
+      <c r="G2066">
+        <v>266539082</v>
+      </c>
+      <c r="H2066" s="3">
+        <v>478488000000</v>
+      </c>
+      <c r="I2066">
+        <f t="shared" si="87"/>
+        <v>2064</v>
+      </c>
+      <c r="J2066">
+        <f>SUM($F$3:F2066)/I2066</f>
+        <v>1.1064088032945731</v>
+      </c>
+      <c r="K2066">
+        <f t="shared" si="88"/>
+        <v>1.4925290400000002</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2067" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B2067">
+        <v>1837.93</v>
+      </c>
+      <c r="C2067">
+        <v>1862.56</v>
+      </c>
+      <c r="D2067">
+        <v>1836.3</v>
+      </c>
+      <c r="E2067">
+        <v>1860.99</v>
+      </c>
+      <c r="F2067">
+        <f t="shared" si="89"/>
+        <v>1.8609899999999999</v>
+      </c>
+      <c r="G2067">
+        <v>271428141</v>
+      </c>
+      <c r="H2067" s="3">
+        <v>491426000000</v>
+      </c>
+      <c r="I2067">
+        <f t="shared" si="87"/>
+        <v>2065</v>
+      </c>
+      <c r="J2067">
+        <f>SUM($F$3:F2067)/I2067</f>
+        <v>1.1067742179176752</v>
+      </c>
+      <c r="K2067">
+        <f t="shared" si="88"/>
+        <v>1.4964030400000004</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2068" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B2068">
+        <v>1858.18</v>
+      </c>
+      <c r="C2068">
+        <v>1858.18</v>
+      </c>
+      <c r="D2068">
+        <v>1823.51</v>
+      </c>
+      <c r="E2068">
+        <v>1831.47</v>
+      </c>
+      <c r="F2068">
+        <f t="shared" si="89"/>
+        <v>1.8314699999999999</v>
+      </c>
+      <c r="G2068">
+        <v>253780153</v>
+      </c>
+      <c r="H2068" s="3">
+        <v>425497000000</v>
+      </c>
+      <c r="I2068">
+        <f t="shared" si="87"/>
+        <v>2066</v>
+      </c>
+      <c r="J2068">
+        <f>SUM($F$3:F2068)/I2068</f>
+        <v>1.1071249903194575</v>
+      </c>
+      <c r="K2068">
+        <f t="shared" si="88"/>
+        <v>1.5001396400000009</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2069" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B2069">
+        <v>1832.71</v>
+      </c>
+      <c r="C2069">
+        <v>1853.35</v>
+      </c>
+      <c r="D2069">
+        <v>1832.13</v>
+      </c>
+      <c r="E2069">
+        <v>1844.1</v>
+      </c>
+      <c r="F2069">
+        <f t="shared" si="89"/>
+        <v>1.8440999999999999</v>
+      </c>
+      <c r="G2069">
+        <v>254058039</v>
+      </c>
+      <c r="H2069" s="3">
+        <v>434218000000</v>
+      </c>
+      <c r="I2069">
+        <f t="shared" si="87"/>
+        <v>2067</v>
+      </c>
+      <c r="J2069">
+        <f>SUM($F$3:F2069)/I2069</f>
+        <v>1.1074815336236088</v>
+      </c>
+      <c r="K2069">
+        <f t="shared" si="88"/>
+        <v>1.5038698400000008</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2070" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B2070">
+        <v>1843.53</v>
+      </c>
+      <c r="C2070">
+        <v>1881.38</v>
+      </c>
+      <c r="D2070">
+        <v>1826.26</v>
+      </c>
+      <c r="E2070">
+        <v>1881.38</v>
+      </c>
+      <c r="F2070">
+        <f t="shared" si="89"/>
+        <v>1.8813800000000001</v>
+      </c>
+      <c r="G2070">
+        <v>312111432</v>
+      </c>
+      <c r="H2070" s="3">
+        <v>582720000000</v>
+      </c>
+      <c r="I2070">
+        <f t="shared" si="87"/>
+        <v>2068</v>
+      </c>
+      <c r="J2070">
+        <f>SUM($F$3:F2070)/I2070</f>
+        <v>1.1078557591876204</v>
+      </c>
+      <c r="K2070">
+        <f t="shared" si="88"/>
+        <v>1.5076392400000007</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2071" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B2071">
+        <v>1884.21</v>
+      </c>
+      <c r="C2071">
+        <v>1897.91</v>
+      </c>
+      <c r="D2071">
+        <v>1874.9</v>
+      </c>
+      <c r="E2071">
+        <v>1881.63</v>
+      </c>
+      <c r="F2071">
+        <f t="shared" si="89"/>
+        <v>1.8816300000000001</v>
+      </c>
+      <c r="G2071">
+        <v>313935966</v>
+      </c>
+      <c r="H2071" s="3">
+        <v>602304000000</v>
+      </c>
+      <c r="I2071">
+        <f t="shared" si="87"/>
+        <v>2069</v>
+      </c>
+      <c r="J2071">
+        <f>SUM($F$3:F2071)/I2071</f>
+        <v>1.1082297438376021</v>
+      </c>
+      <c r="K2071">
+        <f t="shared" si="88"/>
+        <v>1.5114870400000007</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2072" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B2072">
+        <v>1881.25</v>
+      </c>
+      <c r="C2072">
+        <v>1884.54</v>
+      </c>
+      <c r="D2072">
+        <v>1868.26</v>
+      </c>
+      <c r="E2072">
+        <v>1877.23</v>
+      </c>
+      <c r="F2072">
+        <f t="shared" si="89"/>
+        <v>1.87723</v>
+      </c>
+      <c r="G2072">
+        <v>271831119</v>
+      </c>
+      <c r="H2072" s="3">
+        <v>522140000000</v>
+      </c>
+      <c r="I2072">
+        <f t="shared" si="87"/>
+        <v>2070</v>
+      </c>
+      <c r="J2072">
+        <f>SUM($F$3:F2072)/I2072</f>
+        <v>1.1086012415458932</v>
+      </c>
+      <c r="K2072">
+        <f t="shared" si="88"/>
+        <v>1.5152531600000008</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2073" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B2073">
+        <v>1877.81</v>
+      </c>
+      <c r="C2073">
+        <v>1905.05</v>
+      </c>
+      <c r="D2073">
+        <v>1873.61</v>
+      </c>
+      <c r="E2073">
+        <v>1905.05</v>
+      </c>
+      <c r="F2073">
+        <f t="shared" si="89"/>
+        <v>1.9050499999999999</v>
+      </c>
+      <c r="G2073">
+        <v>307828945</v>
+      </c>
+      <c r="H2073" s="3">
+        <v>561404000000</v>
+      </c>
+      <c r="I2073">
+        <f t="shared" si="87"/>
+        <v>2071</v>
+      </c>
+      <c r="J2073">
+        <f>SUM($F$3:F2073)/I2073</f>
+        <v>1.1089858136166098</v>
+      </c>
+      <c r="K2073">
+        <f t="shared" si="88"/>
+        <v>1.5191761200000007</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2074" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B2074">
+        <v>1901.52</v>
+      </c>
+      <c r="C2074">
+        <v>1915.12</v>
+      </c>
+      <c r="D2074">
+        <v>1894.34</v>
+      </c>
+      <c r="E2074">
+        <v>1910.64</v>
+      </c>
+      <c r="F2074">
+        <f t="shared" si="89"/>
+        <v>1.9106400000000001</v>
+      </c>
+      <c r="G2074">
+        <v>308418344</v>
+      </c>
+      <c r="H2074" s="3">
+        <v>553689000000</v>
+      </c>
+      <c r="I2074">
+        <f t="shared" si="87"/>
+        <v>2072</v>
+      </c>
+      <c r="J2074">
+        <f>SUM($F$3:F2074)/I2074</f>
+        <v>1.1093727123552117</v>
+      </c>
+      <c r="K2074">
+        <f t="shared" si="88"/>
+        <v>1.523064120000001</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2075" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B2075">
+        <v>1909.36</v>
+      </c>
+      <c r="C2075">
+        <v>1932.08</v>
+      </c>
+      <c r="D2075">
+        <v>1865.36</v>
+      </c>
+      <c r="E2075">
+        <v>1884.32</v>
+      </c>
+      <c r="F2075">
+        <f t="shared" si="89"/>
+        <v>1.88432</v>
+      </c>
+      <c r="G2075">
+        <v>398466315</v>
+      </c>
+      <c r="H2075" s="3">
+        <v>758011000000</v>
+      </c>
+      <c r="I2075">
+        <f t="shared" si="87"/>
+        <v>2073</v>
+      </c>
+      <c r="J2075">
+        <f>SUM($F$3:F2075)/I2075</f>
+        <v>1.1097465412445726</v>
+      </c>
+      <c r="K2075">
+        <f t="shared" si="88"/>
+        <v>1.5269211200000008</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2076" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B2076">
+        <v>1884.04</v>
+      </c>
+      <c r="C2076">
+        <v>1895.66</v>
+      </c>
+      <c r="D2076">
+        <v>1862.09</v>
+      </c>
+      <c r="E2076">
+        <v>1870.6</v>
+      </c>
+      <c r="F2076">
+        <f t="shared" si="89"/>
+        <v>1.8705999999999998</v>
+      </c>
+      <c r="G2076">
+        <v>284001680</v>
+      </c>
+      <c r="H2076" s="3">
+        <v>525645000000</v>
+      </c>
+      <c r="I2076">
+        <f t="shared" si="87"/>
+        <v>2074</v>
+      </c>
+      <c r="J2076">
+        <f>SUM($F$3:F2076)/I2076</f>
+        <v>1.1101133944069426</v>
+      </c>
+      <c r="K2076">
+        <f t="shared" si="88"/>
+        <v>1.5307359600000006</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2077" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B2077">
+        <v>1873.11</v>
+      </c>
+      <c r="C2077">
+        <v>1882.8</v>
+      </c>
+      <c r="D2077">
+        <v>1865.49</v>
+      </c>
+      <c r="E2077">
+        <v>1882.8</v>
+      </c>
+      <c r="F2077">
+        <f t="shared" si="89"/>
+        <v>1.8828</v>
+      </c>
+      <c r="G2077">
+        <v>266808413</v>
+      </c>
+      <c r="H2077" s="3">
+        <v>517291000000</v>
+      </c>
+      <c r="I2077">
+        <f t="shared" si="87"/>
+        <v>2075</v>
+      </c>
+      <c r="J2077">
+        <f>SUM($F$3:F2077)/I2077</f>
+        <v>1.1104857734939755</v>
+      </c>
+      <c r="K2077">
+        <f t="shared" si="88"/>
+        <v>1.534538600000001</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2078" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B2078">
+        <v>1880.68</v>
+      </c>
+      <c r="C2078">
+        <v>1880.68</v>
+      </c>
+      <c r="D2078">
+        <v>1811.48</v>
+      </c>
+      <c r="E2078">
+        <v>1848.27</v>
+      </c>
+      <c r="F2078">
+        <f t="shared" si="89"/>
+        <v>1.8482700000000001</v>
+      </c>
+      <c r="G2078">
+        <v>319070074</v>
+      </c>
+      <c r="H2078" s="3">
+        <v>581984000000</v>
+      </c>
+      <c r="I2078">
+        <f t="shared" si="87"/>
+        <v>2076</v>
+      </c>
+      <c r="J2078">
+        <f>SUM($F$3:F2078)/I2078</f>
+        <v>1.1108411608863193</v>
+      </c>
+      <c r="K2078">
+        <f t="shared" si="88"/>
+        <v>1.5382354800000011</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2079" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B2079">
+        <v>1839.58</v>
+      </c>
+      <c r="C2079">
+        <v>1880.92</v>
+      </c>
+      <c r="D2079">
+        <v>1830.53</v>
+      </c>
+      <c r="E2079">
+        <v>1880.91</v>
+      </c>
+      <c r="F2079">
+        <f t="shared" si="89"/>
+        <v>1.8809100000000001</v>
+      </c>
+      <c r="G2079">
+        <v>277896091</v>
+      </c>
+      <c r="H2079" s="3">
+        <v>546717000000</v>
+      </c>
+      <c r="I2079">
+        <f t="shared" si="87"/>
+        <v>2077</v>
+      </c>
+      <c r="J2079">
+        <f>SUM($F$3:F2079)/I2079</f>
+        <v>1.1112119210399609</v>
+      </c>
+      <c r="K2079">
+        <f t="shared" si="88"/>
+        <v>1.5420548000000007</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2080" s="1">
+        <v>45925</v>
+      </c>
+      <c r="B2080">
+        <v>1879.1</v>
+      </c>
+      <c r="C2080">
+        <v>1899.92</v>
+      </c>
+      <c r="D2080">
+        <v>1876.65</v>
+      </c>
+      <c r="E2080">
+        <v>1878.93</v>
+      </c>
+      <c r="F2080">
+        <f t="shared" si="89"/>
+        <v>1.87893</v>
+      </c>
+      <c r="G2080">
+        <v>279857181</v>
+      </c>
+      <c r="H2080" s="3">
+        <v>562362000000</v>
+      </c>
+      <c r="I2080">
+        <f t="shared" si="87"/>
+        <v>2078</v>
+      </c>
+      <c r="J2080">
+        <f>SUM($F$3:F2080)/I2080</f>
+        <v>1.1115813715110676</v>
+      </c>
+      <c r="K2080">
+        <f t="shared" si="88"/>
+        <v>1.545917560000001</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2081" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B2081">
+        <v>1872.5</v>
+      </c>
+      <c r="C2081">
+        <v>1873.42</v>
+      </c>
+      <c r="D2081">
+        <v>1845.85</v>
+      </c>
+      <c r="E2081">
+        <v>1845.85</v>
+      </c>
+      <c r="F2081">
+        <f t="shared" si="89"/>
+        <v>1.84585</v>
+      </c>
+      <c r="G2081">
+        <v>254215815</v>
+      </c>
+      <c r="H2081" s="3">
+        <v>491514000000</v>
+      </c>
+      <c r="I2081">
+        <f t="shared" si="87"/>
+        <v>2079</v>
+      </c>
+      <c r="J2081">
+        <f>SUM($F$3:F2081)/I2081</f>
+        <v>1.1119345550745545</v>
+      </c>
+      <c r="K2081">
+        <f t="shared" si="88"/>
+        <v>1.5496791600000011</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2082" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B2082">
+        <v>1847.36</v>
+      </c>
+      <c r="C2082">
+        <v>1863.99</v>
+      </c>
+      <c r="D2082">
+        <v>1829.39</v>
+      </c>
+      <c r="E2082">
+        <v>1859.76</v>
+      </c>
+      <c r="F2082">
+        <f t="shared" si="89"/>
+        <v>1.8597600000000001</v>
+      </c>
+      <c r="G2082">
+        <v>234605202</v>
+      </c>
+      <c r="H2082" s="3">
+        <v>457333000000</v>
+      </c>
+      <c r="I2082">
+        <f t="shared" si="87"/>
+        <v>2080</v>
+      </c>
+      <c r="J2082">
+        <f>SUM($F$3:F2082)/I2082</f>
+        <v>1.112294086538461</v>
+      </c>
+      <c r="K2082">
+        <f t="shared" si="88"/>
+        <v>1.5533980000000012</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2083" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B2083">
+        <v>1868.19</v>
+      </c>
+      <c r="C2083">
+        <v>1880.79</v>
+      </c>
+      <c r="D2083">
+        <v>1868.02</v>
+      </c>
+      <c r="E2083">
+        <v>1873.85</v>
+      </c>
+      <c r="F2083">
+        <f t="shared" si="89"/>
+        <v>1.87385</v>
+      </c>
+      <c r="G2083">
+        <v>227571997</v>
+      </c>
+      <c r="H2083" s="3">
+        <v>468250000000</v>
+      </c>
+      <c r="I2083">
+        <f t="shared" si="87"/>
+        <v>2081</v>
+      </c>
+      <c r="J2083">
+        <f>SUM($F$3:F2083)/I2083</f>
+        <v>1.1126600432484375</v>
+      </c>
+      <c r="K2083">
+        <f t="shared" si="88"/>
+        <v>1.5571432000000014</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2083"/>
+  <dimension ref="A1:K2100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2061" workbookViewId="0">
-      <selection activeCell="A2084" sqref="A2084"/>
+    <sheetView tabSelected="1" topLeftCell="A2083" workbookViewId="0">
+      <selection activeCell="A2101" sqref="A2101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I2083" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2100" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K2083" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2100" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F2083" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2100" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -80618,6 +80618,669 @@
       <c r="K2083">
         <f t="shared" si="88"/>
         <v>1.5571432000000014</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2084" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B2084">
+        <v>1880.11</v>
+      </c>
+      <c r="C2084">
+        <v>1893.74</v>
+      </c>
+      <c r="D2084">
+        <v>1870.05</v>
+      </c>
+      <c r="E2084">
+        <v>1888.02</v>
+      </c>
+      <c r="F2084">
+        <f t="shared" si="89"/>
+        <v>1.88802</v>
+      </c>
+      <c r="G2084">
+        <v>286177985</v>
+      </c>
+      <c r="H2084" s="3">
+        <v>617226000000</v>
+      </c>
+      <c r="I2084">
+        <f t="shared" si="87"/>
+        <v>2082</v>
+      </c>
+      <c r="J2084">
+        <f>SUM($F$3:F2084)/I2084</f>
+        <v>1.1130324543707966</v>
+      </c>
+      <c r="K2084">
+        <f t="shared" si="88"/>
+        <v>1.5609119600000012</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2085" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B2085">
+        <v>1879.21</v>
+      </c>
+      <c r="C2085">
+        <v>1882.17</v>
+      </c>
+      <c r="D2085">
+        <v>1859.5</v>
+      </c>
+      <c r="E2085">
+        <v>1863.96</v>
+      </c>
+      <c r="F2085">
+        <f t="shared" si="89"/>
+        <v>1.8639600000000001</v>
+      </c>
+      <c r="G2085">
+        <v>261618808</v>
+      </c>
+      <c r="H2085" s="3">
+        <v>537302000000</v>
+      </c>
+      <c r="I2085">
+        <f t="shared" si="87"/>
+        <v>2083</v>
+      </c>
+      <c r="J2085">
+        <f>SUM($F$3:F2085)/I2085</f>
+        <v>1.1133929572731631</v>
+      </c>
+      <c r="K2085">
+        <f t="shared" si="88"/>
+        <v>1.5644812000000015</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2086" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B2086">
+        <v>1793.03</v>
+      </c>
+      <c r="C2086">
+        <v>1859.57</v>
+      </c>
+      <c r="D2086">
+        <v>1789.06</v>
+      </c>
+      <c r="E2086">
+        <v>1856.41</v>
+      </c>
+      <c r="F2086">
+        <f t="shared" si="89"/>
+        <v>1.8564100000000001</v>
+      </c>
+      <c r="G2086">
+        <v>249989812</v>
+      </c>
+      <c r="H2086" s="3">
+        <v>491572000000</v>
+      </c>
+      <c r="I2086">
+        <f t="shared" si="87"/>
+        <v>2084</v>
+      </c>
+      <c r="J2086">
+        <f>SUM($F$3:F2086)/I2086</f>
+        <v>1.1137494913627632</v>
+      </c>
+      <c r="K2086">
+        <f t="shared" si="88"/>
+        <v>1.5679508800000013</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2087" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B2087">
+        <v>1866.01</v>
+      </c>
+      <c r="C2087">
+        <v>1875.68</v>
+      </c>
+      <c r="D2087">
+        <v>1819.56</v>
+      </c>
+      <c r="E2087">
+        <v>1826.1</v>
+      </c>
+      <c r="F2087">
+        <f t="shared" si="89"/>
+        <v>1.8260999999999998</v>
+      </c>
+      <c r="G2087">
+        <v>256758018</v>
+      </c>
+      <c r="H2087" s="3">
+        <v>513173000000</v>
+      </c>
+      <c r="I2087">
+        <f t="shared" si="87"/>
+        <v>2085</v>
+      </c>
+      <c r="J2087">
+        <f>SUM($F$3:F2087)/I2087</f>
+        <v>1.114091146282973</v>
+      </c>
+      <c r="K2087">
+        <f t="shared" si="88"/>
+        <v>1.5711885600000015</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2088" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B2088">
+        <v>1827.47</v>
+      </c>
+      <c r="C2088">
+        <v>1854.27</v>
+      </c>
+      <c r="D2088">
+        <v>1813.43</v>
+      </c>
+      <c r="E2088">
+        <v>1854.27</v>
+      </c>
+      <c r="F2088">
+        <f t="shared" si="89"/>
+        <v>1.8542700000000001</v>
+      </c>
+      <c r="G2088">
+        <v>205448429</v>
+      </c>
+      <c r="H2088" s="3">
+        <v>394823000000</v>
+      </c>
+      <c r="I2088">
+        <f t="shared" si="87"/>
+        <v>2086</v>
+      </c>
+      <c r="J2088">
+        <f>SUM($F$3:F2088)/I2088</f>
+        <v>1.1144459779482256</v>
+      </c>
+      <c r="K2088">
+        <f t="shared" si="88"/>
+        <v>1.5742945200000011</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2089" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B2089">
+        <v>1850.65</v>
+      </c>
+      <c r="C2089">
+        <v>1850.65</v>
+      </c>
+      <c r="D2089">
+        <v>1828.22</v>
+      </c>
+      <c r="E2089">
+        <v>1833.41</v>
+      </c>
+      <c r="F2089">
+        <f t="shared" si="89"/>
+        <v>1.83341</v>
+      </c>
+      <c r="G2089">
+        <v>194788069</v>
+      </c>
+      <c r="H2089" s="3">
+        <v>379473000000</v>
+      </c>
+      <c r="I2089">
+        <f t="shared" si="87"/>
+        <v>2087</v>
+      </c>
+      <c r="J2089">
+        <f>SUM($F$3:F2089)/I2089</f>
+        <v>1.1147904743651167</v>
+      </c>
+      <c r="K2089">
+        <f t="shared" si="88"/>
+        <v>1.576755520000001</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2090" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B2090">
+        <v>1832.08</v>
+      </c>
+      <c r="C2090">
+        <v>1836.51</v>
+      </c>
+      <c r="D2090">
+        <v>1785.65</v>
+      </c>
+      <c r="E2090">
+        <v>1786.41</v>
+      </c>
+      <c r="F2090">
+        <f t="shared" si="89"/>
+        <v>1.7864100000000001</v>
+      </c>
+      <c r="G2090">
+        <v>210767861</v>
+      </c>
+      <c r="H2090" s="3">
+        <v>391248000000</v>
+      </c>
+      <c r="I2090">
+        <f t="shared" si="87"/>
+        <v>2088</v>
+      </c>
+      <c r="J2090">
+        <f>SUM($F$3:F2090)/I2090</f>
+        <v>1.115112131226053</v>
+      </c>
+      <c r="K2090">
+        <f t="shared" si="88"/>
+        <v>1.578436120000001</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2091" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B2091">
+        <v>1806.76</v>
+      </c>
+      <c r="C2091">
+        <v>1819.69</v>
+      </c>
+      <c r="D2091">
+        <v>1798.11</v>
+      </c>
+      <c r="E2091">
+        <v>1810.42</v>
+      </c>
+      <c r="F2091">
+        <f t="shared" si="89"/>
+        <v>1.8104200000000001</v>
+      </c>
+      <c r="G2091">
+        <v>175320788</v>
+      </c>
+      <c r="H2091" s="3">
+        <v>339314000000</v>
+      </c>
+      <c r="I2091">
+        <f t="shared" si="87"/>
+        <v>2089</v>
+      </c>
+      <c r="J2091">
+        <f>SUM($F$3:F2091)/I2091</f>
+        <v>1.1154449736716125</v>
+      </c>
+      <c r="K2091">
+        <f t="shared" si="88"/>
+        <v>1.5806983200000011</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2092" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B2092">
+        <v>1814.42</v>
+      </c>
+      <c r="C2092">
+        <v>1843.17</v>
+      </c>
+      <c r="D2092">
+        <v>1808.57</v>
+      </c>
+      <c r="E2092">
+        <v>1842.91</v>
+      </c>
+      <c r="F2092">
+        <f t="shared" si="89"/>
+        <v>1.84291</v>
+      </c>
+      <c r="G2092">
+        <v>193707185</v>
+      </c>
+      <c r="H2092" s="3">
+        <v>368995000000</v>
+      </c>
+      <c r="I2092">
+        <f t="shared" si="87"/>
+        <v>2090</v>
+      </c>
+      <c r="J2092">
+        <f>SUM($F$3:F2092)/I2092</f>
+        <v>1.1157930430622003</v>
+      </c>
+      <c r="K2092">
+        <f t="shared" si="88"/>
+        <v>1.5831504000000014</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2093" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B2093">
+        <v>1836.71</v>
+      </c>
+      <c r="C2093">
+        <v>1849.37</v>
+      </c>
+      <c r="D2093">
+        <v>1831.47</v>
+      </c>
+      <c r="E2093">
+        <v>1838.1</v>
+      </c>
+      <c r="F2093">
+        <f t="shared" si="89"/>
+        <v>1.8380999999999998</v>
+      </c>
+      <c r="G2093">
+        <v>174720809</v>
+      </c>
+      <c r="H2093" s="3">
+        <v>326079000000</v>
+      </c>
+      <c r="I2093">
+        <f t="shared" si="87"/>
+        <v>2091</v>
+      </c>
+      <c r="J2093">
+        <f>SUM($F$3:F2093)/I2093</f>
+        <v>1.1161384791965558</v>
+      </c>
+      <c r="K2093">
+        <f t="shared" si="88"/>
+        <v>1.5857998000000013</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2094" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B2094">
+        <v>1835.63</v>
+      </c>
+      <c r="C2094">
+        <v>1845.39</v>
+      </c>
+      <c r="D2094">
+        <v>1815.48</v>
+      </c>
+      <c r="E2094">
+        <v>1844.03</v>
+      </c>
+      <c r="F2094">
+        <f t="shared" si="89"/>
+        <v>1.8440300000000001</v>
+      </c>
+      <c r="G2094">
+        <v>188392756</v>
+      </c>
+      <c r="H2094" s="3">
+        <v>322184000000</v>
+      </c>
+      <c r="I2094">
+        <f t="shared" si="87"/>
+        <v>2092</v>
+      </c>
+      <c r="J2094">
+        <f>SUM($F$3:F2094)/I2094</f>
+        <v>1.116486419694072</v>
+      </c>
+      <c r="K2094">
+        <f t="shared" si="88"/>
+        <v>1.5882519600000007</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2095" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B2095">
+        <v>1849.15</v>
+      </c>
+      <c r="C2095">
+        <v>1862.99</v>
+      </c>
+      <c r="D2095">
+        <v>1849.15</v>
+      </c>
+      <c r="E2095">
+        <v>1862.55</v>
+      </c>
+      <c r="F2095">
+        <f t="shared" si="89"/>
+        <v>1.8625499999999999</v>
+      </c>
+      <c r="G2095">
+        <v>210295731</v>
+      </c>
+      <c r="H2095" s="3">
+        <v>414724000000</v>
+      </c>
+      <c r="I2095">
+        <f t="shared" si="87"/>
+        <v>2093</v>
+      </c>
+      <c r="J2095">
+        <f>SUM($F$3:F2095)/I2095</f>
+        <v>1.1168428762541798</v>
+      </c>
+      <c r="K2095">
+        <f t="shared" si="88"/>
+        <v>1.5908339600000012</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2096" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B2096">
+        <v>1873.29</v>
+      </c>
+      <c r="C2096">
+        <v>1877.07</v>
+      </c>
+      <c r="D2096">
+        <v>1858.22</v>
+      </c>
+      <c r="E2096">
+        <v>1873.35</v>
+      </c>
+      <c r="F2096">
+        <f t="shared" si="89"/>
+        <v>1.8733499999999998</v>
+      </c>
+      <c r="G2096">
+        <v>248913280</v>
+      </c>
+      <c r="H2096" s="3">
+        <v>496405000000</v>
+      </c>
+      <c r="I2096">
+        <f t="shared" si="87"/>
+        <v>2094</v>
+      </c>
+      <c r="J2096">
+        <f>SUM($F$3:F2096)/I2096</f>
+        <v>1.1172041499522436</v>
+      </c>
+      <c r="K2096">
+        <f t="shared" si="88"/>
+        <v>1.5934212800000012</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2097" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B2097">
+        <v>1868.43</v>
+      </c>
+      <c r="C2097">
+        <v>1887.7</v>
+      </c>
+      <c r="D2097">
+        <v>1861.37</v>
+      </c>
+      <c r="E2097">
+        <v>1877.29</v>
+      </c>
+      <c r="F2097">
+        <f t="shared" si="89"/>
+        <v>1.8772899999999999</v>
+      </c>
+      <c r="G2097">
+        <v>240677697</v>
+      </c>
+      <c r="H2097" s="3">
+        <v>465666000000</v>
+      </c>
+      <c r="I2097">
+        <f t="shared" si="87"/>
+        <v>2095</v>
+      </c>
+      <c r="J2097">
+        <f>SUM($F$3:F2097)/I2097</f>
+        <v>1.1175669594272069</v>
+      </c>
+      <c r="K2097">
+        <f t="shared" si="88"/>
+        <v>1.5960002000000015</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2098" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B2098">
+        <v>1874.53</v>
+      </c>
+      <c r="C2098">
+        <v>1882.16</v>
+      </c>
+      <c r="D2098">
+        <v>1861.79</v>
+      </c>
+      <c r="E2098">
+        <v>1882.1</v>
+      </c>
+      <c r="F2098">
+        <f t="shared" si="89"/>
+        <v>1.8820999999999999</v>
+      </c>
+      <c r="G2098">
+        <v>248243328</v>
+      </c>
+      <c r="H2098" s="3">
+        <v>480576000000</v>
+      </c>
+      <c r="I2098">
+        <f t="shared" si="87"/>
+        <v>2096</v>
+      </c>
+      <c r="J2098">
+        <f>SUM($F$3:F2098)/I2098</f>
+        <v>1.117931717557251</v>
+      </c>
+      <c r="K2098">
+        <f t="shared" si="88"/>
+        <v>1.5984363200000011</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2099" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B2099">
+        <v>1879.01</v>
+      </c>
+      <c r="C2099">
+        <v>1882.03</v>
+      </c>
+      <c r="D2099">
+        <v>1858.44</v>
+      </c>
+      <c r="E2099">
+        <v>1858.44</v>
+      </c>
+      <c r="F2099">
+        <f t="shared" si="89"/>
+        <v>1.8584400000000001</v>
+      </c>
+      <c r="G2099">
+        <v>274885857</v>
+      </c>
+      <c r="H2099" s="3">
+        <v>524286000000</v>
+      </c>
+      <c r="I2099">
+        <f t="shared" si="87"/>
+        <v>2097</v>
+      </c>
+      <c r="J2099">
+        <f>SUM($F$3:F2099)/I2099</f>
+        <v>1.1182848450166896</v>
+      </c>
+      <c r="K2099">
+        <f t="shared" si="88"/>
+        <v>1.6006111200000015</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2100" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B2100">
+        <v>1857.75</v>
+      </c>
+      <c r="C2100">
+        <v>1891.8</v>
+      </c>
+      <c r="D2100">
+        <v>1857.75</v>
+      </c>
+      <c r="E2100">
+        <v>1884.97</v>
+      </c>
+      <c r="F2100">
+        <f t="shared" si="89"/>
+        <v>1.88497</v>
+      </c>
+      <c r="G2100">
+        <v>294215437</v>
+      </c>
+      <c r="H2100" s="3">
+        <v>524403000000</v>
+      </c>
+      <c r="I2100">
+        <f t="shared" si="87"/>
+        <v>2098</v>
+      </c>
+      <c r="J2100">
+        <f>SUM($F$3:F2100)/I2100</f>
+        <v>1.1186502812202088</v>
+      </c>
+      <c r="K2100">
+        <f t="shared" si="88"/>
+        <v>1.6029035600000012</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2100"/>
+  <dimension ref="A1:K2121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2083" workbookViewId="0">
-      <selection activeCell="A2101" sqref="A2101"/>
+    <sheetView tabSelected="1" topLeftCell="A2101" workbookViewId="0">
+      <selection activeCell="A2122" sqref="A2122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I2100" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2121" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K2100" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2121" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F2100" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2121" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -81281,6 +81281,825 @@
       <c r="K2100">
         <f t="shared" si="88"/>
         <v>1.6029035600000012</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2101" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B2101">
+        <v>1850.41</v>
+      </c>
+      <c r="C2101">
+        <v>1870.02</v>
+      </c>
+      <c r="D2101">
+        <v>1843.25</v>
+      </c>
+      <c r="E2101">
+        <v>1870.02</v>
+      </c>
+      <c r="F2101">
+        <f t="shared" si="89"/>
+        <v>1.87002</v>
+      </c>
+      <c r="G2101">
+        <v>239754226</v>
+      </c>
+      <c r="H2101" s="3">
+        <v>369748000000</v>
+      </c>
+      <c r="I2101">
+        <f t="shared" si="87"/>
+        <v>2099</v>
+      </c>
+      <c r="J2101">
+        <f>SUM($F$3:F2101)/I2101</f>
+        <v>1.119008246784182</v>
+      </c>
+      <c r="K2101">
+        <f t="shared" si="88"/>
+        <v>1.6051549200000013</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2102" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B2102">
+        <v>1889.91</v>
+      </c>
+      <c r="C2102">
+        <v>1905.87</v>
+      </c>
+      <c r="D2102">
+        <v>1884.05</v>
+      </c>
+      <c r="E2102">
+        <v>1905.82</v>
+      </c>
+      <c r="F2102">
+        <f t="shared" si="89"/>
+        <v>1.9058199999999998</v>
+      </c>
+      <c r="G2102">
+        <v>287940755</v>
+      </c>
+      <c r="H2102" s="3">
+        <v>492023000000</v>
+      </c>
+      <c r="I2102">
+        <f t="shared" si="87"/>
+        <v>2100</v>
+      </c>
+      <c r="J2102">
+        <f>SUM($F$3:F2102)/I2102</f>
+        <v>1.1193829190476181</v>
+      </c>
+      <c r="K2102">
+        <f t="shared" si="88"/>
+        <v>1.6075836000000014</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2103" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B2103">
+        <v>1900.35</v>
+      </c>
+      <c r="C2103">
+        <v>1900.35</v>
+      </c>
+      <c r="D2103">
+        <v>1877.83</v>
+      </c>
+      <c r="E2103">
+        <v>1891.32</v>
+      </c>
+      <c r="F2103">
+        <f t="shared" si="89"/>
+        <v>1.8913199999999999</v>
+      </c>
+      <c r="G2103">
+        <v>270467783</v>
+      </c>
+      <c r="H2103" s="3">
+        <v>438170000000</v>
+      </c>
+      <c r="I2103">
+        <f t="shared" si="87"/>
+        <v>2101</v>
+      </c>
+      <c r="J2103">
+        <f>SUM($F$3:F2103)/I2103</f>
+        <v>1.1197503331746779</v>
+      </c>
+      <c r="K2103">
+        <f t="shared" si="88"/>
+        <v>1.6098576000000016</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2104" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B2104">
+        <v>1870.21</v>
+      </c>
+      <c r="C2104">
+        <v>1899.02</v>
+      </c>
+      <c r="D2104">
+        <v>1869.06</v>
+      </c>
+      <c r="E2104">
+        <v>1893.07</v>
+      </c>
+      <c r="F2104">
+        <f t="shared" si="89"/>
+        <v>1.89307</v>
+      </c>
+      <c r="G2104">
+        <v>268750644</v>
+      </c>
+      <c r="H2104" s="3">
+        <v>417827000000</v>
+      </c>
+      <c r="I2104">
+        <f t="shared" si="87"/>
+        <v>2102</v>
+      </c>
+      <c r="J2104">
+        <f>SUM($F$3:F2104)/I2104</f>
+        <v>1.1201182302568973</v>
+      </c>
+      <c r="K2104">
+        <f t="shared" si="88"/>
+        <v>1.6119683200000015</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2105" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B2105">
+        <v>1893.28</v>
+      </c>
+      <c r="C2105">
+        <v>1894.49</v>
+      </c>
+      <c r="D2105">
+        <v>1875.46</v>
+      </c>
+      <c r="E2105">
+        <v>1890.98</v>
+      </c>
+      <c r="F2105">
+        <f t="shared" si="89"/>
+        <v>1.8909800000000001</v>
+      </c>
+      <c r="G2105">
+        <v>248227629</v>
+      </c>
+      <c r="H2105" s="3">
+        <v>428652000000</v>
+      </c>
+      <c r="I2105">
+        <f t="shared" si="87"/>
+        <v>2103</v>
+      </c>
+      <c r="J2105">
+        <f>SUM($F$3:F2105)/I2105</f>
+        <v>1.1204847836424148</v>
+      </c>
+      <c r="K2105">
+        <f t="shared" si="88"/>
+        <v>1.6141285600000017</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2106" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B2106">
+        <v>1883.93</v>
+      </c>
+      <c r="C2106">
+        <v>1884.48</v>
+      </c>
+      <c r="D2106">
+        <v>1873.18</v>
+      </c>
+      <c r="E2106">
+        <v>1874.41</v>
+      </c>
+      <c r="F2106">
+        <f t="shared" si="89"/>
+        <v>1.8744100000000001</v>
+      </c>
+      <c r="G2106">
+        <v>215923028</v>
+      </c>
+      <c r="H2106" s="3">
+        <v>375139000000</v>
+      </c>
+      <c r="I2106">
+        <f t="shared" si="87"/>
+        <v>2104</v>
+      </c>
+      <c r="J2106">
+        <f>SUM($F$3:F2106)/I2106</f>
+        <v>1.1208431131178698</v>
+      </c>
+      <c r="K2106">
+        <f t="shared" si="88"/>
+        <v>1.6161826400000017</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2107" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B2107">
+        <v>1878.49</v>
+      </c>
+      <c r="C2107">
+        <v>1886.68</v>
+      </c>
+      <c r="D2107">
+        <v>1875.5</v>
+      </c>
+      <c r="E2107">
+        <v>1885.56</v>
+      </c>
+      <c r="F2107">
+        <f t="shared" si="89"/>
+        <v>1.8855599999999999</v>
+      </c>
+      <c r="G2107">
+        <v>236063157</v>
+      </c>
+      <c r="H2107" s="3">
+        <v>400281000000</v>
+      </c>
+      <c r="I2107">
+        <f t="shared" si="87"/>
+        <v>2105</v>
+      </c>
+      <c r="J2107">
+        <f>SUM($F$3:F2107)/I2107</f>
+        <v>1.1212063990498804</v>
+      </c>
+      <c r="K2107">
+        <f t="shared" si="88"/>
+        <v>1.6181796400000017</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2108" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B2108">
+        <v>1887.57</v>
+      </c>
+      <c r="C2108">
+        <v>1890.09</v>
+      </c>
+      <c r="D2108">
+        <v>1874.72</v>
+      </c>
+      <c r="E2108">
+        <v>1878.87</v>
+      </c>
+      <c r="F2108">
+        <f t="shared" si="89"/>
+        <v>1.8788699999999998</v>
+      </c>
+      <c r="G2108">
+        <v>214970236</v>
+      </c>
+      <c r="H2108" s="3">
+        <v>362118000000</v>
+      </c>
+      <c r="I2108">
+        <f t="shared" si="87"/>
+        <v>2106</v>
+      </c>
+      <c r="J2108">
+        <f>SUM($F$3:F2108)/I2108</f>
+        <v>1.1215661633428291</v>
+      </c>
+      <c r="K2108">
+        <f t="shared" si="88"/>
+        <v>1.6204892000000017</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2109" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B2109">
+        <v>1877.36</v>
+      </c>
+      <c r="C2109">
+        <v>1879.93</v>
+      </c>
+      <c r="D2109">
+        <v>1858.29</v>
+      </c>
+      <c r="E2109">
+        <v>1871.17</v>
+      </c>
+      <c r="F2109">
+        <f t="shared" si="89"/>
+        <v>1.87117</v>
+      </c>
+      <c r="G2109">
+        <v>219991854</v>
+      </c>
+      <c r="H2109" s="3">
+        <v>358330000000</v>
+      </c>
+      <c r="I2109">
+        <f t="shared" si="87"/>
+        <v>2107</v>
+      </c>
+      <c r="J2109">
+        <f>SUM($F$3:F2109)/I2109</f>
+        <v>1.1219219316563827</v>
+      </c>
+      <c r="K2109">
+        <f t="shared" si="88"/>
+        <v>1.6226416400000017</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2110" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B2110">
+        <v>1869.85</v>
+      </c>
+      <c r="C2110">
+        <v>1889.58</v>
+      </c>
+      <c r="D2110">
+        <v>1861.44</v>
+      </c>
+      <c r="E2110">
+        <v>1889.52</v>
+      </c>
+      <c r="F2110">
+        <f t="shared" si="89"/>
+        <v>1.8895200000000001</v>
+      </c>
+      <c r="G2110">
+        <v>215298129</v>
+      </c>
+      <c r="H2110" s="3">
+        <v>353421000000</v>
+      </c>
+      <c r="I2110">
+        <f t="shared" si="87"/>
+        <v>2108</v>
+      </c>
+      <c r="J2110">
+        <f>SUM($F$3:F2110)/I2110</f>
+        <v>1.122286067362428</v>
+      </c>
+      <c r="K2110">
+        <f t="shared" si="88"/>
+        <v>1.6246576400000015</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2111" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B2111">
+        <v>1878</v>
+      </c>
+      <c r="C2111">
+        <v>1894.84</v>
+      </c>
+      <c r="D2111">
+        <v>1876.3</v>
+      </c>
+      <c r="E2111">
+        <v>1876.3</v>
+      </c>
+      <c r="F2111">
+        <f t="shared" si="89"/>
+        <v>1.8762999999999999</v>
+      </c>
+      <c r="G2111">
+        <v>224859327</v>
+      </c>
+      <c r="H2111" s="3">
+        <v>360704000000</v>
+      </c>
+      <c r="I2111">
+        <f t="shared" si="87"/>
+        <v>2109</v>
+      </c>
+      <c r="J2111">
+        <f>SUM($F$3:F2111)/I2111</f>
+        <v>1.1226435893788518</v>
+      </c>
+      <c r="K2111">
+        <f t="shared" si="88"/>
+        <v>1.6265715600000019</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2112" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B2112">
+        <v>1877.03</v>
+      </c>
+      <c r="C2112">
+        <v>1896.2</v>
+      </c>
+      <c r="D2112">
+        <v>1872.89</v>
+      </c>
+      <c r="E2112">
+        <v>1891.78</v>
+      </c>
+      <c r="F2112">
+        <f t="shared" si="89"/>
+        <v>1.89178</v>
+      </c>
+      <c r="G2112">
+        <v>239130500</v>
+      </c>
+      <c r="H2112" s="3">
+        <v>373916000000</v>
+      </c>
+      <c r="I2112">
+        <f t="shared" si="87"/>
+        <v>2110</v>
+      </c>
+      <c r="J2112">
+        <f>SUM($F$3:F2112)/I2112</f>
+        <v>1.1230081090047384</v>
+      </c>
+      <c r="K2112">
+        <f t="shared" si="88"/>
+        <v>1.6284102000000016</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2113" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B2113">
+        <v>1888.67</v>
+      </c>
+      <c r="C2113">
+        <v>1895.96</v>
+      </c>
+      <c r="D2113">
+        <v>1882.08</v>
+      </c>
+      <c r="E2113">
+        <v>1892.03</v>
+      </c>
+      <c r="F2113">
+        <f t="shared" si="89"/>
+        <v>1.8920299999999999</v>
+      </c>
+      <c r="G2113">
+        <v>296621216</v>
+      </c>
+      <c r="H2113" s="3">
+        <v>426344000000</v>
+      </c>
+      <c r="I2113">
+        <f t="shared" si="87"/>
+        <v>2111</v>
+      </c>
+      <c r="J2113">
+        <f>SUM($F$3:F2113)/I2113</f>
+        <v>1.1233724017053521</v>
+      </c>
+      <c r="K2113">
+        <f t="shared" si="88"/>
+        <v>1.6302142400000017</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2114" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B2114">
+        <v>1891.23</v>
+      </c>
+      <c r="C2114">
+        <v>1891.58</v>
+      </c>
+      <c r="D2114">
+        <v>1856.57</v>
+      </c>
+      <c r="E2114">
+        <v>1862.62</v>
+      </c>
+      <c r="F2114">
+        <f t="shared" si="89"/>
+        <v>1.8626199999999999</v>
+      </c>
+      <c r="G2114">
+        <v>263108672</v>
+      </c>
+      <c r="H2114" s="3">
+        <v>375421000000</v>
+      </c>
+      <c r="I2114">
+        <f t="shared" si="87"/>
+        <v>2112</v>
+      </c>
+      <c r="J2114">
+        <f>SUM($F$3:F2114)/I2114</f>
+        <v>1.1237224242424233</v>
+      </c>
+      <c r="K2114">
+        <f t="shared" si="88"/>
+        <v>1.6317089200000015</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2115" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B2115">
+        <v>1870.05</v>
+      </c>
+      <c r="C2115">
+        <v>1872.73</v>
+      </c>
+      <c r="D2115">
+        <v>1842.39</v>
+      </c>
+      <c r="E2115">
+        <v>1850.01</v>
+      </c>
+      <c r="F2115">
+        <f t="shared" si="89"/>
+        <v>1.8500099999999999</v>
+      </c>
+      <c r="G2115">
+        <v>242319235</v>
+      </c>
+      <c r="H2115" s="3">
+        <v>356817000000</v>
+      </c>
+      <c r="I2115">
+        <f t="shared" si="87"/>
+        <v>2113</v>
+      </c>
+      <c r="J2115">
+        <f>SUM($F$3:F2115)/I2115</f>
+        <v>1.1240661476573583</v>
+      </c>
+      <c r="K2115">
+        <f t="shared" si="88"/>
+        <v>1.6332396400000015</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2116" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B2116">
+        <v>1830.04</v>
+      </c>
+      <c r="C2116">
+        <v>1849.7</v>
+      </c>
+      <c r="D2116">
+        <v>1791.56</v>
+      </c>
+      <c r="E2116">
+        <v>1795.46</v>
+      </c>
+      <c r="F2116">
+        <f t="shared" si="89"/>
+        <v>1.7954600000000001</v>
+      </c>
+      <c r="G2116">
+        <v>295457254</v>
+      </c>
+      <c r="H2116" s="3">
+        <v>439410000000</v>
+      </c>
+      <c r="I2116">
+        <f t="shared" si="87"/>
+        <v>2114</v>
+      </c>
+      <c r="J2116">
+        <f>SUM($F$3:F2116)/I2116</f>
+        <v>1.1243837417218534</v>
+      </c>
+      <c r="K2116">
+        <f t="shared" si="88"/>
+        <v>1.6345215200000014</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2117" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B2117">
+        <v>1807.37</v>
+      </c>
+      <c r="C2117">
+        <v>1847.1</v>
+      </c>
+      <c r="D2117">
+        <v>1796.81</v>
+      </c>
+      <c r="E2117">
+        <v>1840.04</v>
+      </c>
+      <c r="F2117">
+        <f t="shared" si="89"/>
+        <v>1.8400399999999999</v>
+      </c>
+      <c r="G2117">
+        <v>294133354</v>
+      </c>
+      <c r="H2117" s="3">
+        <v>452583000000</v>
+      </c>
+      <c r="I2117">
+        <f t="shared" si="87"/>
+        <v>2115</v>
+      </c>
+      <c r="J2117">
+        <f>SUM($F$3:F2117)/I2117</f>
+        <v>1.1247221134751764</v>
+      </c>
+      <c r="K2117">
+        <f t="shared" si="88"/>
+        <v>1.6361495200000014</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2118" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B2118">
+        <v>1845.74</v>
+      </c>
+      <c r="C2118">
+        <v>1882.04</v>
+      </c>
+      <c r="D2118">
+        <v>1845.74</v>
+      </c>
+      <c r="E2118">
+        <v>1868.59</v>
+      </c>
+      <c r="F2118">
+        <f t="shared" si="89"/>
+        <v>1.86859</v>
+      </c>
+      <c r="G2118">
+        <v>309946183</v>
+      </c>
+      <c r="H2118" s="3">
+        <v>487116000000</v>
+      </c>
+      <c r="I2118">
+        <f t="shared" si="87"/>
+        <v>2116</v>
+      </c>
+      <c r="J2118">
+        <f>SUM($F$3:F2118)/I2118</f>
+        <v>1.1250736578449896</v>
+      </c>
+      <c r="K2118">
+        <f t="shared" si="88"/>
+        <v>1.6379700000000015</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2119" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B2119">
+        <v>1865.94</v>
+      </c>
+      <c r="C2119">
+        <v>1883.71</v>
+      </c>
+      <c r="D2119">
+        <v>1855.08</v>
+      </c>
+      <c r="E2119">
+        <v>1858.36</v>
+      </c>
+      <c r="F2119">
+        <f t="shared" si="89"/>
+        <v>1.8583599999999998</v>
+      </c>
+      <c r="G2119">
+        <v>271504812</v>
+      </c>
+      <c r="H2119" s="3">
+        <v>443339000000</v>
+      </c>
+      <c r="I2119">
+        <f t="shared" si="87"/>
+        <v>2117</v>
+      </c>
+      <c r="J2119">
+        <f>SUM($F$3:F2119)/I2119</f>
+        <v>1.1254200377893238</v>
+      </c>
+      <c r="K2119">
+        <f t="shared" si="88"/>
+        <v>1.6400308000000015</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2120" s="1">
+        <v>45988</v>
+      </c>
+      <c r="B2120">
+        <v>1856.04</v>
+      </c>
+      <c r="C2120">
+        <v>1865.08</v>
+      </c>
+      <c r="D2120">
+        <v>1849.28</v>
+      </c>
+      <c r="E2120">
+        <v>1851.41</v>
+      </c>
+      <c r="F2120">
+        <f t="shared" si="89"/>
+        <v>1.85141</v>
+      </c>
+      <c r="G2120">
+        <v>250700460</v>
+      </c>
+      <c r="H2120" s="3">
+        <v>416210000000</v>
+      </c>
+      <c r="I2120">
+        <f t="shared" si="87"/>
+        <v>2118</v>
+      </c>
+      <c r="J2120">
+        <f>SUM($F$3:F2120)/I2120</f>
+        <v>1.1257628092540124</v>
+      </c>
+      <c r="K2120">
+        <f t="shared" si="88"/>
+        <v>1.6419015200000018</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2121" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B2121">
+        <v>1850.41</v>
+      </c>
+      <c r="C2121">
+        <v>1870.02</v>
+      </c>
+      <c r="D2121">
+        <v>1843.25</v>
+      </c>
+      <c r="E2121">
+        <v>1870.02</v>
+      </c>
+      <c r="F2121">
+        <f t="shared" si="89"/>
+        <v>1.87002</v>
+      </c>
+      <c r="G2121">
+        <v>239754226</v>
+      </c>
+      <c r="H2121" s="3">
+        <v>369748000000</v>
+      </c>
+      <c r="I2121">
+        <f t="shared" si="87"/>
+        <v>2119</v>
+      </c>
+      <c r="J2121">
+        <f>SUM($F$3:F2121)/I2121</f>
+        <v>1.1261140396413394</v>
+      </c>
+      <c r="K2121">
+        <f t="shared" si="88"/>
+        <v>1.6436552000000013</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIinduindex.xlsx
+++ b/lai/valuationquan/AIinduindex.xlsx
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2121"/>
+  <dimension ref="A1:K2143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2101" workbookViewId="0">
-      <selection activeCell="A2122" sqref="A2122"/>
+    <sheetView tabSelected="1" topLeftCell="A2119" workbookViewId="0">
+      <selection activeCell="A2144" sqref="A2144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74212,7 +74212,7 @@
         <v>401220000000</v>
       </c>
       <c r="I1919">
-        <f t="shared" ref="I1919:I2121" si="87">I1918+1</f>
+        <f t="shared" ref="I1919:I2130" si="87">I1918+1</f>
         <v>1917</v>
       </c>
       <c r="J1919">
@@ -74220,7 +74220,7 @@
         <v>1.0661377673448089</v>
       </c>
       <c r="K1919">
-        <f t="shared" ref="K1919:K2121" si="88">SUM(F1670:F1919)/250</f>
+        <f t="shared" ref="K1919:K2100" si="88">SUM(F1670:F1919)/250</f>
         <v>1.1312959999999996</v>
       </c>
     </row>
@@ -74358,7 +74358,7 @@
         <v>1571.68</v>
       </c>
       <c r="F1923">
-        <f t="shared" ref="F1923:F2121" si="89">E1923/1000</f>
+        <f t="shared" ref="F1923:F2143" si="89">E1923/1000</f>
         <v>1.57168</v>
       </c>
       <c r="G1923">
@@ -81285,29 +81285,29 @@
     </row>
     <row r="2101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2101" s="1">
-        <v>45989</v>
+        <v>45964</v>
       </c>
       <c r="B2101">
-        <v>1850.41</v>
+        <v>1889.91</v>
       </c>
       <c r="C2101">
-        <v>1870.02</v>
+        <v>1905.87</v>
       </c>
       <c r="D2101">
-        <v>1843.25</v>
+        <v>1884.05</v>
       </c>
       <c r="E2101">
-        <v>1870.02</v>
+        <v>1905.82</v>
       </c>
       <c r="F2101">
         <f t="shared" si="89"/>
-        <v>1.87002</v>
+        <v>1.9058199999999998</v>
       </c>
       <c r="G2101">
-        <v>239754226</v>
+        <v>287940755</v>
       </c>
       <c r="H2101" s="3">
-        <v>369748000000</v>
+        <v>492023000000</v>
       </c>
       <c r="I2101">
         <f t="shared" si="87"/>
@@ -81315,38 +81315,38 @@
       </c>
       <c r="J2101">
         <f>SUM($F$3:F2101)/I2101</f>
-        <v>1.119008246784182</v>
+        <v>1.119025302525011</v>
       </c>
       <c r="K2101">
-        <f t="shared" si="88"/>
-        <v>1.6051549200000013</v>
+        <f t="shared" ref="K2101:K2143" si="90">SUM(F1852:F2101)/250</f>
+        <v>1.6052981200000014</v>
       </c>
     </row>
     <row r="2102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2102" s="1">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B2102">
-        <v>1889.91</v>
+        <v>1900.35</v>
       </c>
       <c r="C2102">
-        <v>1905.87</v>
+        <v>1900.35</v>
       </c>
       <c r="D2102">
-        <v>1884.05</v>
+        <v>1877.83</v>
       </c>
       <c r="E2102">
-        <v>1905.82</v>
+        <v>1891.32</v>
       </c>
       <c r="F2102">
         <f t="shared" si="89"/>
-        <v>1.9058199999999998</v>
+        <v>1.8913199999999999</v>
       </c>
       <c r="G2102">
-        <v>287940755</v>
+        <v>270467783</v>
       </c>
       <c r="H2102" s="3">
-        <v>492023000000</v>
+        <v>438170000000</v>
       </c>
       <c r="I2102">
         <f t="shared" si="87"/>
@@ -81354,38 +81354,38 @@
       </c>
       <c r="J2102">
         <f>SUM($F$3:F2102)/I2102</f>
-        <v>1.1193829190476181</v>
+        <v>1.119393061904761</v>
       </c>
       <c r="K2102">
-        <f t="shared" si="88"/>
-        <v>1.6075836000000014</v>
+        <f t="shared" si="90"/>
+        <v>1.6076688000000015</v>
       </c>
     </row>
     <row r="2103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2103" s="1">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B2103">
-        <v>1900.35</v>
+        <v>1870.21</v>
       </c>
       <c r="C2103">
-        <v>1900.35</v>
+        <v>1899.02</v>
       </c>
       <c r="D2103">
-        <v>1877.83</v>
+        <v>1869.06</v>
       </c>
       <c r="E2103">
-        <v>1891.32</v>
+        <v>1893.07</v>
       </c>
       <c r="F2103">
         <f t="shared" si="89"/>
-        <v>1.8913199999999999</v>
+        <v>1.89307</v>
       </c>
       <c r="G2103">
-        <v>270467783</v>
+        <v>268750644</v>
       </c>
       <c r="H2103" s="3">
-        <v>438170000000</v>
+        <v>417827000000</v>
       </c>
       <c r="I2103">
         <f t="shared" si="87"/>
@@ -81393,38 +81393,38 @@
       </c>
       <c r="J2103">
         <f>SUM($F$3:F2103)/I2103</f>
-        <v>1.1197503331746779</v>
+        <v>1.1197613041408845</v>
       </c>
       <c r="K2103">
-        <f t="shared" si="88"/>
-        <v>1.6098576000000016</v>
+        <f t="shared" si="90"/>
+        <v>1.6099498000000017</v>
       </c>
     </row>
     <row r="2104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2104" s="1">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B2104">
-        <v>1870.21</v>
+        <v>1893.28</v>
       </c>
       <c r="C2104">
-        <v>1899.02</v>
+        <v>1894.49</v>
       </c>
       <c r="D2104">
-        <v>1869.06</v>
+        <v>1875.46</v>
       </c>
       <c r="E2104">
-        <v>1893.07</v>
+        <v>1890.98</v>
       </c>
       <c r="F2104">
         <f t="shared" si="89"/>
-        <v>1.89307</v>
+        <v>1.8909800000000001</v>
       </c>
       <c r="G2104">
-        <v>268750644</v>
+        <v>248227629</v>
       </c>
       <c r="H2104" s="3">
-        <v>417827000000</v>
+        <v>428652000000</v>
       </c>
       <c r="I2104">
         <f t="shared" si="87"/>
@@ -81432,38 +81432,38 @@
       </c>
       <c r="J2104">
         <f>SUM($F$3:F2104)/I2104</f>
-        <v>1.1201182302568973</v>
+        <v>1.1201282017126539</v>
       </c>
       <c r="K2104">
-        <f t="shared" si="88"/>
-        <v>1.6119683200000015</v>
+        <f t="shared" si="90"/>
+        <v>1.6120521600000015</v>
       </c>
     </row>
     <row r="2105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2105" s="1">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B2105">
-        <v>1893.28</v>
+        <v>1883.93</v>
       </c>
       <c r="C2105">
-        <v>1894.49</v>
+        <v>1884.48</v>
       </c>
       <c r="D2105">
-        <v>1875.46</v>
+        <v>1873.18</v>
       </c>
       <c r="E2105">
-        <v>1890.98</v>
+        <v>1874.41</v>
       </c>
       <c r="F2105">
         <f t="shared" si="89"/>
-        <v>1.8909800000000001</v>
+        <v>1.8744100000000001</v>
       </c>
       <c r="G2105">
-        <v>248227629</v>
+        <v>215923028</v>
       </c>
       <c r="H2105" s="3">
-        <v>428652000000</v>
+        <v>375139000000</v>
       </c>
       <c r="I2105">
         <f t="shared" si="87"/>
@@ -81471,38 +81471,38 @@
       </c>
       <c r="J2105">
         <f>SUM($F$3:F2105)/I2105</f>
-        <v>1.1204847836424148</v>
+        <v>1.1204868711364708</v>
       </c>
       <c r="K2105">
-        <f t="shared" si="88"/>
-        <v>1.6141285600000017</v>
+        <f t="shared" si="90"/>
+        <v>1.6141461200000018</v>
       </c>
     </row>
     <row r="2106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2106" s="1">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B2106">
-        <v>1883.93</v>
+        <v>1878.49</v>
       </c>
       <c r="C2106">
-        <v>1884.48</v>
+        <v>1886.68</v>
       </c>
       <c r="D2106">
-        <v>1873.18</v>
+        <v>1875.5</v>
       </c>
       <c r="E2106">
-        <v>1874.41</v>
+        <v>1885.56</v>
       </c>
       <c r="F2106">
         <f t="shared" si="89"/>
-        <v>1.8744100000000001</v>
+        <v>1.8855599999999999</v>
       </c>
       <c r="G2106">
-        <v>215923028</v>
+        <v>236063157</v>
       </c>
       <c r="H2106" s="3">
-        <v>375139000000</v>
+        <v>400281000000</v>
       </c>
       <c r="I2106">
         <f t="shared" si="87"/>
@@ -81510,38 +81510,38 @@
       </c>
       <c r="J2106">
         <f>SUM($F$3:F2106)/I2106</f>
-        <v>1.1208431131178698</v>
+        <v>1.1208504990494288</v>
       </c>
       <c r="K2106">
-        <f t="shared" si="88"/>
-        <v>1.6161826400000017</v>
+        <f t="shared" si="90"/>
+        <v>1.6162448000000016</v>
       </c>
     </row>
     <row r="2107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2107" s="1">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B2107">
-        <v>1878.49</v>
+        <v>1887.57</v>
       </c>
       <c r="C2107">
-        <v>1886.68</v>
+        <v>1890.09</v>
       </c>
       <c r="D2107">
-        <v>1875.5</v>
+        <v>1874.72</v>
       </c>
       <c r="E2107">
-        <v>1885.56</v>
+        <v>1878.87</v>
       </c>
       <c r="F2107">
         <f t="shared" si="89"/>
-        <v>1.8855599999999999</v>
+        <v>1.8788699999999998</v>
       </c>
       <c r="G2107">
-        <v>236063157</v>
+        <v>214970236</v>
       </c>
       <c r="H2107" s="3">
-        <v>400281000000</v>
+        <v>362118000000</v>
       </c>
       <c r="I2107">
         <f t="shared" si="87"/>
@@ -81549,38 +81549,38 @@
       </c>
       <c r="J2107">
         <f>SUM($F$3:F2107)/I2107</f>
-        <v>1.1212063990498804</v>
+        <v>1.121210603325415</v>
       </c>
       <c r="K2107">
-        <f t="shared" si="88"/>
-        <v>1.6181796400000017</v>
+        <f t="shared" si="90"/>
+        <v>1.6182150400000017</v>
       </c>
     </row>
     <row r="2108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2108" s="1">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B2108">
-        <v>1887.57</v>
+        <v>1877.36</v>
       </c>
       <c r="C2108">
-        <v>1890.09</v>
+        <v>1879.93</v>
       </c>
       <c r="D2108">
-        <v>1874.72</v>
+        <v>1858.29</v>
       </c>
       <c r="E2108">
-        <v>1878.87</v>
+        <v>1871.17</v>
       </c>
       <c r="F2108">
         <f t="shared" si="89"/>
-        <v>1.8788699999999998</v>
+        <v>1.87117</v>
       </c>
       <c r="G2108">
-        <v>214970236</v>
+        <v>219991854</v>
       </c>
       <c r="H2108" s="3">
-        <v>362118000000</v>
+        <v>358330000000</v>
       </c>
       <c r="I2108">
         <f t="shared" si="87"/>
@@ -81588,38 +81588,38 @@
       </c>
       <c r="J2108">
         <f>SUM($F$3:F2108)/I2108</f>
-        <v>1.1215661633428291</v>
+        <v>1.1215667094017086</v>
       </c>
       <c r="K2108">
-        <f t="shared" si="88"/>
-        <v>1.6204892000000017</v>
+        <f t="shared" si="90"/>
+        <v>1.6204938000000018</v>
       </c>
     </row>
     <row r="2109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2109" s="1">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B2109">
-        <v>1877.36</v>
+        <v>1869.85</v>
       </c>
       <c r="C2109">
-        <v>1879.93</v>
+        <v>1889.58</v>
       </c>
       <c r="D2109">
-        <v>1858.29</v>
+        <v>1861.44</v>
       </c>
       <c r="E2109">
-        <v>1871.17</v>
+        <v>1889.52</v>
       </c>
       <c r="F2109">
         <f t="shared" si="89"/>
-        <v>1.87117</v>
+        <v>1.8895200000000001</v>
       </c>
       <c r="G2109">
-        <v>219991854</v>
+        <v>215298129</v>
       </c>
       <c r="H2109" s="3">
-        <v>358330000000</v>
+        <v>353421000000</v>
       </c>
       <c r="I2109">
         <f t="shared" si="87"/>
@@ -81627,38 +81627,38 @@
       </c>
       <c r="J2109">
         <f>SUM($F$3:F2109)/I2109</f>
-        <v>1.1219219316563827</v>
+        <v>1.1219311865211195</v>
       </c>
       <c r="K2109">
-        <f t="shared" si="88"/>
-        <v>1.6226416400000017</v>
+        <f t="shared" si="90"/>
+        <v>1.6227196400000017</v>
       </c>
     </row>
     <row r="2110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2110" s="1">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B2110">
-        <v>1869.85</v>
+        <v>1878</v>
       </c>
       <c r="C2110">
-        <v>1889.58</v>
+        <v>1894.84</v>
       </c>
       <c r="D2110">
-        <v>1861.44</v>
+        <v>1876.3</v>
       </c>
       <c r="E2110">
-        <v>1889.52</v>
+        <v>1876.3</v>
       </c>
       <c r="F2110">
         <f t="shared" si="89"/>
-        <v>1.8895200000000001</v>
+        <v>1.8762999999999999</v>
       </c>
       <c r="G2110">
-        <v>215298129</v>
+        <v>224859327</v>
       </c>
       <c r="H2110" s="3">
-        <v>353421000000</v>
+        <v>360704000000</v>
       </c>
       <c r="I2110">
         <f t="shared" si="87"/>
@@ -81666,38 +81666,38 @@
       </c>
       <c r="J2110">
         <f>SUM($F$3:F2110)/I2110</f>
-        <v>1.122286067362428</v>
+        <v>1.1222890464895627</v>
       </c>
       <c r="K2110">
-        <f t="shared" si="88"/>
-        <v>1.6246576400000015</v>
+        <f t="shared" si="90"/>
+        <v>1.6246827600000016</v>
       </c>
     </row>
     <row r="2111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2111" s="1">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B2111">
-        <v>1878</v>
+        <v>1877.03</v>
       </c>
       <c r="C2111">
-        <v>1894.84</v>
+        <v>1896.2</v>
       </c>
       <c r="D2111">
-        <v>1876.3</v>
+        <v>1872.89</v>
       </c>
       <c r="E2111">
-        <v>1876.3</v>
+        <v>1891.78</v>
       </c>
       <c r="F2111">
         <f t="shared" si="89"/>
-        <v>1.8762999999999999</v>
+        <v>1.89178</v>
       </c>
       <c r="G2111">
-        <v>224859327</v>
+        <v>239130500</v>
       </c>
       <c r="H2111" s="3">
-        <v>360704000000</v>
+        <v>373916000000</v>
       </c>
       <c r="I2111">
         <f t="shared" si="87"/>
@@ -81705,38 +81705,38 @@
       </c>
       <c r="J2111">
         <f>SUM($F$3:F2111)/I2111</f>
-        <v>1.1226435893788518</v>
+        <v>1.1226539070649588</v>
       </c>
       <c r="K2111">
-        <f t="shared" si="88"/>
-        <v>1.6265715600000019</v>
+        <f t="shared" si="90"/>
+        <v>1.6266586000000018</v>
       </c>
     </row>
     <row r="2112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2112" s="1">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B2112">
-        <v>1877.03</v>
+        <v>1888.67</v>
       </c>
       <c r="C2112">
-        <v>1896.2</v>
+        <v>1895.96</v>
       </c>
       <c r="D2112">
-        <v>1872.89</v>
+        <v>1882.08</v>
       </c>
       <c r="E2112">
-        <v>1891.78</v>
+        <v>1892.03</v>
       </c>
       <c r="F2112">
         <f t="shared" si="89"/>
-        <v>1.89178</v>
+        <v>1.8920299999999999</v>
       </c>
       <c r="G2112">
-        <v>239130500</v>
+        <v>296621216</v>
       </c>
       <c r="H2112" s="3">
-        <v>373916000000</v>
+        <v>426344000000</v>
       </c>
       <c r="I2112">
         <f t="shared" si="87"/>
@@ -81744,38 +81744,38 @@
       </c>
       <c r="J2112">
         <f>SUM($F$3:F2112)/I2112</f>
-        <v>1.1230081090047384</v>
+        <v>1.1230185402843593</v>
       </c>
       <c r="K2112">
-        <f t="shared" si="88"/>
-        <v>1.6284102000000016</v>
+        <f t="shared" si="90"/>
+        <v>1.6284982400000014</v>
       </c>
     </row>
     <row r="2113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2113" s="1">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B2113">
-        <v>1888.67</v>
+        <v>1891.23</v>
       </c>
       <c r="C2113">
-        <v>1895.96</v>
+        <v>1891.58</v>
       </c>
       <c r="D2113">
-        <v>1882.08</v>
+        <v>1856.57</v>
       </c>
       <c r="E2113">
-        <v>1892.03</v>
+        <v>1862.62</v>
       </c>
       <c r="F2113">
         <f t="shared" si="89"/>
-        <v>1.8920299999999999</v>
+        <v>1.8626199999999999</v>
       </c>
       <c r="G2113">
-        <v>296621216</v>
+        <v>263108672</v>
       </c>
       <c r="H2113" s="3">
-        <v>426344000000</v>
+        <v>375421000000</v>
       </c>
       <c r="I2113">
         <f t="shared" si="87"/>
@@ -81783,38 +81783,38 @@
       </c>
       <c r="J2113">
         <f>SUM($F$3:F2113)/I2113</f>
-        <v>1.1233724017053521</v>
+        <v>1.1233688962576969</v>
       </c>
       <c r="K2113">
-        <f t="shared" si="88"/>
-        <v>1.6302142400000017</v>
+        <f t="shared" si="90"/>
+        <v>1.6301846400000015</v>
       </c>
     </row>
     <row r="2114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2114" s="1">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B2114">
-        <v>1891.23</v>
+        <v>1870.05</v>
       </c>
       <c r="C2114">
-        <v>1891.58</v>
+        <v>1872.73</v>
       </c>
       <c r="D2114">
-        <v>1856.57</v>
+        <v>1842.39</v>
       </c>
       <c r="E2114">
-        <v>1862.62</v>
+        <v>1850.01</v>
       </c>
       <c r="F2114">
         <f t="shared" si="89"/>
-        <v>1.8626199999999999</v>
+        <v>1.8500099999999999</v>
       </c>
       <c r="G2114">
-        <v>263108672</v>
+        <v>242319235</v>
       </c>
       <c r="H2114" s="3">
-        <v>375421000000</v>
+        <v>356817000000</v>
       </c>
       <c r="I2114">
         <f t="shared" si="87"/>
@@ -81822,38 +81822,38 @@
       </c>
       <c r="J2114">
         <f>SUM($F$3:F2114)/I2114</f>
-        <v>1.1237224242424233</v>
+        <v>1.1237129498106053</v>
       </c>
       <c r="K2114">
-        <f t="shared" si="88"/>
-        <v>1.6317089200000015</v>
+        <f t="shared" si="90"/>
+        <v>1.6316288800000014</v>
       </c>
     </row>
     <row r="2115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2115" s="1">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B2115">
-        <v>1870.05</v>
+        <v>1830.04</v>
       </c>
       <c r="C2115">
-        <v>1872.73</v>
+        <v>1849.7</v>
       </c>
       <c r="D2115">
-        <v>1842.39</v>
+        <v>1791.56</v>
       </c>
       <c r="E2115">
-        <v>1850.01</v>
+        <v>1795.46</v>
       </c>
       <c r="F2115">
         <f t="shared" si="89"/>
-        <v>1.8500099999999999</v>
+        <v>1.7954600000000001</v>
       </c>
       <c r="G2115">
-        <v>242319235</v>
+        <v>295457254</v>
       </c>
       <c r="H2115" s="3">
-        <v>356817000000</v>
+        <v>439410000000</v>
       </c>
       <c r="I2115">
         <f t="shared" si="87"/>
@@ -81861,38 +81861,38 @@
       </c>
       <c r="J2115">
         <f>SUM($F$3:F2115)/I2115</f>
-        <v>1.1240661476573583</v>
+        <v>1.1240308613345944</v>
       </c>
       <c r="K2115">
-        <f t="shared" si="88"/>
-        <v>1.6332396400000015</v>
+        <f t="shared" si="90"/>
+        <v>1.6329414000000015</v>
       </c>
     </row>
     <row r="2116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2116" s="1">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B2116">
-        <v>1830.04</v>
+        <v>1807.37</v>
       </c>
       <c r="C2116">
-        <v>1849.7</v>
+        <v>1847.1</v>
       </c>
       <c r="D2116">
-        <v>1791.56</v>
+        <v>1796.81</v>
       </c>
       <c r="E2116">
-        <v>1795.46</v>
+        <v>1840.04</v>
       </c>
       <c r="F2116">
         <f t="shared" si="89"/>
-        <v>1.7954600000000001</v>
+        <v>1.8400399999999999</v>
       </c>
       <c r="G2116">
-        <v>295457254</v>
+        <v>294133354</v>
       </c>
       <c r="H2116" s="3">
-        <v>439410000000</v>
+        <v>452583000000</v>
       </c>
       <c r="I2116">
         <f t="shared" si="87"/>
@@ -81900,38 +81900,38 @@
       </c>
       <c r="J2116">
         <f>SUM($F$3:F2116)/I2116</f>
-        <v>1.1243837417218534</v>
+        <v>1.1243695600756851</v>
       </c>
       <c r="K2116">
-        <f t="shared" si="88"/>
-        <v>1.6345215200000014</v>
+        <f t="shared" si="90"/>
+        <v>1.6344016000000012</v>
       </c>
     </row>
     <row r="2117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2117" s="1">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B2117">
-        <v>1807.37</v>
+        <v>1845.74</v>
       </c>
       <c r="C2117">
-        <v>1847.1</v>
+        <v>1882.04</v>
       </c>
       <c r="D2117">
-        <v>1796.81</v>
+        <v>1845.74</v>
       </c>
       <c r="E2117">
-        <v>1840.04</v>
+        <v>1868.59</v>
       </c>
       <c r="F2117">
         <f t="shared" si="89"/>
-        <v>1.8400399999999999</v>
+        <v>1.86859</v>
       </c>
       <c r="G2117">
-        <v>294133354</v>
+        <v>309946183</v>
       </c>
       <c r="H2117" s="3">
-        <v>452583000000</v>
+        <v>487116000000</v>
       </c>
       <c r="I2117">
         <f t="shared" si="87"/>
@@ -81939,38 +81939,38 @@
       </c>
       <c r="J2117">
         <f>SUM($F$3:F2117)/I2117</f>
-        <v>1.1247221134751764</v>
+        <v>1.1247214373522449</v>
       </c>
       <c r="K2117">
-        <f t="shared" si="88"/>
-        <v>1.6361495200000014</v>
+        <f t="shared" si="90"/>
+        <v>1.6361438000000013</v>
       </c>
     </row>
     <row r="2118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2118" s="1">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="B2118">
-        <v>1845.74</v>
+        <v>1865.94</v>
       </c>
       <c r="C2118">
-        <v>1882.04</v>
+        <v>1883.71</v>
       </c>
       <c r="D2118">
-        <v>1845.74</v>
+        <v>1855.08</v>
       </c>
       <c r="E2118">
-        <v>1868.59</v>
+        <v>1858.36</v>
       </c>
       <c r="F2118">
         <f t="shared" si="89"/>
-        <v>1.86859</v>
+        <v>1.8583599999999998</v>
       </c>
       <c r="G2118">
-        <v>309946183</v>
+        <v>271504812</v>
       </c>
       <c r="H2118" s="3">
-        <v>487116000000</v>
+        <v>443339000000</v>
       </c>
       <c r="I2118">
         <f t="shared" si="87"/>
@@ -81978,38 +81978,38 @@
       </c>
       <c r="J2118">
         <f>SUM($F$3:F2118)/I2118</f>
-        <v>1.1250736578449896</v>
+        <v>1.1250681474480144</v>
       </c>
       <c r="K2118">
-        <f t="shared" si="88"/>
-        <v>1.6379700000000015</v>
+        <f t="shared" si="90"/>
+        <v>1.6379233600000014</v>
       </c>
     </row>
     <row r="2119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2119" s="1">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="B2119">
-        <v>1865.94</v>
+        <v>1856.04</v>
       </c>
       <c r="C2119">
-        <v>1883.71</v>
+        <v>1865.08</v>
       </c>
       <c r="D2119">
-        <v>1855.08</v>
+        <v>1849.28</v>
       </c>
       <c r="E2119">
-        <v>1858.36</v>
+        <v>1851.41</v>
       </c>
       <c r="F2119">
         <f t="shared" si="89"/>
-        <v>1.8583599999999998</v>
+        <v>1.85141</v>
       </c>
       <c r="G2119">
-        <v>271504812</v>
+        <v>250700460</v>
       </c>
       <c r="H2119" s="3">
-        <v>443339000000</v>
+        <v>416210000000</v>
       </c>
       <c r="I2119">
         <f t="shared" si="87"/>
@@ -82017,38 +82017,38 @@
       </c>
       <c r="J2119">
         <f>SUM($F$3:F2119)/I2119</f>
-        <v>1.1254200377893238</v>
+        <v>1.1254112470477085</v>
       </c>
       <c r="K2119">
-        <f t="shared" si="88"/>
-        <v>1.6400308000000015</v>
+        <f t="shared" si="90"/>
+        <v>1.6399563600000013</v>
       </c>
     </row>
     <row r="2120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2120" s="1">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B2120">
-        <v>1856.04</v>
+        <v>1850.41</v>
       </c>
       <c r="C2120">
-        <v>1865.08</v>
+        <v>1870.02</v>
       </c>
       <c r="D2120">
-        <v>1849.28</v>
+        <v>1843.25</v>
       </c>
       <c r="E2120">
-        <v>1851.41</v>
+        <v>1870.02</v>
       </c>
       <c r="F2120">
         <f t="shared" si="89"/>
-        <v>1.85141</v>
+        <v>1.87002</v>
       </c>
       <c r="G2120">
-        <v>250700460</v>
+        <v>239754226</v>
       </c>
       <c r="H2120" s="3">
-        <v>416210000000</v>
+        <v>369748000000</v>
       </c>
       <c r="I2120">
         <f t="shared" si="87"/>
@@ -82059,35 +82059,35 @@
         <v>1.1257628092540124</v>
       </c>
       <c r="K2120">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.6419015200000018</v>
       </c>
     </row>
     <row r="2121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2121" s="1">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="B2121">
-        <v>1850.41</v>
+        <v>1871.63</v>
       </c>
       <c r="C2121">
-        <v>1870.02</v>
+        <v>1886.9</v>
       </c>
       <c r="D2121">
-        <v>1843.25</v>
+        <v>1868.43</v>
       </c>
       <c r="E2121">
-        <v>1870.02</v>
+        <v>1883.09</v>
       </c>
       <c r="F2121">
         <f t="shared" si="89"/>
-        <v>1.87002</v>
+        <v>1.8830899999999999</v>
       </c>
       <c r="G2121">
-        <v>239754226</v>
+        <v>255229036</v>
       </c>
       <c r="H2121" s="3">
-        <v>369748000000</v>
+        <v>432778000000</v>
       </c>
       <c r="I2121">
         <f t="shared" si="87"/>
@@ -82095,11 +82095,869 @@
       </c>
       <c r="J2121">
         <f>SUM($F$3:F2121)/I2121</f>
-        <v>1.1261140396413394</v>
+        <v>1.1261202076451149</v>
       </c>
       <c r="K2121">
-        <f t="shared" si="88"/>
-        <v>1.6436552000000013</v>
+        <f t="shared" si="90"/>
+        <v>1.6437074800000011</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2122" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B2122">
+        <v>1880.16</v>
+      </c>
+      <c r="C2122">
+        <v>1880.16</v>
+      </c>
+      <c r="D2122">
+        <v>1863.35</v>
+      </c>
+      <c r="E2122">
+        <v>1870.58</v>
+      </c>
+      <c r="F2122">
+        <f t="shared" si="89"/>
+        <v>1.8705799999999999</v>
+      </c>
+      <c r="G2122">
+        <v>251398040</v>
+      </c>
+      <c r="H2122" s="3">
+        <v>407621000000</v>
+      </c>
+      <c r="I2122">
+        <f t="shared" si="87"/>
+        <v>2120</v>
+      </c>
+      <c r="J2122">
+        <f>SUM($F$3:F2122)/I2122</f>
+        <v>1.1264713679245273</v>
+      </c>
+      <c r="K2122">
+        <f t="shared" si="90"/>
+        <v>1.6454412400000011</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2123" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B2123">
+        <v>1869.79</v>
+      </c>
+      <c r="C2123">
+        <v>1870.4</v>
+      </c>
+      <c r="D2123">
+        <v>1835.45</v>
+      </c>
+      <c r="E2123">
+        <v>1840.53</v>
+      </c>
+      <c r="F2123">
+        <f t="shared" si="89"/>
+        <v>1.84053</v>
+      </c>
+      <c r="G2123">
+        <v>264733596</v>
+      </c>
+      <c r="H2123" s="3">
+        <v>388726000000</v>
+      </c>
+      <c r="I2123">
+        <f t="shared" si="87"/>
+        <v>2121</v>
+      </c>
+      <c r="J2123">
+        <f>SUM($F$3:F2123)/I2123</f>
+        <v>1.1268080292314937</v>
+      </c>
+      <c r="K2123">
+        <f t="shared" si="90"/>
+        <v>1.6472351200000013</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2124" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B2124">
+        <v>1838.86</v>
+      </c>
+      <c r="C2124">
+        <v>1841.41</v>
+      </c>
+      <c r="D2124">
+        <v>1816</v>
+      </c>
+      <c r="E2124">
+        <v>1825.45</v>
+      </c>
+      <c r="F2124">
+        <f t="shared" si="89"/>
+        <v>1.82545</v>
+      </c>
+      <c r="G2124">
+        <v>227145164</v>
+      </c>
+      <c r="H2124" s="3">
+        <v>341288000000</v>
+      </c>
+      <c r="I2124">
+        <f t="shared" si="87"/>
+        <v>2122</v>
+      </c>
+      <c r="J2124">
+        <f>SUM($F$3:F2124)/I2124</f>
+        <v>1.1271372667294994</v>
+      </c>
+      <c r="K2124">
+        <f t="shared" si="90"/>
+        <v>1.6488816400000017</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2125" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B2125">
+        <v>1824.55</v>
+      </c>
+      <c r="C2125">
+        <v>1852.26</v>
+      </c>
+      <c r="D2125">
+        <v>1811.04</v>
+      </c>
+      <c r="E2125">
+        <v>1852.25</v>
+      </c>
+      <c r="F2125">
+        <f t="shared" si="89"/>
+        <v>1.85225</v>
+      </c>
+      <c r="G2125">
+        <v>248204167</v>
+      </c>
+      <c r="H2125" s="3">
+        <v>398344000000</v>
+      </c>
+      <c r="I2125">
+        <f t="shared" si="87"/>
+        <v>2123</v>
+      </c>
+      <c r="J2125">
+        <f>SUM($F$3:F2125)/I2125</f>
+        <v>1.1274788177107855</v>
+      </c>
+      <c r="K2125">
+        <f t="shared" si="90"/>
+        <v>1.6507180800000012</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2126" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B2126">
+        <v>1858.29</v>
+      </c>
+      <c r="C2126">
+        <v>1882.12</v>
+      </c>
+      <c r="D2126">
+        <v>1858.29</v>
+      </c>
+      <c r="E2126">
+        <v>1875</v>
+      </c>
+      <c r="F2126">
+        <f t="shared" si="89"/>
+        <v>1.875</v>
+      </c>
+      <c r="G2126">
+        <v>275714591</v>
+      </c>
+      <c r="H2126" s="3">
+        <v>466468000000</v>
+      </c>
+      <c r="I2126">
+        <f t="shared" si="87"/>
+        <v>2124</v>
+      </c>
+      <c r="J2126">
+        <f>SUM($F$3:F2126)/I2126</f>
+        <v>1.1278307580037654</v>
+      </c>
+      <c r="K2126">
+        <f t="shared" si="90"/>
+        <v>1.6524882400000012</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2127" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B2127">
+        <v>1870.01</v>
+      </c>
+      <c r="C2127">
+        <v>1879.04</v>
+      </c>
+      <c r="D2127">
+        <v>1859.23</v>
+      </c>
+      <c r="E2127">
+        <v>1859.71</v>
+      </c>
+      <c r="F2127">
+        <f t="shared" si="89"/>
+        <v>1.85971</v>
+      </c>
+      <c r="G2127">
+        <v>250249559</v>
+      </c>
+      <c r="H2127" s="3">
+        <v>427759000000</v>
+      </c>
+      <c r="I2127">
+        <f t="shared" si="87"/>
+        <v>2125</v>
+      </c>
+      <c r="J2127">
+        <f>SUM($F$3:F2127)/I2127</f>
+        <v>1.1281751717647048</v>
+      </c>
+      <c r="K2127">
+        <f t="shared" si="90"/>
+        <v>1.6542012400000012</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2128" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B2128">
+        <v>1854.59</v>
+      </c>
+      <c r="C2128">
+        <v>1860.33</v>
+      </c>
+      <c r="D2128">
+        <v>1841.72</v>
+      </c>
+      <c r="E2128">
+        <v>1856.99</v>
+      </c>
+      <c r="F2128">
+        <f t="shared" si="89"/>
+        <v>1.8569899999999999</v>
+      </c>
+      <c r="G2128">
+        <v>239816641</v>
+      </c>
+      <c r="H2128" s="3">
+        <v>392403000000</v>
+      </c>
+      <c r="I2128">
+        <f t="shared" si="87"/>
+        <v>2126</v>
+      </c>
+      <c r="J2128">
+        <f>SUM($F$3:F2128)/I2128</f>
+        <v>1.1285179821260574</v>
+      </c>
+      <c r="K2128">
+        <f t="shared" si="90"/>
+        <v>1.6557784400000015</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2129" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B2129">
+        <v>1855.81</v>
+      </c>
+      <c r="C2129">
+        <v>1856.45</v>
+      </c>
+      <c r="D2129">
+        <v>1823.61</v>
+      </c>
+      <c r="E2129">
+        <v>1823.61</v>
+      </c>
+      <c r="F2129">
+        <f t="shared" si="89"/>
+        <v>1.82361</v>
+      </c>
+      <c r="G2129">
+        <v>247898041</v>
+      </c>
+      <c r="H2129" s="3">
+        <v>404784000000</v>
+      </c>
+      <c r="I2129">
+        <f t="shared" si="87"/>
+        <v>2127</v>
+      </c>
+      <c r="J2129">
+        <f>SUM($F$3:F2129)/I2129</f>
+        <v>1.1288447766807701</v>
+      </c>
+      <c r="K2129">
+        <f t="shared" si="90"/>
+        <v>1.6571034000000011</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2130" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B2130">
+        <v>1821.36</v>
+      </c>
+      <c r="C2130">
+        <v>1838.3</v>
+      </c>
+      <c r="D2130">
+        <v>1814.2</v>
+      </c>
+      <c r="E2130">
+        <v>1827.83</v>
+      </c>
+      <c r="F2130">
+        <f t="shared" si="89"/>
+        <v>1.8278299999999998</v>
+      </c>
+      <c r="G2130">
+        <v>252212155</v>
+      </c>
+      <c r="H2130" s="3">
+        <v>439692000000</v>
+      </c>
+      <c r="I2130">
+        <f t="shared" si="87"/>
+        <v>2128</v>
+      </c>
+      <c r="J2130">
+        <f>SUM($F$3:F2130)/I2130</f>
+        <v>1.1291732471804503</v>
+      </c>
+      <c r="K2130">
+        <f t="shared" si="90"/>
+        <v>1.6584146000000015</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2131" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B2131">
+        <v>1817.8</v>
+      </c>
+      <c r="C2131">
+        <v>1830.97</v>
+      </c>
+      <c r="D2131">
+        <v>1805.31</v>
+      </c>
+      <c r="E2131">
+        <v>1814.65</v>
+      </c>
+      <c r="F2131">
+        <f t="shared" si="89"/>
+        <v>1.8146500000000001</v>
+      </c>
+      <c r="G2131">
+        <v>215958504</v>
+      </c>
+      <c r="H2131" s="3">
+        <v>361445000000</v>
+      </c>
+      <c r="I2131">
+        <f t="shared" ref="I2131:I2143" si="91">I2130+1</f>
+        <v>2129</v>
+      </c>
+      <c r="J2131">
+        <f>SUM($F$3:F2131)/I2131</f>
+        <v>1.1294952184123992</v>
+      </c>
+      <c r="K2131">
+        <f t="shared" si="90"/>
+        <v>1.6597808000000012</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2132" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B2132">
+        <v>1812.6</v>
+      </c>
+      <c r="C2132">
+        <v>1813.44</v>
+      </c>
+      <c r="D2132">
+        <v>1784.32</v>
+      </c>
+      <c r="E2132">
+        <v>1789.35</v>
+      </c>
+      <c r="F2132">
+        <f t="shared" si="89"/>
+        <v>1.78935</v>
+      </c>
+      <c r="G2132">
+        <v>232133722</v>
+      </c>
+      <c r="H2132" s="3">
+        <v>365944000000</v>
+      </c>
+      <c r="I2132">
+        <f t="shared" si="91"/>
+        <v>2130</v>
+      </c>
+      <c r="J2132">
+        <f>SUM($F$3:F2132)/I2132</f>
+        <v>1.1298050093896703</v>
+      </c>
+      <c r="K2132">
+        <f t="shared" si="90"/>
+        <v>1.6608938000000015</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2133" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B2133">
+        <v>1784.88</v>
+      </c>
+      <c r="C2133">
+        <v>1803.05</v>
+      </c>
+      <c r="D2133">
+        <v>1766.58</v>
+      </c>
+      <c r="E2133">
+        <v>1801.99</v>
+      </c>
+      <c r="F2133">
+        <f t="shared" si="89"/>
+        <v>1.80199</v>
+      </c>
+      <c r="G2133">
+        <v>229895364</v>
+      </c>
+      <c r="H2133" s="3">
+        <v>369798000000</v>
+      </c>
+      <c r="I2133">
+        <f t="shared" si="91"/>
+        <v>2131</v>
+      </c>
+      <c r="J2133">
+        <f>SUM($F$3:F2133)/I2133</f>
+        <v>1.1301204411074603</v>
+      </c>
+      <c r="K2133">
+        <f t="shared" si="90"/>
+        <v>1.661978480000001</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2134" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B2134">
+        <v>1790.78</v>
+      </c>
+      <c r="C2134">
+        <v>1825.33</v>
+      </c>
+      <c r="D2134">
+        <v>1789.39</v>
+      </c>
+      <c r="E2134">
+        <v>1808.83</v>
+      </c>
+      <c r="F2134">
+        <f t="shared" si="89"/>
+        <v>1.8088299999999999</v>
+      </c>
+      <c r="G2134">
+        <v>207645933</v>
+      </c>
+      <c r="H2134" s="3">
+        <v>329748000000</v>
+      </c>
+      <c r="I2134">
+        <f t="shared" si="91"/>
+        <v>2132</v>
+      </c>
+      <c r="J2134">
+        <f>SUM($F$3:F2134)/I2134</f>
+        <v>1.1304387851782354</v>
+      </c>
+      <c r="K2134">
+        <f t="shared" si="90"/>
+        <v>1.663103960000001</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2135" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B2135">
+        <v>1812.52</v>
+      </c>
+      <c r="C2135">
+        <v>1836.12</v>
+      </c>
+      <c r="D2135">
+        <v>1812.52</v>
+      </c>
+      <c r="E2135">
+        <v>1832.36</v>
+      </c>
+      <c r="F2135">
+        <f t="shared" si="89"/>
+        <v>1.83236</v>
+      </c>
+      <c r="G2135">
+        <v>224068795</v>
+      </c>
+      <c r="H2135" s="3">
+        <v>349342000000</v>
+      </c>
+      <c r="I2135">
+        <f t="shared" si="91"/>
+        <v>2133</v>
+      </c>
+      <c r="J2135">
+        <f>SUM($F$3:F2135)/I2135</f>
+        <v>1.1307678621659625</v>
+      </c>
+      <c r="K2135">
+        <f t="shared" si="90"/>
+        <v>1.6642303200000008</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2136" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B2136">
+        <v>1836.16</v>
+      </c>
+      <c r="C2136">
+        <v>1847.78</v>
+      </c>
+      <c r="D2136">
+        <v>1833.93</v>
+      </c>
+      <c r="E2136">
+        <v>1840.66</v>
+      </c>
+      <c r="F2136">
+        <f t="shared" si="89"/>
+        <v>1.8406600000000002</v>
+      </c>
+      <c r="G2136">
+        <v>222756075</v>
+      </c>
+      <c r="H2136" s="3">
+        <v>369489000000</v>
+      </c>
+      <c r="I2136">
+        <f t="shared" si="91"/>
+        <v>2134</v>
+      </c>
+      <c r="J2136">
+        <f>SUM($F$3:F2136)/I2136</f>
+        <v>1.131100520149952</v>
+      </c>
+      <c r="K2136">
+        <f t="shared" si="90"/>
+        <v>1.665316280000001</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2137" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B2137">
+        <v>1839.49</v>
+      </c>
+      <c r="C2137">
+        <v>1840.16</v>
+      </c>
+      <c r="D2137">
+        <v>1815.88</v>
+      </c>
+      <c r="E2137">
+        <v>1821.61</v>
+      </c>
+      <c r="F2137">
+        <f t="shared" si="89"/>
+        <v>1.82161</v>
+      </c>
+      <c r="G2137">
+        <v>209022113</v>
+      </c>
+      <c r="H2137" s="3">
+        <v>355610000000</v>
+      </c>
+      <c r="I2137">
+        <f t="shared" si="91"/>
+        <v>2135</v>
+      </c>
+      <c r="J2137">
+        <f>SUM($F$3:F2137)/I2137</f>
+        <v>1.1314239437939098</v>
+      </c>
+      <c r="K2137">
+        <f t="shared" si="90"/>
+        <v>1.6662932000000013</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2138" s="1">
+        <v>46015</v>
+      </c>
+      <c r="B2138">
+        <v>1819</v>
+      </c>
+      <c r="C2138">
+        <v>1846.48</v>
+      </c>
+      <c r="D2138">
+        <v>1817.46</v>
+      </c>
+      <c r="E2138">
+        <v>1845.49</v>
+      </c>
+      <c r="F2138">
+        <f t="shared" si="89"/>
+        <v>1.8454900000000001</v>
+      </c>
+      <c r="G2138">
+        <v>206073498</v>
+      </c>
+      <c r="H2138" s="3">
+        <v>367197000000</v>
+      </c>
+      <c r="I2138">
+        <f t="shared" si="91"/>
+        <v>2136</v>
+      </c>
+      <c r="J2138">
+        <f>SUM($F$3:F2138)/I2138</f>
+        <v>1.1317582443820213</v>
+      </c>
+      <c r="K2138">
+        <f t="shared" si="90"/>
+        <v>1.6674594000000011</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2139" s="1">
+        <v>46016</v>
+      </c>
+      <c r="B2139">
+        <v>1847.41</v>
+      </c>
+      <c r="C2139">
+        <v>1869.52</v>
+      </c>
+      <c r="D2139">
+        <v>1846.68</v>
+      </c>
+      <c r="E2139">
+        <v>1866.88</v>
+      </c>
+      <c r="F2139">
+        <f t="shared" si="89"/>
+        <v>1.8668800000000001</v>
+      </c>
+      <c r="G2139">
+        <v>212168210</v>
+      </c>
+      <c r="H2139" s="3">
+        <v>383353000000</v>
+      </c>
+      <c r="I2139">
+        <f t="shared" si="91"/>
+        <v>2137</v>
+      </c>
+      <c r="J2139">
+        <f>SUM($F$3:F2139)/I2139</f>
+        <v>1.1321022414599895</v>
+      </c>
+      <c r="K2139">
+        <f t="shared" si="90"/>
+        <v>1.668783960000001</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2140" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B2140">
+        <v>1865.61</v>
+      </c>
+      <c r="C2140">
+        <v>1876.6</v>
+      </c>
+      <c r="D2140">
+        <v>1852.82</v>
+      </c>
+      <c r="E2140">
+        <v>1863.55</v>
+      </c>
+      <c r="F2140">
+        <f t="shared" si="89"/>
+        <v>1.86355</v>
+      </c>
+      <c r="G2140">
+        <v>235551872</v>
+      </c>
+      <c r="H2140" s="3">
+        <v>420476000000</v>
+      </c>
+      <c r="I2140">
+        <f t="shared" si="91"/>
+        <v>2138</v>
+      </c>
+      <c r="J2140">
+        <f>SUM($F$3:F2140)/I2140</f>
+        <v>1.1324443592142179</v>
+      </c>
+      <c r="K2140">
+        <f t="shared" si="90"/>
+        <v>1.6703648800000011</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2141" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B2141">
+        <v>1863.42</v>
+      </c>
+      <c r="C2141">
+        <v>1870.78</v>
+      </c>
+      <c r="D2141">
+        <v>1857.41</v>
+      </c>
+      <c r="E2141">
+        <v>1864.19</v>
+      </c>
+      <c r="F2141">
+        <f t="shared" si="89"/>
+        <v>1.86419</v>
+      </c>
+      <c r="G2141">
+        <v>237478381</v>
+      </c>
+      <c r="H2141" s="3">
+        <v>432456000000</v>
+      </c>
+      <c r="I2141">
+        <f t="shared" si="91"/>
+        <v>2139</v>
+      </c>
+      <c r="J2141">
+        <f>SUM($F$3:F2141)/I2141</f>
+        <v>1.1327864562879839</v>
+      </c>
+      <c r="K2141">
+        <f t="shared" si="90"/>
+        <v>1.6718586000000009</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2142" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B2142">
+        <v>1860.26</v>
+      </c>
+      <c r="C2142">
+        <v>1876.47</v>
+      </c>
+      <c r="D2142">
+        <v>1859.42</v>
+      </c>
+      <c r="E2142">
+        <v>1863.12</v>
+      </c>
+      <c r="F2142">
+        <f t="shared" si="89"/>
+        <v>1.8631199999999999</v>
+      </c>
+      <c r="G2142">
+        <v>251702246</v>
+      </c>
+      <c r="H2142" s="3">
+        <v>461269000000</v>
+      </c>
+      <c r="I2142">
+        <f t="shared" si="91"/>
+        <v>2140</v>
+      </c>
+      <c r="J2142">
+        <f>SUM($F$3:F2142)/I2142</f>
+        <v>1.1331277336448586</v>
+      </c>
+      <c r="K2142">
+        <f t="shared" si="90"/>
+        <v>1.6732767600000007</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2143" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B2143">
+        <v>1866.3</v>
+      </c>
+      <c r="C2143">
+        <v>1882.5</v>
+      </c>
+      <c r="D2143">
+        <v>1857.22</v>
+      </c>
+      <c r="E2143">
+        <v>1877.21</v>
+      </c>
+      <c r="F2143">
+        <f t="shared" si="89"/>
+        <v>1.87721</v>
+      </c>
+      <c r="G2143">
+        <v>270880350</v>
+      </c>
+      <c r="H2143" s="3">
+        <v>467738000000</v>
+      </c>
+      <c r="I2143">
+        <f t="shared" si="91"/>
+        <v>2141</v>
+      </c>
+      <c r="J2143">
+        <f>SUM($F$3:F2143)/I2143</f>
+        <v>1.1334752732368041</v>
+      </c>
+      <c r="K2143">
+        <f t="shared" si="90"/>
+        <v>1.6746592000000005</v>
       </c>
     </row>
   </sheetData>
